--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BE33B-0BAF-43D0-BBC1-45A287499CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A3F68-2A14-4CAB-A77C-14154C82B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="252">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -789,6 +789,15 @@
   </si>
   <si>
     <t>Startgeld Mensch</t>
+  </si>
+  <si>
+    <t>Sonderslot 1</t>
+  </si>
+  <si>
+    <t>Sonderslot 2</t>
+  </si>
+  <si>
+    <t>Kosten</t>
   </si>
 </sst>
 </file>
@@ -798,7 +807,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +917,14 @@
       <color theme="1"/>
       <name val="Baskerville Old Face"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1056,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1634,6 +1651,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1842,9 +1885,7 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2036,6 +2077,8 @@
     <xf numFmtId="2" fontId="6" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2135,11 +2178,101 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
-  <dxfs count="225">
+  <dxfs count="237">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4291,37 +4424,37 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.29296875" style="63" customWidth="1"/>
-    <col min="2" max="2" width="9.703125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="12.234375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="9.76171875" style="63" customWidth="1"/>
     <col min="3" max="3" width="9" style="63" customWidth="1"/>
     <col min="4" max="4" width="7.87890625" style="63" customWidth="1"/>
     <col min="5" max="5" width="4.1171875" style="63" customWidth="1"/>
     <col min="6" max="7" width="3.87890625" style="63" customWidth="1"/>
-    <col min="8" max="8" width="1.41015625" style="63" customWidth="1"/>
-    <col min="9" max="9" width="4.29296875" style="63" customWidth="1"/>
+    <col min="8" max="8" width="1.3515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="4.234375" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="2.41015625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="2.3515625" style="63" customWidth="1"/>
     <col min="12" max="12" width="2.87890625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="4.41015625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="1.41015625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="3.41015625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="4.3515625" style="63" customWidth="1"/>
+    <col min="14" max="14" width="1.3515625" style="63" customWidth="1"/>
+    <col min="15" max="15" width="3.3515625" style="63" customWidth="1"/>
     <col min="16" max="16" width="3.87890625" style="63" customWidth="1"/>
     <col min="17" max="17" width="18.1171875" style="63" customWidth="1"/>
     <col min="18" max="18" width="5.1171875" style="115" customWidth="1"/>
     <col min="19" max="19" width="5.1171875" style="63" customWidth="1"/>
-    <col min="20" max="20" width="15.29296875" style="63" customWidth="1"/>
-    <col min="21" max="21" width="6.29296875" style="63" customWidth="1"/>
-    <col min="22" max="22" width="6.41015625" style="63" customWidth="1"/>
+    <col min="20" max="20" width="15.234375" style="63" customWidth="1"/>
+    <col min="21" max="21" width="6.234375" style="63" customWidth="1"/>
+    <col min="22" max="22" width="6.3515625" style="63" customWidth="1"/>
     <col min="23" max="23" width="3.87890625" style="63" customWidth="1"/>
-    <col min="24" max="24" width="3.41015625" style="116" customWidth="1"/>
-    <col min="25" max="25" width="3.5859375" style="63" customWidth="1"/>
-    <col min="26" max="27" width="11.5859375" style="63" customWidth="1"/>
-    <col min="28" max="16384" width="11.41015625" style="63"/>
+    <col min="24" max="24" width="3.3515625" style="116" customWidth="1"/>
+    <col min="25" max="25" width="3.52734375" style="63" customWidth="1"/>
+    <col min="26" max="27" width="11.52734375" style="63" customWidth="1"/>
+    <col min="28" max="16384" width="11.3515625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="51" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -4557,7 +4690,7 @@
       <c r="U5" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="122"/>
+      <c r="V5" s="120"/>
       <c r="W5" s="67">
         <f>CharacterSheet!I4</f>
         <v>20</v>
@@ -4714,7 +4847,7 @@
         <v>27</v>
       </c>
       <c r="U8" s="76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V8" s="76" t="s">
         <v>28</v>
@@ -4982,8 +5115,8 @@
       <c r="A13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="236">
+      <c r="B13" s="233"/>
+      <c r="C13" s="234">
         <f>SUM(C8:C12)</f>
         <v>0</v>
       </c>
@@ -5119,10 +5252,10 @@
       <c r="AE15" s="62"/>
     </row>
     <row r="16" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="118">
+      <c r="B16" s="117">
         <f>CharacterSheet!B15</f>
         <v>200</v>
       </c>
@@ -5167,10 +5300,10 @@
       <c r="AE16" s="62"/>
     </row>
     <row r="17" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="236" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="118">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
@@ -5230,10 +5363,10 @@
       <c r="AE17" s="62"/>
     </row>
     <row r="18" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="119">
         <f>CharacterSheet!B17</f>
         <v>40</v>
       </c>
@@ -5861,10 +5994,12 @@
       <c r="AE30" s="62"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.5">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
+      <c r="A31" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
@@ -5901,10 +6036,12 @@
       <c r="AE31" s="62"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.5">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
+      <c r="A32" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
@@ -6368,7 +6505,6 @@
       <c r="AE72" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
@@ -6383,361 +6519,361 @@
     <mergeCell ref="I28:M28"/>
   </mergeCells>
   <conditionalFormatting sqref="U4:V5 U1:V1 U27:V28 U7:V7 T34:U1048576 U31:V33">
-    <cfRule type="containsText" dxfId="224" priority="113" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="236" priority="119" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="114" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="235" priority="120" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="115" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="234" priority="121" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="116" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="233" priority="122" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="117" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="232" priority="123" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="118" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="231" priority="124" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R1048576 S1:S33 W34:W1048576 X1:X33">
-    <cfRule type="cellIs" dxfId="218" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:V6">
-    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="229" priority="111" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="228" priority="112" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="227" priority="113" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="226" priority="114" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="225" priority="115" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="224" priority="116" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:V8">
-    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="223" priority="105" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="222" priority="106" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="221" priority="107" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="220" priority="108" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="219" priority="109" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="218" priority="110" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:V9">
-    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="214" priority="102" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="213" priority="103" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="212" priority="104" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:V10">
-    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="209" priority="95" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="208" priority="96" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="206" priority="98" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:V12">
-    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="205" priority="87" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="204" priority="88" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="203" priority="89" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="202" priority="90" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="201" priority="91" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="200" priority="92" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:V13">
-    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="199" priority="75" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="198" priority="76" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="197" priority="77" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="196" priority="78" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="195" priority="79" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="194" priority="80" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="193" priority="69" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="192" priority="70" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="191" priority="71" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="190" priority="72" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="189" priority="73" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="188" priority="74" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:V17">
-    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="187" priority="57" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="186" priority="58" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="185" priority="59" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="184" priority="60" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="183" priority="61" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="182" priority="62" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:V15">
-    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:V18">
-    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:V19">
-    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="169" priority="45" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="168" priority="46" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="166" priority="48" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20:V21">
-    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="163" priority="39" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="162" priority="40" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="160" priority="42" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="159" priority="43" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="158" priority="44" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:V22">
-    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="156" priority="34" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="154" priority="36" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="152" priority="38" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24:V25">
-    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="148" priority="30" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="146" priority="32" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29:V29">
-    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="144" priority="22" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:V3">
-    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="138" priority="16" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="136" priority="18" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="134" priority="20" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Leicht">
+    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="Leicht">
       <formula>NOT(ISERROR(SEARCH("Leicht",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Schwer">
+    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="Schwer">
       <formula>NOT(ISERROR(SEARCH("Schwer",AA13)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6749,21 +6885,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F25">
-    <cfRule type="containsText" dxfId="118" priority="4" operator="containsText" text="Debuff">
+    <cfRule type="containsText" dxfId="130" priority="10" operator="containsText" text="Debuff">
       <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F25">
-    <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="Verstümmelt">
+    <cfRule type="containsText" dxfId="129" priority="8" operator="containsText" text="Verstümmelt">
       <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Verkrüppelt">
+    <cfRule type="containsText" dxfId="128" priority="9" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34:U1048576 U1:V33">
-    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Inst">
+    <cfRule type="containsText" dxfId="127" priority="7" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="containsText" dxfId="126" priority="1" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="2" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="4" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="5" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="6" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6838,57 +6994,57 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.5859375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="11.41015625" style="56"/>
-    <col min="3" max="3" width="22.703125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="11.41015625" style="56"/>
-    <col min="5" max="5" width="8.29296875" style="56" customWidth="1"/>
+    <col min="1" max="1" width="23.52734375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="11.3515625" style="56"/>
+    <col min="3" max="3" width="22.76171875" style="56" customWidth="1"/>
+    <col min="4" max="4" width="11.3515625" style="56"/>
+    <col min="5" max="5" width="8.234375" style="56" customWidth="1"/>
     <col min="6" max="6" width="19" style="56" customWidth="1"/>
     <col min="7" max="7" width="8.1171875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="33.29296875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.29296875" style="56" customWidth="1"/>
-    <col min="10" max="10" width="14.29296875" style="56" customWidth="1"/>
-    <col min="11" max="11" width="11.41015625" style="60"/>
-    <col min="12" max="12" width="16.5859375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="11.41015625" style="56"/>
+    <col min="8" max="8" width="33.234375" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.234375" style="56" customWidth="1"/>
+    <col min="10" max="10" width="14.234375" style="56" customWidth="1"/>
+    <col min="11" max="11" width="11.3515625" style="60"/>
+    <col min="12" max="12" width="16.52734375" style="56" customWidth="1"/>
+    <col min="13" max="13" width="11.3515625" style="56"/>
     <col min="14" max="14" width="18.1171875" style="56" customWidth="1"/>
-    <col min="15" max="15" width="11.41015625" style="56"/>
-    <col min="16" max="16" width="16.703125" style="56" customWidth="1"/>
-    <col min="17" max="16384" width="11.41015625" style="56"/>
+    <col min="15" max="15" width="11.3515625" style="56"/>
+    <col min="16" max="16" width="16.76171875" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="11.3515625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="205" t="s">
+      <c r="D1" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="205" t="s">
+      <c r="E1" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="205" t="s">
+      <c r="F1" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="205" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="208" t="s">
+      <c r="H1" s="206" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="127" t="s">
+      <c r="I1" s="216"/>
+      <c r="J1" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="125"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="254" t="s">
         <v>235</v>
       </c>
@@ -6902,17 +7058,17 @@
     <row r="2" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="57"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="97"/>
       <c r="F2" s="97"/>
       <c r="G2" s="97"/>
       <c r="H2" s="58"/>
-      <c r="J2" s="215">
+      <c r="J2" s="213">
         <f>B2*0.4</f>
         <v>0</v>
       </c>
-      <c r="L2" s="234" t="s">
+      <c r="L2" s="232" t="s">
         <v>236</v>
       </c>
       <c r="M2" s="257">
@@ -6928,13 +7084,13 @@
     <row r="3" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="66"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
       <c r="H3" s="67"/>
-      <c r="J3" s="213">
+      <c r="J3" s="211">
         <f>B3*0.4</f>
         <v>0</v>
       </c>
@@ -6955,37 +7111,37 @@
     <row r="4" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="66"/>
       <c r="B4" s="76"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="76"/>
       <c r="F4" s="76"/>
       <c r="G4" s="76"/>
       <c r="H4" s="67"/>
-      <c r="I4" s="222" t="s">
+      <c r="I4" s="220" t="s">
         <v>246</v>
       </c>
-      <c r="J4" s="213">
+      <c r="J4" s="211">
         <f>B4*0.4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="198" t="s">
+      <c r="L4" s="196" t="s">
         <v>240</v>
       </c>
-      <c r="M4" s="199">
+      <c r="M4" s="197">
         <f>SUM(M5:M27)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="197" t="s">
+      <c r="N4" s="195" t="s">
         <v>241</v>
       </c>
-      <c r="O4" s="196">
+      <c r="O4" s="194">
         <f>SUM(O5:O27)</f>
         <v>30000</v>
       </c>
-      <c r="P4" s="195" t="s">
+      <c r="P4" s="193" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" s="194">
+      <c r="Q4" s="192">
         <f>SUM(Q5:Q27)</f>
         <v>200</v>
       </c>
@@ -6999,22 +7155,22 @@
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="223">
+      <c r="H5" s="219"/>
+      <c r="I5" s="221">
         <f>SUM(C8:C12)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="214"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="185" t="s">
+      <c r="J5" s="212"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="183" t="s">
         <v>248</v>
       </c>
-      <c r="O5" s="186">
+      <c r="O5" s="184">
         <v>30000</v>
       </c>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="179"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="177"/>
       <c r="R5" s="63"/>
     </row>
     <row r="6" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7027,226 +7183,226 @@
       <c r="G6" s="60"/>
       <c r="H6" s="60"/>
       <c r="J6" s="116"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="180">
+      <c r="L6" s="170"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="190"/>
+      <c r="Q6" s="178">
         <v>200</v>
       </c>
       <c r="R6" s="63"/>
     </row>
     <row r="7" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="C7" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="206" t="s">
+      <c r="D7" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="205" t="s">
+      <c r="E7" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="205" t="s">
+      <c r="F7" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="207" t="s">
+      <c r="G7" s="205" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="208" t="s">
+      <c r="H7" s="206" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="125"/>
-      <c r="J7" s="127" t="s">
+      <c r="I7" s="123"/>
+      <c r="J7" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="172"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="180"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="178"/>
       <c r="R7" s="63"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
       <c r="H8" s="71"/>
-      <c r="I8" s="219" t="s">
+      <c r="I8" s="217" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="216">
+      <c r="J8" s="214">
         <f>B8*0.4</f>
         <v>0</v>
       </c>
-      <c r="L8" s="172"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="192"/>
-      <c r="Q8" s="180"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="190"/>
+      <c r="Q8" s="178"/>
       <c r="R8" s="63"/>
     </row>
     <row r="9" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="66"/>
       <c r="B9" s="76"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
       <c r="H9" s="67"/>
-      <c r="I9" s="220">
+      <c r="I9" s="218">
         <f>I12+SUM(D15:D63)+SUM(D66:D124)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="213">
+      <c r="J9" s="211">
         <f>B9*0.4</f>
         <v>0</v>
       </c>
-      <c r="L9" s="172"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="180"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="178"/>
       <c r="R9" s="63"/>
     </row>
     <row r="10" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="66"/>
       <c r="B10" s="76"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
       <c r="H10" s="67"/>
       <c r="I10" s="60"/>
-      <c r="J10" s="213">
+      <c r="J10" s="211">
         <f>B10*0.4</f>
         <v>0</v>
       </c>
-      <c r="L10" s="172"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="192"/>
-      <c r="Q10" s="180"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="178"/>
       <c r="R10" s="63"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11" s="66"/>
       <c r="B11" s="76"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
       <c r="H11" s="67"/>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="213">
+      <c r="J11" s="211">
         <f>B11*0.4</f>
         <v>0</v>
       </c>
-      <c r="L11" s="172"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="188"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="180"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="178"/>
       <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="92"/>
       <c r="B12" s="93"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
       <c r="H12" s="94"/>
-      <c r="I12" s="220">
+      <c r="I12" s="218">
         <f>SUM(D2:D6)+SUM(D8:D12)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="217">
+      <c r="J12" s="215">
         <f>B12*0.4</f>
         <v>0</v>
       </c>
-      <c r="L12" s="172"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="192"/>
-      <c r="Q12" s="180"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="178"/>
       <c r="R12" s="63"/>
     </row>
     <row r="13" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="60"/>
       <c r="B13" s="60"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="232"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
       <c r="J13" s="60"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="192"/>
-      <c r="Q13" s="180"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="185"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="178"/>
       <c r="R13" s="63"/>
     </row>
     <row r="14" spans="1:18" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="208" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="207" t="s">
+      <c r="B14" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="211" t="s">
+      <c r="C14" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="211" t="s">
+      <c r="D14" s="209" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="207" t="s">
+      <c r="E14" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="207" t="s">
+      <c r="F14" s="205" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="212" t="s">
+      <c r="G14" s="210" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="225"/>
-      <c r="I14" s="225"/>
-      <c r="J14" s="174" t="s">
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="K14" s="225"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="192"/>
-      <c r="Q14" s="180"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="185"/>
+      <c r="O14" s="186"/>
+      <c r="P14" s="190"/>
+      <c r="Q14" s="178"/>
       <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7256,25 +7412,25 @@
         <v>0</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="209">
+      <c r="D15" s="207">
         <f>0.5*E15</f>
         <v>0</v>
       </c>
       <c r="E15" s="97"/>
-      <c r="F15" s="224"/>
+      <c r="F15" s="222"/>
       <c r="G15" s="58"/>
       <c r="H15" s="60"/>
       <c r="I15" s="60"/>
-      <c r="J15" s="215">
+      <c r="J15" s="213">
         <f t="shared" ref="J15:J62" si="0">B15*0.4</f>
         <v>0</v>
       </c>
-      <c r="L15" s="172"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="192"/>
-      <c r="Q15" s="180"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="178"/>
       <c r="R15" s="63"/>
     </row>
     <row r="16" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7284,25 +7440,25 @@
         <v>0</v>
       </c>
       <c r="C16" s="76"/>
-      <c r="D16" s="209">
+      <c r="D16" s="207">
         <f>0.5*E16</f>
         <v>0</v>
       </c>
       <c r="E16" s="76"/>
-      <c r="F16" s="178"/>
+      <c r="F16" s="176"/>
       <c r="G16" s="67"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>
-      <c r="J16" s="213">
+      <c r="J16" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="172"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="188"/>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="180"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="185"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="190"/>
+      <c r="Q16" s="178"/>
       <c r="R16" s="63"/>
     </row>
     <row r="17" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7312,25 +7468,25 @@
         <v>0</v>
       </c>
       <c r="C17" s="76"/>
-      <c r="D17" s="209">
+      <c r="D17" s="207">
         <f t="shared" ref="D17:D62" si="1">0.5*E17</f>
         <v>0</v>
       </c>
       <c r="E17" s="76"/>
-      <c r="F17" s="178"/>
+      <c r="F17" s="176"/>
       <c r="G17" s="67"/>
       <c r="H17" s="60"/>
       <c r="I17" s="60"/>
-      <c r="J17" s="213">
+      <c r="J17" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="172"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="180"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="190"/>
+      <c r="Q17" s="178"/>
       <c r="R17" s="63"/>
     </row>
     <row r="18" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7340,25 +7496,25 @@
         <v>0</v>
       </c>
       <c r="C18" s="76"/>
-      <c r="D18" s="209">
+      <c r="D18" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="76"/>
-      <c r="F18" s="178"/>
+      <c r="F18" s="176"/>
       <c r="G18" s="67"/>
       <c r="H18" s="60"/>
       <c r="I18" s="60"/>
-      <c r="J18" s="213">
+      <c r="J18" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="172"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="188"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="180"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="178"/>
       <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7368,25 +7524,25 @@
         <v>0</v>
       </c>
       <c r="C19" s="76"/>
-      <c r="D19" s="209">
+      <c r="D19" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="76"/>
-      <c r="F19" s="178"/>
+      <c r="F19" s="176"/>
       <c r="G19" s="67"/>
       <c r="H19" s="60"/>
       <c r="I19" s="60"/>
-      <c r="J19" s="213">
+      <c r="J19" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="172"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="188"/>
-      <c r="P19" s="192"/>
-      <c r="Q19" s="180"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="185"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="178"/>
       <c r="R19" s="63"/>
     </row>
     <row r="20" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7396,25 +7552,25 @@
         <v>0</v>
       </c>
       <c r="C20" s="76"/>
-      <c r="D20" s="209">
+      <c r="D20" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20" s="76"/>
-      <c r="F20" s="178"/>
+      <c r="F20" s="176"/>
       <c r="G20" s="67"/>
       <c r="H20" s="60"/>
       <c r="I20" s="60"/>
-      <c r="J20" s="213">
+      <c r="J20" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="172"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="192"/>
-      <c r="Q20" s="180"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="185"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="190"/>
+      <c r="Q20" s="178"/>
       <c r="R20" s="63"/>
     </row>
     <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7424,25 +7580,25 @@
         <v>0</v>
       </c>
       <c r="C21" s="76"/>
-      <c r="D21" s="209">
+      <c r="D21" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="76"/>
-      <c r="F21" s="178"/>
+      <c r="F21" s="176"/>
       <c r="G21" s="67"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
-      <c r="J21" s="213">
+      <c r="J21" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="172"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="192"/>
-      <c r="Q21" s="180"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="185"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="178"/>
       <c r="R21" s="63"/>
     </row>
     <row r="22" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7452,25 +7608,25 @@
         <v>0</v>
       </c>
       <c r="C22" s="76"/>
-      <c r="D22" s="209">
+      <c r="D22" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" s="76"/>
-      <c r="F22" s="178"/>
+      <c r="F22" s="176"/>
       <c r="G22" s="67"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
-      <c r="J22" s="213">
+      <c r="J22" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="172"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="192"/>
-      <c r="Q22" s="180"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="185"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="178"/>
       <c r="R22" s="63"/>
     </row>
     <row r="23" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7480,25 +7636,25 @@
         <v>0</v>
       </c>
       <c r="C23" s="76"/>
-      <c r="D23" s="209">
+      <c r="D23" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="76"/>
-      <c r="F23" s="178"/>
+      <c r="F23" s="176"/>
       <c r="G23" s="67"/>
       <c r="H23" s="60"/>
       <c r="I23" s="60"/>
-      <c r="J23" s="213">
+      <c r="J23" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="172"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="192"/>
-      <c r="Q23" s="180"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="185"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="178"/>
       <c r="R23" s="63"/>
     </row>
     <row r="24" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7508,25 +7664,25 @@
         <v>0</v>
       </c>
       <c r="C24" s="76"/>
-      <c r="D24" s="209">
+      <c r="D24" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24" s="76"/>
-      <c r="F24" s="178"/>
+      <c r="F24" s="176"/>
       <c r="G24" s="67"/>
       <c r="H24" s="60"/>
       <c r="I24" s="60"/>
-      <c r="J24" s="213">
+      <c r="J24" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="172"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="188"/>
-      <c r="P24" s="192"/>
-      <c r="Q24" s="180"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="185"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="190"/>
+      <c r="Q24" s="178"/>
       <c r="R24" s="63"/>
     </row>
     <row r="25" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7536,25 +7692,25 @@
         <v>0</v>
       </c>
       <c r="C25" s="76"/>
-      <c r="D25" s="209">
+      <c r="D25" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25" s="76"/>
-      <c r="F25" s="178"/>
+      <c r="F25" s="176"/>
       <c r="G25" s="67"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
-      <c r="J25" s="213">
+      <c r="J25" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="172"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="188"/>
-      <c r="P25" s="192"/>
-      <c r="Q25" s="180"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="178"/>
       <c r="R25" s="63"/>
     </row>
     <row r="26" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7564,25 +7720,25 @@
         <v>0</v>
       </c>
       <c r="C26" s="76"/>
-      <c r="D26" s="209">
+      <c r="D26" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" s="76"/>
-      <c r="F26" s="178"/>
+      <c r="F26" s="176"/>
       <c r="G26" s="67"/>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
-      <c r="J26" s="213">
+      <c r="J26" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="172"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="188"/>
-      <c r="P26" s="192"/>
-      <c r="Q26" s="180"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="178"/>
       <c r="R26" s="63"/>
     </row>
     <row r="27" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7592,25 +7748,25 @@
         <v>0</v>
       </c>
       <c r="C27" s="76"/>
-      <c r="D27" s="209">
+      <c r="D27" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27" s="76"/>
-      <c r="F27" s="178"/>
+      <c r="F27" s="176"/>
       <c r="G27" s="67"/>
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
-      <c r="J27" s="213">
+      <c r="J27" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="172"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="188"/>
-      <c r="P27" s="192"/>
-      <c r="Q27" s="180"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="190"/>
+      <c r="Q27" s="178"/>
       <c r="R27" s="63"/>
     </row>
     <row r="28" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7620,25 +7776,25 @@
         <v>0</v>
       </c>
       <c r="C28" s="76"/>
-      <c r="D28" s="209">
+      <c r="D28" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="76"/>
-      <c r="F28" s="178"/>
+      <c r="F28" s="176"/>
       <c r="G28" s="67"/>
       <c r="H28" s="60"/>
       <c r="I28" s="60"/>
-      <c r="J28" s="213">
+      <c r="J28" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="172"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="188"/>
-      <c r="P28" s="192"/>
-      <c r="Q28" s="180"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="178"/>
       <c r="R28" s="63"/>
     </row>
     <row r="29" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7647,25 +7803,25 @@
         <v>0</v>
       </c>
       <c r="C29" s="76"/>
-      <c r="D29" s="209">
+      <c r="D29" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="76"/>
-      <c r="F29" s="178"/>
+      <c r="F29" s="176"/>
       <c r="G29" s="67"/>
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
-      <c r="J29" s="213">
+      <c r="J29" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="172"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="192"/>
-      <c r="Q29" s="180"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="178"/>
       <c r="R29" s="63"/>
     </row>
     <row r="30" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7675,25 +7831,25 @@
         <v>0</v>
       </c>
       <c r="C30" s="76"/>
-      <c r="D30" s="209">
+      <c r="D30" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30" s="76"/>
-      <c r="F30" s="178"/>
+      <c r="F30" s="176"/>
       <c r="G30" s="67"/>
       <c r="H30" s="60"/>
       <c r="I30" s="60"/>
-      <c r="J30" s="213">
+      <c r="J30" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="172"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="188"/>
-      <c r="P30" s="192"/>
-      <c r="Q30" s="180"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="185"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="190"/>
+      <c r="Q30" s="178"/>
       <c r="R30" s="63"/>
     </row>
     <row r="31" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7703,25 +7859,25 @@
         <v>0</v>
       </c>
       <c r="C31" s="76"/>
-      <c r="D31" s="209">
+      <c r="D31" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="76"/>
-      <c r="F31" s="178"/>
+      <c r="F31" s="176"/>
       <c r="G31" s="67"/>
       <c r="H31" s="60"/>
       <c r="I31" s="60"/>
-      <c r="J31" s="213">
+      <c r="J31" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="172"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="188"/>
-      <c r="P31" s="192"/>
-      <c r="Q31" s="180"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="190"/>
+      <c r="Q31" s="178"/>
       <c r="R31" s="63"/>
     </row>
     <row r="32" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7731,25 +7887,25 @@
         <v>0</v>
       </c>
       <c r="C32" s="76"/>
-      <c r="D32" s="209">
+      <c r="D32" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32" s="76"/>
-      <c r="F32" s="178"/>
+      <c r="F32" s="176"/>
       <c r="G32" s="67"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
-      <c r="J32" s="213">
+      <c r="J32" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="172"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="188"/>
-      <c r="P32" s="192"/>
-      <c r="Q32" s="180"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="185"/>
+      <c r="O32" s="186"/>
+      <c r="P32" s="190"/>
+      <c r="Q32" s="178"/>
       <c r="R32" s="63"/>
     </row>
     <row r="33" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7759,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="76"/>
-      <c r="D33" s="209">
+      <c r="D33" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7768,16 +7924,16 @@
       <c r="G33" s="67"/>
       <c r="H33" s="60"/>
       <c r="I33" s="60"/>
-      <c r="J33" s="213">
+      <c r="J33" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="172"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="188"/>
-      <c r="P33" s="192"/>
-      <c r="Q33" s="180"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="185"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="190"/>
+      <c r="Q33" s="178"/>
       <c r="R33" s="63"/>
     </row>
     <row r="34" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7787,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="76"/>
-      <c r="D34" s="209">
+      <c r="D34" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7796,16 +7952,16 @@
       <c r="G34" s="67"/>
       <c r="H34" s="60"/>
       <c r="I34" s="60"/>
-      <c r="J34" s="213">
+      <c r="J34" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="172"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="187"/>
-      <c r="O34" s="188"/>
-      <c r="P34" s="192"/>
-      <c r="Q34" s="180"/>
+      <c r="L34" s="170"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="185"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="190"/>
+      <c r="Q34" s="178"/>
       <c r="R34" s="63"/>
     </row>
     <row r="35" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7815,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="76"/>
-      <c r="D35" s="209">
+      <c r="D35" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7824,16 +7980,16 @@
       <c r="G35" s="67"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
-      <c r="J35" s="213">
+      <c r="J35" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="173"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="189"/>
-      <c r="O35" s="190"/>
-      <c r="P35" s="193"/>
-      <c r="Q35" s="181"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="188"/>
+      <c r="P35" s="191"/>
+      <c r="Q35" s="179"/>
       <c r="R35" s="63"/>
     </row>
     <row r="36" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7843,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="76"/>
-      <c r="D36" s="209">
+      <c r="D36" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7852,7 +8008,7 @@
       <c r="G36" s="67"/>
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
-      <c r="J36" s="213">
+      <c r="J36" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7864,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="76"/>
-      <c r="D37" s="209">
+      <c r="D37" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7873,7 +8029,7 @@
       <c r="G37" s="67"/>
       <c r="H37" s="60"/>
       <c r="I37" s="60"/>
-      <c r="J37" s="213">
+      <c r="J37" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7886,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="76"/>
-      <c r="D38" s="209">
+      <c r="D38" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7895,7 +8051,7 @@
       <c r="G38" s="67"/>
       <c r="H38" s="60"/>
       <c r="I38" s="60"/>
-      <c r="J38" s="213">
+      <c r="J38" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7908,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="76"/>
-      <c r="D39" s="209">
+      <c r="D39" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7917,7 +8073,7 @@
       <c r="G39" s="67"/>
       <c r="H39" s="60"/>
       <c r="I39" s="60"/>
-      <c r="J39" s="213">
+      <c r="J39" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7930,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="76"/>
-      <c r="D40" s="209">
+      <c r="D40" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7939,7 +8095,7 @@
       <c r="G40" s="67"/>
       <c r="H40" s="60"/>
       <c r="I40" s="60"/>
-      <c r="J40" s="213">
+      <c r="J40" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7952,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="76"/>
-      <c r="D41" s="209">
+      <c r="D41" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7961,7 +8117,7 @@
       <c r="G41" s="67"/>
       <c r="H41" s="60"/>
       <c r="I41" s="60"/>
-      <c r="J41" s="213">
+      <c r="J41" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7974,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="209">
+      <c r="D42" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7983,7 +8139,7 @@
       <c r="G42" s="67"/>
       <c r="H42" s="60"/>
       <c r="I42" s="60"/>
-      <c r="J42" s="213">
+      <c r="J42" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7996,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="76"/>
-      <c r="D43" s="209">
+      <c r="D43" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8005,7 +8161,7 @@
       <c r="G43" s="67"/>
       <c r="H43" s="60"/>
       <c r="I43" s="60"/>
-      <c r="J43" s="213">
+      <c r="J43" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8018,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="76"/>
-      <c r="D44" s="209">
+      <c r="D44" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8027,7 +8183,7 @@
       <c r="G44" s="67"/>
       <c r="H44" s="60"/>
       <c r="I44" s="60"/>
-      <c r="J44" s="213">
+      <c r="J44" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8040,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="76"/>
-      <c r="D45" s="209">
+      <c r="D45" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8049,7 +8205,7 @@
       <c r="G45" s="67"/>
       <c r="H45" s="60"/>
       <c r="I45" s="60"/>
-      <c r="J45" s="213">
+      <c r="J45" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8062,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="76"/>
-      <c r="D46" s="209">
+      <c r="D46" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8071,7 +8227,7 @@
       <c r="G46" s="67"/>
       <c r="H46" s="60"/>
       <c r="I46" s="60"/>
-      <c r="J46" s="213">
+      <c r="J46" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8084,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="76"/>
-      <c r="D47" s="209">
+      <c r="D47" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8093,7 +8249,7 @@
       <c r="G47" s="67"/>
       <c r="H47" s="60"/>
       <c r="I47" s="60"/>
-      <c r="J47" s="213">
+      <c r="J47" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8106,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="76"/>
-      <c r="D48" s="209">
+      <c r="D48" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8115,7 +8271,7 @@
       <c r="G48" s="67"/>
       <c r="H48" s="60"/>
       <c r="I48" s="60"/>
-      <c r="J48" s="213">
+      <c r="J48" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8128,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="76"/>
-      <c r="D49" s="209">
+      <c r="D49" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8137,7 +8293,7 @@
       <c r="G49" s="67"/>
       <c r="H49" s="60"/>
       <c r="I49" s="60"/>
-      <c r="J49" s="213">
+      <c r="J49" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8150,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="76"/>
-      <c r="D50" s="209">
+      <c r="D50" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8159,7 +8315,7 @@
       <c r="G50" s="67"/>
       <c r="H50" s="60"/>
       <c r="I50" s="60"/>
-      <c r="J50" s="213">
+      <c r="J50" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8172,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="76"/>
-      <c r="D51" s="209">
+      <c r="D51" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8181,7 +8337,7 @@
       <c r="G51" s="67"/>
       <c r="H51" s="60"/>
       <c r="I51" s="60"/>
-      <c r="J51" s="213">
+      <c r="J51" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8194,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="76"/>
-      <c r="D52" s="209">
+      <c r="D52" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8203,7 +8359,7 @@
       <c r="G52" s="67"/>
       <c r="H52" s="60"/>
       <c r="I52" s="60"/>
-      <c r="J52" s="213">
+      <c r="J52" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8216,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="76"/>
-      <c r="D53" s="209">
+      <c r="D53" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8225,7 +8381,7 @@
       <c r="G53" s="67"/>
       <c r="H53" s="60"/>
       <c r="I53" s="60"/>
-      <c r="J53" s="213">
+      <c r="J53" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8237,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="76"/>
-      <c r="D54" s="209">
+      <c r="D54" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8246,7 +8402,7 @@
       <c r="G54" s="67"/>
       <c r="H54" s="60"/>
       <c r="I54" s="60"/>
-      <c r="J54" s="213">
+      <c r="J54" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8256,7 +8412,7 @@
       <c r="A55" s="66"/>
       <c r="B55" s="76"/>
       <c r="C55" s="76"/>
-      <c r="D55" s="209">
+      <c r="D55" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8265,7 +8421,7 @@
       <c r="G55" s="67"/>
       <c r="H55" s="60"/>
       <c r="I55" s="60"/>
-      <c r="J55" s="213">
+      <c r="J55" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8275,7 +8431,7 @@
       <c r="A56" s="66"/>
       <c r="B56" s="76"/>
       <c r="C56" s="76"/>
-      <c r="D56" s="209">
+      <c r="D56" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8284,7 +8440,7 @@
       <c r="G56" s="67"/>
       <c r="H56" s="60"/>
       <c r="I56" s="60"/>
-      <c r="J56" s="213">
+      <c r="J56" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8294,7 +8450,7 @@
       <c r="A57" s="66"/>
       <c r="B57" s="76"/>
       <c r="C57" s="76"/>
-      <c r="D57" s="209">
+      <c r="D57" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8303,7 +8459,7 @@
       <c r="G57" s="67"/>
       <c r="H57" s="60"/>
       <c r="I57" s="60"/>
-      <c r="J57" s="213">
+      <c r="J57" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8316,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="76"/>
-      <c r="D58" s="209">
+      <c r="D58" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8325,7 +8481,7 @@
       <c r="G58" s="67"/>
       <c r="H58" s="60"/>
       <c r="I58" s="60"/>
-      <c r="J58" s="213">
+      <c r="J58" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8337,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="76"/>
-      <c r="D59" s="209">
+      <c r="D59" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8346,7 +8502,7 @@
       <c r="G59" s="67"/>
       <c r="H59" s="60"/>
       <c r="I59" s="60"/>
-      <c r="J59" s="213">
+      <c r="J59" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8359,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="76"/>
-      <c r="D60" s="209">
+      <c r="D60" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8368,7 +8524,7 @@
       <c r="G60" s="67"/>
       <c r="H60" s="60"/>
       <c r="I60" s="60"/>
-      <c r="J60" s="213">
+      <c r="J60" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8381,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="76"/>
-      <c r="D61" s="209">
+      <c r="D61" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8390,7 +8546,7 @@
       <c r="G61" s="67"/>
       <c r="H61" s="60"/>
       <c r="I61" s="60"/>
-      <c r="J61" s="213">
+      <c r="J61" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8402,8 +8558,8 @@
         <f>1400*E62</f>
         <v>0</v>
       </c>
-      <c r="C62" s="176"/>
-      <c r="D62" s="209">
+      <c r="C62" s="174"/>
+      <c r="D62" s="207">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8412,7 +8568,7 @@
       <c r="G62" s="67"/>
       <c r="H62" s="60"/>
       <c r="I62" s="60"/>
-      <c r="J62" s="213">
+      <c r="J62" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8421,8 +8577,8 @@
     <row r="63" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="92"/>
       <c r="B63" s="93"/>
-      <c r="C63" s="202"/>
-      <c r="D63" s="209">
+      <c r="C63" s="200"/>
+      <c r="D63" s="207">
         <f>0.5*E63</f>
         <v>0</v>
       </c>
@@ -8431,14 +8587,14 @@
       <c r="G63" s="94"/>
       <c r="H63" s="60"/>
       <c r="I63" s="60"/>
-      <c r="J63" s="217"/>
+      <c r="J63" s="215"/>
       <c r="R63" s="63"/>
     </row>
     <row r="64" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="60"/>
       <c r="B64" s="60"/>
-      <c r="C64" s="232"/>
-      <c r="D64" s="232"/>
+      <c r="C64" s="230"/>
+      <c r="D64" s="230"/>
       <c r="E64" s="60"/>
       <c r="F64" s="60"/>
       <c r="G64" s="60"/>
@@ -8448,46 +8604,46 @@
       <c r="R64" s="63"/>
     </row>
     <row r="65" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A65" s="226" t="s">
+      <c r="A65" s="224" t="s">
         <v>244</v>
       </c>
-      <c r="B65" s="201" t="s">
+      <c r="B65" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="201" t="s">
+      <c r="C65" s="199" t="s">
         <v>233</v>
       </c>
-      <c r="D65" s="227" t="s">
+      <c r="D65" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="E65" s="201" t="s">
+      <c r="E65" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="201" t="s">
+      <c r="F65" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="G65" s="228" t="s">
+      <c r="G65" s="226" t="s">
         <v>232</v>
       </c>
       <c r="H65" s="60"/>
-      <c r="I65" s="225"/>
-      <c r="J65" s="233" t="s">
+      <c r="I65" s="223"/>
+      <c r="J65" s="231" t="s">
         <v>245</v>
       </c>
-      <c r="K65" s="225"/>
+      <c r="K65" s="223"/>
       <c r="R65" s="63"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A66" s="229"/>
-      <c r="B66" s="175"/>
-      <c r="C66" s="175"/>
-      <c r="D66" s="177"/>
-      <c r="E66" s="175"/>
-      <c r="F66" s="175"/>
-      <c r="G66" s="230"/>
+      <c r="A66" s="227"/>
+      <c r="B66" s="173"/>
+      <c r="C66" s="173"/>
+      <c r="D66" s="175"/>
+      <c r="E66" s="173"/>
+      <c r="F66" s="173"/>
+      <c r="G66" s="228"/>
       <c r="H66" s="60"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="213">
+      <c r="I66" s="123"/>
+      <c r="J66" s="211">
         <f>B66*0.4</f>
         <v>0</v>
       </c>
@@ -8497,13 +8653,13 @@
       <c r="A67" s="66"/>
       <c r="B67" s="76"/>
       <c r="C67" s="76"/>
-      <c r="D67" s="176"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="76"/>
       <c r="F67" s="76"/>
       <c r="G67" s="67"/>
       <c r="H67" s="60"/>
       <c r="I67" s="60"/>
-      <c r="J67" s="213">
+      <c r="J67" s="211">
         <f t="shared" ref="J67:J92" si="2">B67*0.4</f>
         <v>0</v>
       </c>
@@ -8513,13 +8669,13 @@
       <c r="A68" s="66"/>
       <c r="B68" s="76"/>
       <c r="C68" s="76"/>
-      <c r="D68" s="176"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="76"/>
       <c r="F68" s="76"/>
       <c r="G68" s="67"/>
       <c r="H68" s="60"/>
       <c r="I68" s="60"/>
-      <c r="J68" s="213">
+      <c r="J68" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8529,13 +8685,13 @@
       <c r="A69" s="66"/>
       <c r="B69" s="76"/>
       <c r="C69" s="76"/>
-      <c r="D69" s="176"/>
+      <c r="D69" s="174"/>
       <c r="E69" s="76"/>
       <c r="F69" s="76"/>
       <c r="G69" s="67"/>
       <c r="H69" s="60"/>
       <c r="I69" s="60"/>
-      <c r="J69" s="213">
+      <c r="J69" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8545,13 +8701,13 @@
       <c r="A70" s="66"/>
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
-      <c r="D70" s="176"/>
+      <c r="D70" s="174"/>
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
       <c r="G70" s="67"/>
       <c r="H70" s="60"/>
       <c r="I70" s="60"/>
-      <c r="J70" s="213">
+      <c r="J70" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8561,13 +8717,13 @@
       <c r="A71" s="66"/>
       <c r="B71" s="76"/>
       <c r="C71" s="76"/>
-      <c r="D71" s="176"/>
+      <c r="D71" s="174"/>
       <c r="E71" s="76"/>
       <c r="F71" s="76"/>
       <c r="G71" s="67"/>
       <c r="H71" s="60"/>
       <c r="I71" s="60"/>
-      <c r="J71" s="213">
+      <c r="J71" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8577,13 +8733,13 @@
       <c r="A72" s="66"/>
       <c r="B72" s="76"/>
       <c r="C72" s="76"/>
-      <c r="D72" s="176"/>
+      <c r="D72" s="174"/>
       <c r="E72" s="76"/>
       <c r="F72" s="76"/>
       <c r="G72" s="67"/>
       <c r="H72" s="60"/>
       <c r="I72" s="60"/>
-      <c r="J72" s="213">
+      <c r="J72" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8593,13 +8749,13 @@
       <c r="A73" s="66"/>
       <c r="B73" s="76"/>
       <c r="C73" s="76"/>
-      <c r="D73" s="176"/>
+      <c r="D73" s="174"/>
       <c r="E73" s="76"/>
       <c r="F73" s="76"/>
       <c r="G73" s="67"/>
       <c r="H73" s="60"/>
       <c r="I73" s="60"/>
-      <c r="J73" s="213">
+      <c r="J73" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8609,13 +8765,13 @@
       <c r="A74" s="66"/>
       <c r="B74" s="76"/>
       <c r="C74" s="76"/>
-      <c r="D74" s="176"/>
+      <c r="D74" s="174"/>
       <c r="E74" s="76"/>
       <c r="F74" s="76"/>
       <c r="G74" s="67"/>
       <c r="H74" s="60"/>
       <c r="I74" s="60"/>
-      <c r="J74" s="213">
+      <c r="J74" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8625,13 +8781,13 @@
       <c r="A75" s="66"/>
       <c r="B75" s="76"/>
       <c r="C75" s="76"/>
-      <c r="D75" s="176"/>
+      <c r="D75" s="174"/>
       <c r="E75" s="76"/>
       <c r="F75" s="76"/>
       <c r="G75" s="67"/>
       <c r="H75" s="60"/>
       <c r="I75" s="60"/>
-      <c r="J75" s="213">
+      <c r="J75" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8641,13 +8797,13 @@
       <c r="A76" s="66"/>
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
-      <c r="D76" s="176"/>
+      <c r="D76" s="174"/>
       <c r="E76" s="76"/>
       <c r="F76" s="76"/>
       <c r="G76" s="67"/>
       <c r="H76" s="60"/>
       <c r="I76" s="60"/>
-      <c r="J76" s="213">
+      <c r="J76" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8657,13 +8813,13 @@
       <c r="A77" s="66"/>
       <c r="B77" s="76"/>
       <c r="C77" s="76"/>
-      <c r="D77" s="176"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="76"/>
       <c r="F77" s="76"/>
       <c r="G77" s="67"/>
       <c r="H77" s="60"/>
       <c r="I77" s="60"/>
-      <c r="J77" s="213">
+      <c r="J77" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8673,13 +8829,13 @@
       <c r="A78" s="66"/>
       <c r="B78" s="76"/>
       <c r="C78" s="76"/>
-      <c r="D78" s="176"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="76"/>
       <c r="F78" s="76"/>
       <c r="G78" s="67"/>
       <c r="H78" s="60"/>
       <c r="I78" s="60"/>
-      <c r="J78" s="213">
+      <c r="J78" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8688,14 +8844,14 @@
     <row r="79" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A79" s="66"/>
       <c r="B79" s="76"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="76"/>
       <c r="F79" s="76"/>
       <c r="G79" s="67"/>
       <c r="H79" s="60"/>
       <c r="I79" s="60"/>
-      <c r="J79" s="213">
+      <c r="J79" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8704,14 +8860,14 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A80" s="66"/>
       <c r="B80" s="76"/>
-      <c r="C80" s="176"/>
-      <c r="D80" s="176"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="76"/>
       <c r="F80" s="76"/>
       <c r="G80" s="67"/>
       <c r="H80" s="60"/>
       <c r="I80" s="60"/>
-      <c r="J80" s="213">
+      <c r="J80" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8720,14 +8876,14 @@
     <row r="81" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A81" s="66"/>
       <c r="B81" s="76"/>
-      <c r="C81" s="176"/>
-      <c r="D81" s="176"/>
+      <c r="C81" s="174"/>
+      <c r="D81" s="174"/>
       <c r="E81" s="76"/>
       <c r="F81" s="76"/>
       <c r="G81" s="67"/>
       <c r="H81" s="60"/>
       <c r="I81" s="60"/>
-      <c r="J81" s="213">
+      <c r="J81" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8736,14 +8892,14 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A82" s="66"/>
       <c r="B82" s="76"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="176"/>
+      <c r="C82" s="174"/>
+      <c r="D82" s="174"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
       <c r="G82" s="67"/>
       <c r="H82" s="60"/>
       <c r="I82" s="60"/>
-      <c r="J82" s="213">
+      <c r="J82" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8752,14 +8908,14 @@
     <row r="83" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A83" s="66"/>
       <c r="B83" s="76"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="176"/>
+      <c r="C83" s="174"/>
+      <c r="D83" s="174"/>
       <c r="E83" s="76"/>
       <c r="F83" s="76"/>
       <c r="G83" s="67"/>
       <c r="H83" s="60"/>
       <c r="I83" s="60"/>
-      <c r="J83" s="213">
+      <c r="J83" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8768,14 +8924,14 @@
     <row r="84" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A84" s="66"/>
       <c r="B84" s="76"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="174"/>
       <c r="E84" s="76"/>
       <c r="F84" s="76"/>
       <c r="G84" s="67"/>
       <c r="H84" s="60"/>
       <c r="I84" s="60"/>
-      <c r="J84" s="213">
+      <c r="J84" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8784,14 +8940,14 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A85" s="66"/>
       <c r="B85" s="76"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="176"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
       <c r="E85" s="76"/>
       <c r="F85" s="76"/>
       <c r="G85" s="67"/>
       <c r="H85" s="60"/>
       <c r="I85" s="60"/>
-      <c r="J85" s="213">
+      <c r="J85" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8800,14 +8956,14 @@
     <row r="86" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A86" s="66"/>
       <c r="B86" s="76"/>
-      <c r="C86" s="176"/>
-      <c r="D86" s="176"/>
+      <c r="C86" s="174"/>
+      <c r="D86" s="174"/>
       <c r="E86" s="76"/>
       <c r="F86" s="76"/>
       <c r="G86" s="67"/>
       <c r="H86" s="60"/>
       <c r="I86" s="60"/>
-      <c r="J86" s="213">
+      <c r="J86" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8816,14 +8972,14 @@
     <row r="87" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A87" s="66"/>
       <c r="B87" s="76"/>
-      <c r="C87" s="176"/>
-      <c r="D87" s="176"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
       <c r="E87" s="76"/>
       <c r="F87" s="76"/>
       <c r="G87" s="67"/>
       <c r="H87" s="60"/>
       <c r="I87" s="60"/>
-      <c r="J87" s="213">
+      <c r="J87" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8832,14 +8988,14 @@
     <row r="88" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A88" s="66"/>
       <c r="B88" s="76"/>
-      <c r="C88" s="176"/>
-      <c r="D88" s="176"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
       <c r="E88" s="76"/>
       <c r="F88" s="76"/>
       <c r="G88" s="67"/>
       <c r="H88" s="60"/>
       <c r="I88" s="60"/>
-      <c r="J88" s="213">
+      <c r="J88" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8848,14 +9004,14 @@
     <row r="89" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A89" s="66"/>
       <c r="B89" s="76"/>
-      <c r="C89" s="176"/>
-      <c r="D89" s="176"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174"/>
       <c r="E89" s="76"/>
       <c r="F89" s="76"/>
       <c r="G89" s="67"/>
       <c r="H89" s="60"/>
       <c r="I89" s="60"/>
-      <c r="J89" s="213">
+      <c r="J89" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8864,14 +9020,14 @@
     <row r="90" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A90" s="66"/>
       <c r="B90" s="76"/>
-      <c r="C90" s="176"/>
-      <c r="D90" s="176"/>
+      <c r="C90" s="174"/>
+      <c r="D90" s="174"/>
       <c r="E90" s="76"/>
       <c r="F90" s="76"/>
       <c r="G90" s="67"/>
       <c r="H90" s="60"/>
       <c r="I90" s="60"/>
-      <c r="J90" s="213">
+      <c r="J90" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8880,14 +9036,14 @@
     <row r="91" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A91" s="66"/>
       <c r="B91" s="76"/>
-      <c r="C91" s="176"/>
-      <c r="D91" s="176"/>
+      <c r="C91" s="174"/>
+      <c r="D91" s="174"/>
       <c r="E91" s="76"/>
       <c r="F91" s="76"/>
       <c r="G91" s="67"/>
       <c r="H91" s="60"/>
       <c r="I91" s="60"/>
-      <c r="J91" s="213">
+      <c r="J91" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8896,14 +9052,14 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A92" s="66"/>
       <c r="B92" s="76"/>
-      <c r="C92" s="176"/>
-      <c r="D92" s="176"/>
+      <c r="C92" s="174"/>
+      <c r="D92" s="174"/>
       <c r="E92" s="76"/>
       <c r="F92" s="76"/>
       <c r="G92" s="67"/>
       <c r="H92" s="60"/>
       <c r="I92" s="60"/>
-      <c r="J92" s="213">
+      <c r="J92" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8912,196 +9068,196 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A93" s="66"/>
       <c r="B93" s="76"/>
-      <c r="C93" s="176"/>
-      <c r="D93" s="176"/>
+      <c r="C93" s="174"/>
+      <c r="D93" s="174"/>
       <c r="E93" s="76"/>
       <c r="F93" s="76"/>
       <c r="G93" s="67"/>
       <c r="H93" s="60"/>
       <c r="I93" s="60"/>
-      <c r="J93" s="213"/>
+      <c r="J93" s="211"/>
       <c r="R93" s="63"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A94" s="66"/>
       <c r="B94" s="76"/>
-      <c r="C94" s="176"/>
-      <c r="D94" s="176"/>
+      <c r="C94" s="174"/>
+      <c r="D94" s="174"/>
       <c r="E94" s="76"/>
       <c r="F94" s="76"/>
       <c r="G94" s="67"/>
       <c r="H94" s="60"/>
       <c r="I94" s="60"/>
-      <c r="J94" s="213"/>
+      <c r="J94" s="211"/>
       <c r="R94" s="63"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A95" s="66"/>
       <c r="B95" s="76"/>
-      <c r="C95" s="176"/>
-      <c r="D95" s="176"/>
+      <c r="C95" s="174"/>
+      <c r="D95" s="174"/>
       <c r="E95" s="76"/>
       <c r="F95" s="76"/>
       <c r="G95" s="67"/>
       <c r="H95" s="60"/>
       <c r="I95" s="60"/>
-      <c r="J95" s="213"/>
+      <c r="J95" s="211"/>
       <c r="R95" s="63"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A96" s="66"/>
       <c r="B96" s="76"/>
-      <c r="C96" s="176"/>
-      <c r="D96" s="176"/>
+      <c r="C96" s="174"/>
+      <c r="D96" s="174"/>
       <c r="E96" s="76"/>
       <c r="F96" s="76"/>
       <c r="G96" s="67"/>
       <c r="H96" s="60"/>
       <c r="I96" s="60"/>
-      <c r="J96" s="213"/>
+      <c r="J96" s="211"/>
       <c r="R96" s="63"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A97" s="66"/>
       <c r="B97" s="76"/>
-      <c r="C97" s="176"/>
-      <c r="D97" s="176"/>
+      <c r="C97" s="174"/>
+      <c r="D97" s="174"/>
       <c r="E97" s="76"/>
       <c r="F97" s="76"/>
       <c r="G97" s="67"/>
       <c r="H97" s="60"/>
       <c r="I97" s="60"/>
-      <c r="J97" s="213"/>
+      <c r="J97" s="211"/>
       <c r="R97" s="63"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A98" s="66"/>
       <c r="B98" s="76"/>
-      <c r="C98" s="176"/>
-      <c r="D98" s="176"/>
+      <c r="C98" s="174"/>
+      <c r="D98" s="174"/>
       <c r="E98" s="76"/>
       <c r="F98" s="76"/>
       <c r="G98" s="67"/>
       <c r="H98" s="60"/>
       <c r="I98" s="60"/>
-      <c r="J98" s="213"/>
+      <c r="J98" s="211"/>
       <c r="R98" s="63"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A99" s="66"/>
       <c r="B99" s="76"/>
-      <c r="C99" s="176"/>
-      <c r="D99" s="176"/>
+      <c r="C99" s="174"/>
+      <c r="D99" s="174"/>
       <c r="E99" s="76"/>
       <c r="F99" s="76"/>
       <c r="G99" s="67"/>
       <c r="H99" s="60"/>
       <c r="I99" s="60"/>
-      <c r="J99" s="213"/>
+      <c r="J99" s="211"/>
       <c r="R99" s="63"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A100" s="66"/>
       <c r="B100" s="76"/>
-      <c r="C100" s="176"/>
-      <c r="D100" s="176"/>
+      <c r="C100" s="174"/>
+      <c r="D100" s="174"/>
       <c r="E100" s="76"/>
       <c r="F100" s="76"/>
       <c r="G100" s="67"/>
       <c r="H100" s="60"/>
       <c r="I100" s="60"/>
-      <c r="J100" s="213"/>
+      <c r="J100" s="211"/>
       <c r="R100" s="63"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A101" s="66"/>
       <c r="B101" s="76"/>
-      <c r="C101" s="176"/>
-      <c r="D101" s="176"/>
+      <c r="C101" s="174"/>
+      <c r="D101" s="174"/>
       <c r="E101" s="76"/>
       <c r="F101" s="76"/>
       <c r="G101" s="67"/>
       <c r="H101" s="60"/>
       <c r="I101" s="60"/>
-      <c r="J101" s="213"/>
+      <c r="J101" s="211"/>
       <c r="R101" s="63"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A102" s="66"/>
       <c r="B102" s="76"/>
-      <c r="C102" s="176"/>
-      <c r="D102" s="176"/>
+      <c r="C102" s="174"/>
+      <c r="D102" s="174"/>
       <c r="E102" s="76"/>
       <c r="F102" s="76"/>
       <c r="G102" s="67"/>
-      <c r="H102" s="231"/>
+      <c r="H102" s="229"/>
       <c r="I102" s="60"/>
-      <c r="J102" s="213"/>
+      <c r="J102" s="211"/>
       <c r="R102" s="63"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A103" s="66"/>
       <c r="B103" s="76"/>
-      <c r="C103" s="176"/>
-      <c r="D103" s="176"/>
+      <c r="C103" s="174"/>
+      <c r="D103" s="174"/>
       <c r="E103" s="76"/>
       <c r="F103" s="76"/>
       <c r="G103" s="67"/>
       <c r="H103" s="60"/>
       <c r="I103" s="60"/>
-      <c r="J103" s="213"/>
+      <c r="J103" s="211"/>
       <c r="R103" s="63"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A104" s="66"/>
       <c r="B104" s="76"/>
-      <c r="C104" s="176"/>
-      <c r="D104" s="176"/>
+      <c r="C104" s="174"/>
+      <c r="D104" s="174"/>
       <c r="E104" s="76"/>
       <c r="F104" s="76"/>
       <c r="G104" s="67"/>
       <c r="H104" s="60"/>
       <c r="I104" s="60"/>
-      <c r="J104" s="213"/>
+      <c r="J104" s="211"/>
       <c r="R104" s="63"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A105" s="66"/>
       <c r="B105" s="76"/>
-      <c r="C105" s="176"/>
-      <c r="D105" s="176"/>
+      <c r="C105" s="174"/>
+      <c r="D105" s="174"/>
       <c r="E105" s="76"/>
       <c r="F105" s="76"/>
       <c r="G105" s="67"/>
       <c r="H105" s="60"/>
       <c r="I105" s="60"/>
-      <c r="J105" s="213"/>
+      <c r="J105" s="211"/>
       <c r="R105" s="63"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A106" s="66"/>
       <c r="B106" s="76"/>
       <c r="C106" s="76"/>
-      <c r="D106" s="176"/>
+      <c r="D106" s="174"/>
       <c r="E106" s="76"/>
       <c r="F106" s="76"/>
       <c r="G106" s="67"/>
       <c r="H106" s="60"/>
       <c r="I106" s="60"/>
-      <c r="J106" s="213"/>
+      <c r="J106" s="211"/>
       <c r="R106" s="63"/>
     </row>
     <row r="107" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="92"/>
       <c r="B107" s="93"/>
       <c r="C107" s="93"/>
-      <c r="D107" s="176"/>
+      <c r="D107" s="174"/>
       <c r="E107" s="93"/>
       <c r="F107" s="93"/>
       <c r="G107" s="94"/>
       <c r="H107" s="60"/>
       <c r="I107" s="60"/>
-      <c r="J107" s="217"/>
+      <c r="J107" s="215"/>
       <c r="R107" s="63"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.5">
@@ -9127,60 +9283,60 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.5859375" style="56" customWidth="1"/>
+    <col min="1" max="1" width="20.52734375" style="56" customWidth="1"/>
     <col min="2" max="2" width="10.1171875" style="56" customWidth="1"/>
     <col min="3" max="3" width="6" style="56" customWidth="1"/>
-    <col min="4" max="4" width="8.5859375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="19.5859375" style="56" customWidth="1"/>
-    <col min="6" max="6" width="4.5859375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="5.41015625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="4.29296875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="6.5859375" style="56" customWidth="1"/>
+    <col min="4" max="4" width="8.52734375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="19.52734375" style="56" customWidth="1"/>
+    <col min="6" max="6" width="4.52734375" style="56" customWidth="1"/>
+    <col min="7" max="7" width="5.3515625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="4.234375" style="56" customWidth="1"/>
+    <col min="9" max="9" width="6.52734375" style="56" customWidth="1"/>
     <col min="10" max="10" width="3" style="56" customWidth="1"/>
     <col min="11" max="11" width="25.1171875" style="56" customWidth="1"/>
-    <col min="12" max="12" width="14.5859375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="7.5859375" style="56" customWidth="1"/>
-    <col min="14" max="14" width="8.703125" style="56" customWidth="1"/>
+    <col min="12" max="12" width="14.52734375" style="56" customWidth="1"/>
+    <col min="13" max="13" width="7.52734375" style="56" customWidth="1"/>
+    <col min="14" max="14" width="8.76171875" style="56" customWidth="1"/>
     <col min="15" max="15" width="14" style="56" customWidth="1"/>
-    <col min="16" max="16" width="4.5859375" style="56" customWidth="1"/>
-    <col min="17" max="17" width="5.29296875" style="56" customWidth="1"/>
-    <col min="18" max="16384" width="11.41015625" style="56"/>
+    <col min="16" max="16" width="4.52734375" style="56" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="56" customWidth="1"/>
+    <col min="18" max="16384" width="11.3515625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="134" t="s">
+      <c r="J1" s="123"/>
+      <c r="K1" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="125" t="s">
         <v>97</v>
       </c>
       <c r="P1" s="60"/>
@@ -9189,7 +9345,7 @@
       <c r="A2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="135">
+      <c r="B2" s="133">
         <v>10</v>
       </c>
       <c r="C2" s="55"/>
@@ -9206,7 +9362,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="74"/>
-      <c r="I2" s="136">
+      <c r="I2" s="134">
         <v>20</v>
       </c>
       <c r="J2" s="55"/>
@@ -9238,7 +9394,7 @@
       <c r="A3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="137">
+      <c r="B3" s="135">
         <v>10</v>
       </c>
       <c r="C3" s="55"/>
@@ -9251,11 +9407,11 @@
       <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="136" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="54"/>
-      <c r="I3" s="139">
+      <c r="I3" s="137">
         <v>20</v>
       </c>
       <c r="J3" s="55"/>
@@ -9279,7 +9435,7 @@
       <c r="A4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="140">
+      <c r="B4" s="138">
         <v>10</v>
       </c>
       <c r="C4" s="55"/>
@@ -9292,9 +9448,9 @@
       <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="138"/>
+      <c r="G4" s="136"/>
       <c r="H4" s="54"/>
-      <c r="I4" s="139">
+      <c r="I4" s="137">
         <v>20</v>
       </c>
       <c r="J4" s="55"/>
@@ -9318,7 +9474,7 @@
       <c r="A5" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="139">
         <v>10</v>
       </c>
       <c r="C5" s="55"/>
@@ -9335,7 +9491,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="54"/>
-      <c r="I5" s="139">
+      <c r="I5" s="137">
         <v>20</v>
       </c>
       <c r="J5" s="55"/>
@@ -9359,7 +9515,7 @@
       <c r="A6" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="142">
+      <c r="B6" s="140">
         <v>10</v>
       </c>
       <c r="C6" s="55"/>
@@ -9376,7 +9532,7 @@
         <v>153</v>
       </c>
       <c r="H6" s="54"/>
-      <c r="I6" s="139">
+      <c r="I6" s="137">
         <v>20</v>
       </c>
       <c r="J6" s="55"/>
@@ -9400,7 +9556,7 @@
       <c r="A7" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="141">
         <v>10</v>
       </c>
       <c r="C7" s="55"/>
@@ -9410,14 +9566,14 @@
       <c r="E7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>17</v>
+      <c r="F7" s="136" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="54"/>
-      <c r="I7" s="139">
+      <c r="I7" s="137">
         <v>20</v>
       </c>
       <c r="J7" s="55"/>
@@ -9441,7 +9597,7 @@
       <c r="A8" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="144">
+      <c r="B8" s="142">
         <v>5</v>
       </c>
       <c r="C8" s="55"/>
@@ -9458,7 +9614,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="54"/>
-      <c r="I8" s="139">
+      <c r="I8" s="137">
         <v>20</v>
       </c>
       <c r="J8" s="55"/>
@@ -9481,7 +9637,7 @@
       <c r="A9" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="144">
+      <c r="B9" s="142">
         <v>5</v>
       </c>
       <c r="C9" s="55"/>
@@ -9492,9 +9648,9 @@
       <c r="F9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="145"/>
+      <c r="G9" s="143"/>
       <c r="H9" s="54"/>
-      <c r="I9" s="146">
+      <c r="I9" s="144">
         <v>20</v>
       </c>
       <c r="J9" s="55"/>
@@ -9517,7 +9673,7 @@
       <c r="A10" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="147">
+      <c r="B10" s="145">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>15</v>
       </c>
@@ -9533,7 +9689,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="136">
+      <c r="I10" s="134">
         <v>20</v>
       </c>
       <c r="J10" s="55"/>
@@ -9556,7 +9712,7 @@
       <c r="A11" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="148">
+      <c r="B11" s="146">
         <f>B5-ROUND(Inventar!I12/5,0)</f>
         <v>10</v>
       </c>
@@ -9570,14 +9726,14 @@
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="54"/>
-      <c r="I11" s="139">
+      <c r="I11" s="137">
         <v>20</v>
       </c>
       <c r="J11" s="55"/>
       <c r="L11" s="55"/>
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
-      <c r="O11" s="149" t="s">
+      <c r="O11" s="147" t="s">
         <v>228</v>
       </c>
       <c r="P11" s="55"/>
@@ -9604,7 +9760,7 @@
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="54"/>
-      <c r="I12" s="139">
+      <c r="I12" s="137">
         <v>20</v>
       </c>
       <c r="J12" s="55"/>
@@ -9629,7 +9785,7 @@
       <c r="Y12" s="55"/>
     </row>
     <row r="13" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -9647,7 +9803,7 @@
         <v>153</v>
       </c>
       <c r="H13" s="54"/>
-      <c r="I13" s="146">
+      <c r="I13" s="144">
         <v>20</v>
       </c>
       <c r="J13" s="55"/>
@@ -9681,11 +9837,11 @@
       <c r="F14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="150" t="s">
+      <c r="G14" s="148" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="54"/>
-      <c r="I14" s="136">
+      <c r="I14" s="134">
         <v>20</v>
       </c>
       <c r="J14" s="55"/>
@@ -9706,10 +9862,10 @@
       <c r="Y14" s="55"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="152">
+      <c r="B15" s="150">
         <v>200</v>
       </c>
       <c r="C15" s="55"/>
@@ -9720,9 +9876,9 @@
       <c r="F15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="153"/>
+      <c r="G15" s="151"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="139">
+      <c r="I15" s="137">
         <v>20</v>
       </c>
       <c r="J15" s="55"/>
@@ -9743,10 +9899,10 @@
       <c r="Y15" s="55"/>
     </row>
     <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="155">
+      <c r="B16" s="153">
         <v>12</v>
       </c>
       <c r="C16" s="55"/>
@@ -9757,9 +9913,9 @@
       <c r="F16" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="153"/>
+      <c r="G16" s="151"/>
       <c r="H16" s="54"/>
-      <c r="I16" s="139">
+      <c r="I16" s="137">
         <v>20</v>
       </c>
       <c r="J16" s="55"/>
@@ -9780,10 +9936,10 @@
       <c r="Y16" s="55"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="157">
+      <c r="B17" s="155">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>40</v>
       </c>
@@ -9799,7 +9955,7 @@
         <v>99</v>
       </c>
       <c r="H17" s="54"/>
-      <c r="I17" s="139">
+      <c r="I17" s="137">
         <v>20</v>
       </c>
       <c r="J17" s="55"/>
@@ -9820,10 +9976,10 @@
       <c r="Y17" s="55"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="158">
+      <c r="B18" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>140</v>
       </c>
@@ -9839,7 +9995,7 @@
         <v>153</v>
       </c>
       <c r="H18" s="54"/>
-      <c r="I18" s="139">
+      <c r="I18" s="137">
         <v>20</v>
       </c>
       <c r="J18" s="55"/>
@@ -9860,10 +10016,10 @@
       <c r="Y18" s="55"/>
     </row>
     <row r="19" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="154" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="158">
+      <c r="B19" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>40</v>
       </c>
@@ -9879,11 +10035,11 @@
       <c r="F19" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="159" t="s">
+      <c r="G19" s="157" t="s">
         <v>99</v>
       </c>
       <c r="H19" s="54"/>
-      <c r="I19" s="146">
+      <c r="I19" s="144">
         <v>20</v>
       </c>
       <c r="J19" s="55"/>
@@ -9904,10 +10060,10 @@
       <c r="Y19" s="55"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="158">
+      <c r="B20" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>40</v>
       </c>
@@ -9924,9 +10080,9 @@
       <c r="F20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="160"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="54"/>
-      <c r="I20" s="136">
+      <c r="I20" s="134">
         <v>20</v>
       </c>
       <c r="J20" s="55"/>
@@ -9947,10 +10103,10 @@
       <c r="Y20" s="55"/>
     </row>
     <row r="21" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="158">
+      <c r="B21" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>50</v>
       </c>
@@ -9962,9 +10118,9 @@
       <c r="F21" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="159"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="79"/>
-      <c r="I21" s="146">
+      <c r="I21" s="144">
         <v>20</v>
       </c>
       <c r="J21" s="55"/>
@@ -9985,14 +10141,14 @@
       <c r="Y21" s="55"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="158">
+      <c r="B22" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>50</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="159"/>
       <c r="D22" s="55"/>
       <c r="E22" s="57" t="s">
         <v>80</v>
@@ -10000,9 +10156,9 @@
       <c r="F22" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="162"/>
+      <c r="G22" s="160"/>
       <c r="H22" s="54"/>
-      <c r="I22" s="136">
+      <c r="I22" s="134">
         <v>20</v>
       </c>
       <c r="J22" s="55"/>
@@ -10034,7 +10190,7 @@
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="54"/>
-      <c r="I23" s="139">
+      <c r="I23" s="137">
         <v>20</v>
       </c>
       <c r="J23" s="55"/>
@@ -10068,7 +10224,7 @@
         <v>153</v>
       </c>
       <c r="H24" s="54"/>
-      <c r="I24" s="146">
+      <c r="I24" s="144">
         <v>20</v>
       </c>
       <c r="J24" s="55"/>
@@ -10098,9 +10254,9 @@
       <c r="F25" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="163"/>
+      <c r="G25" s="161"/>
       <c r="H25" s="54"/>
-      <c r="I25" s="136">
+      <c r="I25" s="134">
         <v>20</v>
       </c>
       <c r="J25" s="55"/>
@@ -10130,9 +10286,9 @@
       <c r="F26" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="164"/>
+      <c r="G26" s="162"/>
       <c r="H26" s="54"/>
-      <c r="I26" s="139">
+      <c r="I26" s="137">
         <v>20</v>
       </c>
       <c r="J26" s="55"/>
@@ -10162,9 +10318,9 @@
       <c r="F27" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="165"/>
+      <c r="G27" s="163"/>
       <c r="H27" s="81"/>
-      <c r="I27" s="146">
+      <c r="I27" s="144">
         <v>20</v>
       </c>
       <c r="J27" s="55"/>
@@ -10392,388 +10548,408 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F3:G4 F6:G6">
-    <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="120" priority="116" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="111" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="119" priority="117" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="116" priority="120" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:G5">
-    <cfRule type="containsText" dxfId="108" priority="104" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="113" priority="111" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="containsText" dxfId="102" priority="98" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="108" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="99" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8">
-    <cfRule type="containsText" dxfId="96" priority="92" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="102" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="101" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="containsText" dxfId="90" priority="86" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="96" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="84" priority="80" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="90" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G10">
-    <cfRule type="containsText" dxfId="78" priority="74" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="84" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="78" priority="74" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12">
-    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13">
-    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G14">
-    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:G15">
-    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G18">
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:G19">
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G21">
-    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G23">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G27">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Inst">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",F7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",F7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",F7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",F7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",F7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10786,23 +10962,23 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="6" width="11.41015625" style="56"/>
+    <col min="1" max="6" width="11.3515625" style="56"/>
     <col min="7" max="7" width="5.1171875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="11.41015625" style="56"/>
-    <col min="9" max="9" width="7.41015625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="11.41015625" style="56"/>
+    <col min="8" max="8" width="11.3515625" style="56"/>
+    <col min="9" max="9" width="7.3515625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="11.3515625" style="56"/>
     <col min="11" max="11" width="12.87890625" style="56" customWidth="1"/>
     <col min="12" max="12" width="8.87890625" style="56" customWidth="1"/>
-    <col min="13" max="13" width="8.41015625" style="56" customWidth="1"/>
-    <col min="14" max="14" width="11.41015625" style="56"/>
-    <col min="15" max="15" width="3.5859375" style="56" customWidth="1"/>
-    <col min="16" max="16384" width="11.41015625" style="56"/>
+    <col min="13" max="13" width="8.3515625" style="56" customWidth="1"/>
+    <col min="14" max="14" width="11.3515625" style="56"/>
+    <col min="15" max="15" width="3.52734375" style="56" customWidth="1"/>
+    <col min="16" max="16384" width="11.3515625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -10826,31 +11002,31 @@
       <c r="E2" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="167" t="s">
+      <c r="K2" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="167" t="s">
+      <c r="L2" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="167" t="s">
+      <c r="M2" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="168" t="s">
+      <c r="N2" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="169"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="168" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="56">
@@ -10864,7 +11040,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="168" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="56">
@@ -10878,7 +11054,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="168" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="56">
@@ -10892,7 +11068,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="168" t="s">
         <v>115</v>
       </c>
       <c r="B7" s="56">
@@ -10906,7 +11082,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A8" s="170" t="s">
+      <c r="A8" s="168" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="56">
@@ -10920,7 +11096,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="168" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="56">
@@ -10928,7 +11104,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="168" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="56" t="s">
@@ -10936,19 +11112,19 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="170"/>
+      <c r="A12" s="168"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="168" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="56">
         <v>0.5</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="128"/>
+      <c r="F13" s="126"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="56" t="s">
@@ -10957,22 +11133,22 @@
       <c r="B14" s="56">
         <v>1</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="130">
+      <c r="F14" s="128">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="168" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="56">
         <v>2</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="130"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="56" t="s">
@@ -10981,25 +11157,26 @@
       <c r="B16" s="56">
         <v>4</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="128" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="170" t="s">
+      <c r="A17" s="168" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="56">
         <v>6</v>
       </c>
-      <c r="E17" s="131">
+      <c r="E17" s="129">
         <v>6</v>
       </c>
-      <c r="F17" s="130">
-        <v>14</v>
+      <c r="F17" s="128">
+        <f>E17*2</f>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
@@ -11009,19 +11186,21 @@
       <c r="B18" s="56">
         <v>8</v>
       </c>
-      <c r="E18" s="131">
+      <c r="E18" s="129">
         <v>7</v>
       </c>
-      <c r="F18" s="130">
-        <v>15</v>
+      <c r="F18" s="128">
+        <f t="shared" ref="F18:F31" si="0">E18*2</f>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="E19" s="131">
+      <c r="E19" s="129">
         <v>8</v>
       </c>
-      <c r="F19" s="130">
-        <v>15</v>
+      <c r="F19" s="128">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
@@ -11029,139 +11208,126 @@
         <v>72</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="131">
+        <v>251</v>
+      </c>
+      <c r="E20" s="129">
         <v>9</v>
       </c>
-      <c r="F20" s="130">
-        <v>16</v>
+      <c r="F20" s="128">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="E21" s="131">
+      <c r="E21" s="129">
         <v>10</v>
       </c>
-      <c r="F21" s="130">
-        <v>16</v>
+      <c r="F21" s="128">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="56" t="s">
-        <v>109</v>
+      <c r="A22" s="56">
+        <v>2</v>
       </c>
       <c r="B22" s="56">
         <v>1</v>
       </c>
-      <c r="E22" s="131">
+      <c r="E22" s="129">
         <v>11</v>
       </c>
-      <c r="F22" s="130">
+      <c r="F22" s="128">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="168"/>
+      <c r="E23" s="129">
+        <v>12</v>
+      </c>
+      <c r="F23" s="128">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="168"/>
+      <c r="E24" s="129">
+        <v>13</v>
+      </c>
+      <c r="F24" s="128">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="168"/>
+      <c r="E25" s="129">
+        <v>14</v>
+      </c>
+      <c r="F25" s="128">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="168"/>
+      <c r="E26" s="129">
+        <v>15</v>
+      </c>
+      <c r="F26" s="128">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="168"/>
+      <c r="E27" s="129">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="56">
-        <v>2</v>
-      </c>
-      <c r="E23" s="131">
-        <v>12</v>
-      </c>
-      <c r="F23" s="130">
+      <c r="F27" s="128">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="168"/>
+      <c r="E28" s="129">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="56">
-        <v>3</v>
-      </c>
-      <c r="E24" s="131">
-        <v>13</v>
-      </c>
-      <c r="F24" s="130">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="56">
-        <v>4</v>
-      </c>
-      <c r="E25" s="131">
-        <v>14</v>
-      </c>
-      <c r="F25" s="130">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" s="170" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="56">
-        <v>5</v>
-      </c>
-      <c r="E26" s="131">
-        <v>15</v>
-      </c>
-      <c r="F26" s="130">
+      <c r="F28" s="128">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="168"/>
+      <c r="E29" s="129">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="56">
-        <v>6</v>
-      </c>
-      <c r="E27" s="131">
-        <v>16</v>
-      </c>
-      <c r="F27" s="130">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="170"/>
-      <c r="E28" s="131">
-        <v>17</v>
-      </c>
-      <c r="F28" s="130">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="170"/>
-      <c r="E29" s="131">
-        <v>18</v>
-      </c>
-      <c r="F29" s="130">
+      <c r="F29" s="128">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="E30" s="129">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="E30" s="131">
-        <v>19</v>
-      </c>
-      <c r="F30" s="130">
-        <v>19</v>
+      <c r="F30" s="128">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="132">
+      <c r="E31" s="130">
         <v>20</v>
       </c>
-      <c r="F31" s="133">
-        <v>20</v>
+      <c r="F31" s="131">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -11174,19 +11340,19 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="127.41015625" style="63" customWidth="1"/>
-    <col min="2" max="8" width="11.41015625" style="63" customWidth="1"/>
-    <col min="9" max="16384" width="11.41015625" style="63" hidden="1"/>
+    <col min="1" max="1" width="127.3515625" style="63" customWidth="1"/>
+    <col min="2" max="8" width="11.3515625" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="11.3515625" style="63" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A1" s="123"/>
+      <c r="A1" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -11210,12 +11376,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.1171875" customWidth="1"/>
-    <col min="2" max="2" width="8.41015625" customWidth="1"/>
+    <col min="2" max="2" width="8.3515625" customWidth="1"/>
     <col min="4" max="4" width="5.87890625" customWidth="1"/>
     <col min="5" max="5" width="15.87890625" customWidth="1"/>
-    <col min="6" max="6" width="8.41015625" customWidth="1"/>
-    <col min="7" max="7" width="13.41015625" customWidth="1"/>
-    <col min="8" max="8" width="6.5859375" customWidth="1"/>
+    <col min="6" max="6" width="8.3515625" customWidth="1"/>
+    <col min="7" max="7" width="13.3515625" customWidth="1"/>
+    <col min="8" max="8" width="6.52734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A3F68-2A14-4CAB-A77C-14154C82B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1136344-B464-4293-9D3C-09636BED46B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="251">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>Summe Stufe konsumierter Tränke:</t>
-  </si>
-  <si>
-    <t>Taschendiebstahl</t>
-  </si>
-  <si>
-    <t>Schlossknacken</t>
   </si>
   <si>
     <t>Social Skills</t>
@@ -798,6 +792,9 @@
   </si>
   <si>
     <t>Kosten</t>
+  </si>
+  <si>
+    <t>Fingerfertigkeit</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2175,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
-  <dxfs count="237">
+  <dxfs count="225">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2228,51 +2225,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3179,51 +3131,6 @@
         <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4423,8 +4330,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4462,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -4476,7 +4383,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
       <c r="J1" s="237" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K1" s="237"/>
       <c r="L1" s="237"/>
@@ -4504,7 +4411,7 @@
       <c r="X1" s="46"/>
       <c r="Y1" s="48"/>
       <c r="Z1" s="50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA1" s="50" t="s">
         <v>9</v>
@@ -4517,7 +4424,7 @@
     </row>
     <row r="2" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -4610,7 +4517,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A4" s="64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
@@ -4677,7 +4584,7 @@
       <c r="O5" s="55"/>
       <c r="P5" s="56"/>
       <c r="Q5" s="66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R5" s="11">
         <f>CharacterSheet!B5+S5</f>
@@ -4765,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -4779,7 +4686,7 @@
       <c r="O7" s="55"/>
       <c r="P7" s="56"/>
       <c r="Q7" s="86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R7" s="12">
         <f>CharacterSheet!B7+S7</f>
@@ -4787,13 +4694,13 @@
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U7" s="76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V7" s="76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="W7" s="67">
         <f>CharacterSheet!I6</f>
@@ -4813,7 +4720,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -4872,7 +4779,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -4895,7 +4802,7 @@
       <c r="O9" s="85"/>
       <c r="P9" s="56"/>
       <c r="Q9" s="69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R9" s="14">
         <f>CharacterSheet!B9+S9</f>
@@ -4934,7 +4841,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -4999,7 +4906,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="87">
         <v>0</v>
@@ -5054,7 +4961,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" s="96">
         <v>0</v>
@@ -5077,7 +4984,7 @@
       <c r="O12" s="88"/>
       <c r="P12" s="56"/>
       <c r="Q12" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R12" s="15">
         <f>ROUNDUP((R7+R5)/2,0)</f>
@@ -5152,7 +5059,7 @@
       <c r="X13" s="60"/>
       <c r="Y13" s="56"/>
       <c r="Z13" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AA13" s="64" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
@@ -5163,7 +5070,7 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="62"/>
     </row>
-    <row r="14" spans="1:31" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:31" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="100"/>
       <c r="B14" s="79"/>
       <c r="C14" s="55"/>
@@ -5185,14 +5092,16 @@
       </c>
       <c r="R14" s="55"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" s="76" t="s">
+      <c r="T14" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="U14" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="V14" s="29"/>
-      <c r="W14" s="67">
+      <c r="V14" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="W14" s="94">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
@@ -5209,10 +5118,10 @@
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="98" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
@@ -5229,19 +5138,12 @@
       <c r="Q15" s="246"/>
       <c r="R15" s="55"/>
       <c r="S15" s="99"/>
-      <c r="T15" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="W15" s="94">
-        <f>CharacterSheet!I13</f>
-        <v>20</v>
-      </c>
+      <c r="T15" s="242" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="243"/>
+      <c r="V15" s="243"/>
+      <c r="W15" s="244"/>
       <c r="X15" s="60"/>
       <c r="Y15" s="56"/>
       <c r="Z15" s="55"/>
@@ -5253,7 +5155,7 @@
     </row>
     <row r="16" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="235" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="117">
         <f>CharacterSheet!B15</f>
@@ -5282,16 +5184,23 @@
       <c r="Q16" s="247"/>
       <c r="R16" s="55"/>
       <c r="S16" s="101"/>
-      <c r="T16" s="242" t="s">
+      <c r="T16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="243"/>
-      <c r="V16" s="243"/>
-      <c r="W16" s="244"/>
+      <c r="U16" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="W16" s="58">
+        <f>CharacterSheet!I13</f>
+        <v>20</v>
+      </c>
       <c r="X16" s="60"/>
       <c r="Y16" s="56"/>
       <c r="Z16" s="102" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA16" s="55"/>
       <c r="AB16" s="55"/>
@@ -5301,7 +5210,7 @@
     </row>
     <row r="17" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="236" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="118">
         <f>CharacterSheet!B16</f>
@@ -5332,39 +5241,37 @@
       </c>
       <c r="R17" s="55"/>
       <c r="S17" s="99"/>
-      <c r="T17" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="U17" s="97" t="s">
+      <c r="T17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="V17" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="W17" s="58">
+      <c r="U17" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="32"/>
+      <c r="W17" s="67">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
       <c r="X17" s="60"/>
       <c r="Y17" s="56"/>
       <c r="Z17" s="104" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA17" s="105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AB17" s="105" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AC17" s="105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AD17" s="55"/>
       <c r="AE17" s="62"/>
     </row>
     <row r="18" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="119" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="119">
         <f>CharacterSheet!B17</f>
@@ -5391,7 +5298,7 @@
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M18" s="82"/>
       <c r="N18" s="55"/>
@@ -5401,10 +5308,10 @@
       <c r="R18" s="55"/>
       <c r="S18" s="99"/>
       <c r="T18" s="66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U18" s="76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V18" s="32"/>
       <c r="W18" s="67">
@@ -5422,7 +5329,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4">
         <f>CharacterSheet!B18</f>
@@ -5455,12 +5362,14 @@
       <c r="R19" s="54"/>
       <c r="S19" s="99"/>
       <c r="T19" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="U19" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="V19" s="32"/>
+      <c r="V19" s="76" t="s">
+        <v>63</v>
+      </c>
       <c r="W19" s="67">
         <f>CharacterSheet!I16</f>
         <v>20</v>
@@ -5476,7 +5385,7 @@
     </row>
     <row r="20" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="4">
         <f>CharacterSheet!B19</f>
@@ -5509,13 +5418,13 @@
       <c r="R20" s="54"/>
       <c r="S20" s="99"/>
       <c r="T20" s="66" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U20" s="76" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V20" s="76" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="W20" s="67">
         <f>CharacterSheet!I17</f>
@@ -5530,9 +5439,9 @@
       <c r="AD20" s="55"/>
       <c r="AE20" s="62"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="4">
         <f>CharacterSheet!B20</f>
@@ -5562,20 +5471,20 @@
       <c r="O21" s="55"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="106" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R21" s="75"/>
       <c r="S21" s="99"/>
-      <c r="T21" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="U21" s="76" t="s">
+      <c r="T21" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="V21" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="W21" s="67">
+      <c r="U21" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="V21" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="W21" s="94">
         <f>CharacterSheet!I18</f>
         <v>20</v>
       </c>
@@ -5590,7 +5499,7 @@
     </row>
     <row r="22" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" s="4">
         <f>CharacterSheet!B21</f>
@@ -5612,7 +5521,7 @@
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
       <c r="I22" s="107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J22" s="78"/>
       <c r="K22" s="55"/>
@@ -5624,19 +5533,12 @@
       <c r="Q22" s="77"/>
       <c r="R22" s="78"/>
       <c r="S22" s="99"/>
-      <c r="T22" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="U22" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="V22" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="W22" s="94">
-        <f>CharacterSheet!I19</f>
-        <v>20</v>
-      </c>
+      <c r="T22" s="242" t="s">
+        <v>72</v>
+      </c>
+      <c r="U22" s="243"/>
+      <c r="V22" s="243"/>
+      <c r="W22" s="244"/>
       <c r="X22" s="60"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="55"/>
@@ -5648,7 +5550,7 @@
     </row>
     <row r="23" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="4">
         <f>CharacterSheet!B22</f>
@@ -5680,12 +5582,17 @@
       <c r="Q23" s="80"/>
       <c r="R23" s="82"/>
       <c r="S23" s="101"/>
-      <c r="T23" s="242" t="s">
+      <c r="T23" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="U23" s="243"/>
-      <c r="V23" s="243"/>
-      <c r="W23" s="244"/>
+      <c r="U23" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="36"/>
+      <c r="W23" s="58">
+        <f>CharacterSheet!I19</f>
+        <v>20</v>
+      </c>
       <c r="X23" s="60"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="55"/>
@@ -5718,14 +5625,14 @@
       <c r="Q24" s="55"/>
       <c r="R24" s="55"/>
       <c r="S24" s="99"/>
-      <c r="T24" s="57" t="s">
+      <c r="T24" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="U24" s="97" t="s">
+      <c r="U24" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="V24" s="36"/>
-      <c r="W24" s="58">
+      <c r="V24" s="34"/>
+      <c r="W24" s="94">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
@@ -5740,16 +5647,16 @@
     </row>
     <row r="25" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="109" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E25" s="55" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
@@ -5769,17 +5676,12 @@
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
       <c r="S25" s="99"/>
-      <c r="T25" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="U25" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="94">
-        <f>CharacterSheet!I21</f>
-        <v>20</v>
-      </c>
+      <c r="T25" s="242" t="s">
+        <v>77</v>
+      </c>
+      <c r="U25" s="243"/>
+      <c r="V25" s="243"/>
+      <c r="W25" s="244"/>
       <c r="X25" s="60"/>
       <c r="Y25" s="56"/>
       <c r="Z25" s="55"/>
@@ -5811,12 +5713,17 @@
       <c r="Q26" s="55"/>
       <c r="R26" s="55"/>
       <c r="S26" s="101"/>
-      <c r="T26" s="242" t="s">
-        <v>79</v>
-      </c>
-      <c r="U26" s="243"/>
-      <c r="V26" s="243"/>
-      <c r="W26" s="244"/>
+      <c r="T26" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="U26" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="V26" s="38"/>
+      <c r="W26" s="58">
+        <f>CharacterSheet!I21</f>
+        <v>20</v>
+      </c>
       <c r="X26" s="60"/>
       <c r="Y26" s="56"/>
       <c r="Z26" s="55"/>
@@ -5848,14 +5755,14 @@
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
       <c r="S27" s="99"/>
-      <c r="T27" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="U27" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="V27" s="38"/>
-      <c r="W27" s="58">
+      <c r="T27" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="U27" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="V27" s="24"/>
+      <c r="W27" s="67">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
@@ -5868,7 +5775,7 @@
       <c r="AD27" s="55"/>
       <c r="AE27" s="62"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="112" t="s">
         <v>19</v>
       </c>
@@ -5880,7 +5787,7 @@
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
       <c r="I28" s="251" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J28" s="252"/>
       <c r="K28" s="252"/>
@@ -5892,14 +5799,16 @@
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
       <c r="S28" s="99"/>
-      <c r="T28" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="U28" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="V28" s="24"/>
-      <c r="W28" s="67">
+      <c r="T28" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="U28" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="W28" s="94">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
@@ -5934,19 +5843,12 @@
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
       <c r="S29" s="99"/>
-      <c r="T29" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="U29" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="V29" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="W29" s="94">
-        <f>CharacterSheet!I24</f>
-        <v>20</v>
-      </c>
+      <c r="T29" s="242" t="s">
+        <v>81</v>
+      </c>
+      <c r="U29" s="243"/>
+      <c r="V29" s="243"/>
+      <c r="W29" s="244"/>
       <c r="X29" s="60"/>
       <c r="Y29" s="56"/>
       <c r="Z29" s="55"/>
@@ -5956,7 +5858,7 @@
       <c r="AD29" s="55"/>
       <c r="AE29" s="62"/>
     </row>
-    <row r="30" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A30" s="112" t="s">
         <v>20</v>
       </c>
@@ -5978,12 +5880,17 @@
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
       <c r="S30" s="101"/>
-      <c r="T30" s="242" t="s">
-        <v>83</v>
-      </c>
-      <c r="U30" s="243"/>
-      <c r="V30" s="243"/>
-      <c r="W30" s="244"/>
+      <c r="T30" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="U30" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="V30" s="40"/>
+      <c r="W30" s="58">
+        <f>CharacterSheet!I24</f>
+        <v>20</v>
+      </c>
       <c r="X30" s="60"/>
       <c r="Y30" s="56"/>
       <c r="Z30" s="55"/>
@@ -5995,7 +5902,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A31" s="105" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="105"/>
@@ -6015,14 +5922,14 @@
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
       <c r="S31" s="99"/>
-      <c r="T31" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="U31" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="V31" s="40"/>
-      <c r="W31" s="58">
+      <c r="T31" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="U31" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="V31" s="41"/>
+      <c r="W31" s="67">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
@@ -6035,9 +5942,9 @@
       <c r="AD31" s="55"/>
       <c r="AE31" s="62"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B32" s="105"/>
       <c r="C32" s="105"/>
@@ -6057,14 +5964,14 @@
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
       <c r="S32" s="99"/>
-      <c r="T32" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="U32" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="V32" s="41"/>
-      <c r="W32" s="67">
+      <c r="T32" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="U32" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="V32" s="42"/>
+      <c r="W32" s="94">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
@@ -6077,7 +5984,7 @@
       <c r="AD32" s="55"/>
       <c r="AE32" s="62"/>
     </row>
-    <row r="33" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A33" s="99"/>
       <c r="B33" s="99"/>
       <c r="C33" s="99"/>
@@ -6097,17 +6004,10 @@
       <c r="Q33" s="55"/>
       <c r="R33" s="55"/>
       <c r="S33" s="99"/>
-      <c r="T33" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="U33" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="V33" s="42"/>
-      <c r="W33" s="94">
-        <f>CharacterSheet!I27</f>
-        <v>20</v>
-      </c>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
       <c r="X33" s="60"/>
       <c r="Y33" s="56"/>
       <c r="Z33" s="55"/>
@@ -6203,10 +6103,6 @@
       <c r="Q36" s="56"/>
       <c r="R36" s="114"/>
       <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
       <c r="X36" s="60"/>
       <c r="Y36" s="56"/>
       <c r="Z36" s="55"/>
@@ -6505,372 +6401,353 @@
       <c r="AE72" s="62"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="I29:M29"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T29:W29"/>
     <mergeCell ref="Q14:Q16"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="T22:W22"/>
     <mergeCell ref="I28:M28"/>
   </mergeCells>
-  <conditionalFormatting sqref="U4:V5 U1:V1 U27:V28 U7:V7 T34:U1048576 U31:V33">
-    <cfRule type="containsText" dxfId="236" priority="119" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="U4:V5 U1:V1 U26:V27 U7:V7 T33:U1048576 U30:V32">
+    <cfRule type="containsText" dxfId="224" priority="119" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="120" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="223" priority="120" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="121" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="222" priority="121" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="122" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="221" priority="122" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="123" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="220" priority="123" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="124" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="219" priority="124" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34:R1048576 S1:S33 W34:W1048576 X1:X33">
-    <cfRule type="cellIs" dxfId="230" priority="118" operator="lessThan">
+  <conditionalFormatting sqref="R34:R1048576 S1:S33 W33:W1048576 X1:X33">
+    <cfRule type="cellIs" dxfId="218" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:V6">
-    <cfRule type="containsText" dxfId="229" priority="111" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="217" priority="111" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="112" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="216" priority="112" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="113" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="215" priority="113" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="114" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="214" priority="114" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="115" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="213" priority="115" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="116" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="212" priority="116" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:V8">
-    <cfRule type="containsText" dxfId="223" priority="105" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="211" priority="105" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="106" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="210" priority="106" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="107" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="209" priority="107" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="108" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="208" priority="108" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="109" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="207" priority="109" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="110" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="206" priority="110" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:V9">
-    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="205" priority="99" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="204" priority="100" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="203" priority="101" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="102" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="202" priority="102" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="103" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="201" priority="103" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="104" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="200" priority="104" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:V10">
-    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="199" priority="93" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="198" priority="94" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="95" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="197" priority="95" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="96" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="196" priority="96" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="195" priority="97" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="98" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="194" priority="98" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:V12">
-    <cfRule type="containsText" dxfId="205" priority="87" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="193" priority="87" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="88" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="192" priority="88" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="89" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="191" priority="89" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="90" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="190" priority="90" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="91" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="189" priority="91" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="92" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="188" priority="92" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:V13">
-    <cfRule type="containsText" dxfId="199" priority="75" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="187" priority="75" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="76" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="186" priority="76" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="77" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="185" priority="77" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="78" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="184" priority="78" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="79" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="183" priority="79" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="80" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="182" priority="80" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16:V16">
+    <cfRule type="containsText" dxfId="181" priority="57" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="58" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="179" priority="59" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="60" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="61" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="62" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="containsText" dxfId="193" priority="69" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="175" priority="63" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="70" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="174" priority="64" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="71" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="173" priority="65" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="72" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="172" priority="66" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="73" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="171" priority="67" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="74" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="170" priority="68" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:V17">
-    <cfRule type="containsText" dxfId="187" priority="57" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="169" priority="51" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="58" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="168" priority="52" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="59" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="167" priority="53" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="60" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="166" priority="54" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="61" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="165" priority="55" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="62" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="164" priority="56" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U15:V15">
-    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:V18">
-    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19:V19">
-    <cfRule type="containsText" dxfId="169" priority="45" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="U19:V20">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="46" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="48" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U20:V21">
-    <cfRule type="containsText" dxfId="163" priority="39" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="40" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="42" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="43" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="44" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U20)))</formula>
+  <conditionalFormatting sqref="U21:V21">
+    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U22:V22">
-    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="34" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="36" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="38" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U22)))</formula>
+  <conditionalFormatting sqref="U23:V24">
+    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U24:V25">
-    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="30" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="32" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29:V29">
-    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="22" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",U29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",U29)))</formula>
+  <conditionalFormatting sqref="U28:V28">
+    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:V3">
-    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="16" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="18" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="20" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="Leicht">
+    <cfRule type="containsText" dxfId="126" priority="12" operator="containsText" text="Leicht">
       <formula>NOT(ISERROR(SEARCH("Leicht",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="Schwer">
+    <cfRule type="containsText" dxfId="125" priority="13" operator="containsText" text="Schwer">
       <formula>NOT(ISERROR(SEARCH("Schwer",AA13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6885,40 +6762,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F25">
-    <cfRule type="containsText" dxfId="130" priority="10" operator="containsText" text="Debuff">
+    <cfRule type="containsText" dxfId="124" priority="10" operator="containsText" text="Debuff">
       <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F25">
-    <cfRule type="containsText" dxfId="129" priority="8" operator="containsText" text="Verstümmelt">
+    <cfRule type="containsText" dxfId="123" priority="8" operator="containsText" text="Verstümmelt">
       <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="9" operator="containsText" text="Verkrüppelt">
+    <cfRule type="containsText" dxfId="122" priority="9" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34:U1048576 U1:V33">
-    <cfRule type="containsText" dxfId="127" priority="7" operator="containsText" text="Inst">
+  <conditionalFormatting sqref="T33:U1048576 U1:V32">
+    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="containsText" dxfId="126" priority="1" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="120" priority="1" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="2" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="119" priority="2" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="118" priority="3" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="4" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="117" priority="4" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="5" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",U8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="6" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="115" priority="6" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6952,12 +6829,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
@@ -6967,17 +6844,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7017,10 +6894,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="124" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="203" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="203" t="s">
         <v>1</v>
@@ -7035,18 +6912,18 @@
         <v>2</v>
       </c>
       <c r="G1" s="205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H1" s="206" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I1" s="216"/>
       <c r="J1" s="125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K1" s="123"/>
       <c r="L1" s="254" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M1" s="255"/>
       <c r="N1" s="255"/>
@@ -7069,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="232" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M2" s="257">
         <f>O4-M4</f>
@@ -7095,15 +6972,15 @@
         <v>0</v>
       </c>
       <c r="L3" s="259" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M3" s="260"/>
       <c r="N3" s="261" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O3" s="262"/>
       <c r="P3" s="263" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q3" s="264"/>
       <c r="R3" s="63"/>
@@ -7118,28 +6995,28 @@
       <c r="G4" s="76"/>
       <c r="H4" s="67"/>
       <c r="I4" s="220" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J4" s="211">
         <f>B4*0.4</f>
         <v>0</v>
       </c>
       <c r="L4" s="196" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M4" s="197">
         <f>SUM(M5:M27)</f>
         <v>0</v>
       </c>
       <c r="N4" s="195" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O4" s="194">
         <f>SUM(O5:O27)</f>
         <v>30000</v>
       </c>
       <c r="P4" s="193" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="192">
         <f>SUM(Q5:Q27)</f>
@@ -7164,7 +7041,7 @@
       <c r="L5" s="169"/>
       <c r="M5" s="180"/>
       <c r="N5" s="183" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O5" s="184">
         <v>30000</v>
@@ -7195,13 +7072,13 @@
     </row>
     <row r="7" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="124" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="203" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="204" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="204" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="204" t="s">
         <v>34</v>
@@ -7213,14 +7090,14 @@
         <v>2</v>
       </c>
       <c r="G7" s="205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H7" s="206" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I7" s="123"/>
       <c r="J7" s="125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L7" s="170"/>
       <c r="M7" s="181"/>
@@ -7240,7 +7117,7 @@
       <c r="G8" s="202"/>
       <c r="H8" s="71"/>
       <c r="I8" s="217" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J8" s="214">
         <f>B8*0.4</f>
@@ -7311,7 +7188,7 @@
       <c r="G11" s="176"/>
       <c r="H11" s="67"/>
       <c r="I11" s="217" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="211">
         <f>B11*0.4</f>
@@ -7371,13 +7248,13 @@
     </row>
     <row r="14" spans="1:18" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="208" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="205" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="209" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="209" t="s">
         <v>34</v>
@@ -7386,15 +7263,15 @@
         <v>3</v>
       </c>
       <c r="F14" s="205" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G14" s="210" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H14" s="223"/>
       <c r="I14" s="223"/>
       <c r="J14" s="172" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K14" s="223"/>
       <c r="L14" s="170"/>
@@ -8605,13 +8482,13 @@
     </row>
     <row r="65" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A65" s="224" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B65" s="199" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="199" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D65" s="225" t="s">
         <v>34</v>
@@ -8623,12 +8500,12 @@
         <v>2</v>
       </c>
       <c r="G65" s="226" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H65" s="60"/>
       <c r="I65" s="223"/>
       <c r="J65" s="231" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K65" s="223"/>
       <c r="R65" s="63"/>
@@ -9283,7 +9160,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9310,14 +9187,14 @@
   <sheetData>
     <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="122" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="122" t="s">
         <v>6</v>
@@ -9327,17 +9204,17 @@
       </c>
       <c r="G1" s="122"/>
       <c r="H1" s="122" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I1" s="122" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="123"/>
       <c r="K1" s="132" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L1" s="125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P1" s="60"/>
     </row>
@@ -9368,16 +9245,16 @@
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
       <c r="L2" s="104" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M2" s="105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N2" s="105" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O2" s="105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P2" s="101"/>
       <c r="Q2" s="55"/>
@@ -9472,7 +9349,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A5" s="66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="139">
         <v>10</v>
@@ -9523,13 +9400,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="137">
@@ -9554,7 +9431,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A7" s="66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="141">
         <v>10</v>
@@ -9635,7 +9512,7 @@
     </row>
     <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="142">
         <v>5</v>
@@ -9734,7 +9611,7 @@
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
       <c r="O11" s="147" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P11" s="55"/>
       <c r="Q11" s="55"/>
@@ -9747,20 +9624,22 @@
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="60"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
-      <c r="E12" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="H12" s="54"/>
-      <c r="I12" s="137">
+      <c r="I12" s="144">
         <v>20</v>
       </c>
       <c r="J12" s="55"/>
@@ -9768,7 +9647,7 @@
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
       <c r="O12" s="65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P12" s="65">
         <f>B4*4+B7</f>
@@ -9784,26 +9663,26 @@
       <c r="X12" s="55"/>
       <c r="Y12" s="55"/>
     </row>
-    <row r="13" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A13" s="123" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
-      <c r="E13" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>153</v>
+      <c r="E13" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="148" t="s">
+        <v>67</v>
       </c>
       <c r="H13" s="54"/>
-      <c r="I13" s="144">
+      <c r="I13" s="134">
         <v>20</v>
       </c>
       <c r="J13" s="55"/>
@@ -9811,7 +9690,7 @@
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
       <c r="O13" s="65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P13" s="65">
         <f>B6*4+B7</f>
@@ -9831,17 +9710,15 @@
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="148" t="s">
-        <v>69</v>
-      </c>
+      <c r="F14" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="151"/>
       <c r="H14" s="54"/>
-      <c r="I14" s="134">
+      <c r="I14" s="137">
         <v>20</v>
       </c>
       <c r="J14" s="55"/>
@@ -9863,7 +9740,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A15" s="149" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="150">
         <v>200</v>
@@ -9871,10 +9748,10 @@
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="151"/>
       <c r="H15" s="54"/>
@@ -9900,7 +9777,7 @@
     </row>
     <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="152" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="153">
         <v>12</v>
@@ -9908,12 +9785,14 @@
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="151"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="H16" s="54"/>
       <c r="I16" s="137">
         <v>20</v>
@@ -9937,7 +9816,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A17" s="154" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="155">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -9946,13 +9825,13 @@
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="66" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="H17" s="54"/>
       <c r="I17" s="137">
@@ -9975,9 +9854,9 @@
       <c r="X17" s="55"/>
       <c r="Y17" s="55"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="154" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
@@ -9985,17 +9864,17 @@
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>153</v>
+      <c r="F18" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="157" t="s">
+        <v>97</v>
       </c>
       <c r="H18" s="54"/>
-      <c r="I18" s="137">
+      <c r="I18" s="144">
         <v>20</v>
       </c>
       <c r="J18" s="55"/>
@@ -10015,9 +9894,9 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
     </row>
-    <row r="19" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A19" s="154" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -10027,19 +9906,17 @@
         <v>25</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="157" t="s">
-        <v>99</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="158"/>
       <c r="H19" s="54"/>
-      <c r="I19" s="144">
+      <c r="I19" s="134">
         <v>20</v>
       </c>
       <c r="J19" s="55"/>
@@ -10059,9 +9936,9 @@
       <c r="X19" s="55"/>
       <c r="Y19" s="55"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="154" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B20" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -10072,17 +9949,17 @@
         <v>25</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="158"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="134">
+      <c r="G20" s="157"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="144">
         <v>20</v>
       </c>
       <c r="J20" s="55"/>
@@ -10102,9 +9979,9 @@
       <c r="X20" s="55"/>
       <c r="Y20" s="55"/>
     </row>
-    <row r="21" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A21" s="154" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
@@ -10112,15 +9989,15 @@
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="55"/>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="144">
+      <c r="F21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="160"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="134">
         <v>20</v>
       </c>
       <c r="J21" s="55"/>
@@ -10142,7 +10019,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A22" s="154" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" s="156">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
@@ -10150,15 +10027,15 @@
       </c>
       <c r="C22" s="159"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="160"/>
+      <c r="E22" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="22"/>
       <c r="H22" s="54"/>
-      <c r="I22" s="134">
+      <c r="I22" s="137">
         <v>20</v>
       </c>
       <c r="J22" s="55"/>
@@ -10178,19 +10055,21 @@
       <c r="X22" s="55"/>
       <c r="Y22" s="55"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
-      <c r="E23" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="22"/>
+      <c r="E23" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="H23" s="54"/>
-      <c r="I23" s="137">
+      <c r="I23" s="144">
         <v>20</v>
       </c>
       <c r="J23" s="55"/>
@@ -10210,21 +10089,19 @@
       <c r="X23" s="55"/>
       <c r="Y23" s="55"/>
     </row>
-    <row r="24" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>153</v>
-      </c>
+      <c r="F24" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="161"/>
       <c r="H24" s="54"/>
-      <c r="I24" s="144">
+      <c r="I24" s="134">
         <v>20</v>
       </c>
       <c r="J24" s="55"/>
@@ -10248,15 +10125,15 @@
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
-      <c r="E25" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="161"/>
+      <c r="E25" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="162"/>
       <c r="H25" s="54"/>
-      <c r="I25" s="134">
+      <c r="I25" s="137">
         <v>20</v>
       </c>
       <c r="J25" s="55"/>
@@ -10276,19 +10153,19 @@
       <c r="X25" s="55"/>
       <c r="Y25" s="55"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
-      <c r="E26" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="162"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="137">
+      <c r="E26" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="163"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="144">
         <v>20</v>
       </c>
       <c r="J26" s="55"/>
@@ -10308,21 +10185,12 @@
       <c r="X26" s="55"/>
       <c r="Y26" s="55"/>
     </row>
-    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
-      <c r="E27" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="163"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="144">
-        <v>20</v>
-      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
@@ -10367,7 +10235,10 @@
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="H29" s="55">
+        <f>SUM(H2:H27)</f>
+        <v>0</v>
+      </c>
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
@@ -10390,10 +10261,7 @@
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
-      <c r="H30" s="55">
-        <f>SUM(H2:H28)</f>
-        <v>0</v>
-      </c>
+      <c r="H30" s="55"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
       <c r="K30" s="55"/>
@@ -10528,8 +10396,6 @@
       <c r="Y35" s="55"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.5">
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55"/>
@@ -10548,383 +10414,363 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F3:G4 F6:G6">
-    <cfRule type="containsText" dxfId="120" priority="116" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="117" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="113" priority="117" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="111" priority="119" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="120" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="110" priority="120" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="109" priority="121" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:G5">
-    <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="111" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="107" priority="111" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="105" priority="113" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="103" priority="115" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="containsText" dxfId="108" priority="104" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="101" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="100" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="99" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="98" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="97" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8">
-    <cfRule type="containsText" dxfId="102" priority="98" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="99" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="94" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="93" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="92" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="91" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="containsText" dxfId="96" priority="92" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="90" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="88" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="87" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="86" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="85" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="90" priority="86" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="83" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="82" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="81" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="80" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="79" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G10">
-    <cfRule type="containsText" dxfId="84" priority="80" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="76" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="75" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="74" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="73" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsText" dxfId="78" priority="74" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="68" priority="78" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="67" priority="79" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12">
-    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13">
-    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G14">
-    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:G15">
-    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G16">
-    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="F16:G17">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:G18">
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",F17)))</formula>
+  <conditionalFormatting sqref="F18:G18">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:G19">
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="F19:G20">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G21">
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",F20)))</formula>
+  <conditionalFormatting sqref="F21:G22">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G23">
-    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",F22)))</formula>
+  <conditionalFormatting sqref="F23:G23">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="F24:G26">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G27">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",F25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
@@ -10962,7 +10808,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -10983,57 +10829,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="I2" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="164" t="s">
+      <c r="J2" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="165" t="s">
+      <c r="M2" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="165" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="165" t="s">
+      <c r="N2" s="166" t="s">
         <v>106</v>
-      </c>
-      <c r="M2" s="165" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="166" t="s">
-        <v>108</v>
       </c>
       <c r="O2" s="167"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="168" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="56">
         <v>1</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="56">
         <v>1</v>
@@ -11041,13 +10887,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="168" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="56">
         <v>2</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="56">
         <v>2</v>
@@ -11055,13 +10901,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="168" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="56">
         <v>4</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" s="56">
         <v>4</v>
@@ -11069,13 +10915,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="168" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="56">
         <v>6</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E7" s="56">
         <v>6</v>
@@ -11083,13 +10929,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="168" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="56">
         <v>8</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" s="56">
         <v>8</v>
@@ -11097,7 +10943,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="168" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="56">
         <v>10</v>
@@ -11105,10 +10951,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="168" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -11116,25 +10962,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" s="168" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="56">
         <v>0.5</v>
       </c>
       <c r="E13" s="127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="126"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="56">
         <v>1</v>
       </c>
       <c r="E14" s="129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="128">
         <v>3</v>
@@ -11142,7 +10988,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="168" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" s="56">
         <v>2</v>
@@ -11152,21 +10998,21 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="56">
         <v>4</v>
       </c>
       <c r="E16" s="129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16" s="128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="168" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="56">
         <v>6</v>
@@ -11181,7 +11027,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="56">
         <v>8</v>
@@ -11205,10 +11051,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E20" s="129">
         <v>9</v>
@@ -11367,10 +11213,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11386,31 +11232,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
@@ -11430,14 +11276,14 @@
         <v>20</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="3">
         <f>CharacterSheet!B15</f>
         <v>200</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -11465,14 +11311,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" s="3">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="3">
         <f>Status!C27</f>
@@ -11485,7 +11331,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3">
         <f>CharacterSheet!B4</f>
@@ -11500,14 +11346,14 @@
         <v>20</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F4" s="3">
         <f>CharacterSheet!B17</f>
         <v>40</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="3">
         <f>Status!C28</f>
@@ -11535,14 +11381,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F5" s="3">
         <f>CharacterSheet!B18</f>
         <v>140</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -11555,7 +11401,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3">
         <f>CharacterSheet!B6</f>
@@ -11570,14 +11416,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F6" s="3">
         <f>CharacterSheet!B19</f>
         <v>40</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -11590,7 +11436,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3">
         <f>CharacterSheet!B7</f>
@@ -11605,14 +11451,14 @@
         <v>20</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F7" s="3">
         <f>CharacterSheet!B20</f>
         <v>40</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H7" s="3">
         <f>Status!D3</f>
@@ -11641,14 +11487,14 @@
         <v>20</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F8" s="3">
         <f>CharacterSheet!B21</f>
         <v>50</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" s="3">
         <f>Status!D4</f>
@@ -11674,14 +11520,14 @@
         <v>20</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F9" s="3">
         <f>CharacterSheet!B22</f>
         <v>50</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H9" s="3">
         <f>Status!D5</f>
@@ -11691,7 +11537,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3">
         <f>CharacterSheet!B10</f>
@@ -11706,14 +11552,14 @@
         <v>20</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F10" s="3">
         <f>CharacterSheet!B1</f>
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
@@ -11725,7 +11571,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="3">
         <f>CharacterSheet!B11</f>
@@ -11740,13 +11586,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H11" s="3">
         <f>Status!D9</f>
@@ -11758,7 +11604,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <f>Inventar!G22</f>
@@ -11766,20 +11612,20 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>CharacterSheet!E12</f>
-        <v>Taschendiebstahl</v>
+        <v>Fingerfertigkeit</v>
       </c>
       <c r="D12" s="3">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="3">
         <f>Status!D10</f>
@@ -11788,7 +11634,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13">
         <f>Inventar!G19</f>
@@ -11796,21 +11642,21 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>CharacterSheet!E13</f>
-        <v>Schlossknacken</v>
+        <v>Lying</v>
       </c>
       <c r="D13" s="3">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F13">
         <f>Status!B2</f>
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H13" s="3">
         <f>Status!D11</f>
@@ -11819,7 +11665,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="3">
         <f>Status!AA11</f>
@@ -11827,21 +11673,21 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>CharacterSheet!E14</f>
-        <v>Lying</v>
+        <v>Persuation</v>
       </c>
       <c r="D14" s="3">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="3">
         <f>Status!B3</f>
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H14" s="3">
         <f>Status!D12</f>
@@ -11850,7 +11696,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" t="str">
         <f>Status!AA13</f>
@@ -11858,21 +11704,21 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>CharacterSheet!E15</f>
-        <v>Persuation</v>
+        <v>Performance</v>
       </c>
       <c r="D15" s="3">
         <f>CharacterSheet!I15</f>
         <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F15" s="3">
         <f>Status!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H15">
         <f>Status!E8</f>
@@ -11881,7 +11727,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <f>Status!R12</f>
@@ -11889,7 +11735,7 @@
       </c>
       <c r="C16" s="3" t="str">
         <f>CharacterSheet!E16</f>
-        <v>Performance</v>
+        <v>Feilschen</v>
       </c>
       <c r="D16" s="3">
         <f>CharacterSheet!I16</f>
@@ -11903,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H16" s="3">
         <f>Status!E9</f>
@@ -11912,7 +11758,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -11920,21 +11766,21 @@
       </c>
       <c r="C17" s="3" t="str">
         <f>CharacterSheet!E17</f>
-        <v>Feilschen</v>
+        <v>Insight</v>
       </c>
       <c r="D17" s="3">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F17" s="3">
         <f>Status!C2</f>
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H17" s="3">
         <f>Status!E10</f>
@@ -11943,7 +11789,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" s="3">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -11951,21 +11797,21 @@
       </c>
       <c r="C18" s="3" t="str">
         <f>CharacterSheet!E18</f>
-        <v>Insight</v>
+        <v>Intimidation</v>
       </c>
       <c r="D18" s="3">
         <f>CharacterSheet!I18</f>
         <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F18" s="3">
         <f>Status!C3</f>
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H18" s="3">
         <f>Status!E11</f>
@@ -11974,7 +11820,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
@@ -11982,21 +11828,21 @@
       </c>
       <c r="C19" s="3" t="str">
         <f>CharacterSheet!E19</f>
-        <v>Intimidation</v>
+        <v xml:space="preserve">Swimming </v>
       </c>
       <c r="D19" s="3">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F19" s="3">
         <f>Status!C4</f>
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" s="3">
         <f>Status!E12</f>
@@ -12005,7 +11851,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" t="str">
         <f>CharacterSheet!B13</f>
@@ -12013,21 +11859,21 @@
       </c>
       <c r="C20" s="3" t="str">
         <f>CharacterSheet!E20</f>
-        <v xml:space="preserve">Swimming </v>
+        <v>Running</v>
       </c>
       <c r="D20" s="3">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" s="3">
         <f>Status!C5</f>
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H20" t="str">
         <f>Status!B8</f>
@@ -12036,7 +11882,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <f>Status!D16</f>
@@ -12044,21 +11890,21 @@
       </c>
       <c r="C21" s="3" t="str">
         <f>CharacterSheet!E21</f>
-        <v>Running</v>
+        <v>Handwerk</v>
       </c>
       <c r="D21" s="3">
         <f>CharacterSheet!I21</f>
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" s="1">
         <f>Status!C13</f>
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H21" s="3" t="str">
         <f>Status!B9</f>
@@ -12067,7 +11913,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3">
         <f>Status!D17</f>
@@ -12075,7 +11921,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f>CharacterSheet!E22</f>
-        <v>Handwerk</v>
+        <v>Alchemie</v>
       </c>
       <c r="D22" s="3">
         <f>CharacterSheet!I22</f>
@@ -12090,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H22" s="3" t="str">
         <f>Status!B10</f>
@@ -12099,7 +11945,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B23" s="3">
         <f>Status!D18</f>
@@ -12107,7 +11953,7 @@
       </c>
       <c r="C23" s="3" t="str">
         <f>CharacterSheet!E23</f>
-        <v>Alchemie</v>
+        <v>Vehicles</v>
       </c>
       <c r="D23" s="3">
         <f>CharacterSheet!I23</f>
@@ -12122,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H23" s="3" t="str">
         <f>Status!B11</f>
@@ -12131,7 +11977,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="3">
         <f>Status!D19</f>
@@ -12139,7 +11985,7 @@
       </c>
       <c r="C24" s="3" t="str">
         <f>CharacterSheet!E24</f>
-        <v>Vehicles</v>
+        <v>Animal Handling</v>
       </c>
       <c r="D24" s="3">
         <f>CharacterSheet!I24</f>
@@ -12154,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H24" s="3" t="str">
         <f>Status!B12</f>
@@ -12163,15 +12009,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="3">
         <f>Status!D20</f>
         <v>40</v>
       </c>
-      <c r="C25" s="3" t="str">
-        <f>CharacterSheet!E25</f>
-        <v>Animal Handling</v>
+      <c r="C25" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D25" s="3">
         <f>CharacterSheet!I25</f>
@@ -12188,14 +12033,15 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B26" s="3">
         <f>Status!D21</f>
         <v>40</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>140</v>
+      <c r="C26" s="3" t="str">
+        <f>CharacterSheet!E26</f>
+        <v>Perception</v>
       </c>
       <c r="D26" s="3">
         <f>CharacterSheet!I26</f>
@@ -12212,22 +12058,15 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" s="3">
         <f>Status!D22</f>
         <v>50</v>
       </c>
-      <c r="C27" s="3" t="str">
-        <f>CharacterSheet!E27</f>
-        <v>Perception</v>
-      </c>
-      <c r="D27" s="3">
-        <f>CharacterSheet!I27</f>
-        <v>20</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F27">
         <f>Status!I29</f>
@@ -12236,7 +12075,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" s="3">
         <f>Status!D23</f>
@@ -12246,7 +12085,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>
@@ -12256,9 +12095,6 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1136344-B464-4293-9D3C-09636BED46B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61462194-E91C-43CD-AE17-8E995C8BC804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="270">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -795,6 +795,63 @@
   </si>
   <si>
     <t>Fingerfertigkeit</t>
+  </si>
+  <si>
+    <t>Mensch</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Zwerg</t>
+  </si>
+  <si>
+    <t>Ork</t>
+  </si>
+  <si>
+    <t>Animalus</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Halbling</t>
+  </si>
+  <si>
+    <t>Startgeld</t>
+  </si>
+  <si>
+    <t>Rassenfähigkeiten</t>
+  </si>
+  <si>
+    <t>Nachtsicht</t>
+  </si>
+  <si>
+    <t>Geldgeil</t>
+  </si>
+  <si>
+    <t>Kurzsichtig</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>Thermo-sicht</t>
+  </si>
+  <si>
+    <t>Unverdächtig</t>
+  </si>
+  <si>
+    <t>Freie Attributpunkte</t>
+  </si>
+  <si>
+    <t>Freie Skillpunkte</t>
+  </si>
+  <si>
+    <t>Herkunft 2</t>
+  </si>
+  <si>
+    <t>Sprachskill:</t>
   </si>
 </sst>
 </file>
@@ -804,7 +861,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,8 +980,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF704214"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF704214"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF657B83"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1069,8 +1145,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDF6E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEECB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1679,12 +1767,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF5D06C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF5D06C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF5D06C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2076,6 +2184,21 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2169,6 +2292,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4330,38 +4459,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.234375" style="63" customWidth="1"/>
-    <col min="2" max="2" width="9.76171875" style="63" customWidth="1"/>
+    <col min="1" max="1" width="12.29296875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="9.703125" style="63" customWidth="1"/>
     <col min="3" max="3" width="9" style="63" customWidth="1"/>
     <col min="4" max="4" width="7.87890625" style="63" customWidth="1"/>
     <col min="5" max="5" width="4.1171875" style="63" customWidth="1"/>
     <col min="6" max="7" width="3.87890625" style="63" customWidth="1"/>
-    <col min="8" max="8" width="1.3515625" style="63" customWidth="1"/>
-    <col min="9" max="9" width="4.234375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="1.29296875" style="63" customWidth="1"/>
+    <col min="9" max="9" width="4.29296875" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="2.3515625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="2.29296875" style="63" customWidth="1"/>
     <col min="12" max="12" width="2.87890625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="4.3515625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="1.3515625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="3.3515625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="4.29296875" style="63" customWidth="1"/>
+    <col min="14" max="14" width="1.29296875" style="63" customWidth="1"/>
+    <col min="15" max="15" width="3.29296875" style="63" customWidth="1"/>
     <col min="16" max="16" width="3.87890625" style="63" customWidth="1"/>
     <col min="17" max="17" width="18.1171875" style="63" customWidth="1"/>
     <col min="18" max="18" width="5.1171875" style="115" customWidth="1"/>
     <col min="19" max="19" width="5.1171875" style="63" customWidth="1"/>
-    <col min="20" max="20" width="15.234375" style="63" customWidth="1"/>
-    <col min="21" max="21" width="6.234375" style="63" customWidth="1"/>
-    <col min="22" max="22" width="6.3515625" style="63" customWidth="1"/>
+    <col min="20" max="20" width="15.29296875" style="63" customWidth="1"/>
+    <col min="21" max="22" width="6.29296875" style="63" customWidth="1"/>
     <col min="23" max="23" width="3.87890625" style="63" customWidth="1"/>
-    <col min="24" max="24" width="3.3515625" style="116" customWidth="1"/>
-    <col min="25" max="25" width="3.52734375" style="63" customWidth="1"/>
-    <col min="26" max="27" width="11.52734375" style="63" customWidth="1"/>
-    <col min="28" max="16384" width="11.3515625" style="63"/>
+    <col min="24" max="24" width="3.29296875" style="116" customWidth="1"/>
+    <col min="25" max="25" width="3.5859375" style="63" customWidth="1"/>
+    <col min="26" max="27" width="11.5859375" style="63" customWidth="1"/>
+    <col min="28" max="16384" width="11.29296875" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="51" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -4382,11 +4510,11 @@
       <c r="G1" s="46"/>
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
-      <c r="J1" s="237" t="s">
+      <c r="J1" s="242" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
@@ -4434,11 +4562,11 @@
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
       <c r="I2" s="55"/>
-      <c r="J2" s="238">
+      <c r="J2" s="243">
         <v>100</v>
       </c>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="243"/>
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
@@ -4451,12 +4579,12 @@
         <v>10</v>
       </c>
       <c r="S2" s="59"/>
-      <c r="T2" s="242" t="s">
+      <c r="T2" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="243"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="244"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="248"/>
+      <c r="W2" s="249"/>
       <c r="X2" s="60"/>
       <c r="Y2" s="56"/>
       <c r="Z2" s="61"/>
@@ -4747,7 +4875,7 @@
       </c>
       <c r="R8" s="13">
         <f>CharacterSheet!B8+S8</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="66" t="s">
@@ -4806,7 +4934,7 @@
       </c>
       <c r="R9" s="14">
         <f>CharacterSheet!B9+S9</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" s="68"/>
       <c r="T9" s="66" t="s">
@@ -4870,7 +4998,7 @@
       </c>
       <c r="R10" s="9">
         <f>CharacterSheet!B10+S10</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S10" s="68">
         <f>$Q$17*(-1)</f>
@@ -4936,12 +5064,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="68"/>
-      <c r="T11" s="248" t="s">
+      <c r="T11" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="249"/>
-      <c r="V11" s="249"/>
-      <c r="W11" s="250"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="254"/>
+      <c r="W11" s="255"/>
       <c r="X11" s="60"/>
       <c r="Y11" s="56"/>
       <c r="Z11" s="64" t="s">
@@ -5087,7 +5215,7 @@
       <c r="N14" s="55"/>
       <c r="O14" s="88"/>
       <c r="P14" s="55"/>
-      <c r="Q14" s="245" t="s">
+      <c r="Q14" s="250" t="s">
         <v>51</v>
       </c>
       <c r="R14" s="55"/>
@@ -5135,15 +5263,15 @@
       <c r="N15" s="55"/>
       <c r="O15" s="88"/>
       <c r="P15" s="55"/>
-      <c r="Q15" s="246"/>
+      <c r="Q15" s="251"/>
       <c r="R15" s="55"/>
       <c r="S15" s="99"/>
-      <c r="T15" s="242" t="s">
+      <c r="T15" s="247" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="243"/>
-      <c r="V15" s="243"/>
-      <c r="W15" s="244"/>
+      <c r="U15" s="248"/>
+      <c r="V15" s="248"/>
+      <c r="W15" s="249"/>
       <c r="X15" s="60"/>
       <c r="Y15" s="56"/>
       <c r="Z15" s="55"/>
@@ -5181,7 +5309,7 @@
       <c r="N16" s="55"/>
       <c r="O16" s="88"/>
       <c r="P16" s="55"/>
-      <c r="Q16" s="247"/>
+      <c r="Q16" s="252"/>
       <c r="R16" s="55"/>
       <c r="S16" s="101"/>
       <c r="T16" s="57" t="s">
@@ -5533,12 +5661,12 @@
       <c r="Q22" s="77"/>
       <c r="R22" s="78"/>
       <c r="S22" s="99"/>
-      <c r="T22" s="242" t="s">
+      <c r="T22" s="247" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="243"/>
-      <c r="V22" s="243"/>
-      <c r="W22" s="244"/>
+      <c r="U22" s="248"/>
+      <c r="V22" s="248"/>
+      <c r="W22" s="249"/>
       <c r="X22" s="60"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="55"/>
@@ -5676,12 +5804,12 @@
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
       <c r="S25" s="99"/>
-      <c r="T25" s="242" t="s">
+      <c r="T25" s="247" t="s">
         <v>77</v>
       </c>
-      <c r="U25" s="243"/>
-      <c r="V25" s="243"/>
-      <c r="W25" s="244"/>
+      <c r="U25" s="248"/>
+      <c r="V25" s="248"/>
+      <c r="W25" s="249"/>
       <c r="X25" s="60"/>
       <c r="Y25" s="56"/>
       <c r="Z25" s="55"/>
@@ -5786,13 +5914,13 @@
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
-      <c r="I28" s="251" t="s">
+      <c r="I28" s="256" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="252"/>
-      <c r="K28" s="252"/>
-      <c r="L28" s="252"/>
-      <c r="M28" s="253"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="257"/>
+      <c r="L28" s="257"/>
+      <c r="M28" s="258"/>
       <c r="N28" s="55"/>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
@@ -5832,23 +5960,23 @@
       <c r="F29" s="55"/>
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
-      <c r="I29" s="239"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240"/>
-      <c r="M29" s="241"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="245"/>
+      <c r="L29" s="245"/>
+      <c r="M29" s="246"/>
       <c r="N29" s="55"/>
       <c r="O29" s="55"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
       <c r="S29" s="99"/>
-      <c r="T29" s="242" t="s">
+      <c r="T29" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="U29" s="243"/>
-      <c r="V29" s="243"/>
-      <c r="W29" s="244"/>
+      <c r="U29" s="248"/>
+      <c r="V29" s="248"/>
+      <c r="W29" s="249"/>
       <c r="X29" s="60"/>
       <c r="Y29" s="56"/>
       <c r="Z29" s="55"/>
@@ -6819,46 +6947,449 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76877D7D-C28B-49C4-AA36-E564794A89D6}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="F1" s="237" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="237" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="237" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="237" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="237" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="237" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="237" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="F2" s="238" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="238">
+        <v>10</v>
+      </c>
+      <c r="H2" s="238">
+        <v>8</v>
+      </c>
+      <c r="I2" s="238">
+        <v>10</v>
+      </c>
+      <c r="J2" s="238">
+        <v>13</v>
+      </c>
+      <c r="K2" s="238">
+        <v>12</v>
+      </c>
+      <c r="L2" s="238">
+        <v>7</v>
+      </c>
+      <c r="M2" s="238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="F3" s="239" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="239">
+        <v>10</v>
+      </c>
+      <c r="H3" s="239">
+        <v>13</v>
+      </c>
+      <c r="I3" s="239">
+        <v>8</v>
+      </c>
+      <c r="J3" s="239">
+        <v>10</v>
+      </c>
+      <c r="K3" s="239">
+        <v>12</v>
+      </c>
+      <c r="L3" s="239">
+        <v>12</v>
+      </c>
+      <c r="M3" s="239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="F4" s="238" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="238">
+        <v>10</v>
+      </c>
+      <c r="H4" s="238">
+        <v>11</v>
+      </c>
+      <c r="I4" s="238">
+        <v>8</v>
+      </c>
+      <c r="J4" s="238">
+        <v>6</v>
+      </c>
+      <c r="K4" s="238">
+        <v>8</v>
+      </c>
+      <c r="L4" s="238">
+        <v>9</v>
+      </c>
+      <c r="M4" s="238">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="F5" s="239" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="239">
+        <v>10</v>
+      </c>
+      <c r="H5" s="239">
+        <v>9</v>
+      </c>
+      <c r="I5" s="239">
+        <v>10</v>
+      </c>
+      <c r="J5" s="239">
+        <v>12</v>
+      </c>
+      <c r="K5" s="239">
+        <v>11</v>
+      </c>
+      <c r="L5" s="239">
+        <v>8</v>
+      </c>
+      <c r="M5" s="239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>221</v>
       </c>
+      <c r="F6" s="240" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="240">
+        <v>10</v>
+      </c>
+      <c r="H6" s="240">
+        <v>10</v>
+      </c>
+      <c r="I6" s="240">
+        <v>14</v>
+      </c>
+      <c r="J6" s="240">
+        <v>8</v>
+      </c>
+      <c r="K6" s="241">
+        <v>9</v>
+      </c>
+      <c r="L6" s="240">
+        <v>10</v>
+      </c>
+      <c r="M6" s="240">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="239" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="239">
+        <v>10</v>
+      </c>
+      <c r="H7" s="239">
+        <v>11</v>
+      </c>
+      <c r="I7" s="239">
+        <v>10</v>
+      </c>
+      <c r="J7" s="239">
+        <v>10</v>
+      </c>
+      <c r="K7" s="239">
+        <v>10</v>
+      </c>
+      <c r="L7" s="239">
+        <v>10</v>
+      </c>
+      <c r="M7" s="239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="238" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="238">
+        <v>4</v>
+      </c>
+      <c r="H8" s="238">
+        <v>4</v>
+      </c>
+      <c r="I8" s="238">
+        <v>4</v>
+      </c>
+      <c r="J8" s="238">
+        <v>4</v>
+      </c>
+      <c r="K8" s="238">
+        <v>4</v>
+      </c>
+      <c r="L8" s="238">
+        <v>4</v>
+      </c>
+      <c r="M8" s="238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="239" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="239">
+        <v>4</v>
+      </c>
+      <c r="H9" s="239">
+        <v>4</v>
+      </c>
+      <c r="I9" s="239">
+        <v>4</v>
+      </c>
+      <c r="J9" s="239">
+        <v>4</v>
+      </c>
+      <c r="K9" s="239">
+        <v>4</v>
+      </c>
+      <c r="L9" s="239">
+        <v>4</v>
+      </c>
+      <c r="M9" s="239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="238" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="238">
+        <v>200</v>
+      </c>
+      <c r="H10" s="238">
+        <v>150</v>
+      </c>
+      <c r="I10" s="238">
+        <v>200</v>
+      </c>
+      <c r="J10" s="238">
+        <v>250</v>
+      </c>
+      <c r="K10" s="238">
+        <v>250</v>
+      </c>
+      <c r="L10" s="238">
+        <v>150</v>
+      </c>
+      <c r="M10" s="238">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="239" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="239">
+        <v>12</v>
+      </c>
+      <c r="H11" s="239">
+        <v>16</v>
+      </c>
+      <c r="I11" s="239">
+        <v>10</v>
+      </c>
+      <c r="J11" s="239">
+        <v>12</v>
+      </c>
+      <c r="K11" s="239">
+        <v>14</v>
+      </c>
+      <c r="L11" s="239">
+        <v>14</v>
+      </c>
+      <c r="M11" s="239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="238" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="238">
+        <v>30000</v>
+      </c>
+      <c r="H12" s="238">
+        <v>27000</v>
+      </c>
+      <c r="I12" s="238">
+        <v>66000</v>
+      </c>
+      <c r="J12" s="238">
+        <v>21000</v>
+      </c>
+      <c r="K12" s="238">
+        <v>24000</v>
+      </c>
+      <c r="L12" s="238">
+        <v>30000</v>
+      </c>
+      <c r="M12" s="238">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="239" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="239"/>
+      <c r="H13" s="239" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="239" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="239" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="239" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="239" t="s">
+        <v>264</v>
+      </c>
+      <c r="M13" s="239" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="238" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="238">
+        <v>30</v>
+      </c>
+      <c r="H14" s="238">
+        <v>21</v>
+      </c>
+      <c r="I14" s="238">
+        <v>15</v>
+      </c>
+      <c r="J14" s="238">
+        <v>27</v>
+      </c>
+      <c r="K14" s="238">
+        <v>17</v>
+      </c>
+      <c r="L14" s="238">
+        <v>20</v>
+      </c>
+      <c r="M14" s="238">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="239" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="239">
+        <v>150</v>
+      </c>
+      <c r="H15" s="239">
+        <v>150</v>
+      </c>
+      <c r="I15" s="239">
+        <v>150</v>
+      </c>
+      <c r="J15" s="239">
+        <v>150</v>
+      </c>
+      <c r="K15" s="239">
+        <v>150</v>
+      </c>
+      <c r="L15" s="239">
+        <v>150</v>
+      </c>
+      <c r="M15" s="239">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="238" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="238" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" s="238" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="238" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" s="238" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="238" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="238" t="s">
+        <v>268</v>
+      </c>
+      <c r="M16" s="238" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6871,25 +7402,25 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.52734375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="11.3515625" style="56"/>
-    <col min="3" max="3" width="22.76171875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="11.3515625" style="56"/>
-    <col min="5" max="5" width="8.234375" style="56" customWidth="1"/>
+    <col min="1" max="1" width="23.5859375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="11.29296875" style="56"/>
+    <col min="3" max="3" width="22.703125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="11.29296875" style="56"/>
+    <col min="5" max="5" width="8.29296875" style="56" customWidth="1"/>
     <col min="6" max="6" width="19" style="56" customWidth="1"/>
     <col min="7" max="7" width="8.1171875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="33.234375" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.234375" style="56" customWidth="1"/>
-    <col min="10" max="10" width="14.234375" style="56" customWidth="1"/>
-    <col min="11" max="11" width="11.3515625" style="60"/>
-    <col min="12" max="12" width="16.52734375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="11.3515625" style="56"/>
+    <col min="8" max="8" width="33.29296875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.29296875" style="56" customWidth="1"/>
+    <col min="10" max="10" width="14.29296875" style="56" customWidth="1"/>
+    <col min="11" max="11" width="11.29296875" style="60"/>
+    <col min="12" max="12" width="16.5859375" style="56" customWidth="1"/>
+    <col min="13" max="13" width="11.29296875" style="56"/>
     <col min="14" max="14" width="18.1171875" style="56" customWidth="1"/>
-    <col min="15" max="15" width="11.3515625" style="56"/>
-    <col min="16" max="16" width="16.76171875" style="56" customWidth="1"/>
-    <col min="17" max="16384" width="11.3515625" style="56"/>
+    <col min="15" max="15" width="11.29296875" style="56"/>
+    <col min="16" max="16" width="16.703125" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="11.29296875" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -6922,14 +7453,14 @@
         <v>232</v>
       </c>
       <c r="K1" s="123"/>
-      <c r="L1" s="254" t="s">
+      <c r="L1" s="259" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="256"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="261"/>
       <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -6948,14 +7479,14 @@
       <c r="L2" s="232" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="257">
+      <c r="M2" s="262">
         <f>O4-M4</f>
         <v>30000</v>
       </c>
-      <c r="N2" s="257"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="258"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="263"/>
       <c r="R2" s="63"/>
     </row>
     <row r="3" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -6971,18 +7502,18 @@
         <f>B3*0.4</f>
         <v>0</v>
       </c>
-      <c r="L3" s="259" t="s">
+      <c r="L3" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="M3" s="260"/>
-      <c r="N3" s="261" t="s">
+      <c r="M3" s="265"/>
+      <c r="N3" s="266" t="s">
         <v>236</v>
       </c>
-      <c r="O3" s="262"/>
-      <c r="P3" s="263" t="s">
+      <c r="O3" s="267"/>
+      <c r="P3" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="Q3" s="264"/>
+      <c r="Q3" s="269"/>
       <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9159,41 +9690,43 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.52734375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="6" style="56" customWidth="1"/>
-    <col min="4" max="4" width="8.52734375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="19.52734375" style="56" customWidth="1"/>
-    <col min="6" max="6" width="4.52734375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="5.3515625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="4.234375" style="56" customWidth="1"/>
-    <col min="9" max="9" width="6.52734375" style="56" customWidth="1"/>
+    <col min="1" max="1" width="20.5859375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="11.17578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="15" style="56" customWidth="1"/>
+    <col min="4" max="4" width="9.234375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="19.5859375" style="56" customWidth="1"/>
+    <col min="6" max="6" width="4.5859375" style="56" customWidth="1"/>
+    <col min="7" max="7" width="5.29296875" style="56" customWidth="1"/>
+    <col min="8" max="8" width="4.29296875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="6.5859375" style="56" customWidth="1"/>
     <col min="10" max="10" width="3" style="56" customWidth="1"/>
     <col min="11" max="11" width="25.1171875" style="56" customWidth="1"/>
-    <col min="12" max="12" width="14.52734375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="7.52734375" style="56" customWidth="1"/>
-    <col min="14" max="14" width="8.76171875" style="56" customWidth="1"/>
-    <col min="15" max="15" width="14" style="56" customWidth="1"/>
-    <col min="16" max="16" width="4.52734375" style="56" customWidth="1"/>
-    <col min="17" max="17" width="5.234375" style="56" customWidth="1"/>
-    <col min="18" max="16384" width="11.3515625" style="56"/>
+    <col min="12" max="12" width="14.5859375" style="56" customWidth="1"/>
+    <col min="13" max="13" width="7.5859375" style="56" customWidth="1"/>
+    <col min="14" max="14" width="8.703125" style="56" customWidth="1"/>
+    <col min="15" max="15" width="20.41015625" style="56" customWidth="1"/>
+    <col min="16" max="16" width="9.703125" style="56" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="56" customWidth="1"/>
+    <col min="18" max="16384" width="11.29296875" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="122" t="s">
+        <v>251</v>
+      </c>
       <c r="C1" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="270" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="122" t="s">
@@ -9223,10 +9756,12 @@
         <v>12</v>
       </c>
       <c r="B2" s="133">
+        <f t="shared" ref="B2:B9" si="0">D2</f>
         <v>10</v>
       </c>
       <c r="C2" s="55"/>
-      <c r="D2" s="55">
+      <c r="D2" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G2:M2)</f>
         <v>10</v>
       </c>
       <c r="E2" s="57" t="s">
@@ -9272,10 +9807,12 @@
         <v>15</v>
       </c>
       <c r="B3" s="135">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C3" s="55"/>
-      <c r="D3" s="55">
+      <c r="D3" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G3:M3)</f>
         <v>10</v>
       </c>
       <c r="E3" s="66" t="s">
@@ -9313,10 +9850,12 @@
         <v>21</v>
       </c>
       <c r="B4" s="138">
+        <f>D4</f>
         <v>10</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="55">
+      <c r="D4" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G4:M4)</f>
         <v>10</v>
       </c>
       <c r="E4" s="66" t="s">
@@ -9352,10 +9891,12 @@
         <v>218</v>
       </c>
       <c r="B5" s="139">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="55">
+      <c r="D5" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G5:M5)</f>
         <v>10</v>
       </c>
       <c r="E5" s="66" t="s">
@@ -9393,10 +9934,12 @@
         <v>25</v>
       </c>
       <c r="B6" s="140">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="55">
+      <c r="D6" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G6:M6)</f>
         <v>10</v>
       </c>
       <c r="E6" s="66" t="s">
@@ -9434,10 +9977,12 @@
         <v>168</v>
       </c>
       <c r="B7" s="141">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C7" s="55"/>
-      <c r="D7" s="55">
+      <c r="D7" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G7:M7)</f>
         <v>10</v>
       </c>
       <c r="E7" s="66" t="s">
@@ -9475,11 +10020,13 @@
         <v>32</v>
       </c>
       <c r="B8" s="142">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C8" s="55"/>
-      <c r="D8" s="55">
-        <v>10</v>
+      <c r="D8" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G8:M8)</f>
+        <v>4</v>
       </c>
       <c r="E8" s="66" t="s">
         <v>33</v>
@@ -9515,10 +10062,14 @@
         <v>129</v>
       </c>
       <c r="B9" s="142">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G9:M9)</f>
+        <v>4</v>
+      </c>
       <c r="E9" s="92" t="s">
         <v>37</v>
       </c>
@@ -9552,10 +10103,10 @@
       </c>
       <c r="B10" s="145">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="271"/>
       <c r="E10" s="57" t="s">
         <v>45</v>
       </c>
@@ -9594,7 +10145,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="271"/>
       <c r="E11" s="66" t="s">
         <v>48</v>
       </c>
@@ -9628,7 +10179,7 @@
       <c r="A12" s="60"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
+      <c r="D12" s="271"/>
       <c r="E12" s="92" t="s">
         <v>250</v>
       </c>
@@ -9671,7 +10222,7 @@
         <v>204</v>
       </c>
       <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="271"/>
       <c r="E13" s="57" t="s">
         <v>54</v>
       </c>
@@ -9709,7 +10260,7 @@
     <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="271"/>
       <c r="E14" s="66" t="s">
         <v>57</v>
       </c>
@@ -9726,8 +10277,13 @@
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
       <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
+      <c r="O14" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="P14" s="65">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G14:M14)</f>
+        <v>30</v>
+      </c>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -9743,10 +10299,14 @@
         <v>68</v>
       </c>
       <c r="B15" s="150">
+        <f>D15</f>
         <v>200</v>
       </c>
       <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
+      <c r="D15" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G10:M10)</f>
+        <v>200</v>
+      </c>
       <c r="E15" s="66" t="s">
         <v>60</v>
       </c>
@@ -9763,8 +10323,13 @@
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
       <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+      <c r="O15" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="P15" s="65">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G15:M15)</f>
+        <v>150</v>
+      </c>
       <c r="Q15" s="55"/>
       <c r="R15" s="55"/>
       <c r="S15" s="55"/>
@@ -9780,10 +10345,14 @@
         <v>70</v>
       </c>
       <c r="B16" s="153">
+        <f>D16</f>
         <v>12</v>
       </c>
       <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="D16" s="271">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G11:M11)</f>
+        <v>12</v>
+      </c>
       <c r="E16" s="66" t="s">
         <v>61</v>
       </c>
@@ -9802,8 +10371,13 @@
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
       <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="O16" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" s="65" t="str">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G16:M16)</f>
+        <v>Herkunft 2</v>
+      </c>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -9823,7 +10397,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="66" t="s">
         <v>66</v>
       </c>
@@ -9842,8 +10416,13 @@
       <c r="L17" s="55"/>
       <c r="M17" s="55"/>
       <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="O17" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="P17" s="65">
+        <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G12:M12)</f>
+        <v>30000</v>
+      </c>
       <c r="Q17" s="55"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
@@ -9863,7 +10442,7 @@
         <v>140</v>
       </c>
       <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="92" t="s">
         <v>69</v>
       </c>
@@ -9903,9 +10482,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="55">
-        <v>25</v>
-      </c>
-      <c r="D19" s="55" t="s">
+        <f>P14</f>
+        <v>30</v>
+      </c>
+      <c r="D19" s="271" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="57" t="s">
@@ -9946,9 +10526,9 @@
       </c>
       <c r="C20" s="55">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
-        <v>25</v>
-      </c>
-      <c r="D20" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="271" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="92" t="s">
@@ -9988,7 +10568,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="57" t="s">
         <v>78</v>
       </c>
@@ -10026,7 +10606,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="159"/>
-      <c r="D22" s="55"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="66" t="s">
         <v>79</v>
       </c>
@@ -10058,7 +10638,7 @@
     <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="92" t="s">
         <v>80</v>
       </c>
@@ -10800,6 +11380,18 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87AD7F18-3B09-4299-B732-AE2B683497A0}">
+          <x14:formula1>
+            <xm:f>DatenExelintern!$G$1:$M$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10812,19 +11404,19 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="6" width="11.3515625" style="56"/>
+    <col min="1" max="6" width="11.29296875" style="56"/>
     <col min="7" max="7" width="5.1171875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="11.3515625" style="56"/>
-    <col min="9" max="9" width="7.3515625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="11.3515625" style="56"/>
+    <col min="8" max="8" width="11.29296875" style="56"/>
+    <col min="9" max="9" width="7.29296875" style="56" customWidth="1"/>
+    <col min="10" max="10" width="11.29296875" style="56"/>
     <col min="11" max="11" width="12.87890625" style="56" customWidth="1"/>
     <col min="12" max="12" width="8.87890625" style="56" customWidth="1"/>
-    <col min="13" max="13" width="8.3515625" style="56" customWidth="1"/>
-    <col min="14" max="14" width="11.3515625" style="56"/>
-    <col min="15" max="15" width="3.52734375" style="56" customWidth="1"/>
-    <col min="16" max="16384" width="11.3515625" style="56"/>
+    <col min="13" max="13" width="8.29296875" style="56" customWidth="1"/>
+    <col min="14" max="14" width="11.29296875" style="56"/>
+    <col min="15" max="15" width="3.5859375" style="56" customWidth="1"/>
+    <col min="16" max="16384" width="11.29296875" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -11192,9 +11784,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="127.3515625" style="63" customWidth="1"/>
-    <col min="2" max="8" width="11.3515625" style="63" customWidth="1"/>
-    <col min="9" max="16384" width="11.3515625" style="63" hidden="1"/>
+    <col min="1" max="1" width="127.29296875" style="63" customWidth="1"/>
+    <col min="2" max="8" width="11.29296875" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="11.29296875" style="63" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
@@ -11216,18 +11808,18 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.1171875" customWidth="1"/>
-    <col min="2" max="2" width="8.3515625" customWidth="1"/>
+    <col min="2" max="2" width="8.29296875" customWidth="1"/>
     <col min="4" max="4" width="5.87890625" customWidth="1"/>
     <col min="5" max="5" width="15.87890625" customWidth="1"/>
-    <col min="6" max="6" width="8.3515625" customWidth="1"/>
-    <col min="7" max="7" width="13.3515625" customWidth="1"/>
-    <col min="8" max="8" width="6.52734375" customWidth="1"/>
+    <col min="6" max="6" width="8.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="8" width="6.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
@@ -11476,7 +12068,7 @@
       </c>
       <c r="B8" s="3">
         <f>CharacterSheet!B8</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>CharacterSheet!E8</f>
@@ -11509,7 +12101,7 @@
       </c>
       <c r="B9" s="3">
         <f>CharacterSheet!B9</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>CharacterSheet!E9</f>
@@ -11541,7 +12133,7 @@
       </c>
       <c r="B10" s="3">
         <f>CharacterSheet!B10</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>CharacterSheet!E10</f>
@@ -11554,9 +12146,9 @@
       <c r="E10" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="str">
         <f>CharacterSheet!B1</f>
-        <v>0</v>
+        <v>Mensch</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>181</v>
@@ -11824,7 +12416,7 @@
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>CharacterSheet!E19</f>

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61462194-E91C-43CD-AE17-8E995C8BC804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5539D773-2C2C-4A4B-9D13-B739EB371DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
@@ -2199,6 +2199,12 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2292,12 +2298,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4510,11 +4510,11 @@
       <c r="G1" s="46"/>
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
-      <c r="J1" s="242" t="s">
+      <c r="J1" s="244" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
@@ -4562,11 +4562,11 @@
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
       <c r="I2" s="55"/>
-      <c r="J2" s="243">
+      <c r="J2" s="245">
         <v>100</v>
       </c>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
@@ -4579,12 +4579,12 @@
         <v>10</v>
       </c>
       <c r="S2" s="59"/>
-      <c r="T2" s="247" t="s">
+      <c r="T2" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="248"/>
-      <c r="V2" s="248"/>
-      <c r="W2" s="249"/>
+      <c r="U2" s="250"/>
+      <c r="V2" s="250"/>
+      <c r="W2" s="251"/>
       <c r="X2" s="60"/>
       <c r="Y2" s="56"/>
       <c r="Z2" s="61"/>
@@ -5064,12 +5064,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="68"/>
-      <c r="T11" s="253" t="s">
+      <c r="T11" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="254"/>
-      <c r="V11" s="254"/>
-      <c r="W11" s="255"/>
+      <c r="U11" s="256"/>
+      <c r="V11" s="256"/>
+      <c r="W11" s="257"/>
       <c r="X11" s="60"/>
       <c r="Y11" s="56"/>
       <c r="Z11" s="64" t="s">
@@ -5215,7 +5215,7 @@
       <c r="N14" s="55"/>
       <c r="O14" s="88"/>
       <c r="P14" s="55"/>
-      <c r="Q14" s="250" t="s">
+      <c r="Q14" s="252" t="s">
         <v>51</v>
       </c>
       <c r="R14" s="55"/>
@@ -5263,15 +5263,15 @@
       <c r="N15" s="55"/>
       <c r="O15" s="88"/>
       <c r="P15" s="55"/>
-      <c r="Q15" s="251"/>
+      <c r="Q15" s="253"/>
       <c r="R15" s="55"/>
       <c r="S15" s="99"/>
-      <c r="T15" s="247" t="s">
+      <c r="T15" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="248"/>
-      <c r="V15" s="248"/>
-      <c r="W15" s="249"/>
+      <c r="U15" s="250"/>
+      <c r="V15" s="250"/>
+      <c r="W15" s="251"/>
       <c r="X15" s="60"/>
       <c r="Y15" s="56"/>
       <c r="Z15" s="55"/>
@@ -5309,7 +5309,7 @@
       <c r="N16" s="55"/>
       <c r="O16" s="88"/>
       <c r="P16" s="55"/>
-      <c r="Q16" s="252"/>
+      <c r="Q16" s="254"/>
       <c r="R16" s="55"/>
       <c r="S16" s="101"/>
       <c r="T16" s="57" t="s">
@@ -5661,12 +5661,12 @@
       <c r="Q22" s="77"/>
       <c r="R22" s="78"/>
       <c r="S22" s="99"/>
-      <c r="T22" s="247" t="s">
+      <c r="T22" s="249" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="248"/>
-      <c r="V22" s="248"/>
-      <c r="W22" s="249"/>
+      <c r="U22" s="250"/>
+      <c r="V22" s="250"/>
+      <c r="W22" s="251"/>
       <c r="X22" s="60"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="55"/>
@@ -5804,12 +5804,12 @@
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
       <c r="S25" s="99"/>
-      <c r="T25" s="247" t="s">
+      <c r="T25" s="249" t="s">
         <v>77</v>
       </c>
-      <c r="U25" s="248"/>
-      <c r="V25" s="248"/>
-      <c r="W25" s="249"/>
+      <c r="U25" s="250"/>
+      <c r="V25" s="250"/>
+      <c r="W25" s="251"/>
       <c r="X25" s="60"/>
       <c r="Y25" s="56"/>
       <c r="Z25" s="55"/>
@@ -5914,13 +5914,13 @@
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
-      <c r="I28" s="256" t="s">
+      <c r="I28" s="258" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="257"/>
-      <c r="K28" s="257"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="258"/>
+      <c r="J28" s="259"/>
+      <c r="K28" s="259"/>
+      <c r="L28" s="259"/>
+      <c r="M28" s="260"/>
       <c r="N28" s="55"/>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
@@ -5960,23 +5960,23 @@
       <c r="F29" s="55"/>
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
-      <c r="I29" s="244"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="245"/>
-      <c r="L29" s="245"/>
-      <c r="M29" s="246"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="248"/>
       <c r="N29" s="55"/>
       <c r="O29" s="55"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
       <c r="S29" s="99"/>
-      <c r="T29" s="247" t="s">
+      <c r="T29" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="U29" s="248"/>
-      <c r="V29" s="248"/>
-      <c r="W29" s="249"/>
+      <c r="U29" s="250"/>
+      <c r="V29" s="250"/>
+      <c r="W29" s="251"/>
       <c r="X29" s="60"/>
       <c r="Y29" s="56"/>
       <c r="Z29" s="55"/>
@@ -7453,14 +7453,14 @@
         <v>232</v>
       </c>
       <c r="K1" s="123"/>
-      <c r="L1" s="259" t="s">
+      <c r="L1" s="261" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="261"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="263"/>
       <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7479,14 +7479,14 @@
       <c r="L2" s="232" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="262">
+      <c r="M2" s="264">
         <f>O4-M4</f>
         <v>30000</v>
       </c>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="263"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="265"/>
       <c r="R2" s="63"/>
     </row>
     <row r="3" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -7502,18 +7502,18 @@
         <f>B3*0.4</f>
         <v>0</v>
       </c>
-      <c r="L3" s="264" t="s">
+      <c r="L3" s="266" t="s">
         <v>235</v>
       </c>
-      <c r="M3" s="265"/>
-      <c r="N3" s="266" t="s">
+      <c r="M3" s="267"/>
+      <c r="N3" s="268" t="s">
         <v>236</v>
       </c>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268" t="s">
+      <c r="O3" s="269"/>
+      <c r="P3" s="270" t="s">
         <v>237</v>
       </c>
-      <c r="Q3" s="269"/>
+      <c r="Q3" s="271"/>
       <c r="R3" s="63"/>
     </row>
     <row r="4" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9691,7 +9691,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9720,13 +9720,13 @@
       <c r="A1" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="83" t="s">
         <v>251</v>
       </c>
       <c r="C1" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="270" t="s">
+      <c r="D1" s="242" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="122" t="s">
@@ -9760,7 +9760,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="55"/>
-      <c r="D2" s="271">
+      <c r="D2" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G2:M2)</f>
         <v>10</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="55"/>
-      <c r="D3" s="271">
+      <c r="D3" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G3:M3)</f>
         <v>10</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="271">
+      <c r="D4" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G4:M4)</f>
         <v>10</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="271">
+      <c r="D5" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G5:M5)</f>
         <v>10</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="271">
+      <c r="D6" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G6:M6)</f>
         <v>10</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="55"/>
-      <c r="D7" s="271">
+      <c r="D7" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G7:M7)</f>
         <v>10</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="55"/>
-      <c r="D8" s="271">
+      <c r="D8" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G8:M8)</f>
         <v>4</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="271">
+      <c r="D9" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G9:M9)</f>
         <v>4</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="271"/>
+      <c r="D10" s="243"/>
       <c r="E10" s="57" t="s">
         <v>45</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="55"/>
-      <c r="D11" s="271"/>
+      <c r="D11" s="243"/>
       <c r="E11" s="66" t="s">
         <v>48</v>
       </c>
@@ -10179,7 +10179,7 @@
       <c r="A12" s="60"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="271"/>
+      <c r="D12" s="243"/>
       <c r="E12" s="92" t="s">
         <v>250</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>204</v>
       </c>
       <c r="C13" s="55"/>
-      <c r="D13" s="271"/>
+      <c r="D13" s="243"/>
       <c r="E13" s="57" t="s">
         <v>54</v>
       </c>
@@ -10260,7 +10260,7 @@
     <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
-      <c r="D14" s="271"/>
+      <c r="D14" s="243"/>
       <c r="E14" s="66" t="s">
         <v>57</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>200</v>
       </c>
       <c r="C15" s="55"/>
-      <c r="D15" s="271">
+      <c r="D15" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G10:M10)</f>
         <v>200</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="55"/>
-      <c r="D16" s="271">
+      <c r="D16" s="243">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G11:M11)</f>
         <v>12</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="55"/>
-      <c r="D17" s="271"/>
+      <c r="D17" s="243"/>
       <c r="E17" s="66" t="s">
         <v>66</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>140</v>
       </c>
       <c r="C18" s="55"/>
-      <c r="D18" s="271"/>
+      <c r="D18" s="243"/>
       <c r="E18" s="92" t="s">
         <v>69</v>
       </c>
@@ -10485,7 +10485,7 @@
         <f>P14</f>
         <v>30</v>
       </c>
-      <c r="D19" s="271" t="s">
+      <c r="D19" s="243" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="57" t="s">
@@ -10528,7 +10528,7 @@
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="271" t="s">
+      <c r="D20" s="243" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="92" t="s">

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5539D773-2C2C-4A4B-9D13-B739EB371DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B6688-A088-42A6-8383-67E16D3028FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -4460,39 +4460,39 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.29296875" style="63" customWidth="1"/>
-    <col min="2" max="2" width="9.703125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="63" customWidth="1"/>
     <col min="3" max="3" width="9" style="63" customWidth="1"/>
-    <col min="4" max="4" width="7.87890625" style="63" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="63" customWidth="1"/>
-    <col min="6" max="7" width="3.87890625" style="63" customWidth="1"/>
-    <col min="8" max="8" width="1.29296875" style="63" customWidth="1"/>
-    <col min="9" max="9" width="4.29296875" style="63" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="63" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="63" customWidth="1"/>
+    <col min="6" max="7" width="3.88671875" style="63" customWidth="1"/>
+    <col min="8" max="8" width="1.33203125" style="63" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="2.29296875" style="63" customWidth="1"/>
-    <col min="12" max="12" width="2.87890625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="4.29296875" style="63" customWidth="1"/>
-    <col min="14" max="14" width="1.29296875" style="63" customWidth="1"/>
-    <col min="15" max="15" width="3.29296875" style="63" customWidth="1"/>
-    <col min="16" max="16" width="3.87890625" style="63" customWidth="1"/>
-    <col min="17" max="17" width="18.1171875" style="63" customWidth="1"/>
-    <col min="18" max="18" width="5.1171875" style="115" customWidth="1"/>
-    <col min="19" max="19" width="5.1171875" style="63" customWidth="1"/>
-    <col min="20" max="20" width="15.29296875" style="63" customWidth="1"/>
-    <col min="21" max="22" width="6.29296875" style="63" customWidth="1"/>
-    <col min="23" max="23" width="3.87890625" style="63" customWidth="1"/>
-    <col min="24" max="24" width="3.29296875" style="116" customWidth="1"/>
-    <col min="25" max="25" width="3.5859375" style="63" customWidth="1"/>
-    <col min="26" max="27" width="11.5859375" style="63" customWidth="1"/>
-    <col min="28" max="16384" width="11.29296875" style="63"/>
+    <col min="11" max="11" width="2.33203125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" style="63" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="63" customWidth="1"/>
+    <col min="14" max="14" width="1.33203125" style="63" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="63" customWidth="1"/>
+    <col min="16" max="16" width="3.88671875" style="63" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="63" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="115" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="63" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="63" customWidth="1"/>
+    <col min="21" max="22" width="6.33203125" style="63" customWidth="1"/>
+    <col min="23" max="23" width="3.88671875" style="63" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="116" customWidth="1"/>
+    <col min="25" max="25" width="3.5546875" style="63" customWidth="1"/>
+    <col min="26" max="27" width="11.5546875" style="63" customWidth="1"/>
+    <col min="28" max="16384" width="11.33203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="51" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="AC1" s="48"/>
       <c r="AD1" s="48"/>
     </row>
-    <row r="2" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>215</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="AD2" s="55"/>
       <c r="AE2" s="62"/>
     </row>
-    <row r="3" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>14</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="AD3" s="55"/>
       <c r="AE3" s="62"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>169</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="AD4" s="55"/>
       <c r="AE4" s="62"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>20</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="AD5" s="55"/>
       <c r="AE5" s="62"/>
     </row>
-    <row r="6" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="79"/>
       <c r="C6" s="54"/>
@@ -4786,7 +4786,7 @@
       <c r="AD6" s="55"/>
       <c r="AE6" s="62"/>
     </row>
-    <row r="7" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>29</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="AD7" s="55"/>
       <c r="AE7" s="62"/>
     </row>
-    <row r="8" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>35</v>
       </c>
@@ -4902,7 +4902,7 @@
       <c r="AD8" s="55"/>
       <c r="AE8" s="62"/>
     </row>
-    <row r="9" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>39</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="AD9" s="55"/>
       <c r="AE9" s="62"/>
     </row>
-    <row r="10" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="AD10" s="55"/>
       <c r="AE10" s="62"/>
     </row>
-    <row r="11" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="AD11" s="55"/>
       <c r="AE11" s="62"/>
     </row>
-    <row r="12" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="95" t="s">
         <v>50</v>
       </c>
@@ -5146,7 +5146,7 @@
       <c r="AD12" s="55"/>
       <c r="AE12" s="62"/>
     </row>
-    <row r="13" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>43</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="62"/>
     </row>
-    <row r="14" spans="1:31" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:31" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100"/>
       <c r="B14" s="79"/>
       <c r="C14" s="55"/>
@@ -5242,7 +5242,7 @@
       <c r="AD14" s="55"/>
       <c r="AE14" s="62"/>
     </row>
-    <row r="15" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="98" t="s">
@@ -5281,7 +5281,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="62"/>
     </row>
-    <row r="16" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="235" t="s">
         <v>68</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="AD16" s="55"/>
       <c r="AE16" s="62"/>
     </row>
-    <row r="17" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="236" t="s">
         <v>70</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="AD17" s="55"/>
       <c r="AE17" s="62"/>
     </row>
-    <row r="18" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="119" t="s">
         <v>73</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="AD18" s="55"/>
       <c r="AE18" s="62"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="AD19" s="55"/>
       <c r="AE19" s="62"/>
     </row>
-    <row r="20" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>161</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="AD20" s="55"/>
       <c r="AE20" s="62"/>
     </row>
-    <row r="21" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>162</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="AD21" s="55"/>
       <c r="AE21" s="62"/>
     </row>
-    <row r="22" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>163</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="AD22" s="55"/>
       <c r="AE22" s="62"/>
     </row>
-    <row r="23" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>164</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="62"/>
     </row>
-    <row r="24" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -5773,7 +5773,7 @@
       <c r="AD24" s="55"/>
       <c r="AE24" s="62"/>
     </row>
-    <row r="25" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="108" t="s">
         <v>166</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="AD25" s="55"/>
       <c r="AE25" s="62"/>
     </row>
-    <row r="26" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="111" t="s">
         <v>11</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="AD26" s="55"/>
       <c r="AE26" s="62"/>
     </row>
-    <row r="27" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="112" t="s">
         <v>14</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="AD27" s="55"/>
       <c r="AE27" s="62"/>
     </row>
-    <row r="28" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="112" t="s">
         <v>19</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="AD28" s="55"/>
       <c r="AE28" s="62"/>
     </row>
-    <row r="29" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="112" t="s">
         <v>23</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="AD29" s="55"/>
       <c r="AE29" s="62"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="112" t="s">
         <v>20</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="AD30" s="55"/>
       <c r="AE30" s="62"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
         <v>247</v>
       </c>
@@ -6070,7 +6070,7 @@
       <c r="AD31" s="55"/>
       <c r="AE31" s="62"/>
     </row>
-    <row r="32" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="105" t="s">
         <v>248</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="AD32" s="55"/>
       <c r="AE32" s="62"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="99"/>
       <c r="B33" s="99"/>
       <c r="C33" s="99"/>
@@ -6145,7 +6145,7 @@
       <c r="AD33" s="55"/>
       <c r="AE33" s="62"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="114"/>
       <c r="B34" s="114"/>
       <c r="C34" s="114"/>
@@ -6178,7 +6178,7 @@
       <c r="AD34" s="55"/>
       <c r="AE34" s="62"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
@@ -6211,7 +6211,7 @@
       <c r="AD35" s="55"/>
       <c r="AE35" s="62"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
@@ -6240,7 +6240,7 @@
       <c r="AD36" s="55"/>
       <c r="AE36" s="62"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z37" s="62"/>
       <c r="AA37" s="62"/>
       <c r="AB37" s="62"/>
@@ -6248,7 +6248,7 @@
       <c r="AD37" s="62"/>
       <c r="AE37" s="62"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z38" s="62"/>
       <c r="AA38" s="62"/>
       <c r="AB38" s="62"/>
@@ -6256,7 +6256,7 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="62"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z39" s="62"/>
       <c r="AA39" s="62"/>
       <c r="AB39" s="62"/>
@@ -6264,7 +6264,7 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="62"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z40" s="62"/>
       <c r="AA40" s="62"/>
       <c r="AB40" s="62"/>
@@ -6272,7 +6272,7 @@
       <c r="AD40" s="62"/>
       <c r="AE40" s="62"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z41" s="62"/>
       <c r="AA41" s="62"/>
       <c r="AB41" s="62"/>
@@ -6280,7 +6280,7 @@
       <c r="AD41" s="62"/>
       <c r="AE41" s="62"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z42" s="62"/>
       <c r="AA42" s="62"/>
       <c r="AB42" s="62"/>
@@ -6288,7 +6288,7 @@
       <c r="AD42" s="62"/>
       <c r="AE42" s="62"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z43" s="62"/>
       <c r="AA43" s="62"/>
       <c r="AB43" s="62"/>
@@ -6296,7 +6296,7 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="62"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z44" s="62"/>
       <c r="AA44" s="62"/>
       <c r="AB44" s="62"/>
@@ -6304,7 +6304,7 @@
       <c r="AD44" s="62"/>
       <c r="AE44" s="62"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z45" s="62"/>
       <c r="AA45" s="62"/>
       <c r="AB45" s="62"/>
@@ -6312,7 +6312,7 @@
       <c r="AD45" s="62"/>
       <c r="AE45" s="62"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z46" s="62"/>
       <c r="AA46" s="62"/>
       <c r="AB46" s="62"/>
@@ -6320,7 +6320,7 @@
       <c r="AD46" s="62"/>
       <c r="AE46" s="62"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z47" s="62"/>
       <c r="AA47" s="62"/>
       <c r="AB47" s="62"/>
@@ -6328,7 +6328,7 @@
       <c r="AD47" s="62"/>
       <c r="AE47" s="62"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Z48" s="62"/>
       <c r="AA48" s="62"/>
       <c r="AB48" s="62"/>
@@ -6336,7 +6336,7 @@
       <c r="AD48" s="62"/>
       <c r="AE48" s="62"/>
     </row>
-    <row r="49" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="49" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z49" s="62"/>
       <c r="AA49" s="62"/>
       <c r="AB49" s="62"/>
@@ -6344,7 +6344,7 @@
       <c r="AD49" s="62"/>
       <c r="AE49" s="62"/>
     </row>
-    <row r="50" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="50" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z50" s="62"/>
       <c r="AA50" s="62"/>
       <c r="AB50" s="62"/>
@@ -6352,7 +6352,7 @@
       <c r="AD50" s="62"/>
       <c r="AE50" s="62"/>
     </row>
-    <row r="51" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="51" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z51" s="62"/>
       <c r="AA51" s="62"/>
       <c r="AB51" s="62"/>
@@ -6360,7 +6360,7 @@
       <c r="AD51" s="62"/>
       <c r="AE51" s="62"/>
     </row>
-    <row r="52" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="52" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z52" s="62"/>
       <c r="AA52" s="62"/>
       <c r="AB52" s="62"/>
@@ -6368,7 +6368,7 @@
       <c r="AD52" s="62"/>
       <c r="AE52" s="62"/>
     </row>
-    <row r="53" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="53" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z53" s="62"/>
       <c r="AA53" s="62"/>
       <c r="AB53" s="62"/>
@@ -6376,7 +6376,7 @@
       <c r="AD53" s="62"/>
       <c r="AE53" s="62"/>
     </row>
-    <row r="54" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="54" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z54" s="62"/>
       <c r="AA54" s="62"/>
       <c r="AB54" s="62"/>
@@ -6384,7 +6384,7 @@
       <c r="AD54" s="62"/>
       <c r="AE54" s="62"/>
     </row>
-    <row r="55" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="55" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z55" s="62"/>
       <c r="AA55" s="62"/>
       <c r="AB55" s="62"/>
@@ -6392,7 +6392,7 @@
       <c r="AD55" s="62"/>
       <c r="AE55" s="62"/>
     </row>
-    <row r="56" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="56" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z56" s="62"/>
       <c r="AA56" s="62"/>
       <c r="AB56" s="62"/>
@@ -6400,7 +6400,7 @@
       <c r="AD56" s="62"/>
       <c r="AE56" s="62"/>
     </row>
-    <row r="57" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="57" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z57" s="62"/>
       <c r="AA57" s="62"/>
       <c r="AB57" s="62"/>
@@ -6408,7 +6408,7 @@
       <c r="AD57" s="62"/>
       <c r="AE57" s="62"/>
     </row>
-    <row r="58" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="58" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z58" s="62"/>
       <c r="AA58" s="62"/>
       <c r="AB58" s="62"/>
@@ -6416,7 +6416,7 @@
       <c r="AD58" s="62"/>
       <c r="AE58" s="62"/>
     </row>
-    <row r="59" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="59" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z59" s="62"/>
       <c r="AA59" s="62"/>
       <c r="AB59" s="62"/>
@@ -6424,7 +6424,7 @@
       <c r="AD59" s="62"/>
       <c r="AE59" s="62"/>
     </row>
-    <row r="60" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="60" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z60" s="62"/>
       <c r="AA60" s="62"/>
       <c r="AB60" s="62"/>
@@ -6432,7 +6432,7 @@
       <c r="AD60" s="62"/>
       <c r="AE60" s="62"/>
     </row>
-    <row r="61" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="61" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z61" s="62"/>
       <c r="AA61" s="62"/>
       <c r="AB61" s="62"/>
@@ -6440,7 +6440,7 @@
       <c r="AD61" s="62"/>
       <c r="AE61" s="62"/>
     </row>
-    <row r="62" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="62" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z62" s="62"/>
       <c r="AA62" s="62"/>
       <c r="AB62" s="62"/>
@@ -6448,7 +6448,7 @@
       <c r="AD62" s="62"/>
       <c r="AE62" s="62"/>
     </row>
-    <row r="63" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="63" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z63" s="62"/>
       <c r="AA63" s="62"/>
       <c r="AB63" s="62"/>
@@ -6456,7 +6456,7 @@
       <c r="AD63" s="62"/>
       <c r="AE63" s="62"/>
     </row>
-    <row r="64" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="64" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z64" s="62"/>
       <c r="AA64" s="62"/>
       <c r="AB64" s="62"/>
@@ -6464,7 +6464,7 @@
       <c r="AD64" s="62"/>
       <c r="AE64" s="62"/>
     </row>
-    <row r="65" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="65" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z65" s="62"/>
       <c r="AA65" s="62"/>
       <c r="AB65" s="62"/>
@@ -6472,7 +6472,7 @@
       <c r="AD65" s="62"/>
       <c r="AE65" s="62"/>
     </row>
-    <row r="66" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="66" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z66" s="62"/>
       <c r="AA66" s="62"/>
       <c r="AB66" s="62"/>
@@ -6480,7 +6480,7 @@
       <c r="AD66" s="62"/>
       <c r="AE66" s="62"/>
     </row>
-    <row r="67" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="67" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z67" s="62"/>
       <c r="AA67" s="62"/>
       <c r="AB67" s="62"/>
@@ -6488,7 +6488,7 @@
       <c r="AD67" s="62"/>
       <c r="AE67" s="62"/>
     </row>
-    <row r="68" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="68" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z68" s="62"/>
       <c r="AA68" s="62"/>
       <c r="AB68" s="62"/>
@@ -6496,7 +6496,7 @@
       <c r="AD68" s="62"/>
       <c r="AE68" s="62"/>
     </row>
-    <row r="69" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="69" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z69" s="62"/>
       <c r="AA69" s="62"/>
       <c r="AB69" s="62"/>
@@ -6504,7 +6504,7 @@
       <c r="AD69" s="62"/>
       <c r="AE69" s="62"/>
     </row>
-    <row r="70" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="70" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z70" s="62"/>
       <c r="AA70" s="62"/>
       <c r="AB70" s="62"/>
@@ -6512,7 +6512,7 @@
       <c r="AD70" s="62"/>
       <c r="AE70" s="62"/>
     </row>
-    <row r="71" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="71" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z71" s="62"/>
       <c r="AA71" s="62"/>
       <c r="AB71" s="62"/>
@@ -6520,7 +6520,7 @@
       <c r="AD71" s="62"/>
       <c r="AE71" s="62"/>
     </row>
-    <row r="72" spans="26:31" x14ac:dyDescent="0.5">
+    <row r="72" spans="26:31" x14ac:dyDescent="0.3">
       <c r="Z72" s="62"/>
       <c r="AA72" s="62"/>
       <c r="AB72" s="62"/>
@@ -6953,9 +6953,9 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>222</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="239" t="s">
         <v>168</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="238" t="s">
         <v>32</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="239" t="s">
         <v>129</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F10" s="238" t="s">
         <v>68</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11" s="239" t="s">
         <v>70</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="238" t="s">
         <v>258</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="239" t="s">
         <v>259</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="238" t="s">
         <v>266</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="239" t="s">
         <v>267</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F16" s="238" t="s">
         <v>9</v>
       </c>
@@ -7402,28 +7402,28 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5859375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="11.29296875" style="56"/>
-    <col min="3" max="3" width="22.703125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="11.29296875" style="56"/>
-    <col min="5" max="5" width="8.29296875" style="56" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="56"/>
+    <col min="3" max="3" width="22.6640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="56"/>
+    <col min="5" max="5" width="8.33203125" style="56" customWidth="1"/>
     <col min="6" max="6" width="19" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8.1171875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="33.29296875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.29296875" style="56" customWidth="1"/>
-    <col min="10" max="10" width="14.29296875" style="56" customWidth="1"/>
-    <col min="11" max="11" width="11.29296875" style="60"/>
-    <col min="12" max="12" width="16.5859375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="11.29296875" style="56"/>
-    <col min="14" max="14" width="18.1171875" style="56" customWidth="1"/>
-    <col min="15" max="15" width="11.29296875" style="56"/>
-    <col min="16" max="16" width="16.703125" style="56" customWidth="1"/>
-    <col min="17" max="16384" width="11.29296875" style="56"/>
+    <col min="7" max="7" width="8.109375" style="56" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="56" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="56" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="60"/>
+    <col min="12" max="12" width="16.5546875" style="56" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="56"/>
+    <col min="14" max="14" width="18.109375" style="56" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="56"/>
+    <col min="16" max="16" width="16.6640625" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="11.33203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="124" t="s">
         <v>84</v>
       </c>
@@ -7463,7 +7463,7 @@
       <c r="Q1" s="263"/>
       <c r="R1" s="63"/>
     </row>
-    <row r="2" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57"/>
       <c r="B2" s="97"/>
       <c r="C2" s="207"/>
@@ -7489,7 +7489,7 @@
       <c r="Q2" s="265"/>
       <c r="R2" s="63"/>
     </row>
-    <row r="3" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66"/>
       <c r="B3" s="76"/>
       <c r="C3" s="174"/>
@@ -7516,7 +7516,7 @@
       <c r="Q3" s="271"/>
       <c r="R3" s="63"/>
     </row>
-    <row r="4" spans="1:18" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="66"/>
       <c r="B4" s="76"/>
       <c r="C4" s="174"/>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="R4" s="63"/>
     </row>
-    <row r="5" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="92"/>
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
@@ -7581,7 +7581,7 @@
       <c r="Q5" s="177"/>
       <c r="R5" s="63"/>
     </row>
-    <row r="6" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="R6" s="63"/>
     </row>
-    <row r="7" spans="1:18" ht="29" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="124" t="s">
         <v>86</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="Q7" s="178"/>
       <c r="R7" s="63"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="198"/>
@@ -7662,7 +7662,7 @@
       <c r="Q8" s="178"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="66"/>
       <c r="B9" s="76"/>
       <c r="C9" s="174"/>
@@ -7687,7 +7687,7 @@
       <c r="Q9" s="178"/>
       <c r="R9" s="63"/>
     </row>
-    <row r="10" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="66"/>
       <c r="B10" s="76"/>
       <c r="C10" s="174"/>
@@ -7709,7 +7709,7 @@
       <c r="Q10" s="178"/>
       <c r="R10" s="63"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="76"/>
       <c r="C11" s="174"/>
@@ -7733,7 +7733,7 @@
       <c r="Q11" s="178"/>
       <c r="R11" s="63"/>
     </row>
-    <row r="12" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="92"/>
       <c r="B12" s="93"/>
       <c r="C12" s="200"/>
@@ -7758,7 +7758,7 @@
       <c r="Q12" s="178"/>
       <c r="R12" s="63"/>
     </row>
-    <row r="13" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="60"/>
       <c r="B13" s="60"/>
       <c r="C13" s="230"/>
@@ -7777,7 +7777,7 @@
       <c r="Q13" s="178"/>
       <c r="R13" s="63"/>
     </row>
-    <row r="14" spans="1:18" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="208" t="s">
         <v>89</v>
       </c>
@@ -7813,7 +7813,7 @@
       <c r="Q14" s="178"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57"/>
       <c r="B15" s="97">
         <f>200*E15</f>
@@ -7841,7 +7841,7 @@
       <c r="Q15" s="178"/>
       <c r="R15" s="63"/>
     </row>
-    <row r="16" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="66"/>
       <c r="B16" s="76">
         <f>420*E16</f>
@@ -7869,7 +7869,7 @@
       <c r="Q16" s="178"/>
       <c r="R16" s="63"/>
     </row>
-    <row r="17" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="66"/>
       <c r="B17" s="76">
         <f>900*E17</f>
@@ -7897,7 +7897,7 @@
       <c r="Q17" s="178"/>
       <c r="R17" s="63"/>
     </row>
-    <row r="18" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="66"/>
       <c r="B18" s="76">
         <f>E18*1300</f>
@@ -7925,7 +7925,7 @@
       <c r="Q18" s="178"/>
       <c r="R18" s="63"/>
     </row>
-    <row r="19" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="66"/>
       <c r="B19" s="76">
         <f>420*E19</f>
@@ -7953,7 +7953,7 @@
       <c r="Q19" s="178"/>
       <c r="R19" s="63"/>
     </row>
-    <row r="20" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="66"/>
       <c r="B20" s="76">
         <f>900*E20</f>
@@ -7981,7 +7981,7 @@
       <c r="Q20" s="178"/>
       <c r="R20" s="63"/>
     </row>
-    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="66"/>
       <c r="B21" s="76">
         <f>1300*E21</f>
@@ -8009,7 +8009,7 @@
       <c r="Q21" s="178"/>
       <c r="R21" s="63"/>
     </row>
-    <row r="22" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="66"/>
       <c r="B22" s="76">
         <f>420*E22</f>
@@ -8037,7 +8037,7 @@
       <c r="Q22" s="178"/>
       <c r="R22" s="63"/>
     </row>
-    <row r="23" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="66"/>
       <c r="B23" s="76">
         <f>900*E23</f>
@@ -8065,7 +8065,7 @@
       <c r="Q23" s="178"/>
       <c r="R23" s="63"/>
     </row>
-    <row r="24" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="66"/>
       <c r="B24" s="76">
         <f>1300*E24</f>
@@ -8093,7 +8093,7 @@
       <c r="Q24" s="178"/>
       <c r="R24" s="63"/>
     </row>
-    <row r="25" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="66"/>
       <c r="B25" s="76">
         <f>2000*E25</f>
@@ -8121,7 +8121,7 @@
       <c r="Q25" s="178"/>
       <c r="R25" s="63"/>
     </row>
-    <row r="26" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="66"/>
       <c r="B26" s="76">
         <f>5000*E26</f>
@@ -8149,7 +8149,7 @@
       <c r="Q26" s="178"/>
       <c r="R26" s="63"/>
     </row>
-    <row r="27" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="66"/>
       <c r="B27" s="76">
         <f>1400*E27</f>
@@ -8177,7 +8177,7 @@
       <c r="Q27" s="178"/>
       <c r="R27" s="63"/>
     </row>
-    <row r="28" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="66"/>
       <c r="B28" s="76">
         <f>2100*E28</f>
@@ -8205,7 +8205,7 @@
       <c r="Q28" s="178"/>
       <c r="R28" s="63"/>
     </row>
-    <row r="29" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="66"/>
       <c r="B29" s="76">
         <v>0</v>
@@ -8232,7 +8232,7 @@
       <c r="Q29" s="178"/>
       <c r="R29" s="63"/>
     </row>
-    <row r="30" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="66"/>
       <c r="B30" s="76">
         <f>1000*E30</f>
@@ -8260,7 +8260,7 @@
       <c r="Q30" s="178"/>
       <c r="R30" s="63"/>
     </row>
-    <row r="31" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="66"/>
       <c r="B31" s="76">
         <f>1000*E31</f>
@@ -8288,7 +8288,7 @@
       <c r="Q31" s="178"/>
       <c r="R31" s="63"/>
     </row>
-    <row r="32" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="66"/>
       <c r="B32" s="76">
         <f>2000*E32</f>
@@ -8316,7 +8316,7 @@
       <c r="Q32" s="178"/>
       <c r="R32" s="63"/>
     </row>
-    <row r="33" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="66"/>
       <c r="B33" s="76">
         <f>4000*E33</f>
@@ -8344,7 +8344,7 @@
       <c r="Q33" s="178"/>
       <c r="R33" s="63"/>
     </row>
-    <row r="34" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="66"/>
       <c r="B34" s="76">
         <f>1000*E34</f>
@@ -8372,7 +8372,7 @@
       <c r="Q34" s="178"/>
       <c r="R34" s="63"/>
     </row>
-    <row r="35" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="66"/>
       <c r="B35" s="76">
         <f>2000*E35</f>
@@ -8400,7 +8400,7 @@
       <c r="Q35" s="179"/>
       <c r="R35" s="63"/>
     </row>
-    <row r="36" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="66"/>
       <c r="B36" s="76">
         <f>2000*E36</f>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="R36" s="63"/>
     </row>
-    <row r="37" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="66"/>
       <c r="B37" s="76">
         <v>0</v>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="R37" s="63"/>
     </row>
-    <row r="38" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="66"/>
       <c r="B38" s="76">
         <f>2000*E38</f>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="R38" s="63"/>
     </row>
-    <row r="39" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="66"/>
       <c r="B39" s="76">
         <f>1400*E39</f>
@@ -8487,7 +8487,7 @@
       </c>
       <c r="R39" s="63"/>
     </row>
-    <row r="40" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="66"/>
       <c r="B40" s="76">
         <f>E40*700</f>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="R40" s="63"/>
     </row>
-    <row r="41" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="66"/>
       <c r="B41" s="76">
         <f>E41*350</f>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="R41" s="63"/>
     </row>
-    <row r="42" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="66"/>
       <c r="B42" s="76">
         <f>3800*E42</f>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="R42" s="63"/>
     </row>
-    <row r="43" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="66"/>
       <c r="B43" s="76">
         <f>1500*E43</f>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="R43" s="63"/>
     </row>
-    <row r="44" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="66"/>
       <c r="B44" s="76">
         <f>5000*E44</f>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="R44" s="63"/>
     </row>
-    <row r="45" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="66"/>
       <c r="B45" s="76">
         <f>6000*E45</f>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="R45" s="63"/>
     </row>
-    <row r="46" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="66"/>
       <c r="B46" s="76">
         <f>2100*E46</f>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="R46" s="63"/>
     </row>
-    <row r="47" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="66"/>
       <c r="B47" s="76">
         <f>1000*E47</f>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="R47" s="63"/>
     </row>
-    <row r="48" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="66"/>
       <c r="B48" s="76">
         <f>2000*E48</f>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="R48" s="63"/>
     </row>
-    <row r="49" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="66"/>
       <c r="B49" s="76">
         <f>3000*E49</f>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="R49" s="63"/>
     </row>
-    <row r="50" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="66"/>
       <c r="B50" s="76">
         <f>5000*E50</f>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="R50" s="63"/>
     </row>
-    <row r="51" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="66"/>
       <c r="B51" s="76">
         <f>4000*E51</f>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="R51" s="63"/>
     </row>
-    <row r="52" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="66"/>
       <c r="B52" s="76">
         <f>1400*E52</f>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="R52" s="63"/>
     </row>
-    <row r="53" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="66"/>
       <c r="B53" s="76">
         <f>2100*E53</f>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="R53" s="63"/>
     </row>
-    <row r="54" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="66"/>
       <c r="B54" s="76">
         <v>0</v>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="R54" s="63"/>
     </row>
-    <row r="55" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="66"/>
       <c r="B55" s="76"/>
       <c r="C55" s="76"/>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="R55" s="63"/>
     </row>
-    <row r="56" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="66"/>
       <c r="B56" s="76"/>
       <c r="C56" s="76"/>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="R56" s="63"/>
     </row>
-    <row r="57" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="66"/>
       <c r="B57" s="76"/>
       <c r="C57" s="76"/>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="R57" s="63"/>
     </row>
-    <row r="58" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="66"/>
       <c r="B58" s="76">
         <f>3000*E58</f>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="R58" s="63"/>
     </row>
-    <row r="59" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="66"/>
       <c r="B59" s="76">
         <v>0</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="R59" s="63"/>
     </row>
-    <row r="60" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="66"/>
       <c r="B60" s="76">
         <f>4000*E60</f>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="R60" s="63"/>
     </row>
-    <row r="61" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="66"/>
       <c r="B61" s="76">
         <f>4000*E61</f>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="R61" s="63"/>
     </row>
-    <row r="62" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="66"/>
       <c r="B62" s="76">
         <f>1400*E62</f>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="R62" s="63"/>
     </row>
-    <row r="63" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="92"/>
       <c r="B63" s="93"/>
       <c r="C63" s="200"/>
@@ -8998,7 +8998,7 @@
       <c r="J63" s="215"/>
       <c r="R63" s="63"/>
     </row>
-    <row r="64" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="60"/>
       <c r="B64" s="60"/>
       <c r="C64" s="230"/>
@@ -9011,7 +9011,7 @@
       <c r="J64" s="60"/>
       <c r="R64" s="63"/>
     </row>
-    <row r="65" spans="1:18" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="224" t="s">
         <v>242</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="K65" s="223"/>
       <c r="R65" s="63"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="227"/>
       <c r="B66" s="173"/>
       <c r="C66" s="173"/>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="R66" s="63"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="66"/>
       <c r="B67" s="76"/>
       <c r="C67" s="76"/>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="R67" s="63"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="66"/>
       <c r="B68" s="76"/>
       <c r="C68" s="76"/>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="R68" s="63"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="66"/>
       <c r="B69" s="76"/>
       <c r="C69" s="76"/>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="R69" s="63"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="R70" s="63"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="66"/>
       <c r="B71" s="76"/>
       <c r="C71" s="76"/>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="R71" s="63"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="66"/>
       <c r="B72" s="76"/>
       <c r="C72" s="76"/>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="R72" s="63"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="66"/>
       <c r="B73" s="76"/>
       <c r="C73" s="76"/>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="R73" s="63"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="66"/>
       <c r="B74" s="76"/>
       <c r="C74" s="76"/>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="R74" s="63"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="66"/>
       <c r="B75" s="76"/>
       <c r="C75" s="76"/>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="R75" s="63"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="66"/>
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="R76" s="63"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="66"/>
       <c r="B77" s="76"/>
       <c r="C77" s="76"/>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="R77" s="63"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="66"/>
       <c r="B78" s="76"/>
       <c r="C78" s="76"/>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="R78" s="63"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="66"/>
       <c r="B79" s="76"/>
       <c r="C79" s="174"/>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="R79" s="63"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="76"/>
       <c r="C80" s="174"/>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="R80" s="63"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="66"/>
       <c r="B81" s="76"/>
       <c r="C81" s="174"/>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="R81" s="63"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="66"/>
       <c r="B82" s="76"/>
       <c r="C82" s="174"/>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="R82" s="63"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="66"/>
       <c r="B83" s="76"/>
       <c r="C83" s="174"/>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="R83" s="63"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="66"/>
       <c r="B84" s="76"/>
       <c r="C84" s="174"/>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="R84" s="63"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="66"/>
       <c r="B85" s="76"/>
       <c r="C85" s="174"/>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="R85" s="63"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="66"/>
       <c r="B86" s="76"/>
       <c r="C86" s="174"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="R86" s="63"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="66"/>
       <c r="B87" s="76"/>
       <c r="C87" s="174"/>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="R87" s="63"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="66"/>
       <c r="B88" s="76"/>
       <c r="C88" s="174"/>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="R88" s="63"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="66"/>
       <c r="B89" s="76"/>
       <c r="C89" s="174"/>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="R89" s="63"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="66"/>
       <c r="B90" s="76"/>
       <c r="C90" s="174"/>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="R90" s="63"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="66"/>
       <c r="B91" s="76"/>
       <c r="C91" s="174"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="R91" s="63"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="66"/>
       <c r="B92" s="76"/>
       <c r="C92" s="174"/>
@@ -9473,7 +9473,7 @@
       </c>
       <c r="R92" s="63"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="66"/>
       <c r="B93" s="76"/>
       <c r="C93" s="174"/>
@@ -9486,7 +9486,7 @@
       <c r="J93" s="211"/>
       <c r="R93" s="63"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="66"/>
       <c r="B94" s="76"/>
       <c r="C94" s="174"/>
@@ -9499,7 +9499,7 @@
       <c r="J94" s="211"/>
       <c r="R94" s="63"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="66"/>
       <c r="B95" s="76"/>
       <c r="C95" s="174"/>
@@ -9512,7 +9512,7 @@
       <c r="J95" s="211"/>
       <c r="R95" s="63"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="66"/>
       <c r="B96" s="76"/>
       <c r="C96" s="174"/>
@@ -9525,7 +9525,7 @@
       <c r="J96" s="211"/>
       <c r="R96" s="63"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="66"/>
       <c r="B97" s="76"/>
       <c r="C97" s="174"/>
@@ -9538,7 +9538,7 @@
       <c r="J97" s="211"/>
       <c r="R97" s="63"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="66"/>
       <c r="B98" s="76"/>
       <c r="C98" s="174"/>
@@ -9551,7 +9551,7 @@
       <c r="J98" s="211"/>
       <c r="R98" s="63"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="66"/>
       <c r="B99" s="76"/>
       <c r="C99" s="174"/>
@@ -9564,7 +9564,7 @@
       <c r="J99" s="211"/>
       <c r="R99" s="63"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="66"/>
       <c r="B100" s="76"/>
       <c r="C100" s="174"/>
@@ -9577,7 +9577,7 @@
       <c r="J100" s="211"/>
       <c r="R100" s="63"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="66"/>
       <c r="B101" s="76"/>
       <c r="C101" s="174"/>
@@ -9590,7 +9590,7 @@
       <c r="J101" s="211"/>
       <c r="R101" s="63"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="66"/>
       <c r="B102" s="76"/>
       <c r="C102" s="174"/>
@@ -9603,7 +9603,7 @@
       <c r="J102" s="211"/>
       <c r="R102" s="63"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="66"/>
       <c r="B103" s="76"/>
       <c r="C103" s="174"/>
@@ -9616,7 +9616,7 @@
       <c r="J103" s="211"/>
       <c r="R103" s="63"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="66"/>
       <c r="B104" s="76"/>
       <c r="C104" s="174"/>
@@ -9629,7 +9629,7 @@
       <c r="J104" s="211"/>
       <c r="R104" s="63"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="66"/>
       <c r="B105" s="76"/>
       <c r="C105" s="174"/>
@@ -9642,7 +9642,7 @@
       <c r="J105" s="211"/>
       <c r="R105" s="63"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="66"/>
       <c r="B106" s="76"/>
       <c r="C106" s="76"/>
@@ -9655,7 +9655,7 @@
       <c r="J106" s="211"/>
       <c r="R106" s="63"/>
     </row>
-    <row r="107" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="92"/>
       <c r="B107" s="93"/>
       <c r="C107" s="93"/>
@@ -9668,7 +9668,7 @@
       <c r="J107" s="215"/>
       <c r="R107" s="63"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H108" s="60"/>
       <c r="I108" s="60"/>
     </row>
@@ -9690,33 +9690,33 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5859375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="11.17578125" style="56" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="56" customWidth="1"/>
     <col min="3" max="3" width="15" style="56" customWidth="1"/>
-    <col min="4" max="4" width="9.234375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="19.5859375" style="56" customWidth="1"/>
-    <col min="6" max="6" width="4.5859375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="5.29296875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="4.29296875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="6.5859375" style="56" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="56" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" style="56" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="56" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" style="56" customWidth="1"/>
     <col min="10" max="10" width="3" style="56" customWidth="1"/>
-    <col min="11" max="11" width="25.1171875" style="56" customWidth="1"/>
-    <col min="12" max="12" width="14.5859375" style="56" customWidth="1"/>
-    <col min="13" max="13" width="7.5859375" style="56" customWidth="1"/>
-    <col min="14" max="14" width="8.703125" style="56" customWidth="1"/>
-    <col min="15" max="15" width="20.41015625" style="56" customWidth="1"/>
-    <col min="16" max="16" width="9.703125" style="56" customWidth="1"/>
-    <col min="17" max="17" width="5.29296875" style="56" customWidth="1"/>
-    <col min="18" max="16384" width="11.29296875" style="56"/>
+    <col min="11" max="11" width="25.109375" style="56" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="56" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="56" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="56" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" style="56" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="56" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="56" customWidth="1"/>
+    <col min="18" max="16384" width="11.33203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="122" t="s">
         <v>91</v>
       </c>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="P1" s="60"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>12</v>
       </c>
@@ -9802,7 +9802,7 @@
       <c r="X2" s="55"/>
       <c r="Y2" s="55"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>15</v>
       </c>
@@ -9845,7 +9845,7 @@
       <c r="X3" s="55"/>
       <c r="Y3" s="55"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
         <v>21</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="X4" s="55"/>
       <c r="Y4" s="55"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>218</v>
       </c>
@@ -9929,7 +9929,7 @@
       <c r="X5" s="55"/>
       <c r="Y5" s="55"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
         <v>25</v>
       </c>
@@ -9972,7 +9972,7 @@
       <c r="X6" s="55"/>
       <c r="Y6" s="55"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
         <v>168</v>
       </c>
@@ -10015,7 +10015,7 @@
       <c r="X7" s="55"/>
       <c r="Y7" s="55"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
         <v>32</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="X8" s="55"/>
       <c r="Y8" s="55"/>
     </row>
-    <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="66" t="s">
         <v>129</v>
       </c>
@@ -10097,7 +10097,7 @@
       <c r="X9" s="55"/>
       <c r="Y9" s="55"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
         <v>36</v>
       </c>
@@ -10136,7 +10136,7 @@
       <c r="X10" s="55"/>
       <c r="Y10" s="55"/>
     </row>
-    <row r="11" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
         <v>41</v>
       </c>
@@ -10175,7 +10175,7 @@
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
     </row>
-    <row r="12" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="60"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -10214,7 +10214,7 @@
       <c r="X12" s="55"/>
       <c r="Y12" s="55"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="123" t="s">
         <v>58</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
     </row>
-    <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="243"/>
@@ -10294,7 +10294,7 @@
       <c r="X14" s="55"/>
       <c r="Y14" s="55"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="149" t="s">
         <v>68</v>
       </c>
@@ -10340,7 +10340,7 @@
       <c r="X15" s="55"/>
       <c r="Y15" s="55"/>
     </row>
-    <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="152" t="s">
         <v>70</v>
       </c>
@@ -10388,7 +10388,7 @@
       <c r="X16" s="55"/>
       <c r="Y16" s="55"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="154" t="s">
         <v>73</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="X17" s="55"/>
       <c r="Y17" s="55"/>
     </row>
-    <row r="18" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="154" t="s">
         <v>75</v>
       </c>
@@ -10473,7 +10473,7 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="154" t="s">
         <v>161</v>
       </c>
@@ -10516,7 +10516,7 @@
       <c r="X19" s="55"/>
       <c r="Y19" s="55"/>
     </row>
-    <row r="20" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="154" t="s">
         <v>162</v>
       </c>
@@ -10559,7 +10559,7 @@
       <c r="X20" s="55"/>
       <c r="Y20" s="55"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="154" t="s">
         <v>163</v>
       </c>
@@ -10597,7 +10597,7 @@
       <c r="X21" s="55"/>
       <c r="Y21" s="55"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="154" t="s">
         <v>164</v>
       </c>
@@ -10635,7 +10635,7 @@
       <c r="X22" s="55"/>
       <c r="Y22" s="55"/>
     </row>
-    <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="48"/>
@@ -10669,7 +10669,7 @@
       <c r="X23" s="55"/>
       <c r="Y23" s="55"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -10701,7 +10701,7 @@
       <c r="X24" s="55"/>
       <c r="Y24" s="55"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
@@ -10733,7 +10733,7 @@
       <c r="X25" s="55"/>
       <c r="Y25" s="55"/>
     </row>
-    <row r="26" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -10765,7 +10765,7 @@
       <c r="X26" s="55"/>
       <c r="Y26" s="55"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -10788,7 +10788,7 @@
       <c r="X27" s="55"/>
       <c r="Y27" s="55"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -10811,7 +10811,7 @@
       <c r="X28" s="55"/>
       <c r="Y28" s="55"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
@@ -10837,7 +10837,7 @@
       <c r="X29" s="55"/>
       <c r="Y29" s="55"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
@@ -10860,7 +10860,7 @@
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -10883,7 +10883,7 @@
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -10906,7 +10906,7 @@
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -10929,7 +10929,7 @@
       <c r="X33" s="55"/>
       <c r="Y33" s="55"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -10952,7 +10952,7 @@
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
@@ -10975,7 +10975,7 @@
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55"/>
@@ -11404,22 +11404,22 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="11.29296875" style="56"/>
-    <col min="7" max="7" width="5.1171875" style="56" customWidth="1"/>
-    <col min="8" max="8" width="11.29296875" style="56"/>
-    <col min="9" max="9" width="7.29296875" style="56" customWidth="1"/>
-    <col min="10" max="10" width="11.29296875" style="56"/>
-    <col min="11" max="11" width="12.87890625" style="56" customWidth="1"/>
-    <col min="12" max="12" width="8.87890625" style="56" customWidth="1"/>
-    <col min="13" max="13" width="8.29296875" style="56" customWidth="1"/>
-    <col min="14" max="14" width="11.29296875" style="56"/>
-    <col min="15" max="15" width="3.5859375" style="56" customWidth="1"/>
-    <col min="16" max="16384" width="11.29296875" style="56"/>
+    <col min="1" max="6" width="11.33203125" style="56"/>
+    <col min="7" max="7" width="5.109375" style="56" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="56"/>
+    <col min="9" max="9" width="7.33203125" style="56" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="56"/>
+    <col min="11" max="11" width="12.88671875" style="56" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="56" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="56" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="56"/>
+    <col min="15" max="15" width="3.5546875" style="56" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>99</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>91</v>
       </c>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="O2" s="167"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="168" t="s">
         <v>107</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="168" t="s">
         <v>109</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="168" t="s">
         <v>111</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="168" t="s">
         <v>113</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="168" t="s">
         <v>115</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="168" t="s">
         <v>117</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="168" t="s">
         <v>68</v>
       </c>
@@ -11549,10 +11549,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="168"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="168" t="s">
         <v>119</v>
       </c>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="F13" s="126"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>121</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="168" t="s">
         <v>123</v>
       </c>
@@ -11588,7 +11588,7 @@
       <c r="E15" s="129"/>
       <c r="F15" s="128"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>124</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="168" t="s">
         <v>126</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>127</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E19" s="129">
         <v>8</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>70</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E21" s="129">
         <v>10</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="56">
         <v>2</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="168"/>
       <c r="E23" s="129">
         <v>12</v>
@@ -11690,7 +11690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="168"/>
       <c r="E24" s="129">
         <v>13</v>
@@ -11700,7 +11700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="168"/>
       <c r="E25" s="129">
         <v>14</v>
@@ -11710,7 +11710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="168"/>
       <c r="E26" s="129">
         <v>15</v>
@@ -11720,7 +11720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="168"/>
       <c r="E27" s="129">
         <v>16</v>
@@ -11730,7 +11730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="168"/>
       <c r="E28" s="129">
         <v>17</v>
@@ -11740,7 +11740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="168"/>
       <c r="E29" s="129">
         <v>18</v>
@@ -11750,7 +11750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" s="129">
         <v>19</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="130">
         <v>20</v>
       </c>
@@ -11778,18 +11778,18 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="127.29296875" style="63" customWidth="1"/>
-    <col min="2" max="8" width="11.29296875" style="63" customWidth="1"/>
-    <col min="9" max="16384" width="11.29296875" style="63" hidden="1"/>
+    <col min="1" max="1" width="127.33203125" style="63" customWidth="1"/>
+    <col min="2" max="8" width="11.33203125" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="11.33203125" style="63" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="121"/>
     </row>
   </sheetData>
@@ -11808,21 +11808,21 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1171875" customWidth="1"/>
-    <col min="2" max="2" width="8.29296875" customWidth="1"/>
-    <col min="4" max="4" width="5.87890625" customWidth="1"/>
-    <col min="5" max="5" width="15.87890625" customWidth="1"/>
-    <col min="6" max="6" width="8.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="8" width="6.5859375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
@@ -12161,7 +12161,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>142</v>
       </c>
@@ -12194,12 +12194,12 @@
       <c r="J11" s="17"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
       <c r="B12">
-        <f>Inventar!G22</f>
+        <f>Inventar!I12</f>
         <v>0</v>
       </c>
       <c r="C12" s="3" t="str">
@@ -12224,12 +12224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
       <c r="B13">
-        <f>Inventar!G19</f>
+        <f>Inventar!I9</f>
         <v>0</v>
       </c>
       <c r="C13" s="3" t="str">
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>205</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>58</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>68</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>70</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>155</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>156</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>159</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>160</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>157</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>158</v>
       </c>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>208</v>
       </c>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
     </row>
   </sheetData>

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090F8B52-83BE-4D28-A0BA-68F1D926C54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E7C069-BE02-403E-A2FC-2875F1486FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
@@ -2134,7 +2134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3140,9 +3140,6 @@
     <xf numFmtId="2" fontId="7" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="7" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3167,505 +3164,546 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="26" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="26" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -5844,7 +5882,7 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5902,13 +5940,13 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="411" t="s">
+      <c r="J1" s="409" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
-      <c r="N1" s="413"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="411"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -5923,18 +5961,18 @@
       <c r="V1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="386" t="s">
+      <c r="W1" s="367" t="s">
         <v>207</v>
       </c>
-      <c r="X1" s="387"/>
+      <c r="X1" s="369"/>
       <c r="Y1" s="3" t="s">
         <v>199</v>
       </c>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="386" t="s">
+      <c r="AA1" s="367" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="387"/>
+      <c r="AB1" s="369"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
@@ -5950,13 +5988,13 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="435">
+      <c r="J2" s="377">
         <v>100</v>
       </c>
-      <c r="K2" s="436"/>
-      <c r="L2" s="436"/>
-      <c r="M2" s="436"/>
-      <c r="N2" s="437"/>
+      <c r="K2" s="378"/>
+      <c r="L2" s="378"/>
+      <c r="M2" s="378"/>
+      <c r="N2" s="379"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="5"/>
@@ -5965,24 +6003,24 @@
       </c>
       <c r="S2" s="171">
         <f>Charakter!B2+T2</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T2" s="71">
         <v>0</v>
       </c>
       <c r="U2" s="137"/>
-      <c r="V2" s="428" t="s">
+      <c r="V2" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="429"/>
-      <c r="X2" s="429"/>
-      <c r="Y2" s="430"/>
+      <c r="W2" s="371"/>
+      <c r="X2" s="371"/>
+      <c r="Y2" s="372"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="394" t="str">
+      <c r="AA2" s="429" t="str">
         <f>IF(Charakter!L2 = 0, "", Charakter!L2)</f>
         <v/>
       </c>
-      <c r="AB2" s="395"/>
+      <c r="AB2" s="430"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
@@ -6012,7 +6050,7 @@
       </c>
       <c r="S3" s="172">
         <f>Charakter!B3+T3</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T3" s="72">
         <v>0</v>
@@ -6032,11 +6070,11 @@
         <v>20</v>
       </c>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="398" t="str">
+      <c r="AA3" s="435" t="str">
         <f>IF(Charakter!L3 = 0, "", Charakter!L3)</f>
         <v/>
       </c>
-      <c r="AB3" s="399"/>
+      <c r="AB3" s="436"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
@@ -6063,7 +6101,7 @@
       </c>
       <c r="S4" s="173">
         <f>Charakter!B4+T4</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T4" s="73">
         <v>0</v>
@@ -6083,11 +6121,11 @@
         <v>20</v>
       </c>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="392" t="str">
+      <c r="AA4" s="427" t="str">
         <f>IF(Charakter!L4 = 0, "", Charakter!L4)</f>
         <v/>
       </c>
-      <c r="AB4" s="393"/>
+      <c r="AB4" s="428"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
@@ -6117,7 +6155,7 @@
       </c>
       <c r="S5" s="174">
         <f>Charakter!B5+T5</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T5" s="72">
         <v>0</v>
@@ -6135,11 +6173,11 @@
         <v>20</v>
       </c>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="398" t="str">
+      <c r="AA5" s="435" t="str">
         <f>IF(Charakter!L5 = 0, "", Charakter!L5)</f>
         <v/>
       </c>
-      <c r="AB5" s="399"/>
+      <c r="AB5" s="436"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
@@ -6189,26 +6227,26 @@
         <v>20</v>
       </c>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="392" t="str">
+      <c r="AA6" s="427" t="str">
         <f>IF(Charakter!L6 = 0, "", Charakter!L6)</f>
         <v/>
       </c>
-      <c r="AB6" s="393"/>
+      <c r="AB6" s="428"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="100"/>
-      <c r="B7" s="414" t="s">
+      <c r="B7" s="415" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="414" t="s">
+      <c r="C7" s="418"/>
+      <c r="D7" s="415" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="415"/>
-      <c r="F7" s="416"/>
+      <c r="E7" s="416"/>
+      <c r="F7" s="417"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -6245,11 +6283,11 @@
         <v>20</v>
       </c>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="398" t="str">
+      <c r="AA7" s="435" t="str">
         <f>IF(Charakter!L7 = 0, "", Charakter!L7)</f>
         <v/>
       </c>
-      <c r="AB7" s="399"/>
+      <c r="AB7" s="436"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -6259,11 +6297,11 @@
       <c r="A8" s="260" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="418"/>
-      <c r="C8" s="419"/>
-      <c r="D8" s="418"/>
-      <c r="E8" s="422"/>
-      <c r="F8" s="423"/>
+      <c r="B8" s="419"/>
+      <c r="C8" s="420"/>
+      <c r="D8" s="419"/>
+      <c r="E8" s="423"/>
+      <c r="F8" s="424"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -6300,11 +6338,11 @@
         <v>20</v>
       </c>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="392" t="str">
+      <c r="AA8" s="427" t="str">
         <f>IF(Charakter!L8 = 0, "", Charakter!L8)</f>
         <v/>
       </c>
-      <c r="AB8" s="393"/>
+      <c r="AB8" s="428"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
@@ -6314,11 +6352,11 @@
       <c r="A9" s="261" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="420"/>
-      <c r="C9" s="421"/>
-      <c r="D9" s="420"/>
-      <c r="E9" s="424"/>
-      <c r="F9" s="425"/>
+      <c r="B9" s="421"/>
+      <c r="C9" s="422"/>
+      <c r="D9" s="421"/>
+      <c r="E9" s="425"/>
+      <c r="F9" s="426"/>
       <c r="G9" s="7"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
@@ -6355,11 +6393,11 @@
         <v>20</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="400" t="str">
+      <c r="AA9" s="437" t="str">
         <f>IF(Charakter!L9 = 0, "", Charakter!L9)</f>
         <v/>
       </c>
-      <c r="AB9" s="401"/>
+      <c r="AB9" s="438"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -6384,7 +6422,7 @@
       </c>
       <c r="S10" s="180">
         <f>Charakter!B10+T10</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T10" s="73">
         <v>0</v>
@@ -6440,23 +6478,23 @@
       </c>
       <c r="S11" s="181">
         <f>Charakter!B11+T11</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T11" s="72">
         <v>0</v>
       </c>
       <c r="U11" s="137"/>
-      <c r="V11" s="431" t="s">
+      <c r="V11" s="373" t="s">
         <v>275</v>
       </c>
-      <c r="W11" s="432"/>
-      <c r="X11" s="432"/>
-      <c r="Y11" s="433"/>
+      <c r="W11" s="374"/>
+      <c r="X11" s="374"/>
+      <c r="Y11" s="375"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="386" t="s">
+      <c r="AA11" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="387"/>
+      <c r="AB11" s="369"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -6499,7 +6537,7 @@
       </c>
       <c r="S12" s="182">
         <f>ROUNDUP((S7+S5)/2,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T12" s="74">
         <v>0</v>
@@ -6519,11 +6557,11 @@
         <v>20</v>
       </c>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="394" t="str">
+      <c r="AA12" s="429" t="str">
         <f>IF(Charakter!L13 = 0, "", Charakter!L13)</f>
         <v/>
       </c>
-      <c r="AB12" s="395"/>
+      <c r="AB12" s="430"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -6577,11 +6615,11 @@
         <v>20</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="388" t="str">
+      <c r="AA13" s="431" t="str">
         <f>IF(Charakter!L14 = 0, "", Charakter!L14)</f>
         <v/>
       </c>
-      <c r="AB13" s="389"/>
+      <c r="AB13" s="432"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -6619,11 +6657,11 @@
       <c r="O14" s="7"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="402" t="s">
+      <c r="R14" s="380" t="s">
         <v>279</v>
       </c>
-      <c r="S14" s="403"/>
-      <c r="T14" s="438"/>
+      <c r="S14" s="381"/>
+      <c r="T14" s="382"/>
       <c r="U14" s="26"/>
       <c r="V14" s="62" t="s">
         <v>178</v>
@@ -6639,11 +6677,11 @@
         <v>20</v>
       </c>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="396" t="str">
+      <c r="AA14" s="433" t="str">
         <f>IF(Charakter!L15 = 0, "", Charakter!L15)</f>
         <v/>
       </c>
-      <c r="AB14" s="397"/>
+      <c r="AB14" s="434"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -6681,22 +6719,22 @@
       <c r="O15" s="7"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="404"/>
-      <c r="S15" s="405"/>
-      <c r="T15" s="439"/>
+      <c r="R15" s="383"/>
+      <c r="S15" s="384"/>
+      <c r="T15" s="385"/>
       <c r="U15" s="26"/>
-      <c r="V15" s="386" t="s">
+      <c r="V15" s="367" t="s">
         <v>274</v>
       </c>
-      <c r="W15" s="427"/>
-      <c r="X15" s="427"/>
-      <c r="Y15" s="387"/>
+      <c r="W15" s="368"/>
+      <c r="X15" s="368"/>
+      <c r="Y15" s="369"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="388" t="str">
+      <c r="AA15" s="431" t="str">
         <f>IF(Charakter!L16 = 0, "", Charakter!L16)</f>
         <v/>
       </c>
-      <c r="AB15" s="389"/>
+      <c r="AB15" s="432"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -6734,11 +6772,11 @@
       <c r="O16" s="7"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="446">
-        <v>0</v>
-      </c>
-      <c r="S16" s="447"/>
-      <c r="T16" s="448"/>
+      <c r="R16" s="392">
+        <v>0</v>
+      </c>
+      <c r="S16" s="393"/>
+      <c r="T16" s="394"/>
       <c r="U16" s="26"/>
       <c r="V16" s="59" t="s">
         <v>225</v>
@@ -6754,11 +6792,11 @@
         <v>20</v>
       </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="390" t="str">
+      <c r="AA16" s="439" t="str">
         <f>IF(Charakter!L17 = 0, "", Charakter!L17)</f>
         <v/>
       </c>
-      <c r="AB16" s="391"/>
+      <c r="AB16" s="440"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
@@ -6826,11 +6864,11 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="440" t="s">
+      <c r="R18" s="386" t="s">
         <v>278</v>
       </c>
-      <c r="S18" s="441"/>
-      <c r="T18" s="442"/>
+      <c r="S18" s="387"/>
+      <c r="T18" s="388"/>
       <c r="U18" s="26"/>
       <c r="V18" s="61" t="s">
         <v>227</v>
@@ -6844,27 +6882,27 @@
         <v>20</v>
       </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="386" t="s">
+      <c r="AA18" s="367" t="s">
         <v>21</v>
       </c>
-      <c r="AB18" s="387"/>
+      <c r="AB18" s="369"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.5">
-      <c r="A19" s="402" t="s">
+      <c r="A19" s="380" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="403"/>
-      <c r="C19" s="406" t="s">
+      <c r="B19" s="381"/>
+      <c r="C19" s="404" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="408" t="s">
+      <c r="D19" s="406" t="s">
         <v>270</v>
       </c>
-      <c r="E19" s="410"/>
+      <c r="E19" s="408"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6877,9 +6915,9 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="383"/>
-      <c r="S19" s="384"/>
-      <c r="T19" s="385"/>
+      <c r="R19" s="412"/>
+      <c r="S19" s="413"/>
+      <c r="T19" s="414"/>
       <c r="U19" s="26"/>
       <c r="V19" s="60" t="s">
         <v>35</v>
@@ -6908,11 +6946,11 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="404"/>
-      <c r="B20" s="405"/>
-      <c r="C20" s="407"/>
-      <c r="D20" s="409"/>
-      <c r="E20" s="410"/>
+      <c r="A20" s="383"/>
+      <c r="B20" s="384"/>
+      <c r="C20" s="405"/>
+      <c r="D20" s="407"/>
+      <c r="E20" s="408"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6925,9 +6963,9 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="380"/>
-      <c r="S20" s="381"/>
-      <c r="T20" s="382"/>
+      <c r="R20" s="395"/>
+      <c r="S20" s="396"/>
+      <c r="T20" s="397"/>
       <c r="U20" s="26"/>
       <c r="V20" s="61" t="s">
         <v>228</v>
@@ -6961,14 +6999,14 @@
       </c>
       <c r="B21" s="184">
         <f>Charakter!B15</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C21" s="233">
         <v>0</v>
       </c>
       <c r="D21" s="242">
         <f t="shared" ref="D21:D28" si="0">B21-C21</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E21" s="63"/>
       <c r="F21" s="7"/>
@@ -6983,9 +7021,9 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="452"/>
-      <c r="S21" s="453"/>
-      <c r="T21" s="454"/>
+      <c r="R21" s="401"/>
+      <c r="S21" s="402"/>
+      <c r="T21" s="403"/>
       <c r="U21" s="26"/>
       <c r="V21" s="153" t="s">
         <v>229</v>
@@ -7006,7 +7044,7 @@
       </c>
       <c r="AB21" s="167">
         <f>S2*4</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
@@ -7019,14 +7057,14 @@
       </c>
       <c r="B22" s="247">
         <f>Charakter!B16</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" s="234">
         <v>0</v>
       </c>
       <c r="D22" s="243">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>IF(D22 &lt;4,"Erschöpft","")</f>
@@ -7044,23 +7082,23 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="380"/>
-      <c r="S22" s="381"/>
-      <c r="T22" s="382"/>
+      <c r="R22" s="395"/>
+      <c r="S22" s="396"/>
+      <c r="T22" s="397"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="386" t="s">
+      <c r="V22" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="W22" s="427"/>
-      <c r="X22" s="427"/>
-      <c r="Y22" s="387"/>
+      <c r="W22" s="368"/>
+      <c r="X22" s="368"/>
+      <c r="Y22" s="369"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="164" t="s">
         <v>30</v>
       </c>
       <c r="AB22" s="165">
         <f>AB21-AB20</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -7073,14 +7111,14 @@
       </c>
       <c r="B23" s="186">
         <f>Charakter!B17</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" s="235">
         <v>0</v>
       </c>
       <c r="D23" s="242">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>IF(D23=0,"Verkrüppelt",IF(D23&lt;=B23*0.2,"Verstümmelt",""))</f>
@@ -7098,9 +7136,9 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="383"/>
-      <c r="S23" s="384"/>
-      <c r="T23" s="385"/>
+      <c r="R23" s="412"/>
+      <c r="S23" s="413"/>
+      <c r="T23" s="414"/>
       <c r="U23" s="26"/>
       <c r="V23" s="59" t="s">
         <v>230</v>
@@ -7132,14 +7170,14 @@
       </c>
       <c r="B24" s="188">
         <f>Charakter!B18</f>
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C24" s="236">
         <v>0</v>
       </c>
       <c r="D24" s="244">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E24" s="69" t="str">
         <f t="shared" ref="E24:E28" si="1">IF(D24=0,"Verkrüppelt",IF(D24&lt;=B24*0.2,"Verstümmelt",""))</f>
@@ -7157,9 +7195,9 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="380"/>
-      <c r="S24" s="381"/>
-      <c r="T24" s="382"/>
+      <c r="R24" s="395"/>
+      <c r="S24" s="396"/>
+      <c r="T24" s="397"/>
       <c r="U24" s="26"/>
       <c r="V24" s="153" t="s">
         <v>231</v>
@@ -7186,14 +7224,14 @@
       </c>
       <c r="B25" s="188">
         <f>Charakter!B19</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="236">
         <v>0</v>
       </c>
       <c r="D25" s="244">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E25" s="69" t="str">
         <f t="shared" si="1"/>
@@ -7214,12 +7252,12 @@
       <c r="R25" s="51"/>
       <c r="T25" s="23"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="386" t="s">
+      <c r="V25" s="367" t="s">
         <v>76</v>
       </c>
-      <c r="W25" s="427"/>
-      <c r="X25" s="427"/>
-      <c r="Y25" s="387"/>
+      <c r="W25" s="368"/>
+      <c r="X25" s="368"/>
+      <c r="Y25" s="369"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
@@ -7234,14 +7272,14 @@
       </c>
       <c r="B26" s="188">
         <f>Charakter!B20</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" s="236">
         <v>0</v>
       </c>
       <c r="D26" s="244">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E26" s="69" t="str">
         <f t="shared" si="1"/>
@@ -7259,11 +7297,11 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="443" t="s">
+      <c r="R26" s="389" t="s">
         <v>140</v>
       </c>
-      <c r="S26" s="444"/>
-      <c r="T26" s="445"/>
+      <c r="S26" s="390"/>
+      <c r="T26" s="391"/>
       <c r="U26" s="26"/>
       <c r="V26" s="59" t="s">
         <v>45</v>
@@ -7288,14 +7326,14 @@
       </c>
       <c r="B27" s="188">
         <f>Charakter!B21</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C27" s="236">
         <v>0</v>
       </c>
       <c r="D27" s="244">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E27" s="69" t="str">
         <f t="shared" si="1"/>
@@ -7313,9 +7351,9 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="449"/>
-      <c r="S27" s="450"/>
-      <c r="T27" s="451"/>
+      <c r="R27" s="398"/>
+      <c r="S27" s="399"/>
+      <c r="T27" s="400"/>
       <c r="U27" s="26"/>
       <c r="V27" s="60" t="s">
         <v>46</v>
@@ -7340,14 +7378,14 @@
       </c>
       <c r="B28" s="190">
         <f>Charakter!B22</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C28" s="237">
         <v>0</v>
       </c>
       <c r="D28" s="245">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E28" s="69" t="str">
         <f t="shared" si="1"/>
@@ -7357,11 +7395,11 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="434"/>
-      <c r="K28" s="434"/>
-      <c r="L28" s="434"/>
-      <c r="M28" s="434"/>
-      <c r="N28" s="434"/>
+      <c r="J28" s="376"/>
+      <c r="K28" s="376"/>
+      <c r="L28" s="376"/>
+      <c r="M28" s="376"/>
+      <c r="N28" s="376"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -7398,11 +7436,11 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="426"/>
-      <c r="K29" s="426"/>
-      <c r="L29" s="426"/>
-      <c r="M29" s="426"/>
-      <c r="N29" s="426"/>
+      <c r="J29" s="366"/>
+      <c r="K29" s="366"/>
+      <c r="L29" s="366"/>
+      <c r="M29" s="366"/>
+      <c r="N29" s="366"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -7410,12 +7448,12 @@
       <c r="S29" s="7"/>
       <c r="T29" s="23"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="386" t="s">
+      <c r="V29" s="367" t="s">
         <v>287</v>
       </c>
-      <c r="W29" s="427"/>
-      <c r="X29" s="427"/>
-      <c r="Y29" s="387"/>
+      <c r="W29" s="368"/>
+      <c r="X29" s="368"/>
+      <c r="Y29" s="369"/>
       <c r="Z29" s="5"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
@@ -7950,6 +7988,38 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="48">
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="V25:Y25"/>
     <mergeCell ref="V29:Y29"/>
@@ -7966,38 +8036,6 @@
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="R21:T21"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="R20:T20"/>
   </mergeCells>
   <conditionalFormatting sqref="W4:X5 W1 W26:X27 W7:X7 V33:W1048576 W30:X32">
     <cfRule type="containsText" dxfId="224" priority="137" operator="containsText" text="Phy">
@@ -8575,12 +8613,12 @@
         <v>165</v>
       </c>
       <c r="K1" s="22"/>
-      <c r="L1" s="459" t="s">
+      <c r="L1" s="445" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="460"/>
-      <c r="N1" s="460"/>
-      <c r="O1" s="461"/>
+      <c r="M1" s="446"/>
+      <c r="N1" s="446"/>
+      <c r="O1" s="447"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -8598,12 +8636,12 @@
       <c r="L2" s="325" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="462">
+      <c r="M2" s="448">
         <f>O4-M4</f>
         <v>30000</v>
       </c>
-      <c r="N2" s="463"/>
-      <c r="O2" s="464"/>
+      <c r="N2" s="449"/>
+      <c r="O2" s="450"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -8618,14 +8656,14 @@
         <f>B3*0.4</f>
         <v>0</v>
       </c>
-      <c r="L3" s="455" t="s">
+      <c r="L3" s="441" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="456"/>
-      <c r="N3" s="457" t="s">
+      <c r="M3" s="442"/>
+      <c r="N3" s="443" t="s">
         <v>168</v>
       </c>
-      <c r="O3" s="458"/>
+      <c r="O3" s="444"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9698,7 +9736,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9725,11 +9763,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="341" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="343" t="s">
-        <v>179</v>
+      <c r="B1" s="480" t="s">
+        <v>184</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>206</v>
@@ -9741,10 +9779,10 @@
       <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="465" t="s">
+      <c r="G1" s="451" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="466"/>
+      <c r="H1" s="452"/>
       <c r="I1" s="48" t="s">
         <v>208</v>
       </c>
@@ -9756,27 +9794,27 @@
         <v>6</v>
       </c>
       <c r="M1" s="7"/>
-      <c r="N1" s="467" t="s">
+      <c r="N1" s="453" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="469"/>
+      <c r="O1" s="455"/>
       <c r="P1" s="52" t="s">
         <v>264</v>
       </c>
       <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="488" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="344">
+      <c r="B2" s="492">
         <f t="shared" ref="B2:B9" si="0">D2</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="94">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G2:M2)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="196" t="s">
@@ -9800,7 +9838,7 @@
       </c>
       <c r="O2" s="76">
         <f>B4*4+B7</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P2" s="248"/>
       <c r="Q2" s="7"/>
@@ -9815,17 +9853,17 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="489" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="345">
+      <c r="B3" s="493">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="95">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G3:M3)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="193" t="s">
@@ -9864,17 +9902,17 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="490" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="346">
+      <c r="B4" s="494">
         <f>D4</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="96">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G4:M4)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="194" t="s">
@@ -9896,7 +9934,7 @@
       </c>
       <c r="O4" s="80">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G14:M14)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P4" s="54"/>
       <c r="Q4" s="7"/>
@@ -9911,17 +9949,17 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A5" s="335" t="s">
+      <c r="A5" s="489" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="347">
+      <c r="B5" s="495">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="95">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G5:M5)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="193" t="s">
@@ -9960,10 +9998,10 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A6" s="336" t="s">
+      <c r="A6" s="490" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="348">
+      <c r="B6" s="496">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10009,10 +10047,10 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A7" s="335" t="s">
+      <c r="A7" s="489" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="349">
+      <c r="B7" s="497">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10058,10 +10096,10 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="490" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="350">
+      <c r="B8" s="498">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10106,15 +10144,15 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="335" t="s">
+      <c r="A9" s="489" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="350">
+      <c r="B9" s="498">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="95">
+      <c r="C9" s="30"/>
+      <c r="D9" s="97">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G9:M9)</f>
         <v>4</v>
       </c>
@@ -10148,18 +10186,15 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="336" t="s">
+      <c r="A10" s="490" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="351">
+      <c r="B10" s="499">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
-        <v>14</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="96">
-        <f>ROUND((D8+D5+D7+D9)/2,0)</f>
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="486"/>
+      <c r="D10" s="487"/>
       <c r="E10" s="32"/>
       <c r="F10" s="208" t="s">
         <v>223</v>
@@ -10196,18 +10231,15 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="352" t="s">
+      <c r="A11" s="491" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="353">
+      <c r="B11" s="500">
         <f>B5-ROUND(Inventar!H11/5,0)</f>
-        <v>10</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="97">
-        <f>D5-ROUND(Inventar!J11/5,0)</f>
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C11" s="486"/>
+      <c r="D11" s="487"/>
       <c r="E11" s="32"/>
       <c r="F11" s="209" t="s">
         <v>29</v>
@@ -10238,8 +10270,8 @@
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="354"/>
-      <c r="B12" s="354"/>
+      <c r="A12" s="343"/>
+      <c r="B12" s="365"/>
       <c r="C12" s="7"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -10276,10 +10308,10 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="355" t="s">
+      <c r="A13" s="344" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="356" t="s">
+      <c r="B13" s="481" t="s">
         <v>267</v>
       </c>
       <c r="C13" s="7"/>
@@ -10316,8 +10348,8 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="354"/>
-      <c r="B14" s="354"/>
+      <c r="A14" s="343"/>
+      <c r="B14" s="365"/>
       <c r="C14" s="7"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -10350,17 +10382,17 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="357" t="s">
+      <c r="A15" s="345" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="358">
+      <c r="B15" s="482">
         <f>D15</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="98">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G10:M10)</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="218" t="s">
@@ -10392,17 +10424,17 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="359" t="s">
+      <c r="A16" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="360">
+      <c r="B16" s="483">
         <f>D16</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="99">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G11:M11)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="208" t="s">
@@ -10436,12 +10468,12 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="361" t="s">
+      <c r="A17" s="347" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="362">
+      <c r="B17" s="484">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="32"/>
@@ -10477,12 +10509,12 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="361" t="s">
+      <c r="A18" s="347" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="361">
+      <c r="B18" s="485">
         <f>ROUNDUP(Charakter!$B$15*0.7,0)</f>
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="32"/>
@@ -10518,16 +10550,16 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="361" t="s">
+      <c r="A19" s="347" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="361">
+      <c r="B19" s="485">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" s="63">
         <f>O4</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>2</v>
@@ -10545,12 +10577,12 @@
         <v>20</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="467" t="s">
+      <c r="L19" s="453" t="s">
         <v>280</v>
       </c>
-      <c r="M19" s="468"/>
-      <c r="N19" s="468"/>
-      <c r="O19" s="469"/>
+      <c r="M19" s="454"/>
+      <c r="N19" s="454"/>
+      <c r="O19" s="455"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -10564,16 +10596,16 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="361" t="s">
+      <c r="A20" s="347" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="361">
+      <c r="B20" s="485">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" s="63">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>38</v>
@@ -10616,12 +10648,12 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A21" s="361" t="s">
+      <c r="A21" s="347" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="361">
+      <c r="B21" s="485">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="F21" s="213" t="s">
@@ -10653,12 +10685,12 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A22" s="361" t="s">
+      <c r="A22" s="347" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="361">
+      <c r="B22" s="485">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C22" s="31"/>
       <c r="F22" s="194" t="s">
@@ -11562,7 +11594,7 @@
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87AD7F18-3B09-4299-B732-AE2B683497A0}">
           <x14:formula1>
             <xm:f>DatenExelintern!$G$1:$M$1</xm:f>
@@ -11604,19 +11636,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="476" t="s">
+      <c r="A1" s="472" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="477"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="476" t="s">
+      <c r="B1" s="473"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="472" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="477"/>
+      <c r="E1" s="473"/>
       <c r="G1" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="363" t="s">
+      <c r="H1" s="348" t="s">
         <v>57</v>
       </c>
       <c r="I1" s="135" t="s">
@@ -11631,23 +11663,23 @@
       <c r="L1" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="488" t="s">
+      <c r="M1" s="462" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="489"/>
+      <c r="N1" s="463"/>
     </row>
     <row r="2" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="482" t="s">
+      <c r="A2" s="478" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="482" t="s">
+      <c r="B2" s="478" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="354"/>
-      <c r="D2" s="355" t="s">
+      <c r="C2" s="343"/>
+      <c r="D2" s="344" t="s">
         <v>261</v>
       </c>
-      <c r="E2" s="355" t="s">
+      <c r="E2" s="344" t="s">
         <v>240</v>
       </c>
       <c r="G2" s="267"/>
@@ -11656,17 +11688,17 @@
       <c r="J2" s="268"/>
       <c r="K2" s="268"/>
       <c r="L2" s="268"/>
-      <c r="M2" s="490"/>
-      <c r="N2" s="491"/>
+      <c r="M2" s="464"/>
+      <c r="N2" s="465"/>
     </row>
     <row r="3" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="483"/>
-      <c r="B3" s="483"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="364" t="s">
+      <c r="A3" s="479"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="349" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="365">
+      <c r="E3" s="350">
         <v>1</v>
       </c>
       <c r="G3" s="271"/>
@@ -11675,21 +11707,21 @@
       <c r="J3" s="272"/>
       <c r="K3" s="272"/>
       <c r="L3" s="272"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="485"/>
+      <c r="M3" s="458"/>
+      <c r="N3" s="459"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A4" s="366" t="s">
+      <c r="A4" s="351" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="365">
+      <c r="B4" s="350">
         <v>1</v>
       </c>
-      <c r="C4" s="354"/>
-      <c r="D4" s="336" t="s">
+      <c r="C4" s="343"/>
+      <c r="D4" s="335" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="339">
+      <c r="E4" s="338">
         <v>2</v>
       </c>
       <c r="G4" s="274"/>
@@ -11698,21 +11730,21 @@
       <c r="J4" s="275"/>
       <c r="K4" s="275"/>
       <c r="L4" s="275"/>
-      <c r="M4" s="486"/>
-      <c r="N4" s="487"/>
+      <c r="M4" s="456"/>
+      <c r="N4" s="457"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A5" s="367" t="s">
+      <c r="A5" s="352" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="339">
+      <c r="B5" s="338">
         <v>2</v>
       </c>
-      <c r="C5" s="354"/>
-      <c r="D5" s="335" t="s">
+      <c r="C5" s="343"/>
+      <c r="D5" s="334" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="340">
+      <c r="E5" s="339">
         <v>4</v>
       </c>
       <c r="G5" s="271"/>
@@ -11721,21 +11753,21 @@
       <c r="J5" s="272"/>
       <c r="K5" s="272"/>
       <c r="L5" s="272"/>
-      <c r="M5" s="484"/>
-      <c r="N5" s="485"/>
+      <c r="M5" s="458"/>
+      <c r="N5" s="459"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="353" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="340">
+      <c r="B6" s="339">
         <v>4</v>
       </c>
-      <c r="C6" s="354"/>
-      <c r="D6" s="336" t="s">
+      <c r="C6" s="343"/>
+      <c r="D6" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="339">
+      <c r="E6" s="338">
         <v>6</v>
       </c>
       <c r="G6" s="274"/>
@@ -11744,21 +11776,21 @@
       <c r="J6" s="275"/>
       <c r="K6" s="275"/>
       <c r="L6" s="275"/>
-      <c r="M6" s="486"/>
-      <c r="N6" s="487"/>
+      <c r="M6" s="456"/>
+      <c r="N6" s="457"/>
     </row>
     <row r="7" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="367" t="s">
+      <c r="A7" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="339">
+      <c r="B7" s="338">
         <v>6</v>
       </c>
-      <c r="C7" s="354"/>
-      <c r="D7" s="352" t="s">
+      <c r="C7" s="343"/>
+      <c r="D7" s="342" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="369">
+      <c r="E7" s="354">
         <v>8</v>
       </c>
       <c r="G7" s="271"/>
@@ -11767,93 +11799,93 @@
       <c r="J7" s="272"/>
       <c r="K7" s="272"/>
       <c r="L7" s="272"/>
-      <c r="M7" s="484"/>
-      <c r="N7" s="485"/>
+      <c r="M7" s="458"/>
+      <c r="N7" s="459"/>
     </row>
     <row r="8" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="368" t="s">
+      <c r="A8" s="353" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="340">
+      <c r="B8" s="339">
         <v>8</v>
       </c>
-      <c r="C8" s="354"/>
-      <c r="D8" s="354"/>
-      <c r="E8" s="354"/>
+      <c r="C8" s="343"/>
+      <c r="D8" s="343"/>
+      <c r="E8" s="343"/>
       <c r="G8" s="274"/>
       <c r="H8" s="275"/>
       <c r="I8" s="275"/>
       <c r="J8" s="275"/>
       <c r="K8" s="275"/>
       <c r="L8" s="275"/>
-      <c r="M8" s="486"/>
-      <c r="N8" s="487"/>
+      <c r="M8" s="456"/>
+      <c r="N8" s="457"/>
     </row>
     <row r="9" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="370" t="s">
+      <c r="A9" s="355" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="341">
+      <c r="B9" s="340">
         <v>10</v>
       </c>
-      <c r="C9" s="354"/>
-      <c r="D9" s="474" t="s">
+      <c r="C9" s="343"/>
+      <c r="D9" s="470" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="475"/>
+      <c r="E9" s="471"/>
       <c r="G9" s="271"/>
       <c r="H9" s="272"/>
       <c r="I9" s="272"/>
       <c r="J9" s="272"/>
       <c r="K9" s="272"/>
       <c r="L9" s="272"/>
-      <c r="M9" s="484"/>
-      <c r="N9" s="485"/>
+      <c r="M9" s="458"/>
+      <c r="N9" s="459"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="371"/>
-      <c r="B10" s="372"/>
-      <c r="C10" s="354"/>
-      <c r="D10" s="470" t="s">
+      <c r="A10" s="356"/>
+      <c r="B10" s="357"/>
+      <c r="C10" s="343"/>
+      <c r="D10" s="466" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="471"/>
+      <c r="E10" s="467"/>
       <c r="G10" s="274"/>
       <c r="H10" s="275"/>
       <c r="I10" s="275"/>
       <c r="J10" s="275"/>
       <c r="K10" s="275"/>
       <c r="L10" s="275"/>
-      <c r="M10" s="486"/>
-      <c r="N10" s="487"/>
+      <c r="M10" s="456"/>
+      <c r="N10" s="457"/>
     </row>
     <row r="11" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="480" t="s">
+      <c r="A11" s="476" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="478" t="s">
+      <c r="B11" s="474" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="354"/>
-      <c r="D11" s="472"/>
-      <c r="E11" s="473"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="468"/>
+      <c r="E11" s="469"/>
       <c r="G11" s="271"/>
       <c r="H11" s="272"/>
       <c r="I11" s="272"/>
       <c r="J11" s="272"/>
       <c r="K11" s="272"/>
       <c r="L11" s="272"/>
-      <c r="M11" s="484"/>
-      <c r="N11" s="485"/>
+      <c r="M11" s="458"/>
+      <c r="N11" s="459"/>
     </row>
     <row r="12" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="481"/>
-      <c r="B12" s="479"/>
-      <c r="C12" s="354"/>
-      <c r="D12" s="338" t="s">
+      <c r="A12" s="477"/>
+      <c r="B12" s="475"/>
+      <c r="C12" s="343"/>
+      <c r="D12" s="337" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="338" t="s">
+      <c r="E12" s="337" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="274"/>
@@ -11862,21 +11894,21 @@
       <c r="J12" s="275"/>
       <c r="K12" s="275"/>
       <c r="L12" s="275"/>
-      <c r="M12" s="486"/>
-      <c r="N12" s="487"/>
+      <c r="M12" s="456"/>
+      <c r="N12" s="457"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A13" s="373" t="s">
+      <c r="A13" s="358" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="374">
+      <c r="B13" s="359">
         <v>0.5</v>
       </c>
-      <c r="C13" s="354"/>
-      <c r="D13" s="375">
+      <c r="C13" s="343"/>
+      <c r="D13" s="360">
         <v>6</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="359">
         <f>D13*2</f>
         <v>12</v>
       </c>
@@ -11886,21 +11918,21 @@
       <c r="J13" s="272"/>
       <c r="K13" s="272"/>
       <c r="L13" s="272"/>
-      <c r="M13" s="484"/>
-      <c r="N13" s="485"/>
+      <c r="M13" s="458"/>
+      <c r="N13" s="459"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A14" s="335" t="s">
+      <c r="A14" s="334" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="340">
+      <c r="B14" s="339">
         <v>1</v>
       </c>
-      <c r="C14" s="354"/>
-      <c r="D14" s="335">
+      <c r="C14" s="343"/>
+      <c r="D14" s="334">
         <v>7</v>
       </c>
-      <c r="E14" s="340">
+      <c r="E14" s="339">
         <f t="shared" ref="E14:E27" si="0">D14*2</f>
         <v>14</v>
       </c>
@@ -11910,21 +11942,21 @@
       <c r="J14" s="275"/>
       <c r="K14" s="275"/>
       <c r="L14" s="275"/>
-      <c r="M14" s="486"/>
-      <c r="N14" s="487"/>
+      <c r="M14" s="456"/>
+      <c r="N14" s="457"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A15" s="367" t="s">
+      <c r="A15" s="352" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="339">
+      <c r="B15" s="338">
         <v>2</v>
       </c>
-      <c r="C15" s="354"/>
-      <c r="D15" s="336">
+      <c r="C15" s="343"/>
+      <c r="D15" s="335">
         <v>8</v>
       </c>
-      <c r="E15" s="339">
+      <c r="E15" s="338">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -11934,21 +11966,21 @@
       <c r="J15" s="272"/>
       <c r="K15" s="272"/>
       <c r="L15" s="272"/>
-      <c r="M15" s="484"/>
-      <c r="N15" s="485"/>
+      <c r="M15" s="458"/>
+      <c r="N15" s="459"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A16" s="335" t="s">
+      <c r="A16" s="334" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="340">
+      <c r="B16" s="339">
         <v>4</v>
       </c>
-      <c r="C16" s="354"/>
-      <c r="D16" s="335">
+      <c r="C16" s="343"/>
+      <c r="D16" s="334">
         <v>9</v>
       </c>
-      <c r="E16" s="340">
+      <c r="E16" s="339">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -11958,21 +11990,21 @@
       <c r="J16" s="275"/>
       <c r="K16" s="275"/>
       <c r="L16" s="275"/>
-      <c r="M16" s="486"/>
-      <c r="N16" s="487"/>
+      <c r="M16" s="456"/>
+      <c r="N16" s="457"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A17" s="367" t="s">
+      <c r="A17" s="352" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="339">
+      <c r="B17" s="338">
         <v>6</v>
       </c>
-      <c r="C17" s="354"/>
-      <c r="D17" s="336">
+      <c r="C17" s="343"/>
+      <c r="D17" s="335">
         <v>10</v>
       </c>
-      <c r="E17" s="339">
+      <c r="E17" s="338">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -11982,21 +12014,21 @@
       <c r="J17" s="272"/>
       <c r="K17" s="272"/>
       <c r="L17" s="272"/>
-      <c r="M17" s="484"/>
-      <c r="N17" s="485"/>
+      <c r="M17" s="458"/>
+      <c r="N17" s="459"/>
     </row>
     <row r="18" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="352" t="s">
+      <c r="A18" s="342" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="369">
+      <c r="B18" s="354">
         <v>8</v>
       </c>
-      <c r="C18" s="354"/>
-      <c r="D18" s="335">
+      <c r="C18" s="343"/>
+      <c r="D18" s="334">
         <v>11</v>
       </c>
-      <c r="E18" s="340">
+      <c r="E18" s="339">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -12006,18 +12038,18 @@
       <c r="J18" s="275"/>
       <c r="K18" s="275"/>
       <c r="L18" s="275"/>
-      <c r="M18" s="486"/>
-      <c r="N18" s="487"/>
+      <c r="M18" s="456"/>
+      <c r="N18" s="457"/>
       <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="323"/>
       <c r="B19" s="323"/>
-      <c r="C19" s="354"/>
-      <c r="D19" s="336">
+      <c r="C19" s="343"/>
+      <c r="D19" s="335">
         <v>12</v>
       </c>
-      <c r="E19" s="339">
+      <c r="E19" s="338">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -12027,21 +12059,21 @@
       <c r="J19" s="272"/>
       <c r="K19" s="272"/>
       <c r="L19" s="272"/>
-      <c r="M19" s="484"/>
-      <c r="N19" s="485"/>
+      <c r="M19" s="458"/>
+      <c r="N19" s="459"/>
     </row>
     <row r="20" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="338" t="s">
+      <c r="A20" s="337" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="376" t="s">
+      <c r="B20" s="361" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="354"/>
-      <c r="D20" s="335">
+      <c r="C20" s="343"/>
+      <c r="D20" s="334">
         <v>13</v>
       </c>
-      <c r="E20" s="340">
+      <c r="E20" s="339">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -12051,21 +12083,21 @@
       <c r="J20" s="275"/>
       <c r="K20" s="275"/>
       <c r="L20" s="275"/>
-      <c r="M20" s="486"/>
-      <c r="N20" s="487"/>
+      <c r="M20" s="456"/>
+      <c r="N20" s="457"/>
     </row>
     <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="377">
+      <c r="A21" s="362">
         <v>2</v>
       </c>
-      <c r="B21" s="378">
+      <c r="B21" s="363">
         <v>1</v>
       </c>
-      <c r="C21" s="354"/>
-      <c r="D21" s="336">
+      <c r="C21" s="343"/>
+      <c r="D21" s="335">
         <v>14</v>
       </c>
-      <c r="E21" s="339">
+      <c r="E21" s="338">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -12075,17 +12107,17 @@
       <c r="J21" s="272"/>
       <c r="K21" s="272"/>
       <c r="L21" s="272"/>
-      <c r="M21" s="484"/>
-      <c r="N21" s="485"/>
+      <c r="M21" s="458"/>
+      <c r="N21" s="459"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A22" s="379"/>
-      <c r="B22" s="354"/>
-      <c r="C22" s="354"/>
-      <c r="D22" s="335">
+      <c r="A22" s="364"/>
+      <c r="B22" s="343"/>
+      <c r="C22" s="343"/>
+      <c r="D22" s="334">
         <v>15</v>
       </c>
-      <c r="E22" s="340">
+      <c r="E22" s="339">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -12095,17 +12127,17 @@
       <c r="J22" s="275"/>
       <c r="K22" s="275"/>
       <c r="L22" s="275"/>
-      <c r="M22" s="486"/>
-      <c r="N22" s="487"/>
+      <c r="M22" s="456"/>
+      <c r="N22" s="457"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A23" s="379"/>
-      <c r="B23" s="354"/>
-      <c r="C23" s="354"/>
-      <c r="D23" s="336">
+      <c r="A23" s="364"/>
+      <c r="B23" s="343"/>
+      <c r="C23" s="343"/>
+      <c r="D23" s="335">
         <v>16</v>
       </c>
-      <c r="E23" s="339">
+      <c r="E23" s="338">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -12115,17 +12147,17 @@
       <c r="J23" s="272"/>
       <c r="K23" s="272"/>
       <c r="L23" s="272"/>
-      <c r="M23" s="484"/>
-      <c r="N23" s="485"/>
+      <c r="M23" s="458"/>
+      <c r="N23" s="459"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A24" s="379"/>
-      <c r="B24" s="354"/>
-      <c r="C24" s="354"/>
-      <c r="D24" s="335">
+      <c r="A24" s="364"/>
+      <c r="B24" s="343"/>
+      <c r="C24" s="343"/>
+      <c r="D24" s="334">
         <v>17</v>
       </c>
-      <c r="E24" s="340">
+      <c r="E24" s="339">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -12135,17 +12167,17 @@
       <c r="J24" s="275"/>
       <c r="K24" s="275"/>
       <c r="L24" s="275"/>
-      <c r="M24" s="486"/>
-      <c r="N24" s="487"/>
+      <c r="M24" s="456"/>
+      <c r="N24" s="457"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A25" s="379"/>
-      <c r="B25" s="354"/>
-      <c r="C25" s="354"/>
-      <c r="D25" s="336">
+      <c r="A25" s="364"/>
+      <c r="B25" s="343"/>
+      <c r="C25" s="343"/>
+      <c r="D25" s="335">
         <v>18</v>
       </c>
-      <c r="E25" s="339">
+      <c r="E25" s="338">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -12155,17 +12187,17 @@
       <c r="J25" s="272"/>
       <c r="K25" s="272"/>
       <c r="L25" s="272"/>
-      <c r="M25" s="484"/>
-      <c r="N25" s="485"/>
+      <c r="M25" s="458"/>
+      <c r="N25" s="459"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A26" s="379"/>
-      <c r="B26" s="354"/>
-      <c r="C26" s="354"/>
-      <c r="D26" s="335">
+      <c r="A26" s="364"/>
+      <c r="B26" s="343"/>
+      <c r="C26" s="343"/>
+      <c r="D26" s="334">
         <v>19</v>
       </c>
-      <c r="E26" s="340">
+      <c r="E26" s="339">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -12175,17 +12207,17 @@
       <c r="J26" s="275"/>
       <c r="K26" s="275"/>
       <c r="L26" s="275"/>
-      <c r="M26" s="486"/>
-      <c r="N26" s="487"/>
+      <c r="M26" s="456"/>
+      <c r="N26" s="457"/>
     </row>
     <row r="27" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="354"/>
-      <c r="B27" s="354"/>
-      <c r="C27" s="354"/>
-      <c r="D27" s="337">
+      <c r="A27" s="343"/>
+      <c r="B27" s="343"/>
+      <c r="C27" s="343"/>
+      <c r="D27" s="336">
         <v>20</v>
       </c>
-      <c r="E27" s="341">
+      <c r="E27" s="340">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -12195,8 +12227,8 @@
       <c r="J27" s="278"/>
       <c r="K27" s="278"/>
       <c r="L27" s="278"/>
-      <c r="M27" s="492"/>
-      <c r="N27" s="493"/>
+      <c r="M27" s="460"/>
+      <c r="N27" s="461"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A28" s="63"/>
@@ -12206,23 +12238,14 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M1:N1"/>
@@ -12233,14 +12256,23 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M23:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13346,7 +13378,7 @@
       </c>
       <c r="B2">
         <f>Status!S2</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="str">
         <f>Charakter!F2</f>
@@ -13361,7 +13393,7 @@
       </c>
       <c r="F2">
         <f>Charakter!B15</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>113</v>
@@ -13381,7 +13413,7 @@
       </c>
       <c r="B3">
         <f>Status!S3</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="str">
         <f>Charakter!F3</f>
@@ -13396,7 +13428,7 @@
       </c>
       <c r="F3">
         <f>Charakter!B16</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>114</v>
@@ -13416,7 +13448,7 @@
       </c>
       <c r="B4">
         <f>Status!S4</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="str">
         <f>Charakter!F4</f>
@@ -13431,7 +13463,7 @@
       </c>
       <c r="F4">
         <f>Charakter!B17</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>115</v>
@@ -13451,7 +13483,7 @@
       </c>
       <c r="B5">
         <f>Status!S5</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="str">
         <f>Charakter!F5</f>
@@ -13466,7 +13498,7 @@
       </c>
       <c r="F5">
         <f>Charakter!B18</f>
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>116</v>
@@ -13501,7 +13533,7 @@
       </c>
       <c r="F6">
         <f>Charakter!B19</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>117</v>
@@ -13536,7 +13568,7 @@
       </c>
       <c r="F7">
         <f>Charakter!B20</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>118</v>
@@ -13572,7 +13604,7 @@
       </c>
       <c r="F8">
         <f>Charakter!B21</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>119</v>
@@ -13604,7 +13636,7 @@
       </c>
       <c r="F9">
         <f>Charakter!B22</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>120</v>
@@ -13620,7 +13652,7 @@
       </c>
       <c r="B10">
         <f>Status!S10</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="str">
         <f>Charakter!F10</f>
@@ -13635,7 +13667,7 @@
       </c>
       <c r="F10" t="str">
         <f>Charakter!B1</f>
-        <v>Mensch</v>
+        <v>Goblin</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>124</v>
@@ -13652,7 +13684,7 @@
       </c>
       <c r="B11">
         <f>Status!S11</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="str">
         <f>Charakter!F11</f>
@@ -13744,7 +13776,7 @@
       </c>
       <c r="B14">
         <f>Status!AB21</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C14" t="str">
         <f>Charakter!F14</f>
@@ -13806,7 +13838,7 @@
       </c>
       <c r="B16">
         <f>Status!S12</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="str">
         <f>Charakter!F16</f>
@@ -13868,7 +13900,7 @@
       </c>
       <c r="B18">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="str">
         <f>Charakter!F18</f>
@@ -13961,7 +13993,7 @@
       </c>
       <c r="B21">
         <f>Status!D21</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C21" t="str">
         <f>Charakter!F21</f>
@@ -13992,7 +14024,7 @@
       </c>
       <c r="B22">
         <f>Status!D22</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" t="str">
         <f>Charakter!F22</f>
@@ -14024,7 +14056,7 @@
       </c>
       <c r="B23">
         <f>Status!D23</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="str">
         <f>Charakter!F23</f>
@@ -14056,7 +14088,7 @@
       </c>
       <c r="B24">
         <f>Status!D24</f>
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C24" t="str">
         <f>Charakter!F24</f>
@@ -14088,7 +14120,7 @@
       </c>
       <c r="B25">
         <f>Status!D25</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="str">
         <f>Charakter!F25</f>
@@ -14113,7 +14145,7 @@
       </c>
       <c r="B26">
         <f>Status!D26</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="str">
         <f>Charakter!F26</f>
@@ -14138,7 +14170,7 @@
       </c>
       <c r="B27">
         <f>Status!D27</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>140</v>
@@ -14154,7 +14186,7 @@
       </c>
       <c r="B28">
         <f>Status!D28</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E7C069-BE02-403E-A2FC-2875F1486FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E27700-C911-41E0-83AB-C0E271152C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
@@ -3238,52 +3238,156 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3291,15 +3395,131 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3336,18 +3556,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3369,252 +3577,83 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3628,82 +3667,43 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -5940,13 +5940,13 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="409" t="s">
+      <c r="J1" s="418" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="411"/>
+      <c r="K1" s="419"/>
+      <c r="L1" s="419"/>
+      <c r="M1" s="419"/>
+      <c r="N1" s="420"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -5961,18 +5961,18 @@
       <c r="V1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="367" t="s">
+      <c r="W1" s="393" t="s">
         <v>207</v>
       </c>
-      <c r="X1" s="369"/>
+      <c r="X1" s="394"/>
       <c r="Y1" s="3" t="s">
         <v>199</v>
       </c>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="367" t="s">
+      <c r="AA1" s="393" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="369"/>
+      <c r="AB1" s="394"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
@@ -5988,13 +5988,13 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="377">
+      <c r="J2" s="442">
         <v>100</v>
       </c>
-      <c r="K2" s="378"/>
-      <c r="L2" s="378"/>
-      <c r="M2" s="378"/>
-      <c r="N2" s="379"/>
+      <c r="K2" s="443"/>
+      <c r="L2" s="443"/>
+      <c r="M2" s="443"/>
+      <c r="N2" s="444"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="5"/>
@@ -6009,18 +6009,18 @@
         <v>0</v>
       </c>
       <c r="U2" s="137"/>
-      <c r="V2" s="370" t="s">
+      <c r="V2" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="371"/>
-      <c r="X2" s="371"/>
-      <c r="Y2" s="372"/>
+      <c r="W2" s="436"/>
+      <c r="X2" s="436"/>
+      <c r="Y2" s="437"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="429" t="str">
+      <c r="AA2" s="401" t="str">
         <f>IF(Charakter!L2 = 0, "", Charakter!L2)</f>
         <v/>
       </c>
-      <c r="AB2" s="430"/>
+      <c r="AB2" s="402"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
@@ -6070,11 +6070,11 @@
         <v>20</v>
       </c>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="435" t="str">
+      <c r="AA3" s="405" t="str">
         <f>IF(Charakter!L3 = 0, "", Charakter!L3)</f>
         <v/>
       </c>
-      <c r="AB3" s="436"/>
+      <c r="AB3" s="406"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
@@ -6121,11 +6121,11 @@
         <v>20</v>
       </c>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="427" t="str">
+      <c r="AA4" s="399" t="str">
         <f>IF(Charakter!L4 = 0, "", Charakter!L4)</f>
         <v/>
       </c>
-      <c r="AB4" s="428"/>
+      <c r="AB4" s="400"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
@@ -6173,11 +6173,11 @@
         <v>20</v>
       </c>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="435" t="str">
+      <c r="AA5" s="405" t="str">
         <f>IF(Charakter!L5 = 0, "", Charakter!L5)</f>
         <v/>
       </c>
-      <c r="AB5" s="436"/>
+      <c r="AB5" s="406"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
@@ -6227,26 +6227,26 @@
         <v>20</v>
       </c>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="427" t="str">
+      <c r="AA6" s="399" t="str">
         <f>IF(Charakter!L6 = 0, "", Charakter!L6)</f>
         <v/>
       </c>
-      <c r="AB6" s="428"/>
+      <c r="AB6" s="400"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="100"/>
-      <c r="B7" s="415" t="s">
+      <c r="B7" s="421" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="418"/>
-      <c r="D7" s="415" t="s">
+      <c r="C7" s="424"/>
+      <c r="D7" s="421" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="416"/>
-      <c r="F7" s="417"/>
+      <c r="E7" s="422"/>
+      <c r="F7" s="423"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -6283,11 +6283,11 @@
         <v>20</v>
       </c>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="435" t="str">
+      <c r="AA7" s="405" t="str">
         <f>IF(Charakter!L7 = 0, "", Charakter!L7)</f>
         <v/>
       </c>
-      <c r="AB7" s="436"/>
+      <c r="AB7" s="406"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -6297,11 +6297,11 @@
       <c r="A8" s="260" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="419"/>
-      <c r="C8" s="420"/>
-      <c r="D8" s="419"/>
-      <c r="E8" s="423"/>
-      <c r="F8" s="424"/>
+      <c r="B8" s="425"/>
+      <c r="C8" s="426"/>
+      <c r="D8" s="425"/>
+      <c r="E8" s="429"/>
+      <c r="F8" s="430"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -6338,11 +6338,11 @@
         <v>20</v>
       </c>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="427" t="str">
+      <c r="AA8" s="399" t="str">
         <f>IF(Charakter!L8 = 0, "", Charakter!L8)</f>
         <v/>
       </c>
-      <c r="AB8" s="428"/>
+      <c r="AB8" s="400"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
@@ -6352,11 +6352,11 @@
       <c r="A9" s="261" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="421"/>
-      <c r="C9" s="422"/>
-      <c r="D9" s="421"/>
-      <c r="E9" s="425"/>
-      <c r="F9" s="426"/>
+      <c r="B9" s="427"/>
+      <c r="C9" s="428"/>
+      <c r="D9" s="427"/>
+      <c r="E9" s="431"/>
+      <c r="F9" s="432"/>
       <c r="G9" s="7"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
@@ -6393,11 +6393,11 @@
         <v>20</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="437" t="str">
+      <c r="AA9" s="407" t="str">
         <f>IF(Charakter!L9 = 0, "", Charakter!L9)</f>
         <v/>
       </c>
-      <c r="AB9" s="438"/>
+      <c r="AB9" s="408"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -6484,17 +6484,17 @@
         <v>0</v>
       </c>
       <c r="U11" s="137"/>
-      <c r="V11" s="373" t="s">
+      <c r="V11" s="438" t="s">
         <v>275</v>
       </c>
-      <c r="W11" s="374"/>
-      <c r="X11" s="374"/>
-      <c r="Y11" s="375"/>
+      <c r="W11" s="439"/>
+      <c r="X11" s="439"/>
+      <c r="Y11" s="440"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="367" t="s">
+      <c r="AA11" s="393" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="369"/>
+      <c r="AB11" s="394"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -6557,11 +6557,11 @@
         <v>20</v>
       </c>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="429" t="str">
+      <c r="AA12" s="401" t="str">
         <f>IF(Charakter!L13 = 0, "", Charakter!L13)</f>
         <v/>
       </c>
-      <c r="AB12" s="430"/>
+      <c r="AB12" s="402"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -6615,11 +6615,11 @@
         <v>20</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="431" t="str">
+      <c r="AA13" s="395" t="str">
         <f>IF(Charakter!L14 = 0, "", Charakter!L14)</f>
         <v/>
       </c>
-      <c r="AB13" s="432"/>
+      <c r="AB13" s="396"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -6657,11 +6657,11 @@
       <c r="O14" s="7"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="380" t="s">
+      <c r="R14" s="409" t="s">
         <v>279</v>
       </c>
-      <c r="S14" s="381"/>
-      <c r="T14" s="382"/>
+      <c r="S14" s="410"/>
+      <c r="T14" s="445"/>
       <c r="U14" s="26"/>
       <c r="V14" s="62" t="s">
         <v>178</v>
@@ -6677,11 +6677,11 @@
         <v>20</v>
       </c>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="433" t="str">
+      <c r="AA14" s="403" t="str">
         <f>IF(Charakter!L15 = 0, "", Charakter!L15)</f>
         <v/>
       </c>
-      <c r="AB14" s="434"/>
+      <c r="AB14" s="404"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -6719,22 +6719,22 @@
       <c r="O15" s="7"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="383"/>
-      <c r="S15" s="384"/>
-      <c r="T15" s="385"/>
+      <c r="R15" s="411"/>
+      <c r="S15" s="412"/>
+      <c r="T15" s="446"/>
       <c r="U15" s="26"/>
-      <c r="V15" s="367" t="s">
+      <c r="V15" s="393" t="s">
         <v>274</v>
       </c>
-      <c r="W15" s="368"/>
-      <c r="X15" s="368"/>
-      <c r="Y15" s="369"/>
+      <c r="W15" s="434"/>
+      <c r="X15" s="434"/>
+      <c r="Y15" s="394"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="431" t="str">
+      <c r="AA15" s="395" t="str">
         <f>IF(Charakter!L16 = 0, "", Charakter!L16)</f>
         <v/>
       </c>
-      <c r="AB15" s="432"/>
+      <c r="AB15" s="396"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -6772,11 +6772,11 @@
       <c r="O16" s="7"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="392">
-        <v>0</v>
-      </c>
-      <c r="S16" s="393"/>
-      <c r="T16" s="394"/>
+      <c r="R16" s="453">
+        <v>0</v>
+      </c>
+      <c r="S16" s="454"/>
+      <c r="T16" s="455"/>
       <c r="U16" s="26"/>
       <c r="V16" s="59" t="s">
         <v>225</v>
@@ -6792,11 +6792,11 @@
         <v>20</v>
       </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="439" t="str">
+      <c r="AA16" s="397" t="str">
         <f>IF(Charakter!L17 = 0, "", Charakter!L17)</f>
         <v/>
       </c>
-      <c r="AB16" s="440"/>
+      <c r="AB16" s="398"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
@@ -6864,11 +6864,11 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="386" t="s">
+      <c r="R18" s="447" t="s">
         <v>278</v>
       </c>
-      <c r="S18" s="387"/>
-      <c r="T18" s="388"/>
+      <c r="S18" s="448"/>
+      <c r="T18" s="449"/>
       <c r="U18" s="26"/>
       <c r="V18" s="61" t="s">
         <v>227</v>
@@ -6882,27 +6882,27 @@
         <v>20</v>
       </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="367" t="s">
+      <c r="AA18" s="393" t="s">
         <v>21</v>
       </c>
-      <c r="AB18" s="369"/>
+      <c r="AB18" s="394"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.5">
-      <c r="A19" s="380" t="s">
+      <c r="A19" s="409" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="381"/>
-      <c r="C19" s="404" t="s">
+      <c r="B19" s="410"/>
+      <c r="C19" s="413" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="406" t="s">
+      <c r="D19" s="415" t="s">
         <v>270</v>
       </c>
-      <c r="E19" s="408"/>
+      <c r="E19" s="417"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6915,9 +6915,9 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="412"/>
-      <c r="S19" s="413"/>
-      <c r="T19" s="414"/>
+      <c r="R19" s="390"/>
+      <c r="S19" s="391"/>
+      <c r="T19" s="392"/>
       <c r="U19" s="26"/>
       <c r="V19" s="60" t="s">
         <v>35</v>
@@ -6946,11 +6946,11 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="383"/>
-      <c r="B20" s="384"/>
-      <c r="C20" s="405"/>
-      <c r="D20" s="407"/>
-      <c r="E20" s="408"/>
+      <c r="A20" s="411"/>
+      <c r="B20" s="412"/>
+      <c r="C20" s="414"/>
+      <c r="D20" s="416"/>
+      <c r="E20" s="417"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6963,9 +6963,9 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="395"/>
-      <c r="S20" s="396"/>
-      <c r="T20" s="397"/>
+      <c r="R20" s="387"/>
+      <c r="S20" s="388"/>
+      <c r="T20" s="389"/>
       <c r="U20" s="26"/>
       <c r="V20" s="61" t="s">
         <v>228</v>
@@ -7021,9 +7021,9 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="401"/>
-      <c r="S21" s="402"/>
-      <c r="T21" s="403"/>
+      <c r="R21" s="459"/>
+      <c r="S21" s="460"/>
+      <c r="T21" s="461"/>
       <c r="U21" s="26"/>
       <c r="V21" s="153" t="s">
         <v>229</v>
@@ -7082,16 +7082,16 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="395"/>
-      <c r="S22" s="396"/>
-      <c r="T22" s="397"/>
+      <c r="R22" s="387"/>
+      <c r="S22" s="388"/>
+      <c r="T22" s="389"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="367" t="s">
+      <c r="V22" s="393" t="s">
         <v>42</v>
       </c>
-      <c r="W22" s="368"/>
-      <c r="X22" s="368"/>
-      <c r="Y22" s="369"/>
+      <c r="W22" s="434"/>
+      <c r="X22" s="434"/>
+      <c r="Y22" s="394"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="164" t="s">
         <v>30</v>
@@ -7136,9 +7136,9 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="412"/>
-      <c r="S23" s="413"/>
-      <c r="T23" s="414"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="391"/>
+      <c r="T23" s="392"/>
       <c r="U23" s="26"/>
       <c r="V23" s="59" t="s">
         <v>230</v>
@@ -7195,9 +7195,9 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="395"/>
-      <c r="S24" s="396"/>
-      <c r="T24" s="397"/>
+      <c r="R24" s="387"/>
+      <c r="S24" s="388"/>
+      <c r="T24" s="389"/>
       <c r="U24" s="26"/>
       <c r="V24" s="153" t="s">
         <v>231</v>
@@ -7252,12 +7252,12 @@
       <c r="R25" s="51"/>
       <c r="T25" s="23"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="367" t="s">
+      <c r="V25" s="393" t="s">
         <v>76</v>
       </c>
-      <c r="W25" s="368"/>
-      <c r="X25" s="368"/>
-      <c r="Y25" s="369"/>
+      <c r="W25" s="434"/>
+      <c r="X25" s="434"/>
+      <c r="Y25" s="394"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
@@ -7297,11 +7297,11 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="389" t="s">
+      <c r="R26" s="450" t="s">
         <v>140</v>
       </c>
-      <c r="S26" s="390"/>
-      <c r="T26" s="391"/>
+      <c r="S26" s="451"/>
+      <c r="T26" s="452"/>
       <c r="U26" s="26"/>
       <c r="V26" s="59" t="s">
         <v>45</v>
@@ -7351,9 +7351,9 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="398"/>
-      <c r="S27" s="399"/>
-      <c r="T27" s="400"/>
+      <c r="R27" s="456"/>
+      <c r="S27" s="457"/>
+      <c r="T27" s="458"/>
       <c r="U27" s="26"/>
       <c r="V27" s="60" t="s">
         <v>46</v>
@@ -7395,11 +7395,11 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="376"/>
-      <c r="K28" s="376"/>
-      <c r="L28" s="376"/>
-      <c r="M28" s="376"/>
-      <c r="N28" s="376"/>
+      <c r="J28" s="441"/>
+      <c r="K28" s="441"/>
+      <c r="L28" s="441"/>
+      <c r="M28" s="441"/>
+      <c r="N28" s="441"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -7436,11 +7436,11 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="366"/>
-      <c r="K29" s="366"/>
-      <c r="L29" s="366"/>
-      <c r="M29" s="366"/>
-      <c r="N29" s="366"/>
+      <c r="J29" s="433"/>
+      <c r="K29" s="433"/>
+      <c r="L29" s="433"/>
+      <c r="M29" s="433"/>
+      <c r="N29" s="433"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -7448,12 +7448,12 @@
       <c r="S29" s="7"/>
       <c r="T29" s="23"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="367" t="s">
+      <c r="V29" s="393" t="s">
         <v>287</v>
       </c>
-      <c r="W29" s="368"/>
-      <c r="X29" s="368"/>
-      <c r="Y29" s="369"/>
+      <c r="W29" s="434"/>
+      <c r="X29" s="434"/>
+      <c r="Y29" s="394"/>
       <c r="Z29" s="5"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
@@ -7988,38 +7988,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="48">
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="V25:Y25"/>
     <mergeCell ref="V29:Y29"/>
@@ -8036,6 +8004,38 @@
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="R21:T21"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="R20:T20"/>
   </mergeCells>
   <conditionalFormatting sqref="W4:X5 W1 W26:X27 W7:X7 V33:W1048576 W30:X32">
     <cfRule type="containsText" dxfId="224" priority="137" operator="containsText" text="Phy">
@@ -8613,12 +8613,12 @@
         <v>165</v>
       </c>
       <c r="K1" s="22"/>
-      <c r="L1" s="445" t="s">
+      <c r="L1" s="466" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="446"/>
-      <c r="N1" s="446"/>
-      <c r="O1" s="447"/>
+      <c r="M1" s="467"/>
+      <c r="N1" s="467"/>
+      <c r="O1" s="468"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -8636,12 +8636,12 @@
       <c r="L2" s="325" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="448">
+      <c r="M2" s="469">
         <f>O4-M4</f>
         <v>30000</v>
       </c>
-      <c r="N2" s="449"/>
-      <c r="O2" s="450"/>
+      <c r="N2" s="470"/>
+      <c r="O2" s="471"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -8656,14 +8656,14 @@
         <f>B3*0.4</f>
         <v>0</v>
       </c>
-      <c r="L3" s="441" t="s">
+      <c r="L3" s="462" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="442"/>
-      <c r="N3" s="443" t="s">
+      <c r="M3" s="463"/>
+      <c r="N3" s="464" t="s">
         <v>168</v>
       </c>
-      <c r="O3" s="444"/>
+      <c r="O3" s="465"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9736,7 +9736,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9766,7 +9766,7 @@
       <c r="A1" s="341" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="480" t="s">
+      <c r="B1" s="366" t="s">
         <v>184</v>
       </c>
       <c r="C1" s="48" t="s">
@@ -9779,10 +9779,10 @@
       <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="451" t="s">
+      <c r="G1" s="472" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="452"/>
+      <c r="H1" s="473"/>
       <c r="I1" s="48" t="s">
         <v>208</v>
       </c>
@@ -9794,20 +9794,20 @@
         <v>6</v>
       </c>
       <c r="M1" s="7"/>
-      <c r="N1" s="453" t="s">
+      <c r="N1" s="474" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="455"/>
+      <c r="O1" s="476"/>
       <c r="P1" s="52" t="s">
         <v>264</v>
       </c>
       <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="374" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="492">
+      <c r="B2" s="378">
         <f t="shared" ref="B2:B9" si="0">D2</f>
         <v>7</v>
       </c>
@@ -9853,10 +9853,10 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A3" s="489" t="s">
+      <c r="A3" s="375" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="493">
+      <c r="B3" s="379">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -9902,10 +9902,10 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="376" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="494">
+      <c r="B4" s="380">
         <f>D4</f>
         <v>9</v>
       </c>
@@ -9949,10 +9949,10 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A5" s="489" t="s">
+      <c r="A5" s="375" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="495">
+      <c r="B5" s="381">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -9998,10 +9998,10 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A6" s="490" t="s">
+      <c r="A6" s="376" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="496">
+      <c r="B6" s="382">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10047,10 +10047,10 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A7" s="489" t="s">
+      <c r="A7" s="375" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="497">
+      <c r="B7" s="383">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10096,10 +10096,10 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="490" t="s">
+      <c r="A8" s="376" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="498">
+      <c r="B8" s="384">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10144,10 +10144,10 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="489" t="s">
+      <c r="A9" s="375" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="498">
+      <c r="B9" s="384">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10186,15 +10186,15 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="490" t="s">
+      <c r="A10" s="376" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="499">
+      <c r="B10" s="385">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C10" s="486"/>
-      <c r="D10" s="487"/>
+      <c r="C10" s="372"/>
+      <c r="D10" s="373"/>
       <c r="E10" s="32"/>
       <c r="F10" s="208" t="s">
         <v>223</v>
@@ -10231,15 +10231,15 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="491" t="s">
+      <c r="A11" s="377" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="500">
+      <c r="B11" s="386">
         <f>B5-ROUND(Inventar!H11/5,0)</f>
         <v>8</v>
       </c>
-      <c r="C11" s="486"/>
-      <c r="D11" s="487"/>
+      <c r="C11" s="372"/>
+      <c r="D11" s="373"/>
       <c r="E11" s="32"/>
       <c r="F11" s="209" t="s">
         <v>29</v>
@@ -10311,7 +10311,7 @@
       <c r="A13" s="344" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="481" t="s">
+      <c r="B13" s="367" t="s">
         <v>267</v>
       </c>
       <c r="C13" s="7"/>
@@ -10385,7 +10385,7 @@
       <c r="A15" s="345" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="482">
+      <c r="B15" s="368">
         <f>D15</f>
         <v>150</v>
       </c>
@@ -10427,7 +10427,7 @@
       <c r="A16" s="346" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="483">
+      <c r="B16" s="369">
         <f>D16</f>
         <v>14</v>
       </c>
@@ -10471,7 +10471,7 @@
       <c r="A17" s="347" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="484">
+      <c r="B17" s="370">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>30</v>
       </c>
@@ -10512,7 +10512,7 @@
       <c r="A18" s="347" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="485">
+      <c r="B18" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.7,0)</f>
         <v>105</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="A19" s="347" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="485">
+      <c r="B19" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>30</v>
       </c>
@@ -10577,12 +10577,12 @@
         <v>20</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="453" t="s">
+      <c r="L19" s="474" t="s">
         <v>280</v>
       </c>
-      <c r="M19" s="454"/>
-      <c r="N19" s="454"/>
-      <c r="O19" s="455"/>
+      <c r="M19" s="475"/>
+      <c r="N19" s="475"/>
+      <c r="O19" s="476"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -10599,7 +10599,7 @@
       <c r="A20" s="347" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="485">
+      <c r="B20" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>30</v>
       </c>
@@ -10651,7 +10651,7 @@
       <c r="A21" s="347" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="485">
+      <c r="B21" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
         <v>38</v>
       </c>
@@ -10688,7 +10688,7 @@
       <c r="A22" s="347" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="485">
+      <c r="B22" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
         <v>38</v>
       </c>
@@ -11636,15 +11636,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="472" t="s">
+      <c r="A1" s="483" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="473"/>
+      <c r="B1" s="484"/>
       <c r="C1" s="343"/>
-      <c r="D1" s="472" t="s">
+      <c r="D1" s="483" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="473"/>
+      <c r="E1" s="484"/>
       <c r="G1" s="135" t="s">
         <v>56</v>
       </c>
@@ -11663,16 +11663,16 @@
       <c r="L1" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="462" t="s">
+      <c r="M1" s="495" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="463"/>
+      <c r="N1" s="496"/>
     </row>
     <row r="2" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="478" t="s">
+      <c r="A2" s="489" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="478" t="s">
+      <c r="B2" s="489" t="s">
         <v>263</v>
       </c>
       <c r="C2" s="343"/>
@@ -11688,12 +11688,12 @@
       <c r="J2" s="268"/>
       <c r="K2" s="268"/>
       <c r="L2" s="268"/>
-      <c r="M2" s="464"/>
-      <c r="N2" s="465"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="498"/>
     </row>
     <row r="3" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="479"/>
-      <c r="B3" s="479"/>
+      <c r="A3" s="490"/>
+      <c r="B3" s="490"/>
       <c r="C3" s="343"/>
       <c r="D3" s="349" t="s">
         <v>61</v>
@@ -11707,8 +11707,8 @@
       <c r="J3" s="272"/>
       <c r="K3" s="272"/>
       <c r="L3" s="272"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="459"/>
+      <c r="M3" s="491"/>
+      <c r="N3" s="492"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="351" t="s">
@@ -11730,8 +11730,8 @@
       <c r="J4" s="275"/>
       <c r="K4" s="275"/>
       <c r="L4" s="275"/>
-      <c r="M4" s="456"/>
-      <c r="N4" s="457"/>
+      <c r="M4" s="493"/>
+      <c r="N4" s="494"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="352" t="s">
@@ -11753,8 +11753,8 @@
       <c r="J5" s="272"/>
       <c r="K5" s="272"/>
       <c r="L5" s="272"/>
-      <c r="M5" s="458"/>
-      <c r="N5" s="459"/>
+      <c r="M5" s="491"/>
+      <c r="N5" s="492"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="353" t="s">
@@ -11776,8 +11776,8 @@
       <c r="J6" s="275"/>
       <c r="K6" s="275"/>
       <c r="L6" s="275"/>
-      <c r="M6" s="456"/>
-      <c r="N6" s="457"/>
+      <c r="M6" s="493"/>
+      <c r="N6" s="494"/>
     </row>
     <row r="7" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="352" t="s">
@@ -11799,8 +11799,8 @@
       <c r="J7" s="272"/>
       <c r="K7" s="272"/>
       <c r="L7" s="272"/>
-      <c r="M7" s="458"/>
-      <c r="N7" s="459"/>
+      <c r="M7" s="491"/>
+      <c r="N7" s="492"/>
     </row>
     <row r="8" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="353" t="s">
@@ -11818,8 +11818,8 @@
       <c r="J8" s="275"/>
       <c r="K8" s="275"/>
       <c r="L8" s="275"/>
-      <c r="M8" s="456"/>
-      <c r="N8" s="457"/>
+      <c r="M8" s="493"/>
+      <c r="N8" s="494"/>
     </row>
     <row r="9" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="355" t="s">
@@ -11829,58 +11829,58 @@
         <v>10</v>
       </c>
       <c r="C9" s="343"/>
-      <c r="D9" s="470" t="s">
+      <c r="D9" s="481" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="471"/>
+      <c r="E9" s="482"/>
       <c r="G9" s="271"/>
       <c r="H9" s="272"/>
       <c r="I9" s="272"/>
       <c r="J9" s="272"/>
       <c r="K9" s="272"/>
       <c r="L9" s="272"/>
-      <c r="M9" s="458"/>
-      <c r="N9" s="459"/>
+      <c r="M9" s="491"/>
+      <c r="N9" s="492"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="356"/>
       <c r="B10" s="357"/>
       <c r="C10" s="343"/>
-      <c r="D10" s="466" t="s">
+      <c r="D10" s="477" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="467"/>
+      <c r="E10" s="478"/>
       <c r="G10" s="274"/>
       <c r="H10" s="275"/>
       <c r="I10" s="275"/>
       <c r="J10" s="275"/>
       <c r="K10" s="275"/>
       <c r="L10" s="275"/>
-      <c r="M10" s="456"/>
-      <c r="N10" s="457"/>
+      <c r="M10" s="493"/>
+      <c r="N10" s="494"/>
     </row>
     <row r="11" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="476" t="s">
+      <c r="A11" s="487" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="474" t="s">
+      <c r="B11" s="485" t="s">
         <v>259</v>
       </c>
       <c r="C11" s="343"/>
-      <c r="D11" s="468"/>
-      <c r="E11" s="469"/>
+      <c r="D11" s="479"/>
+      <c r="E11" s="480"/>
       <c r="G11" s="271"/>
       <c r="H11" s="272"/>
       <c r="I11" s="272"/>
       <c r="J11" s="272"/>
       <c r="K11" s="272"/>
       <c r="L11" s="272"/>
-      <c r="M11" s="458"/>
-      <c r="N11" s="459"/>
+      <c r="M11" s="491"/>
+      <c r="N11" s="492"/>
     </row>
     <row r="12" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="477"/>
-      <c r="B12" s="475"/>
+      <c r="A12" s="488"/>
+      <c r="B12" s="486"/>
       <c r="C12" s="343"/>
       <c r="D12" s="337" t="s">
         <v>76</v>
@@ -11894,8 +11894,8 @@
       <c r="J12" s="275"/>
       <c r="K12" s="275"/>
       <c r="L12" s="275"/>
-      <c r="M12" s="456"/>
-      <c r="N12" s="457"/>
+      <c r="M12" s="493"/>
+      <c r="N12" s="494"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="358" t="s">
@@ -11918,8 +11918,8 @@
       <c r="J13" s="272"/>
       <c r="K13" s="272"/>
       <c r="L13" s="272"/>
-      <c r="M13" s="458"/>
-      <c r="N13" s="459"/>
+      <c r="M13" s="491"/>
+      <c r="N13" s="492"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="334" t="s">
@@ -11942,8 +11942,8 @@
       <c r="J14" s="275"/>
       <c r="K14" s="275"/>
       <c r="L14" s="275"/>
-      <c r="M14" s="456"/>
-      <c r="N14" s="457"/>
+      <c r="M14" s="493"/>
+      <c r="N14" s="494"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="352" t="s">
@@ -11966,8 +11966,8 @@
       <c r="J15" s="272"/>
       <c r="K15" s="272"/>
       <c r="L15" s="272"/>
-      <c r="M15" s="458"/>
-      <c r="N15" s="459"/>
+      <c r="M15" s="491"/>
+      <c r="N15" s="492"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="334" t="s">
@@ -11990,8 +11990,8 @@
       <c r="J16" s="275"/>
       <c r="K16" s="275"/>
       <c r="L16" s="275"/>
-      <c r="M16" s="456"/>
-      <c r="N16" s="457"/>
+      <c r="M16" s="493"/>
+      <c r="N16" s="494"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" s="352" t="s">
@@ -12014,8 +12014,8 @@
       <c r="J17" s="272"/>
       <c r="K17" s="272"/>
       <c r="L17" s="272"/>
-      <c r="M17" s="458"/>
-      <c r="N17" s="459"/>
+      <c r="M17" s="491"/>
+      <c r="N17" s="492"/>
     </row>
     <row r="18" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="342" t="s">
@@ -12038,8 +12038,8 @@
       <c r="J18" s="275"/>
       <c r="K18" s="275"/>
       <c r="L18" s="275"/>
-      <c r="M18" s="456"/>
-      <c r="N18" s="457"/>
+      <c r="M18" s="493"/>
+      <c r="N18" s="494"/>
       <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -12059,8 +12059,8 @@
       <c r="J19" s="272"/>
       <c r="K19" s="272"/>
       <c r="L19" s="272"/>
-      <c r="M19" s="458"/>
-      <c r="N19" s="459"/>
+      <c r="M19" s="491"/>
+      <c r="N19" s="492"/>
     </row>
     <row r="20" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="337" t="s">
@@ -12083,8 +12083,8 @@
       <c r="J20" s="275"/>
       <c r="K20" s="275"/>
       <c r="L20" s="275"/>
-      <c r="M20" s="456"/>
-      <c r="N20" s="457"/>
+      <c r="M20" s="493"/>
+      <c r="N20" s="494"/>
     </row>
     <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="362">
@@ -12107,8 +12107,8 @@
       <c r="J21" s="272"/>
       <c r="K21" s="272"/>
       <c r="L21" s="272"/>
-      <c r="M21" s="458"/>
-      <c r="N21" s="459"/>
+      <c r="M21" s="491"/>
+      <c r="N21" s="492"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22" s="364"/>
@@ -12127,8 +12127,8 @@
       <c r="J22" s="275"/>
       <c r="K22" s="275"/>
       <c r="L22" s="275"/>
-      <c r="M22" s="456"/>
-      <c r="N22" s="457"/>
+      <c r="M22" s="493"/>
+      <c r="N22" s="494"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23" s="364"/>
@@ -12147,8 +12147,8 @@
       <c r="J23" s="272"/>
       <c r="K23" s="272"/>
       <c r="L23" s="272"/>
-      <c r="M23" s="458"/>
-      <c r="N23" s="459"/>
+      <c r="M23" s="491"/>
+      <c r="N23" s="492"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24" s="364"/>
@@ -12167,8 +12167,8 @@
       <c r="J24" s="275"/>
       <c r="K24" s="275"/>
       <c r="L24" s="275"/>
-      <c r="M24" s="456"/>
-      <c r="N24" s="457"/>
+      <c r="M24" s="493"/>
+      <c r="N24" s="494"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25" s="364"/>
@@ -12187,8 +12187,8 @@
       <c r="J25" s="272"/>
       <c r="K25" s="272"/>
       <c r="L25" s="272"/>
-      <c r="M25" s="458"/>
-      <c r="N25" s="459"/>
+      <c r="M25" s="491"/>
+      <c r="N25" s="492"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A26" s="364"/>
@@ -12207,8 +12207,8 @@
       <c r="J26" s="275"/>
       <c r="K26" s="275"/>
       <c r="L26" s="275"/>
-      <c r="M26" s="456"/>
-      <c r="N26" s="457"/>
+      <c r="M26" s="493"/>
+      <c r="N26" s="494"/>
     </row>
     <row r="27" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="343"/>
@@ -12227,8 +12227,8 @@
       <c r="J27" s="278"/>
       <c r="K27" s="278"/>
       <c r="L27" s="278"/>
-      <c r="M27" s="460"/>
-      <c r="N27" s="461"/>
+      <c r="M27" s="499"/>
+      <c r="N27" s="500"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A28" s="63"/>
@@ -12238,14 +12238,23 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M1:N1"/>
@@ -12256,23 +12265,14 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13329,7 +13329,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -13399,7 +13399,7 @@
         <v>113</v>
       </c>
       <c r="H2">
-        <f>Status!C30</f>
+        <f>Status!D2</f>
         <v>0</v>
       </c>
       <c r="I2" t="str">
@@ -13434,7 +13434,7 @@
         <v>114</v>
       </c>
       <c r="H3">
-        <f>Status!C31</f>
+        <f>Status!D3</f>
         <v>0</v>
       </c>
       <c r="I3" t="str">
@@ -13469,7 +13469,7 @@
         <v>115</v>
       </c>
       <c r="H4">
-        <f>Status!C32</f>
+        <f>Status!D4</f>
         <v>0</v>
       </c>
       <c r="I4" t="str">
@@ -13504,7 +13504,7 @@
         <v>116</v>
       </c>
       <c r="H5">
-        <f>Status!C6</f>
+        <f>Status!D5</f>
         <v>0</v>
       </c>
       <c r="I5" t="str">
@@ -13539,7 +13539,7 @@
         <v>117</v>
       </c>
       <c r="H6">
-        <f>Status!D2</f>
+        <f>Status!E2</f>
         <v>0</v>
       </c>
       <c r="I6" t="str">
@@ -13574,7 +13574,7 @@
         <v>118</v>
       </c>
       <c r="H7">
-        <f>Status!D3</f>
+        <f>Status!E3</f>
         <v>0</v>
       </c>
       <c r="I7" t="str">
@@ -13610,7 +13610,7 @@
         <v>119</v>
       </c>
       <c r="H8">
-        <f>Status!D4</f>
+        <f>Status!E4</f>
         <v>0</v>
       </c>
     </row>
@@ -13642,7 +13642,7 @@
         <v>120</v>
       </c>
       <c r="H9">
-        <f>Status!D5</f>
+        <f>Status!E5</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E27700-C911-41E0-83AB-C0E271152C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69970B2-4B7C-47BD-B75C-8AC165184359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -5882,40 +5882,40 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14.1171875" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.3515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.52734375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.3515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.64453125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5.64453125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="3.3515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="0.64453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.29296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5859375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.29296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="3.29296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="0.703125" style="6" customWidth="1"/>
     <col min="10" max="10" width="3.1171875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="2.52734375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="2.5859375" style="6" customWidth="1"/>
     <col min="12" max="12" width="3.1171875" style="6" customWidth="1"/>
     <col min="13" max="13" width="2.87890625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.3515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="0.64453125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.29296875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="0.703125" style="6" customWidth="1"/>
     <col min="16" max="16" width="3" style="6" customWidth="1"/>
     <col min="17" max="17" width="3.87890625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.52734375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="19.5859375" style="6" customWidth="1"/>
     <col min="19" max="19" width="5.1171875" style="27" customWidth="1"/>
     <col min="20" max="20" width="6.1171875" style="6" customWidth="1"/>
     <col min="21" max="21" width="3.87890625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="15.64453125" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.3515625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="15.703125" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.29296875" style="6" customWidth="1"/>
     <col min="25" max="25" width="6" style="6" customWidth="1"/>
-    <col min="26" max="26" width="3.3515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="14.3515625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="8.52734375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="16.64453125" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="11.3515625" style="6"/>
+    <col min="26" max="26" width="3.29296875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="14.29296875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.5859375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="16.703125" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="11.29296875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="S2" s="171">
         <f>Charakter!B2+T2</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T2" s="71">
         <v>0</v>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="S3" s="172">
         <f>Charakter!B3+T3</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T3" s="72">
         <v>0</v>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="S4" s="173">
         <f>Charakter!B4+T4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T4" s="73">
         <v>0</v>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="S5" s="174">
         <f>Charakter!B5+T5</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T5" s="72">
         <v>0</v>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="S10" s="180">
         <f>Charakter!B10+T10</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T10" s="73">
         <v>0</v>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="S11" s="181">
         <f>Charakter!B11+T11</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T11" s="72">
         <v>0</v>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="S12" s="182">
         <f>ROUNDUP((S7+S5)/2,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T12" s="74">
         <v>0</v>
@@ -6999,14 +6999,14 @@
       </c>
       <c r="B21" s="184">
         <f>Charakter!B15</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C21" s="233">
         <v>0</v>
       </c>
       <c r="D21" s="242">
         <f t="shared" ref="D21:D28" si="0">B21-C21</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E21" s="63"/>
       <c r="F21" s="7"/>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="AB21" s="167">
         <f>S2*4</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
@@ -7057,14 +7057,14 @@
       </c>
       <c r="B22" s="247">
         <f>Charakter!B16</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="234">
         <v>0</v>
       </c>
       <c r="D22" s="243">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>IF(D22 &lt;4,"Erschöpft","")</f>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="AB22" s="165">
         <f>AB21-AB20</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -7111,14 +7111,14 @@
       </c>
       <c r="B23" s="186">
         <f>Charakter!B17</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C23" s="235">
         <v>0</v>
       </c>
       <c r="D23" s="242">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>IF(D23=0,"Verkrüppelt",IF(D23&lt;=B23*0.2,"Verstümmelt",""))</f>
@@ -7170,14 +7170,14 @@
       </c>
       <c r="B24" s="188">
         <f>Charakter!B18</f>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C24" s="236">
         <v>0</v>
       </c>
       <c r="D24" s="244">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="E24" s="69" t="str">
         <f t="shared" ref="E24:E28" si="1">IF(D24=0,"Verkrüppelt",IF(D24&lt;=B24*0.2,"Verstümmelt",""))</f>
@@ -7224,14 +7224,14 @@
       </c>
       <c r="B25" s="188">
         <f>Charakter!B19</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="236">
         <v>0</v>
       </c>
       <c r="D25" s="244">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E25" s="69" t="str">
         <f t="shared" si="1"/>
@@ -7272,14 +7272,14 @@
       </c>
       <c r="B26" s="188">
         <f>Charakter!B20</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C26" s="236">
         <v>0</v>
       </c>
       <c r="D26" s="244">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E26" s="69" t="str">
         <f t="shared" si="1"/>
@@ -7326,14 +7326,14 @@
       </c>
       <c r="B27" s="188">
         <f>Charakter!B21</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C27" s="236">
         <v>0</v>
       </c>
       <c r="D27" s="244">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E27" s="69" t="str">
         <f t="shared" si="1"/>
@@ -7378,14 +7378,14 @@
       </c>
       <c r="B28" s="190">
         <f>Charakter!B22</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C28" s="237">
         <v>0</v>
       </c>
       <c r="D28" s="245">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E28" s="69" t="str">
         <f t="shared" si="1"/>
@@ -8566,23 +8566,23 @@
       <selection activeCell="H10" activeCellId="2" sqref="H4:H5 H7:H8 H10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.52734375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.3515625" style="7"/>
-    <col min="3" max="3" width="22.64453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.3515625" style="7"/>
-    <col min="5" max="5" width="8.3515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="23.5859375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.29296875" style="7"/>
+    <col min="3" max="3" width="22.703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.29296875" style="7"/>
+    <col min="5" max="5" width="8.29296875" style="7" customWidth="1"/>
     <col min="6" max="6" width="9.41015625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.64453125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.64453125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="8.41015625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.3515625" style="323" customWidth="1"/>
-    <col min="11" max="11" width="7.64453125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.29296875" style="323" customWidth="1"/>
+    <col min="11" max="11" width="7.703125" style="7" customWidth="1"/>
     <col min="12" max="12" width="18.41015625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.3515625" style="7"/>
+    <col min="13" max="13" width="11.29296875" style="7"/>
     <col min="14" max="14" width="21.1171875" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="11.3515625" style="7"/>
+    <col min="15" max="16384" width="11.29296875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9736,30 +9736,30 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.3515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.29296875" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.41015625" style="5" customWidth="1"/>
     <col min="3" max="3" width="18" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.64453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.64453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="3.703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="16" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.1171875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.3515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.29296875" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.3515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.29296875" style="5" customWidth="1"/>
     <col min="11" max="11" width="3" style="5" customWidth="1"/>
     <col min="12" max="12" width="25.1171875" style="5" customWidth="1"/>
     <col min="13" max="13" width="11.41015625" style="5" customWidth="1"/>
     <col min="14" max="14" width="19.87890625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="23.52734375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="23.5859375" style="5" customWidth="1"/>
     <col min="16" max="16" width="13.87890625" style="5" customWidth="1"/>
     <col min="17" max="17" width="35.1171875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="5.3515625" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="11.3515625" style="5"/>
+    <col min="18" max="18" width="5.29296875" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="11.29296875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9767,7 +9767,7 @@
         <v>207</v>
       </c>
       <c r="B1" s="366" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>206</v>
@@ -9809,12 +9809,12 @@
       </c>
       <c r="B2" s="378">
         <f t="shared" ref="B2:B9" si="0">D2</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="94">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G2:M2)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="196" t="s">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="O2" s="76">
         <f>B4*4+B7</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P2" s="248"/>
       <c r="Q2" s="7"/>
@@ -9858,12 +9858,12 @@
       </c>
       <c r="B3" s="379">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="95">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G3:M3)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="193" t="s">
@@ -9907,12 +9907,12 @@
       </c>
       <c r="B4" s="380">
         <f>D4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="96">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G4:M4)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="194" t="s">
@@ -9934,7 +9934,7 @@
       </c>
       <c r="O4" s="80">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G14:M14)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P4" s="54"/>
       <c r="Q4" s="7"/>
@@ -9954,12 +9954,12 @@
       </c>
       <c r="B5" s="381">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="95">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G5:M5)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="193" t="s">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="B10" s="385">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="372"/>
       <c r="D10" s="373"/>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="B11" s="386">
         <f>B5-ROUND(Inventar!H11/5,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="372"/>
       <c r="D11" s="373"/>
@@ -10387,12 +10387,12 @@
       </c>
       <c r="B15" s="368">
         <f>D15</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="98">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G10:M10)</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="218" t="s">
@@ -10429,12 +10429,12 @@
       </c>
       <c r="B16" s="369">
         <f>D16</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="99">
         <f>_xlfn.XLOOKUP($B$1,DatenExelintern!$G$1:$M$1,DatenExelintern!G11:M11)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="208" t="s">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="B17" s="370">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="32"/>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B18" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.7,0)</f>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="32"/>
@@ -10555,11 +10555,11 @@
       </c>
       <c r="B19" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C19" s="63">
         <f>O4</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>2</v>
@@ -10601,11 +10601,11 @@
       </c>
       <c r="B20" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C20" s="63">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>38</v>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="B21" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C21" s="7"/>
       <c r="F21" s="213" t="s">
@@ -10690,7 +10690,7 @@
       </c>
       <c r="B22" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C22" s="31"/>
       <c r="F22" s="194" t="s">
@@ -11616,23 +11616,23 @@
       <selection activeCell="E27" sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.3515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.3515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="4.52734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.52734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.29296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.29296875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="4.5859375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.5859375" style="7" customWidth="1"/>
     <col min="5" max="5" width="17" style="7" customWidth="1"/>
     <col min="6" max="6" width="4.87890625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.64453125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.703125" style="7" customWidth="1"/>
     <col min="8" max="8" width="7.87890625" style="7" customWidth="1"/>
     <col min="9" max="9" width="14.87890625" style="7" customWidth="1"/>
     <col min="10" max="10" width="18.1171875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="15.64453125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="15.703125" style="7" customWidth="1"/>
     <col min="12" max="12" width="14.41015625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.3515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.29296875" style="7" customWidth="1"/>
     <col min="14" max="14" width="9" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="11.3515625" style="7"/>
+    <col min="15" max="16384" width="11.29296875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -12289,9 +12289,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="127.3515625" style="6" customWidth="1"/>
-    <col min="2" max="8" width="11.3515625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.3515625" style="6" hidden="1"/>
+    <col min="1" max="1" width="127.29296875" style="6" customWidth="1"/>
+    <col min="2" max="8" width="11.29296875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.29296875" style="6" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
@@ -12322,19 +12322,19 @@
     <col min="6" max="6" width="16.87890625" style="43" customWidth="1"/>
     <col min="7" max="7" width="11.41015625" style="43" customWidth="1"/>
     <col min="8" max="8" width="12" style="43" customWidth="1"/>
-    <col min="9" max="9" width="10.52734375" style="43" customWidth="1"/>
+    <col min="9" max="9" width="10.5859375" style="43" customWidth="1"/>
     <col min="10" max="10" width="12" style="43" customWidth="1"/>
     <col min="11" max="11" width="11" style="43" customWidth="1"/>
     <col min="12" max="12" width="11.41015625" style="43" customWidth="1"/>
     <col min="13" max="13" width="13.41015625" style="43" customWidth="1"/>
-    <col min="15" max="15" width="7.64453125" customWidth="1"/>
+    <col min="15" max="15" width="7.703125" customWidth="1"/>
     <col min="16" max="16" width="19.41015625" customWidth="1"/>
-    <col min="17" max="17" width="18.3515625" customWidth="1"/>
+    <col min="17" max="17" width="18.29296875" customWidth="1"/>
     <col min="18" max="18" width="20.1171875" customWidth="1"/>
-    <col min="19" max="19" width="14.64453125" customWidth="1"/>
+    <col min="19" max="19" width="14.703125" customWidth="1"/>
     <col min="20" max="20" width="10.87890625" customWidth="1"/>
     <col min="21" max="21" width="12.41015625" customWidth="1"/>
-    <col min="22" max="22" width="10.64453125" customWidth="1"/>
+    <col min="22" max="22" width="10.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -13335,12 +13335,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.1171875" customWidth="1"/>
-    <col min="2" max="2" width="8.3515625" customWidth="1"/>
+    <col min="2" max="2" width="8.29296875" customWidth="1"/>
     <col min="4" max="4" width="5.87890625" customWidth="1"/>
     <col min="5" max="5" width="17.1171875" customWidth="1"/>
-    <col min="6" max="6" width="8.3515625" customWidth="1"/>
-    <col min="7" max="7" width="14.52734375" customWidth="1"/>
-    <col min="8" max="8" width="9.52734375" customWidth="1"/>
+    <col min="6" max="6" width="8.29296875" customWidth="1"/>
+    <col min="7" max="7" width="14.5859375" customWidth="1"/>
+    <col min="8" max="8" width="9.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.5">
@@ -13378,7 +13378,7 @@
       </c>
       <c r="B2">
         <f>Status!S2</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="str">
         <f>Charakter!F2</f>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="F2">
         <f>Charakter!B15</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>113</v>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B3">
         <f>Status!S3</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="str">
         <f>Charakter!F3</f>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="F3">
         <f>Charakter!B16</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>114</v>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="B4">
         <f>Status!S4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="str">
         <f>Charakter!F4</f>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="F4">
         <f>Charakter!B17</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>115</v>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B5">
         <f>Status!S5</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="str">
         <f>Charakter!F5</f>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="F5">
         <f>Charakter!B18</f>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>116</v>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="F6">
         <f>Charakter!B19</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>117</v>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="F7">
         <f>Charakter!B20</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>118</v>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="F8">
         <f>Charakter!B21</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>119</v>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="F9">
         <f>Charakter!B22</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>120</v>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B10">
         <f>Status!S10</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="str">
         <f>Charakter!F10</f>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="F10" t="str">
         <f>Charakter!B1</f>
-        <v>Goblin</v>
+        <v>Mensch</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>124</v>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="B11">
         <f>Status!S11</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="str">
         <f>Charakter!F11</f>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="B14">
         <f>Status!AB21</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C14" t="str">
         <f>Charakter!F14</f>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="B16">
         <f>Status!S12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="str">
         <f>Charakter!F16</f>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="B18">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="str">
         <f>Charakter!F18</f>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="B21">
         <f>Status!D21</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C21" t="str">
         <f>Charakter!F21</f>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="B22">
         <f>Status!D22</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="str">
         <f>Charakter!F22</f>
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B23">
         <f>Status!D23</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C23" t="str">
         <f>Charakter!F23</f>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="B24">
         <f>Status!D24</f>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C24" t="str">
         <f>Charakter!F24</f>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="B25">
         <f>Status!D25</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" t="str">
         <f>Charakter!F25</f>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="B26">
         <f>Status!D26</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C26" t="str">
         <f>Charakter!F26</f>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="B27">
         <f>Status!D27</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>140</v>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B28">
         <f>Status!D28</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69970B2-4B7C-47BD-B75C-8AC165184359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1B73C4-9EE4-412A-92DE-B783FB38FE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -2134,7 +2134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="501">
+  <cellXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3119,124 +3119,79 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="26" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="7" fillId="26" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3262,23 +3217,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3315,6 +3267,92 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3329,6 +3367,45 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3341,371 +3418,228 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5882,7 +5816,7 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="R26" sqref="R26:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5940,13 +5874,13 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="418" t="s">
+      <c r="J1" s="407" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="419"/>
-      <c r="L1" s="419"/>
-      <c r="M1" s="419"/>
-      <c r="N1" s="420"/>
+      <c r="K1" s="408"/>
+      <c r="L1" s="408"/>
+      <c r="M1" s="408"/>
+      <c r="N1" s="409"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -5961,18 +5895,18 @@
       <c r="V1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="393" t="s">
+      <c r="W1" s="371" t="s">
         <v>207</v>
       </c>
-      <c r="X1" s="394"/>
+      <c r="X1" s="373"/>
       <c r="Y1" s="3" t="s">
         <v>199</v>
       </c>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="393" t="s">
+      <c r="AA1" s="371" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="394"/>
+      <c r="AB1" s="373"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
@@ -5988,13 +5922,13 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="442">
+      <c r="J2" s="381">
         <v>100</v>
       </c>
-      <c r="K2" s="443"/>
-      <c r="L2" s="443"/>
-      <c r="M2" s="443"/>
-      <c r="N2" s="444"/>
+      <c r="K2" s="382"/>
+      <c r="L2" s="382"/>
+      <c r="M2" s="382"/>
+      <c r="N2" s="383"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="5"/>
@@ -6009,18 +5943,18 @@
         <v>0</v>
       </c>
       <c r="U2" s="137"/>
-      <c r="V2" s="435" t="s">
+      <c r="V2" s="374" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="436"/>
-      <c r="X2" s="436"/>
-      <c r="Y2" s="437"/>
+      <c r="W2" s="375"/>
+      <c r="X2" s="375"/>
+      <c r="Y2" s="376"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="401" t="str">
+      <c r="AA2" s="427" t="str">
         <f>IF(Charakter!L2 = 0, "", Charakter!L2)</f>
         <v/>
       </c>
-      <c r="AB2" s="402"/>
+      <c r="AB2" s="428"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
@@ -6070,11 +6004,11 @@
         <v>20</v>
       </c>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="405" t="str">
+      <c r="AA3" s="433" t="str">
         <f>IF(Charakter!L3 = 0, "", Charakter!L3)</f>
         <v/>
       </c>
-      <c r="AB3" s="406"/>
+      <c r="AB3" s="434"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
@@ -6121,11 +6055,11 @@
         <v>20</v>
       </c>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="399" t="str">
+      <c r="AA4" s="425" t="str">
         <f>IF(Charakter!L4 = 0, "", Charakter!L4)</f>
         <v/>
       </c>
-      <c r="AB4" s="400"/>
+      <c r="AB4" s="426"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
@@ -6173,11 +6107,11 @@
         <v>20</v>
       </c>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="405" t="str">
+      <c r="AA5" s="433" t="str">
         <f>IF(Charakter!L5 = 0, "", Charakter!L5)</f>
         <v/>
       </c>
-      <c r="AB5" s="406"/>
+      <c r="AB5" s="434"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
@@ -6227,26 +6161,26 @@
         <v>20</v>
       </c>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="399" t="str">
+      <c r="AA6" s="425" t="str">
         <f>IF(Charakter!L6 = 0, "", Charakter!L6)</f>
         <v/>
       </c>
-      <c r="AB6" s="400"/>
+      <c r="AB6" s="426"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="100"/>
-      <c r="B7" s="421" t="s">
+      <c r="B7" s="413" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="424"/>
-      <c r="D7" s="421" t="s">
+      <c r="C7" s="416"/>
+      <c r="D7" s="413" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="422"/>
-      <c r="F7" s="423"/>
+      <c r="E7" s="414"/>
+      <c r="F7" s="415"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -6283,11 +6217,11 @@
         <v>20</v>
       </c>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="405" t="str">
+      <c r="AA7" s="433" t="str">
         <f>IF(Charakter!L7 = 0, "", Charakter!L7)</f>
         <v/>
       </c>
-      <c r="AB7" s="406"/>
+      <c r="AB7" s="434"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -6297,11 +6231,11 @@
       <c r="A8" s="260" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="425"/>
-      <c r="C8" s="426"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="429"/>
-      <c r="F8" s="430"/>
+      <c r="B8" s="417"/>
+      <c r="C8" s="418"/>
+      <c r="D8" s="417"/>
+      <c r="E8" s="421"/>
+      <c r="F8" s="422"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -6338,11 +6272,11 @@
         <v>20</v>
       </c>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="399" t="str">
+      <c r="AA8" s="425" t="str">
         <f>IF(Charakter!L8 = 0, "", Charakter!L8)</f>
         <v/>
       </c>
-      <c r="AB8" s="400"/>
+      <c r="AB8" s="426"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
@@ -6352,11 +6286,11 @@
       <c r="A9" s="261" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="427"/>
-      <c r="C9" s="428"/>
-      <c r="D9" s="427"/>
-      <c r="E9" s="431"/>
-      <c r="F9" s="432"/>
+      <c r="B9" s="419"/>
+      <c r="C9" s="420"/>
+      <c r="D9" s="419"/>
+      <c r="E9" s="423"/>
+      <c r="F9" s="424"/>
       <c r="G9" s="7"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
@@ -6393,11 +6327,11 @@
         <v>20</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="407" t="str">
+      <c r="AA9" s="435" t="str">
         <f>IF(Charakter!L9 = 0, "", Charakter!L9)</f>
         <v/>
       </c>
-      <c r="AB9" s="408"/>
+      <c r="AB9" s="436"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -6484,17 +6418,17 @@
         <v>0</v>
       </c>
       <c r="U11" s="137"/>
-      <c r="V11" s="438" t="s">
+      <c r="V11" s="377" t="s">
         <v>275</v>
       </c>
-      <c r="W11" s="439"/>
-      <c r="X11" s="439"/>
-      <c r="Y11" s="440"/>
+      <c r="W11" s="378"/>
+      <c r="X11" s="378"/>
+      <c r="Y11" s="379"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="393" t="s">
+      <c r="AA11" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="394"/>
+      <c r="AB11" s="373"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -6557,11 +6491,11 @@
         <v>20</v>
       </c>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="401" t="str">
+      <c r="AA12" s="427" t="str">
         <f>IF(Charakter!L13 = 0, "", Charakter!L13)</f>
         <v/>
       </c>
-      <c r="AB12" s="402"/>
+      <c r="AB12" s="428"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -6615,11 +6549,11 @@
         <v>20</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="395" t="str">
+      <c r="AA13" s="429" t="str">
         <f>IF(Charakter!L14 = 0, "", Charakter!L14)</f>
         <v/>
       </c>
-      <c r="AB13" s="396"/>
+      <c r="AB13" s="430"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -6657,11 +6591,11 @@
       <c r="O14" s="7"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="409" t="s">
+      <c r="R14" s="384" t="s">
         <v>279</v>
       </c>
-      <c r="S14" s="410"/>
-      <c r="T14" s="445"/>
+      <c r="S14" s="385"/>
+      <c r="T14" s="386"/>
       <c r="U14" s="26"/>
       <c r="V14" s="62" t="s">
         <v>178</v>
@@ -6677,11 +6611,11 @@
         <v>20</v>
       </c>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="403" t="str">
+      <c r="AA14" s="431" t="str">
         <f>IF(Charakter!L15 = 0, "", Charakter!L15)</f>
         <v/>
       </c>
-      <c r="AB14" s="404"/>
+      <c r="AB14" s="432"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -6719,22 +6653,22 @@
       <c r="O15" s="7"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="411"/>
-      <c r="S15" s="412"/>
-      <c r="T15" s="446"/>
+      <c r="R15" s="387"/>
+      <c r="S15" s="388"/>
+      <c r="T15" s="389"/>
       <c r="U15" s="26"/>
-      <c r="V15" s="393" t="s">
+      <c r="V15" s="371" t="s">
         <v>274</v>
       </c>
-      <c r="W15" s="434"/>
-      <c r="X15" s="434"/>
-      <c r="Y15" s="394"/>
+      <c r="W15" s="372"/>
+      <c r="X15" s="372"/>
+      <c r="Y15" s="373"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="395" t="str">
+      <c r="AA15" s="429" t="str">
         <f>IF(Charakter!L16 = 0, "", Charakter!L16)</f>
         <v/>
       </c>
-      <c r="AB15" s="396"/>
+      <c r="AB15" s="430"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -6772,11 +6706,11 @@
       <c r="O16" s="7"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="453">
-        <v>0</v>
-      </c>
-      <c r="S16" s="454"/>
-      <c r="T16" s="455"/>
+      <c r="R16" s="393">
+        <v>0</v>
+      </c>
+      <c r="S16" s="394"/>
+      <c r="T16" s="395"/>
       <c r="U16" s="26"/>
       <c r="V16" s="59" t="s">
         <v>225</v>
@@ -6792,11 +6726,11 @@
         <v>20</v>
       </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="397" t="str">
+      <c r="AA16" s="437" t="str">
         <f>IF(Charakter!L17 = 0, "", Charakter!L17)</f>
         <v/>
       </c>
-      <c r="AB16" s="398"/>
+      <c r="AB16" s="438"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
@@ -6864,11 +6798,11 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="447" t="s">
+      <c r="R18" s="390" t="s">
         <v>278</v>
       </c>
-      <c r="S18" s="448"/>
-      <c r="T18" s="449"/>
+      <c r="S18" s="391"/>
+      <c r="T18" s="392"/>
       <c r="U18" s="26"/>
       <c r="V18" s="61" t="s">
         <v>227</v>
@@ -6882,27 +6816,27 @@
         <v>20</v>
       </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="393" t="s">
+      <c r="AA18" s="371" t="s">
         <v>21</v>
       </c>
-      <c r="AB18" s="394"/>
+      <c r="AB18" s="373"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.5">
-      <c r="A19" s="409" t="s">
+      <c r="A19" s="384" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="410"/>
-      <c r="C19" s="413" t="s">
+      <c r="B19" s="385"/>
+      <c r="C19" s="402" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="415" t="s">
+      <c r="D19" s="404" t="s">
         <v>270</v>
       </c>
-      <c r="E19" s="417"/>
+      <c r="E19" s="406"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6915,9 +6849,9 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="390"/>
-      <c r="S19" s="391"/>
-      <c r="T19" s="392"/>
+      <c r="R19" s="410"/>
+      <c r="S19" s="411"/>
+      <c r="T19" s="412"/>
       <c r="U19" s="26"/>
       <c r="V19" s="60" t="s">
         <v>35</v>
@@ -6946,11 +6880,11 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="411"/>
-      <c r="B20" s="412"/>
-      <c r="C20" s="414"/>
-      <c r="D20" s="416"/>
-      <c r="E20" s="417"/>
+      <c r="A20" s="387"/>
+      <c r="B20" s="388"/>
+      <c r="C20" s="403"/>
+      <c r="D20" s="405"/>
+      <c r="E20" s="406"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6963,9 +6897,9 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="387"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="389"/>
+      <c r="R20" s="396"/>
+      <c r="S20" s="397"/>
+      <c r="T20" s="398"/>
       <c r="U20" s="26"/>
       <c r="V20" s="61" t="s">
         <v>228</v>
@@ -7021,9 +6955,9 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="459"/>
-      <c r="S21" s="460"/>
-      <c r="T21" s="461"/>
+      <c r="R21" s="399"/>
+      <c r="S21" s="400"/>
+      <c r="T21" s="401"/>
       <c r="U21" s="26"/>
       <c r="V21" s="153" t="s">
         <v>229</v>
@@ -7082,16 +7016,16 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="388"/>
-      <c r="T22" s="389"/>
+      <c r="R22" s="396"/>
+      <c r="S22" s="397"/>
+      <c r="T22" s="398"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="393" t="s">
+      <c r="V22" s="371" t="s">
         <v>42</v>
       </c>
-      <c r="W22" s="434"/>
-      <c r="X22" s="434"/>
-      <c r="Y22" s="394"/>
+      <c r="W22" s="372"/>
+      <c r="X22" s="372"/>
+      <c r="Y22" s="373"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="164" t="s">
         <v>30</v>
@@ -7136,9 +7070,9 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="390"/>
-      <c r="S23" s="391"/>
-      <c r="T23" s="392"/>
+      <c r="R23" s="410"/>
+      <c r="S23" s="411"/>
+      <c r="T23" s="412"/>
       <c r="U23" s="26"/>
       <c r="V23" s="59" t="s">
         <v>230</v>
@@ -7195,9 +7129,9 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="387"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="389"/>
+      <c r="R24" s="396"/>
+      <c r="S24" s="397"/>
+      <c r="T24" s="398"/>
       <c r="U24" s="26"/>
       <c r="V24" s="153" t="s">
         <v>231</v>
@@ -7252,12 +7186,12 @@
       <c r="R25" s="51"/>
       <c r="T25" s="23"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="393" t="s">
+      <c r="V25" s="371" t="s">
         <v>76</v>
       </c>
-      <c r="W25" s="434"/>
-      <c r="X25" s="434"/>
-      <c r="Y25" s="394"/>
+      <c r="W25" s="372"/>
+      <c r="X25" s="372"/>
+      <c r="Y25" s="373"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
@@ -7297,11 +7231,11 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="450" t="s">
+      <c r="R26" s="475" t="s">
         <v>140</v>
       </c>
-      <c r="S26" s="451"/>
-      <c r="T26" s="452"/>
+      <c r="S26" s="476"/>
+      <c r="T26" s="477"/>
       <c r="U26" s="26"/>
       <c r="V26" s="59" t="s">
         <v>45</v>
@@ -7351,9 +7285,9 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="456"/>
-      <c r="S27" s="457"/>
-      <c r="T27" s="458"/>
+      <c r="R27" s="472"/>
+      <c r="S27" s="473"/>
+      <c r="T27" s="474"/>
       <c r="U27" s="26"/>
       <c r="V27" s="60" t="s">
         <v>46</v>
@@ -7395,11 +7329,11 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="441"/>
-      <c r="K28" s="441"/>
-      <c r="L28" s="441"/>
-      <c r="M28" s="441"/>
-      <c r="N28" s="441"/>
+      <c r="J28" s="380"/>
+      <c r="K28" s="380"/>
+      <c r="L28" s="380"/>
+      <c r="M28" s="380"/>
+      <c r="N28" s="380"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -7436,11 +7370,11 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="433"/>
-      <c r="K29" s="433"/>
-      <c r="L29" s="433"/>
-      <c r="M29" s="433"/>
-      <c r="N29" s="433"/>
+      <c r="J29" s="370"/>
+      <c r="K29" s="370"/>
+      <c r="L29" s="370"/>
+      <c r="M29" s="370"/>
+      <c r="N29" s="370"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -7448,12 +7382,12 @@
       <c r="S29" s="7"/>
       <c r="T29" s="23"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="393" t="s">
+      <c r="V29" s="371" t="s">
         <v>287</v>
       </c>
-      <c r="W29" s="434"/>
-      <c r="X29" s="434"/>
-      <c r="Y29" s="394"/>
+      <c r="W29" s="372"/>
+      <c r="X29" s="372"/>
+      <c r="Y29" s="373"/>
       <c r="Z29" s="5"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
@@ -7988,6 +7922,38 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="48">
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="V25:Y25"/>
     <mergeCell ref="V29:Y29"/>
@@ -8004,38 +7970,6 @@
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="R21:T21"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="R20:T20"/>
   </mergeCells>
   <conditionalFormatting sqref="W4:X5 W1 W26:X27 W7:X7 V33:W1048576 W30:X32">
     <cfRule type="containsText" dxfId="224" priority="137" operator="containsText" text="Phy">
@@ -8577,7 +8511,7 @@
     <col min="7" max="7" width="14.703125" style="7" customWidth="1"/>
     <col min="8" max="8" width="16.703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="8.41015625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.29296875" style="323" customWidth="1"/>
+    <col min="10" max="10" width="14.29296875" style="5" customWidth="1"/>
     <col min="11" max="11" width="7.703125" style="7" customWidth="1"/>
     <col min="12" max="12" width="18.41015625" style="7" customWidth="1"/>
     <col min="13" max="13" width="11.29296875" style="7"/>
@@ -8609,16 +8543,16 @@
       </c>
       <c r="H1" s="266"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="317" t="s">
+      <c r="J1" s="3" t="s">
         <v>165</v>
       </c>
       <c r="K1" s="22"/>
-      <c r="L1" s="466" t="s">
+      <c r="L1" s="443" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="467"/>
-      <c r="N1" s="467"/>
-      <c r="O1" s="468"/>
+      <c r="M1" s="444"/>
+      <c r="N1" s="444"/>
+      <c r="O1" s="445"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -8629,19 +8563,19 @@
       <c r="E2" s="268"/>
       <c r="F2" s="268"/>
       <c r="G2" s="270"/>
-      <c r="J2" s="318">
+      <c r="J2" s="317">
         <f>B2*0.4</f>
         <v>0</v>
       </c>
-      <c r="L2" s="325" t="s">
+      <c r="L2" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="469">
+      <c r="M2" s="446">
         <f>O4-M4</f>
         <v>30000</v>
       </c>
-      <c r="N2" s="470"/>
-      <c r="O2" s="471"/>
+      <c r="N2" s="447"/>
+      <c r="O2" s="448"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -8652,18 +8586,18 @@
       <c r="E3" s="272"/>
       <c r="F3" s="272"/>
       <c r="G3" s="34"/>
-      <c r="J3" s="319">
+      <c r="J3" s="318">
         <f>B3*0.4</f>
         <v>0</v>
       </c>
-      <c r="L3" s="462" t="s">
+      <c r="L3" s="439" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="463"/>
-      <c r="N3" s="464" t="s">
+      <c r="M3" s="440"/>
+      <c r="N3" s="441" t="s">
         <v>168</v>
       </c>
-      <c r="O3" s="465"/>
+      <c r="O3" s="442"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -8674,25 +8608,25 @@
       <c r="E4" s="275"/>
       <c r="F4" s="275"/>
       <c r="G4" s="54"/>
-      <c r="H4" s="330" t="s">
+      <c r="H4" s="328" t="s">
         <v>174</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="320">
+      <c r="J4" s="319">
         <f>B4*0.4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="326" t="s">
+      <c r="L4" s="324" t="s">
         <v>169</v>
       </c>
-      <c r="M4" s="327">
+      <c r="M4" s="325">
         <f>SUM(M5:M29)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="328" t="s">
+      <c r="N4" s="326" t="s">
         <v>170</v>
       </c>
-      <c r="O4" s="329">
+      <c r="O4" s="327">
         <f>SUM(O5:O29)</f>
         <v>30000</v>
       </c>
@@ -8706,12 +8640,12 @@
       <c r="E5" s="278"/>
       <c r="F5" s="278"/>
       <c r="G5" s="279"/>
-      <c r="H5" s="331">
+      <c r="H5" s="329">
         <f>SUM(C7:C11)</f>
         <v>0</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="319">
+      <c r="J5" s="318">
         <f>B5*0.4</f>
         <v>0</v>
       </c>
@@ -8750,7 +8684,7 @@
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="317" t="s">
+      <c r="J6" s="3" t="s">
         <v>165</v>
       </c>
       <c r="L6" s="285"/>
@@ -8767,11 +8701,11 @@
       <c r="E7" s="292"/>
       <c r="F7" s="292"/>
       <c r="G7" s="293"/>
-      <c r="H7" s="332" t="s">
+      <c r="H7" s="330" t="s">
         <v>171</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="321">
+      <c r="J7" s="320">
         <f>B7*0.4</f>
         <v>0</v>
       </c>
@@ -8789,12 +8723,12 @@
       <c r="E8" s="298"/>
       <c r="F8" s="298"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="333">
+      <c r="H8" s="331">
         <f>H11+SUM(D17:D30)+SUM(D33:D61)</f>
         <v>0</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="319">
+      <c r="J8" s="318">
         <f>B8*0.4</f>
         <v>0</v>
       </c>
@@ -8813,7 +8747,7 @@
       <c r="F9" s="299"/>
       <c r="G9" s="54"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="320">
+      <c r="J9" s="319">
         <f>B9*0.4</f>
         <v>0</v>
       </c>
@@ -8831,11 +8765,11 @@
       <c r="E10" s="298"/>
       <c r="F10" s="298"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="332" t="s">
+      <c r="H10" s="330" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="319">
+      <c r="J10" s="318">
         <f>B10*0.4</f>
         <v>0</v>
       </c>
@@ -8853,12 +8787,12 @@
       <c r="E11" s="303"/>
       <c r="F11" s="303"/>
       <c r="G11" s="304"/>
-      <c r="H11" s="333">
+      <c r="H11" s="331">
         <f>SUM(D2:D5)+SUM(D7:D11)+SUM(D13:D14)</f>
         <v>0</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="320">
+      <c r="J11" s="319">
         <f>B11*0.4</f>
         <v>0</v>
       </c>
@@ -8890,7 +8824,7 @@
       </c>
       <c r="H12" s="305"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="317" t="s">
+      <c r="J12" s="3" t="s">
         <v>165</v>
       </c>
       <c r="L12" s="285"/>
@@ -8909,7 +8843,7 @@
       <c r="G13" s="293"/>
       <c r="H13" s="305"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="320">
+      <c r="J13" s="319">
         <f t="shared" ref="J13:J14" si="0">B13*0.4</f>
         <v>0</v>
       </c>
@@ -8929,7 +8863,7 @@
       <c r="G14" s="308"/>
       <c r="H14" s="305"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="322">
+      <c r="J14" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8971,7 +8905,7 @@
       <c r="G16" s="312"/>
       <c r="H16" s="312"/>
       <c r="I16" s="312"/>
-      <c r="J16" s="324" t="s">
+      <c r="J16" s="322" t="s">
         <v>165</v>
       </c>
       <c r="K16" s="312"/>
@@ -8994,7 +8928,7 @@
       </c>
       <c r="E17" s="290"/>
       <c r="F17" s="293"/>
-      <c r="J17" s="318">
+      <c r="J17" s="317">
         <f t="shared" ref="J17:J29" si="1">B17*0.4</f>
         <v>0</v>
       </c>
@@ -9017,7 +8951,7 @@
       </c>
       <c r="E18" s="272"/>
       <c r="F18" s="34"/>
-      <c r="J18" s="319">
+      <c r="J18" s="318">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9040,7 +8974,7 @@
       </c>
       <c r="E19" s="275"/>
       <c r="F19" s="54"/>
-      <c r="J19" s="320">
+      <c r="J19" s="319">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9063,7 +8997,7 @@
       </c>
       <c r="E20" s="272"/>
       <c r="F20" s="34"/>
-      <c r="J20" s="319">
+      <c r="J20" s="318">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9086,7 +9020,7 @@
       </c>
       <c r="E21" s="275"/>
       <c r="F21" s="54"/>
-      <c r="J21" s="320">
+      <c r="J21" s="319">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9109,7 +9043,7 @@
       </c>
       <c r="E22" s="272"/>
       <c r="F22" s="34"/>
-      <c r="J22" s="319">
+      <c r="J22" s="318">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9132,7 +9066,7 @@
       </c>
       <c r="E23" s="275"/>
       <c r="F23" s="54"/>
-      <c r="J23" s="320">
+      <c r="J23" s="319">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9155,7 +9089,7 @@
       </c>
       <c r="E24" s="272"/>
       <c r="F24" s="34"/>
-      <c r="J24" s="319">
+      <c r="J24" s="318">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9178,7 +9112,7 @@
       </c>
       <c r="E25" s="275"/>
       <c r="F25" s="54"/>
-      <c r="J25" s="320">
+      <c r="J25" s="319">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9201,7 +9135,7 @@
       </c>
       <c r="E26" s="272"/>
       <c r="F26" s="34"/>
-      <c r="J26" s="319">
+      <c r="J26" s="318">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9224,7 +9158,7 @@
       </c>
       <c r="E27" s="275"/>
       <c r="F27" s="54"/>
-      <c r="J27" s="320">
+      <c r="J27" s="319">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9247,7 +9181,7 @@
       </c>
       <c r="E28" s="272"/>
       <c r="F28" s="34"/>
-      <c r="J28" s="319">
+      <c r="J28" s="318">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9270,7 +9204,7 @@
       </c>
       <c r="E29" s="275"/>
       <c r="F29" s="54"/>
-      <c r="J29" s="320">
+      <c r="J29" s="319">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9290,7 +9224,7 @@
       </c>
       <c r="E30" s="278"/>
       <c r="F30" s="308"/>
-      <c r="J30" s="322"/>
+      <c r="J30" s="321"/>
       <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9321,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="312"/>
-      <c r="J32" s="324" t="s">
+      <c r="J32" s="322" t="s">
         <v>173</v>
       </c>
       <c r="K32" s="312"/>
@@ -9336,7 +9270,7 @@
       <c r="F33" s="314"/>
       <c r="G33" s="316"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="318">
+      <c r="J33" s="317">
         <f>B33*0.4</f>
         <v>0</v>
       </c>
@@ -9350,7 +9284,7 @@
       <c r="E34" s="272"/>
       <c r="F34" s="272"/>
       <c r="G34" s="34"/>
-      <c r="J34" s="319">
+      <c r="J34" s="318">
         <f t="shared" ref="J34:J44" si="3">B34*0.4</f>
         <v>0</v>
       </c>
@@ -9364,7 +9298,7 @@
       <c r="E35" s="275"/>
       <c r="F35" s="275"/>
       <c r="G35" s="54"/>
-      <c r="J35" s="320">
+      <c r="J35" s="319">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9378,7 +9312,7 @@
       <c r="E36" s="272"/>
       <c r="F36" s="272"/>
       <c r="G36" s="34"/>
-      <c r="J36" s="319">
+      <c r="J36" s="318">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9392,7 +9326,7 @@
       <c r="E37" s="275"/>
       <c r="F37" s="275"/>
       <c r="G37" s="54"/>
-      <c r="J37" s="320">
+      <c r="J37" s="319">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9406,7 +9340,7 @@
       <c r="E38" s="272"/>
       <c r="F38" s="272"/>
       <c r="G38" s="34"/>
-      <c r="J38" s="319">
+      <c r="J38" s="318">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9420,7 +9354,7 @@
       <c r="E39" s="275"/>
       <c r="F39" s="275"/>
       <c r="G39" s="54"/>
-      <c r="J39" s="320">
+      <c r="J39" s="319">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9434,7 +9368,7 @@
       <c r="E40" s="272"/>
       <c r="F40" s="272"/>
       <c r="G40" s="34"/>
-      <c r="J40" s="319">
+      <c r="J40" s="318">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9448,7 +9382,7 @@
       <c r="E41" s="275"/>
       <c r="F41" s="275"/>
       <c r="G41" s="54"/>
-      <c r="J41" s="320">
+      <c r="J41" s="319">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9462,7 +9396,7 @@
       <c r="E42" s="272"/>
       <c r="F42" s="272"/>
       <c r="G42" s="34"/>
-      <c r="J42" s="319">
+      <c r="J42" s="318">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9476,7 +9410,7 @@
       <c r="E43" s="275"/>
       <c r="F43" s="275"/>
       <c r="G43" s="54"/>
-      <c r="J43" s="320">
+      <c r="J43" s="319">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9490,7 +9424,7 @@
       <c r="E44" s="272"/>
       <c r="F44" s="272"/>
       <c r="G44" s="34"/>
-      <c r="J44" s="319">
+      <c r="J44" s="318">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9504,7 +9438,7 @@
       <c r="E45" s="275"/>
       <c r="F45" s="275"/>
       <c r="G45" s="54"/>
-      <c r="J45" s="320">
+      <c r="J45" s="319">
         <f t="shared" ref="J45:J61" si="4">B45*0.4</f>
         <v>0</v>
       </c>
@@ -9517,7 +9451,7 @@
       <c r="E46" s="272"/>
       <c r="F46" s="272"/>
       <c r="G46" s="34"/>
-      <c r="J46" s="319">
+      <c r="J46" s="318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9530,7 +9464,7 @@
       <c r="E47" s="275"/>
       <c r="F47" s="275"/>
       <c r="G47" s="54"/>
-      <c r="J47" s="320">
+      <c r="J47" s="319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9543,7 +9477,7 @@
       <c r="E48" s="272"/>
       <c r="F48" s="272"/>
       <c r="G48" s="34"/>
-      <c r="J48" s="319">
+      <c r="J48" s="318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9556,7 +9490,7 @@
       <c r="E49" s="275"/>
       <c r="F49" s="275"/>
       <c r="G49" s="54"/>
-      <c r="J49" s="320">
+      <c r="J49" s="319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9569,7 +9503,7 @@
       <c r="E50" s="272"/>
       <c r="F50" s="272"/>
       <c r="G50" s="34"/>
-      <c r="J50" s="319">
+      <c r="J50" s="318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9582,7 +9516,7 @@
       <c r="E51" s="275"/>
       <c r="F51" s="275"/>
       <c r="G51" s="54"/>
-      <c r="J51" s="320">
+      <c r="J51" s="319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9595,7 +9529,7 @@
       <c r="E52" s="272"/>
       <c r="F52" s="272"/>
       <c r="G52" s="34"/>
-      <c r="J52" s="319">
+      <c r="J52" s="318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9608,7 +9542,7 @@
       <c r="E53" s="275"/>
       <c r="F53" s="275"/>
       <c r="G53" s="54"/>
-      <c r="J53" s="320">
+      <c r="J53" s="319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9621,7 +9555,7 @@
       <c r="E54" s="272"/>
       <c r="F54" s="272"/>
       <c r="G54" s="34"/>
-      <c r="J54" s="319">
+      <c r="J54" s="318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9634,7 +9568,7 @@
       <c r="E55" s="275"/>
       <c r="F55" s="275"/>
       <c r="G55" s="54"/>
-      <c r="J55" s="320">
+      <c r="J55" s="319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9647,7 +9581,7 @@
       <c r="E56" s="272"/>
       <c r="F56" s="272"/>
       <c r="G56" s="34"/>
-      <c r="J56" s="319">
+      <c r="J56" s="318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9660,7 +9594,7 @@
       <c r="E57" s="275"/>
       <c r="F57" s="275"/>
       <c r="G57" s="54"/>
-      <c r="J57" s="320">
+      <c r="J57" s="319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9673,7 +9607,7 @@
       <c r="E58" s="272"/>
       <c r="F58" s="272"/>
       <c r="G58" s="34"/>
-      <c r="J58" s="319">
+      <c r="J58" s="318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9686,7 +9620,7 @@
       <c r="E59" s="275"/>
       <c r="F59" s="275"/>
       <c r="G59" s="54"/>
-      <c r="J59" s="320">
+      <c r="J59" s="319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9699,7 +9633,7 @@
       <c r="E60" s="272"/>
       <c r="F60" s="272"/>
       <c r="G60" s="34"/>
-      <c r="J60" s="319">
+      <c r="J60" s="318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9712,7 +9646,7 @@
       <c r="E61" s="275"/>
       <c r="F61" s="275"/>
       <c r="G61" s="54"/>
-      <c r="J61" s="320">
+      <c r="J61" s="319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9763,10 +9697,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="366" t="s">
+      <c r="B1" s="350" t="s">
         <v>179</v>
       </c>
       <c r="C1" s="48" t="s">
@@ -9779,10 +9713,10 @@
       <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="472" t="s">
+      <c r="G1" s="449" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="473"/>
+      <c r="H1" s="450"/>
       <c r="I1" s="48" t="s">
         <v>208</v>
       </c>
@@ -9794,20 +9728,20 @@
         <v>6</v>
       </c>
       <c r="M1" s="7"/>
-      <c r="N1" s="474" t="s">
+      <c r="N1" s="451" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="476"/>
+      <c r="O1" s="453"/>
       <c r="P1" s="52" t="s">
         <v>264</v>
       </c>
       <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A2" s="374" t="s">
+      <c r="A2" s="357" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="378">
+      <c r="B2" s="361">
         <f t="shared" ref="B2:B9" si="0">D2</f>
         <v>10</v>
       </c>
@@ -9853,10 +9787,10 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="358" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="379">
+      <c r="B3" s="362">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -9902,10 +9836,10 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A4" s="376" t="s">
+      <c r="A4" s="359" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="380">
+      <c r="B4" s="363">
         <f>D4</f>
         <v>10</v>
       </c>
@@ -9949,10 +9883,10 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A5" s="375" t="s">
+      <c r="A5" s="358" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="381">
+      <c r="B5" s="364">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -9998,10 +9932,10 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A6" s="376" t="s">
+      <c r="A6" s="359" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="382">
+      <c r="B6" s="365">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10047,10 +9981,10 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A7" s="375" t="s">
+      <c r="A7" s="358" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="383">
+      <c r="B7" s="366">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10096,10 +10030,10 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="376" t="s">
+      <c r="A8" s="359" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="384">
+      <c r="B8" s="367">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10144,10 +10078,10 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="375" t="s">
+      <c r="A9" s="358" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="384">
+      <c r="B9" s="367">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -10186,15 +10120,15 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="376" t="s">
+      <c r="A10" s="359" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="385">
+      <c r="B10" s="368">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C10" s="372"/>
-      <c r="D10" s="373"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="356"/>
       <c r="E10" s="32"/>
       <c r="F10" s="208" t="s">
         <v>223</v>
@@ -10231,15 +10165,15 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="377" t="s">
+      <c r="A11" s="360" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="386">
+      <c r="B11" s="369">
         <f>B5-ROUND(Inventar!H11/5,0)</f>
         <v>10</v>
       </c>
-      <c r="C11" s="372"/>
-      <c r="D11" s="373"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="356"/>
       <c r="E11" s="32"/>
       <c r="F11" s="209" t="s">
         <v>29</v>
@@ -10270,8 +10204,8 @@
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="343"/>
-      <c r="B12" s="365"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="7"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -10308,10 +10242,10 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="344" t="s">
+      <c r="A13" s="332" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="367" t="s">
+      <c r="B13" s="351" t="s">
         <v>267</v>
       </c>
       <c r="C13" s="7"/>
@@ -10348,8 +10282,8 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="343"/>
-      <c r="B14" s="365"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="7"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -10382,10 +10316,10 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="345" t="s">
+      <c r="A15" s="333" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="368">
+      <c r="B15" s="352">
         <f>D15</f>
         <v>200</v>
       </c>
@@ -10424,10 +10358,10 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="346" t="s">
+      <c r="A16" s="334" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="369">
+      <c r="B16" s="353">
         <f>D16</f>
         <v>12</v>
       </c>
@@ -10468,10 +10402,10 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="347" t="s">
+      <c r="A17" s="335" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="370">
+      <c r="B17" s="354">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>40</v>
       </c>
@@ -10509,10 +10443,10 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="347" t="s">
+      <c r="A18" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="371">
+      <c r="B18" s="355">
         <f>ROUNDUP(Charakter!$B$15*0.7,0)</f>
         <v>140</v>
       </c>
@@ -10550,10 +10484,10 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="347" t="s">
+      <c r="A19" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="371">
+      <c r="B19" s="355">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>40</v>
       </c>
@@ -10577,12 +10511,12 @@
         <v>20</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="474" t="s">
+      <c r="L19" s="451" t="s">
         <v>280</v>
       </c>
-      <c r="M19" s="475"/>
-      <c r="N19" s="475"/>
-      <c r="O19" s="476"/>
+      <c r="M19" s="452"/>
+      <c r="N19" s="452"/>
+      <c r="O19" s="453"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -10596,10 +10530,10 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="347" t="s">
+      <c r="A20" s="335" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="371">
+      <c r="B20" s="355">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>40</v>
       </c>
@@ -10648,10 +10582,10 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A21" s="347" t="s">
+      <c r="A21" s="335" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="371">
+      <c r="B21" s="355">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
         <v>50</v>
       </c>
@@ -10685,10 +10619,10 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.5">
-      <c r="A22" s="347" t="s">
+      <c r="A22" s="335" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="371">
+      <c r="B22" s="355">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
         <v>50</v>
       </c>
@@ -10864,7 +10798,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="I27" s="323">
+      <c r="I27" s="5">
         <f>SUM(I2:I26)</f>
         <v>0</v>
       </c>
@@ -11636,19 +11570,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="371" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="484"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="483" t="s">
+      <c r="B1" s="373"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="371" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="484"/>
+      <c r="E1" s="373"/>
       <c r="G1" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="348" t="s">
+      <c r="H1" s="336" t="s">
         <v>57</v>
       </c>
       <c r="I1" s="135" t="s">
@@ -11663,23 +11597,23 @@
       <c r="L1" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="495" t="s">
+      <c r="M1" s="460" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="496"/>
+      <c r="N1" s="461"/>
     </row>
     <row r="2" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="489" t="s">
+      <c r="A2" s="470" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="489" t="s">
+      <c r="B2" s="470" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="344" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="332" t="s">
         <v>261</v>
       </c>
-      <c r="E2" s="344" t="s">
+      <c r="E2" s="332" t="s">
         <v>240</v>
       </c>
       <c r="G2" s="267"/>
@@ -11688,17 +11622,17 @@
       <c r="J2" s="268"/>
       <c r="K2" s="268"/>
       <c r="L2" s="268"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="498"/>
+      <c r="M2" s="462"/>
+      <c r="N2" s="463"/>
     </row>
     <row r="3" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="490"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="349" t="s">
+      <c r="A3" s="471"/>
+      <c r="B3" s="471"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="350">
+      <c r="E3" s="140">
         <v>1</v>
       </c>
       <c r="G3" s="271"/>
@@ -11707,21 +11641,21 @@
       <c r="J3" s="272"/>
       <c r="K3" s="272"/>
       <c r="L3" s="272"/>
-      <c r="M3" s="491"/>
-      <c r="N3" s="492"/>
+      <c r="M3" s="456"/>
+      <c r="N3" s="457"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="337" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="350">
+      <c r="B4" s="140">
         <v>1</v>
       </c>
-      <c r="C4" s="343"/>
-      <c r="D4" s="335" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="338">
+      <c r="E4" s="142">
         <v>2</v>
       </c>
       <c r="G4" s="274"/>
@@ -11730,21 +11664,21 @@
       <c r="J4" s="275"/>
       <c r="K4" s="275"/>
       <c r="L4" s="275"/>
-      <c r="M4" s="493"/>
-      <c r="N4" s="494"/>
+      <c r="M4" s="454"/>
+      <c r="N4" s="455"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A5" s="352" t="s">
+      <c r="A5" s="338" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="338">
+      <c r="B5" s="142">
         <v>2</v>
       </c>
-      <c r="C5" s="343"/>
-      <c r="D5" s="334" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="339">
+      <c r="E5" s="144">
         <v>4</v>
       </c>
       <c r="G5" s="271"/>
@@ -11753,21 +11687,21 @@
       <c r="J5" s="272"/>
       <c r="K5" s="272"/>
       <c r="L5" s="272"/>
-      <c r="M5" s="491"/>
-      <c r="N5" s="492"/>
+      <c r="M5" s="456"/>
+      <c r="N5" s="457"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A6" s="353" t="s">
+      <c r="A6" s="339" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="339">
+      <c r="B6" s="144">
         <v>4</v>
       </c>
-      <c r="C6" s="343"/>
-      <c r="D6" s="335" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="338">
+      <c r="E6" s="142">
         <v>6</v>
       </c>
       <c r="G6" s="274"/>
@@ -11776,21 +11710,21 @@
       <c r="J6" s="275"/>
       <c r="K6" s="275"/>
       <c r="L6" s="275"/>
-      <c r="M6" s="493"/>
-      <c r="N6" s="494"/>
+      <c r="M6" s="454"/>
+      <c r="N6" s="455"/>
     </row>
     <row r="7" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="352" t="s">
+      <c r="A7" s="338" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="338">
+      <c r="B7" s="142">
         <v>6</v>
       </c>
-      <c r="C7" s="343"/>
-      <c r="D7" s="342" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="354">
+      <c r="E7" s="154">
         <v>8</v>
       </c>
       <c r="G7" s="271"/>
@@ -11799,93 +11733,93 @@
       <c r="J7" s="272"/>
       <c r="K7" s="272"/>
       <c r="L7" s="272"/>
-      <c r="M7" s="491"/>
-      <c r="N7" s="492"/>
+      <c r="M7" s="456"/>
+      <c r="N7" s="457"/>
     </row>
     <row r="8" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="353" t="s">
+      <c r="A8" s="339" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="339">
+      <c r="B8" s="144">
         <v>8</v>
       </c>
-      <c r="C8" s="343"/>
-      <c r="D8" s="343"/>
-      <c r="E8" s="343"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="G8" s="274"/>
       <c r="H8" s="275"/>
       <c r="I8" s="275"/>
       <c r="J8" s="275"/>
       <c r="K8" s="275"/>
       <c r="L8" s="275"/>
-      <c r="M8" s="493"/>
-      <c r="N8" s="494"/>
+      <c r="M8" s="454"/>
+      <c r="N8" s="455"/>
     </row>
     <row r="9" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="340" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="340">
+      <c r="B9" s="147">
         <v>10</v>
       </c>
-      <c r="C9" s="343"/>
-      <c r="D9" s="481" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="390" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="482"/>
+      <c r="E9" s="392"/>
       <c r="G9" s="271"/>
       <c r="H9" s="272"/>
       <c r="I9" s="272"/>
       <c r="J9" s="272"/>
       <c r="K9" s="272"/>
       <c r="L9" s="272"/>
-      <c r="M9" s="491"/>
-      <c r="N9" s="492"/>
+      <c r="M9" s="456"/>
+      <c r="N9" s="457"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="356"/>
-      <c r="B10" s="357"/>
-      <c r="C10" s="343"/>
-      <c r="D10" s="477" t="s">
+      <c r="A10" s="341"/>
+      <c r="B10" s="342"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="464" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="478"/>
+      <c r="E10" s="465"/>
       <c r="G10" s="274"/>
       <c r="H10" s="275"/>
       <c r="I10" s="275"/>
       <c r="J10" s="275"/>
       <c r="K10" s="275"/>
       <c r="L10" s="275"/>
-      <c r="M10" s="493"/>
-      <c r="N10" s="494"/>
+      <c r="M10" s="454"/>
+      <c r="N10" s="455"/>
     </row>
     <row r="11" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="487" t="s">
+      <c r="A11" s="468" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="485" t="s">
+      <c r="B11" s="404" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="343"/>
-      <c r="D11" s="479"/>
-      <c r="E11" s="480"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="466"/>
+      <c r="E11" s="467"/>
       <c r="G11" s="271"/>
       <c r="H11" s="272"/>
       <c r="I11" s="272"/>
       <c r="J11" s="272"/>
       <c r="K11" s="272"/>
       <c r="L11" s="272"/>
-      <c r="M11" s="491"/>
-      <c r="N11" s="492"/>
+      <c r="M11" s="456"/>
+      <c r="N11" s="457"/>
     </row>
     <row r="12" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="488"/>
-      <c r="B12" s="486"/>
-      <c r="C12" s="343"/>
-      <c r="D12" s="337" t="s">
+      <c r="A12" s="469"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="337" t="s">
+      <c r="E12" s="70" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="274"/>
@@ -11894,21 +11828,21 @@
       <c r="J12" s="275"/>
       <c r="K12" s="275"/>
       <c r="L12" s="275"/>
-      <c r="M12" s="493"/>
-      <c r="N12" s="494"/>
+      <c r="M12" s="454"/>
+      <c r="N12" s="455"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="343" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="359">
+      <c r="B13" s="344">
         <v>0.5</v>
       </c>
-      <c r="C13" s="343"/>
-      <c r="D13" s="360">
+      <c r="C13" s="69"/>
+      <c r="D13" s="345">
         <v>6</v>
       </c>
-      <c r="E13" s="359">
+      <c r="E13" s="344">
         <f>D13*2</f>
         <v>12</v>
       </c>
@@ -11918,21 +11852,21 @@
       <c r="J13" s="272"/>
       <c r="K13" s="272"/>
       <c r="L13" s="272"/>
-      <c r="M13" s="491"/>
-      <c r="N13" s="492"/>
+      <c r="M13" s="456"/>
+      <c r="N13" s="457"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A14" s="334" t="s">
+      <c r="A14" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="339">
+      <c r="B14" s="144">
         <v>1</v>
       </c>
-      <c r="C14" s="343"/>
-      <c r="D14" s="334">
+      <c r="C14" s="69"/>
+      <c r="D14" s="60">
         <v>7</v>
       </c>
-      <c r="E14" s="339">
+      <c r="E14" s="144">
         <f t="shared" ref="E14:E27" si="0">D14*2</f>
         <v>14</v>
       </c>
@@ -11942,21 +11876,21 @@
       <c r="J14" s="275"/>
       <c r="K14" s="275"/>
       <c r="L14" s="275"/>
-      <c r="M14" s="493"/>
-      <c r="N14" s="494"/>
+      <c r="M14" s="454"/>
+      <c r="N14" s="455"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A15" s="352" t="s">
+      <c r="A15" s="338" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="338">
+      <c r="B15" s="142">
         <v>2</v>
       </c>
-      <c r="C15" s="343"/>
-      <c r="D15" s="335">
+      <c r="C15" s="69"/>
+      <c r="D15" s="61">
         <v>8</v>
       </c>
-      <c r="E15" s="338">
+      <c r="E15" s="142">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -11966,21 +11900,21 @@
       <c r="J15" s="272"/>
       <c r="K15" s="272"/>
       <c r="L15" s="272"/>
-      <c r="M15" s="491"/>
-      <c r="N15" s="492"/>
+      <c r="M15" s="456"/>
+      <c r="N15" s="457"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A16" s="334" t="s">
+      <c r="A16" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="339">
+      <c r="B16" s="144">
         <v>4</v>
       </c>
-      <c r="C16" s="343"/>
-      <c r="D16" s="334">
+      <c r="C16" s="69"/>
+      <c r="D16" s="60">
         <v>9</v>
       </c>
-      <c r="E16" s="339">
+      <c r="E16" s="144">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -11990,21 +11924,21 @@
       <c r="J16" s="275"/>
       <c r="K16" s="275"/>
       <c r="L16" s="275"/>
-      <c r="M16" s="493"/>
-      <c r="N16" s="494"/>
+      <c r="M16" s="454"/>
+      <c r="N16" s="455"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A17" s="352" t="s">
+      <c r="A17" s="338" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="338">
+      <c r="B17" s="142">
         <v>6</v>
       </c>
-      <c r="C17" s="343"/>
-      <c r="D17" s="335">
+      <c r="C17" s="69"/>
+      <c r="D17" s="61">
         <v>10</v>
       </c>
-      <c r="E17" s="338">
+      <c r="E17" s="142">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -12014,21 +11948,21 @@
       <c r="J17" s="272"/>
       <c r="K17" s="272"/>
       <c r="L17" s="272"/>
-      <c r="M17" s="491"/>
-      <c r="N17" s="492"/>
+      <c r="M17" s="456"/>
+      <c r="N17" s="457"/>
     </row>
     <row r="18" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="342" t="s">
+      <c r="A18" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="354">
+      <c r="B18" s="154">
         <v>8</v>
       </c>
-      <c r="C18" s="343"/>
-      <c r="D18" s="334">
+      <c r="C18" s="69"/>
+      <c r="D18" s="60">
         <v>11</v>
       </c>
-      <c r="E18" s="339">
+      <c r="E18" s="144">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -12038,18 +11972,18 @@
       <c r="J18" s="275"/>
       <c r="K18" s="275"/>
       <c r="L18" s="275"/>
-      <c r="M18" s="493"/>
-      <c r="N18" s="494"/>
+      <c r="M18" s="454"/>
+      <c r="N18" s="455"/>
       <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="323"/>
-      <c r="B19" s="323"/>
-      <c r="C19" s="343"/>
-      <c r="D19" s="335">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="61">
         <v>12</v>
       </c>
-      <c r="E19" s="338">
+      <c r="E19" s="142">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -12059,21 +11993,21 @@
       <c r="J19" s="272"/>
       <c r="K19" s="272"/>
       <c r="L19" s="272"/>
-      <c r="M19" s="491"/>
-      <c r="N19" s="492"/>
+      <c r="M19" s="456"/>
+      <c r="N19" s="457"/>
     </row>
     <row r="20" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="337" t="s">
+      <c r="A20" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="361" t="s">
+      <c r="B20" s="346" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="343"/>
-      <c r="D20" s="334">
+      <c r="C20" s="69"/>
+      <c r="D20" s="60">
         <v>13</v>
       </c>
-      <c r="E20" s="339">
+      <c r="E20" s="144">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -12083,21 +12017,21 @@
       <c r="J20" s="275"/>
       <c r="K20" s="275"/>
       <c r="L20" s="275"/>
-      <c r="M20" s="493"/>
-      <c r="N20" s="494"/>
+      <c r="M20" s="454"/>
+      <c r="N20" s="455"/>
     </row>
     <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="362">
+      <c r="A21" s="347">
         <v>2</v>
       </c>
-      <c r="B21" s="363">
+      <c r="B21" s="348">
         <v>1</v>
       </c>
-      <c r="C21" s="343"/>
-      <c r="D21" s="335">
+      <c r="C21" s="69"/>
+      <c r="D21" s="61">
         <v>14</v>
       </c>
-      <c r="E21" s="338">
+      <c r="E21" s="142">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -12107,17 +12041,17 @@
       <c r="J21" s="272"/>
       <c r="K21" s="272"/>
       <c r="L21" s="272"/>
-      <c r="M21" s="491"/>
-      <c r="N21" s="492"/>
+      <c r="M21" s="456"/>
+      <c r="N21" s="457"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A22" s="364"/>
-      <c r="B22" s="343"/>
-      <c r="C22" s="343"/>
-      <c r="D22" s="334">
+      <c r="A22" s="349"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="60">
         <v>15</v>
       </c>
-      <c r="E22" s="339">
+      <c r="E22" s="144">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -12127,17 +12061,17 @@
       <c r="J22" s="275"/>
       <c r="K22" s="275"/>
       <c r="L22" s="275"/>
-      <c r="M22" s="493"/>
-      <c r="N22" s="494"/>
+      <c r="M22" s="454"/>
+      <c r="N22" s="455"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A23" s="364"/>
-      <c r="B23" s="343"/>
-      <c r="C23" s="343"/>
-      <c r="D23" s="335">
+      <c r="A23" s="349"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="61">
         <v>16</v>
       </c>
-      <c r="E23" s="338">
+      <c r="E23" s="142">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -12147,17 +12081,17 @@
       <c r="J23" s="272"/>
       <c r="K23" s="272"/>
       <c r="L23" s="272"/>
-      <c r="M23" s="491"/>
-      <c r="N23" s="492"/>
+      <c r="M23" s="456"/>
+      <c r="N23" s="457"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A24" s="364"/>
-      <c r="B24" s="343"/>
-      <c r="C24" s="343"/>
-      <c r="D24" s="334">
+      <c r="A24" s="349"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="60">
         <v>17</v>
       </c>
-      <c r="E24" s="339">
+      <c r="E24" s="144">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -12167,17 +12101,17 @@
       <c r="J24" s="275"/>
       <c r="K24" s="275"/>
       <c r="L24" s="275"/>
-      <c r="M24" s="493"/>
-      <c r="N24" s="494"/>
+      <c r="M24" s="454"/>
+      <c r="N24" s="455"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A25" s="364"/>
-      <c r="B25" s="343"/>
-      <c r="C25" s="343"/>
-      <c r="D25" s="335">
+      <c r="A25" s="349"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="61">
         <v>18</v>
       </c>
-      <c r="E25" s="338">
+      <c r="E25" s="142">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -12187,17 +12121,17 @@
       <c r="J25" s="272"/>
       <c r="K25" s="272"/>
       <c r="L25" s="272"/>
-      <c r="M25" s="491"/>
-      <c r="N25" s="492"/>
+      <c r="M25" s="456"/>
+      <c r="N25" s="457"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="A26" s="364"/>
-      <c r="B26" s="343"/>
-      <c r="C26" s="343"/>
-      <c r="D26" s="334">
+      <c r="A26" s="349"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="60">
         <v>19</v>
       </c>
-      <c r="E26" s="339">
+      <c r="E26" s="144">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -12207,17 +12141,17 @@
       <c r="J26" s="275"/>
       <c r="K26" s="275"/>
       <c r="L26" s="275"/>
-      <c r="M26" s="493"/>
-      <c r="N26" s="494"/>
+      <c r="M26" s="454"/>
+      <c r="N26" s="455"/>
     </row>
     <row r="27" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="343"/>
-      <c r="B27" s="343"/>
-      <c r="C27" s="343"/>
-      <c r="D27" s="336">
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="62">
         <v>20</v>
       </c>
-      <c r="E27" s="340">
+      <c r="E27" s="147">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -12227,8 +12161,8 @@
       <c r="J27" s="278"/>
       <c r="K27" s="278"/>
       <c r="L27" s="278"/>
-      <c r="M27" s="499"/>
-      <c r="N27" s="500"/>
+      <c r="M27" s="458"/>
+      <c r="N27" s="459"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A28" s="63"/>
@@ -12238,23 +12172,14 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M1:N1"/>
@@ -12265,14 +12190,23 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M23:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DACCB0-5401-4440-AD44-870AA1756E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE175B-E148-4829-ABDA-9A3A8032CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -2252,7 +2252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="481">
+  <cellXfs count="476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3345,89 +3345,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3435,13 +3441,129 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3468,18 +3590,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3504,135 +3614,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3681,6 +3662,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3689,14 +3678,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3705,32 +3702,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4692,44 +4685,44 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="3.26953125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.1328125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="2.54296875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="3.1328125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="2.86328125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.26953125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="0.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="3.21875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="2.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.21875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="0.77734375" style="6" customWidth="1"/>
     <col min="16" max="16" width="3" style="6" customWidth="1"/>
-    <col min="17" max="17" width="3.86328125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.54296875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="5.1328125" style="27" customWidth="1"/>
-    <col min="20" max="20" width="6.1328125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="3.86328125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.26953125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="3.88671875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="3.88671875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="15.77734375" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.21875" style="6" customWidth="1"/>
     <col min="25" max="25" width="6" style="6" customWidth="1"/>
-    <col min="26" max="26" width="3.26953125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="14.26953125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="8.54296875" style="6" customWidth="1"/>
-    <col min="29" max="29" width="16.7265625" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="11.26953125" style="6"/>
+    <col min="26" max="26" width="3.21875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="14.21875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.5546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="16.77734375" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="11.21875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="96" t="s">
         <v>246</v>
       </c>
@@ -4751,13 +4744,13 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="420" t="s">
+      <c r="J1" s="404" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
-      <c r="M1" s="421"/>
-      <c r="N1" s="422"/>
+      <c r="K1" s="405"/>
+      <c r="L1" s="405"/>
+      <c r="M1" s="405"/>
+      <c r="N1" s="406"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -4772,22 +4765,22 @@
       <c r="V1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="381" t="s">
+      <c r="W1" s="379" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="383"/>
+      <c r="X1" s="380"/>
       <c r="Y1" s="3" t="s">
         <v>180</v>
       </c>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="381" t="s">
+      <c r="AA1" s="379" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="383"/>
+      <c r="AB1" s="380"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="97" t="s">
         <v>217</v>
       </c>
@@ -4799,13 +4792,13 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="391">
+      <c r="J2" s="428">
         <v>100</v>
       </c>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="393"/>
+      <c r="K2" s="429"/>
+      <c r="L2" s="429"/>
+      <c r="M2" s="429"/>
+      <c r="N2" s="430"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="5"/>
@@ -4820,23 +4813,23 @@
         <v>0</v>
       </c>
       <c r="U2" s="117"/>
-      <c r="V2" s="384" t="s">
+      <c r="V2" s="421" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="385"/>
-      <c r="X2" s="385"/>
-      <c r="Y2" s="386"/>
+      <c r="W2" s="422"/>
+      <c r="X2" s="422"/>
+      <c r="Y2" s="423"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="440" t="str">
+      <c r="AA2" s="387" t="str">
         <f>IF(Charakter!L2 = 0, "", Charakter!L2)</f>
         <v/>
       </c>
-      <c r="AB2" s="441"/>
+      <c r="AB2" s="388"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="99" t="s">
         <v>218</v>
       </c>
@@ -4881,16 +4874,16 @@
         <v>10</v>
       </c>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="446" t="str">
+      <c r="AA3" s="391" t="str">
         <f>IF(Charakter!L3 = 0, "", Charakter!L3)</f>
         <v/>
       </c>
-      <c r="AB3" s="447"/>
+      <c r="AB3" s="392"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
         <v>219</v>
       </c>
@@ -4932,16 +4925,16 @@
         <v>10</v>
       </c>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="438" t="str">
+      <c r="AA4" s="385" t="str">
         <f>IF(Charakter!L4 = 0, "", Charakter!L4)</f>
         <v/>
       </c>
-      <c r="AB4" s="439"/>
+      <c r="AB4" s="386"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="103" t="s">
         <v>13</v>
       </c>
@@ -4984,16 +4977,16 @@
         <v>10</v>
       </c>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="446" t="str">
+      <c r="AA5" s="391" t="str">
         <f>IF(Charakter!L5 = 0, "", Charakter!L5)</f>
         <v/>
       </c>
-      <c r="AB5" s="447"/>
+      <c r="AB5" s="392"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>15</v>
       </c>
@@ -5038,26 +5031,26 @@
         <v>10</v>
       </c>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="438" t="str">
+      <c r="AA6" s="385" t="str">
         <f>IF(Charakter!L6 = 0, "", Charakter!L6)</f>
         <v/>
       </c>
-      <c r="AB6" s="439"/>
+      <c r="AB6" s="386"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
-      <c r="B7" s="426" t="s">
+      <c r="B7" s="407" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="429"/>
-      <c r="D7" s="426" t="s">
+      <c r="C7" s="410"/>
+      <c r="D7" s="407" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="427"/>
-      <c r="F7" s="428"/>
+      <c r="E7" s="408"/>
+      <c r="F7" s="409"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5094,25 +5087,25 @@
         <v>10</v>
       </c>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="446" t="str">
+      <c r="AA7" s="391" t="str">
         <f>IF(Charakter!L7 = 0, "", Charakter!L7)</f>
         <v/>
       </c>
-      <c r="AB7" s="447"/>
+      <c r="AB7" s="392"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="236" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="430"/>
-      <c r="C8" s="431"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="434"/>
-      <c r="F8" s="435"/>
+      <c r="B8" s="411"/>
+      <c r="C8" s="412"/>
+      <c r="D8" s="411"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="416"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5149,25 +5142,25 @@
         <v>10</v>
       </c>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="438" t="str">
+      <c r="AA8" s="385" t="str">
         <f>IF(Charakter!L8 = 0, "", Charakter!L8)</f>
         <v/>
       </c>
-      <c r="AB8" s="439"/>
+      <c r="AB8" s="386"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="237" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="432"/>
-      <c r="C9" s="433"/>
-      <c r="D9" s="432"/>
-      <c r="E9" s="436"/>
-      <c r="F9" s="437"/>
+      <c r="B9" s="413"/>
+      <c r="C9" s="414"/>
+      <c r="D9" s="413"/>
+      <c r="E9" s="417"/>
+      <c r="F9" s="418"/>
       <c r="G9" s="7"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
@@ -5204,17 +5197,17 @@
         <v>10</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="448" t="str">
+      <c r="AA9" s="393" t="str">
         <f>IF(Charakter!L9 = 0, "", Charakter!L9)</f>
         <v/>
       </c>
-      <c r="AB9" s="449"/>
+      <c r="AB9" s="394"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="108"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5256,14 +5249,14 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="112" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="379" t="s">
+      <c r="C11" s="372" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="114" t="s">
@@ -5295,30 +5288,30 @@
         <v>0</v>
       </c>
       <c r="U11" s="117"/>
-      <c r="V11" s="387" t="s">
+      <c r="V11" s="424" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="388"/>
-      <c r="X11" s="388"/>
-      <c r="Y11" s="389"/>
+      <c r="W11" s="425"/>
+      <c r="X11" s="425"/>
+      <c r="Y11" s="426"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="381" t="s">
+      <c r="AA11" s="379" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="383"/>
+      <c r="AB11" s="380"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="378">
+      <c r="C12" s="119">
         <f>VLOOKUP(((B12&amp;"_"&amp;E12)&amp;"_"&amp;D12),DatenExelintern!$AI$2:$AK$278,3,FALSE)</f>
         <v>0</v>
       </c>
@@ -5365,24 +5358,24 @@
         <v>10</v>
       </c>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="440" t="str">
+      <c r="AA12" s="387" t="str">
         <f>IF(Charakter!L13 = 0, "", Charakter!L13)</f>
         <v/>
       </c>
-      <c r="AB12" s="441"/>
+      <c r="AB12" s="388"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="370">
+      <c r="C13" s="121">
         <f>VLOOKUP(((B13&amp;"_"&amp;E13)&amp;"_"&amp;D13),DatenExelintern!$AI$2:$AK$278,3,FALSE)</f>
         <v>0</v>
       </c>
@@ -5420,24 +5413,24 @@
         <v>10</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="442" t="str">
+      <c r="AA13" s="381" t="str">
         <f>IF(Charakter!L14 = 0, "", Charakter!L14)</f>
         <v/>
       </c>
-      <c r="AB13" s="443"/>
+      <c r="AB13" s="382"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:32" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="370">
+      <c r="C14" s="121">
         <f>VLOOKUP(((B14&amp;"_"&amp;E14)&amp;"_"&amp;D14),DatenExelintern!$AI$2:$AK$278,3,FALSE)</f>
         <v>0</v>
       </c>
@@ -5459,11 +5452,11 @@
       <c r="O14" s="7"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="394" t="s">
+      <c r="R14" s="395" t="s">
         <v>253</v>
       </c>
-      <c r="S14" s="395"/>
-      <c r="T14" s="396"/>
+      <c r="S14" s="396"/>
+      <c r="T14" s="431"/>
       <c r="U14" s="26"/>
       <c r="V14" s="61" t="s">
         <v>159</v>
@@ -5479,24 +5472,24 @@
         <v>10</v>
       </c>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="444" t="str">
+      <c r="AA14" s="389" t="str">
         <f>IF(Charakter!L15 = 0, "", Charakter!L15)</f>
         <v/>
       </c>
-      <c r="AB14" s="445"/>
+      <c r="AB14" s="390"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>192</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="370">
+      <c r="C15" s="121">
         <f>VLOOKUP(((B15&amp;"_"&amp;E15)&amp;"_"&amp;D15),DatenExelintern!$AI$2:$AK$278,3,FALSE)</f>
         <v>0</v>
       </c>
@@ -5520,33 +5513,33 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="397"/>
       <c r="S15" s="398"/>
-      <c r="T15" s="399"/>
+      <c r="T15" s="432"/>
       <c r="U15" s="26"/>
-      <c r="V15" s="381" t="s">
+      <c r="V15" s="379" t="s">
         <v>248</v>
       </c>
-      <c r="W15" s="382"/>
-      <c r="X15" s="382"/>
-      <c r="Y15" s="383"/>
+      <c r="W15" s="420"/>
+      <c r="X15" s="420"/>
+      <c r="Y15" s="380"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="442" t="str">
+      <c r="AA15" s="381" t="str">
         <f>IF(Charakter!L16 = 0, "", Charakter!L16)</f>
         <v/>
       </c>
-      <c r="AB15" s="443"/>
+      <c r="AB15" s="382"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="371">
+      <c r="C16" s="125">
         <f>VLOOKUP(((B16&amp;"_"&amp;E16)&amp;"_"&amp;D16),DatenExelintern!$AI$2:$AK$278,3,FALSE)</f>
         <v>0</v>
       </c>
@@ -5568,11 +5561,11 @@
       <c r="O16" s="7"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="403">
-        <v>0</v>
-      </c>
-      <c r="S16" s="404"/>
-      <c r="T16" s="405"/>
+      <c r="R16" s="436">
+        <v>0</v>
+      </c>
+      <c r="S16" s="437"/>
+      <c r="T16" s="438"/>
       <c r="U16" s="26"/>
       <c r="V16" s="58" t="s">
         <v>206</v>
@@ -5588,17 +5581,17 @@
         <v>10</v>
       </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="450" t="str">
+      <c r="AA16" s="383" t="str">
         <f>IF(Charakter!L17 = 0, "", Charakter!L17)</f>
         <v/>
       </c>
-      <c r="AB16" s="451"/>
+      <c r="AB16" s="384"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="128" t="s">
         <v>26</v>
       </c>
@@ -5642,7 +5635,7 @@
       <c r="AE17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
@@ -5660,11 +5653,11 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="400" t="s">
+      <c r="R18" s="433" t="s">
         <v>252</v>
       </c>
-      <c r="S18" s="401"/>
-      <c r="T18" s="402"/>
+      <c r="S18" s="434"/>
+      <c r="T18" s="435"/>
       <c r="U18" s="26"/>
       <c r="V18" s="60" t="s">
         <v>208</v>
@@ -5678,27 +5671,27 @@
         <v>10</v>
       </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="381" t="s">
+      <c r="AA18" s="379" t="s">
         <v>21</v>
       </c>
-      <c r="AB18" s="383"/>
+      <c r="AB18" s="380"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.75">
-      <c r="A19" s="394" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="395" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="395"/>
-      <c r="C19" s="415" t="s">
+      <c r="B19" s="396"/>
+      <c r="C19" s="399" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="417" t="s">
+      <c r="D19" s="401" t="s">
         <v>324</v>
       </c>
-      <c r="E19" s="419"/>
+      <c r="E19" s="403"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5711,9 +5704,9 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="423"/>
-      <c r="S19" s="424"/>
-      <c r="T19" s="425"/>
+      <c r="R19" s="376"/>
+      <c r="S19" s="377"/>
+      <c r="T19" s="378"/>
       <c r="U19" s="26"/>
       <c r="V19" s="59" t="s">
         <v>35</v>
@@ -5741,12 +5734,12 @@
       <c r="AE19" s="7"/>
       <c r="AF19" s="8"/>
     </row>
-    <row r="20" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="397"/>
       <c r="B20" s="398"/>
-      <c r="C20" s="416"/>
-      <c r="D20" s="418"/>
-      <c r="E20" s="419"/>
+      <c r="C20" s="400"/>
+      <c r="D20" s="402"/>
+      <c r="E20" s="403"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -5759,9 +5752,9 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="406"/>
-      <c r="S20" s="407"/>
-      <c r="T20" s="408"/>
+      <c r="R20" s="373"/>
+      <c r="S20" s="374"/>
+      <c r="T20" s="375"/>
       <c r="U20" s="26"/>
       <c r="V20" s="60" t="s">
         <v>209</v>
@@ -5789,7 +5782,7 @@
       <c r="AE20" s="7"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="21" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="163" t="s">
         <v>199</v>
       </c>
@@ -5817,9 +5810,9 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="412"/>
-      <c r="S21" s="413"/>
-      <c r="T21" s="414"/>
+      <c r="R21" s="442"/>
+      <c r="S21" s="443"/>
+      <c r="T21" s="444"/>
       <c r="U21" s="26"/>
       <c r="V21" s="133" t="s">
         <v>210</v>
@@ -5847,7 +5840,7 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="222" t="s">
         <v>40</v>
       </c>
@@ -5878,16 +5871,16 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="406"/>
-      <c r="S22" s="407"/>
-      <c r="T22" s="408"/>
+      <c r="R22" s="373"/>
+      <c r="S22" s="374"/>
+      <c r="T22" s="375"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="381" t="s">
+      <c r="V22" s="379" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="382"/>
-      <c r="X22" s="382"/>
-      <c r="Y22" s="383"/>
+      <c r="W22" s="420"/>
+      <c r="X22" s="420"/>
+      <c r="Y22" s="380"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="144" t="s">
         <v>30</v>
@@ -5901,7 +5894,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="8"/>
     </row>
-    <row r="23" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="165" t="s">
         <v>42</v>
       </c>
@@ -5932,9 +5925,9 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="423"/>
-      <c r="S23" s="424"/>
-      <c r="T23" s="425"/>
+      <c r="R23" s="376"/>
+      <c r="S23" s="377"/>
+      <c r="T23" s="378"/>
       <c r="U23" s="26"/>
       <c r="V23" s="58" t="s">
         <v>211</v>
@@ -5960,7 +5953,7 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
     </row>
-    <row r="24" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="167" t="s">
         <v>43</v>
       </c>
@@ -5991,9 +5984,9 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="406"/>
-      <c r="S24" s="407"/>
-      <c r="T24" s="408"/>
+      <c r="R24" s="373"/>
+      <c r="S24" s="374"/>
+      <c r="T24" s="375"/>
       <c r="U24" s="26"/>
       <c r="V24" s="133" t="s">
         <v>212</v>
@@ -6014,7 +6007,7 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="167" t="s">
         <v>90</v>
       </c>
@@ -6048,12 +6041,12 @@
       <c r="R25" s="50"/>
       <c r="T25" s="23"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="381" t="s">
+      <c r="V25" s="379" t="s">
         <v>60</v>
       </c>
-      <c r="W25" s="382"/>
-      <c r="X25" s="382"/>
-      <c r="Y25" s="383"/>
+      <c r="W25" s="420"/>
+      <c r="X25" s="420"/>
+      <c r="Y25" s="380"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
@@ -6062,7 +6055,7 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="8"/>
     </row>
-    <row r="26" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="167" t="s">
         <v>91</v>
       </c>
@@ -6093,11 +6086,11 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="400" t="s">
+      <c r="R26" s="433" t="s">
         <v>122</v>
       </c>
-      <c r="S26" s="401"/>
-      <c r="T26" s="402"/>
+      <c r="S26" s="434"/>
+      <c r="T26" s="435"/>
       <c r="U26" s="26"/>
       <c r="V26" s="58" t="s">
         <v>44</v>
@@ -6116,7 +6109,7 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="8"/>
     </row>
-    <row r="27" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="167" t="s">
         <v>92</v>
       </c>
@@ -6147,9 +6140,9 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="409"/>
-      <c r="S27" s="410"/>
-      <c r="T27" s="411"/>
+      <c r="R27" s="439"/>
+      <c r="S27" s="440"/>
+      <c r="T27" s="441"/>
       <c r="U27" s="26"/>
       <c r="V27" s="59" t="s">
         <v>45</v>
@@ -6168,7 +6161,7 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="169" t="s">
         <v>93</v>
       </c>
@@ -6191,11 +6184,11 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="390"/>
-      <c r="K28" s="390"/>
-      <c r="L28" s="390"/>
-      <c r="M28" s="390"/>
-      <c r="N28" s="390"/>
+      <c r="J28" s="427"/>
+      <c r="K28" s="427"/>
+      <c r="L28" s="427"/>
+      <c r="M28" s="427"/>
+      <c r="N28" s="427"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -6222,7 +6215,7 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="8"/>
     </row>
-    <row r="29" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -6232,11 +6225,11 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="380"/>
-      <c r="K29" s="380"/>
-      <c r="L29" s="380"/>
-      <c r="M29" s="380"/>
-      <c r="N29" s="380"/>
+      <c r="J29" s="419"/>
+      <c r="K29" s="419"/>
+      <c r="L29" s="419"/>
+      <c r="M29" s="419"/>
+      <c r="N29" s="419"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -6244,19 +6237,19 @@
       <c r="S29" s="7"/>
       <c r="T29" s="23"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="381" t="s">
+      <c r="V29" s="379" t="s">
         <v>261</v>
       </c>
-      <c r="W29" s="382"/>
-      <c r="X29" s="382"/>
-      <c r="Y29" s="383"/>
+      <c r="W29" s="420"/>
+      <c r="X29" s="420"/>
+      <c r="Y29" s="380"/>
       <c r="Z29" s="5"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -6295,7 +6288,7 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="8"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -6332,7 +6325,7 @@
       <c r="AE31" s="7"/>
       <c r="AF31" s="8"/>
     </row>
-    <row r="32" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="32" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -6371,7 +6364,7 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="8"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -6401,7 +6394,7 @@
       <c r="AE33" s="7"/>
       <c r="AF33" s="8"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
@@ -6431,7 +6424,7 @@
       <c r="AE34" s="7"/>
       <c r="AF34" s="8"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E35" s="7"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -6461,7 +6454,7 @@
       <c r="AE35" s="7"/>
       <c r="AF35" s="8"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E36" s="7"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -6487,7 +6480,7 @@
       <c r="AE36" s="7"/>
       <c r="AF36" s="8"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -6501,7 +6494,7 @@
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
@@ -6509,7 +6502,7 @@
       <c r="AE38" s="8"/>
       <c r="AF38" s="8"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
@@ -6517,7 +6510,7 @@
       <c r="AE39" s="8"/>
       <c r="AF39" s="8"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
@@ -6525,7 +6518,7 @@
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
@@ -6533,7 +6526,7 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
@@ -6541,7 +6534,7 @@
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
@@ -6549,7 +6542,7 @@
       <c r="AE43" s="8"/>
       <c r="AF43" s="8"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -6557,7 +6550,7 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="8"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
@@ -6565,7 +6558,7 @@
       <c r="AE45" s="8"/>
       <c r="AF45" s="8"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
@@ -6573,7 +6566,7 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
@@ -6581,7 +6574,7 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
@@ -6589,7 +6582,7 @@
       <c r="AE48" s="8"/>
       <c r="AF48" s="8"/>
     </row>
-    <row r="49" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="49" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
@@ -6597,7 +6590,7 @@
       <c r="AE49" s="8"/>
       <c r="AF49" s="8"/>
     </row>
-    <row r="50" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="50" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
@@ -6605,7 +6598,7 @@
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
     </row>
-    <row r="51" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="51" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
@@ -6613,7 +6606,7 @@
       <c r="AE51" s="8"/>
       <c r="AF51" s="8"/>
     </row>
-    <row r="52" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="52" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -6621,7 +6614,7 @@
       <c r="AE52" s="8"/>
       <c r="AF52" s="8"/>
     </row>
-    <row r="53" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="53" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
@@ -6629,7 +6622,7 @@
       <c r="AE53" s="8"/>
       <c r="AF53" s="8"/>
     </row>
-    <row r="54" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="54" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
@@ -6637,7 +6630,7 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
     </row>
-    <row r="55" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="55" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
@@ -6645,7 +6638,7 @@
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
     </row>
-    <row r="56" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="56" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
@@ -6653,7 +6646,7 @@
       <c r="AE56" s="8"/>
       <c r="AF56" s="8"/>
     </row>
-    <row r="57" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="57" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
@@ -6661,7 +6654,7 @@
       <c r="AE57" s="8"/>
       <c r="AF57" s="8"/>
     </row>
-    <row r="58" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="58" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
@@ -6669,7 +6662,7 @@
       <c r="AE58" s="8"/>
       <c r="AF58" s="8"/>
     </row>
-    <row r="59" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="59" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
@@ -6677,7 +6670,7 @@
       <c r="AE59" s="8"/>
       <c r="AF59" s="8"/>
     </row>
-    <row r="60" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="60" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -6685,7 +6678,7 @@
       <c r="AE60" s="8"/>
       <c r="AF60" s="8"/>
     </row>
-    <row r="61" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="61" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
@@ -6693,7 +6686,7 @@
       <c r="AE61" s="8"/>
       <c r="AF61" s="8"/>
     </row>
-    <row r="62" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="62" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
@@ -6701,7 +6694,7 @@
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
     </row>
-    <row r="63" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="63" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
@@ -6709,7 +6702,7 @@
       <c r="AE63" s="8"/>
       <c r="AF63" s="8"/>
     </row>
-    <row r="64" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="64" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
@@ -6717,7 +6710,7 @@
       <c r="AE64" s="8"/>
       <c r="AF64" s="8"/>
     </row>
-    <row r="65" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="65" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
@@ -6725,7 +6718,7 @@
       <c r="AE65" s="8"/>
       <c r="AF65" s="8"/>
     </row>
-    <row r="66" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="66" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
@@ -6733,7 +6726,7 @@
       <c r="AE66" s="8"/>
       <c r="AF66" s="8"/>
     </row>
-    <row r="67" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="67" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
@@ -6741,7 +6734,7 @@
       <c r="AE67" s="8"/>
       <c r="AF67" s="8"/>
     </row>
-    <row r="68" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="68" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -6749,7 +6742,7 @@
       <c r="AE68" s="8"/>
       <c r="AF68" s="8"/>
     </row>
-    <row r="69" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="69" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA69" s="8"/>
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
@@ -6757,7 +6750,7 @@
       <c r="AE69" s="8"/>
       <c r="AF69" s="8"/>
     </row>
-    <row r="70" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="70" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA70" s="8"/>
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
@@ -6765,7 +6758,7 @@
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
     </row>
-    <row r="71" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="71" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA71" s="8"/>
       <c r="AB71" s="8"/>
       <c r="AC71" s="8"/>
@@ -6773,7 +6766,7 @@
       <c r="AE71" s="8"/>
       <c r="AF71" s="8"/>
     </row>
-    <row r="72" spans="27:32" x14ac:dyDescent="0.75">
+    <row r="72" spans="27:32" x14ac:dyDescent="0.3">
       <c r="AA72" s="8"/>
       <c r="AB72" s="8"/>
       <c r="AC72" s="8"/>
@@ -6784,38 +6777,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="48">
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="V25:Y25"/>
     <mergeCell ref="V29:Y29"/>
@@ -6832,6 +6793,38 @@
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="R21:T21"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="R20:T20"/>
   </mergeCells>
   <conditionalFormatting sqref="A21">
     <cfRule type="expression" priority="10">
@@ -7160,26 +7153,26 @@
       <selection activeCell="H10" activeCellId="2" sqref="H4:H5 H7:H8 H10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="7"/>
-    <col min="3" max="3" width="22.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="7"/>
-    <col min="5" max="5" width="8.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.40625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.40625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.7265625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="18.40625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" style="7"/>
-    <col min="14" max="14" width="21.1328125" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="11.26953125" style="7"/>
+    <col min="1" max="1" width="23.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="7"/>
+    <col min="3" max="3" width="22.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="7"/>
+    <col min="5" max="5" width="8.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" style="7"/>
+    <col min="14" max="14" width="21.109375" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="11.21875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.25" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="238" t="s">
         <v>46</v>
       </c>
@@ -7207,15 +7200,15 @@
         <v>147</v>
       </c>
       <c r="K1" s="22"/>
-      <c r="L1" s="456" t="s">
+      <c r="L1" s="449" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="458"/>
+      <c r="M1" s="450"/>
+      <c r="N1" s="450"/>
+      <c r="O1" s="451"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="243"/>
       <c r="B2" s="244"/>
       <c r="C2" s="245"/>
@@ -7230,15 +7223,15 @@
       <c r="L2" s="299" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="459">
+      <c r="M2" s="452">
         <f>O4-M4</f>
         <v>30000</v>
       </c>
-      <c r="N2" s="460"/>
-      <c r="O2" s="461"/>
+      <c r="N2" s="453"/>
+      <c r="O2" s="454"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="247"/>
       <c r="B3" s="248"/>
       <c r="C3" s="249"/>
@@ -7250,17 +7243,17 @@
         <f>B3*0.4</f>
         <v>0</v>
       </c>
-      <c r="L3" s="452" t="s">
+      <c r="L3" s="445" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="453"/>
-      <c r="N3" s="454" t="s">
+      <c r="M3" s="446"/>
+      <c r="N3" s="447" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="455"/>
+      <c r="O3" s="448"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="252"/>
@@ -7292,7 +7285,7 @@
       </c>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="253"/>
       <c r="B5" s="254"/>
       <c r="C5" s="254"/>
@@ -7320,7 +7313,7 @@
       </c>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="238" t="s">
         <v>48</v>
       </c>
@@ -7353,7 +7346,7 @@
       <c r="O6" s="264"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="265"/>
       <c r="B7" s="266"/>
       <c r="C7" s="267"/>
@@ -7375,7 +7368,7 @@
       <c r="O7" s="273"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="247"/>
       <c r="B8" s="248"/>
       <c r="C8" s="249"/>
@@ -7398,7 +7391,7 @@
       <c r="O8" s="264"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="250"/>
       <c r="B9" s="251"/>
       <c r="C9" s="252"/>
@@ -7417,7 +7410,7 @@
       <c r="O9" s="273"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="247"/>
       <c r="B10" s="248"/>
       <c r="C10" s="249"/>
@@ -7439,7 +7432,7 @@
       <c r="O10" s="264"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="276"/>
       <c r="B11" s="277"/>
       <c r="C11" s="278"/>
@@ -7462,7 +7455,7 @@
       <c r="O11" s="273"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="238" t="s">
         <v>181</v>
       </c>
@@ -7493,7 +7486,7 @@
       <c r="O12" s="264"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="265"/>
       <c r="B13" s="266"/>
       <c r="C13" s="267"/>
@@ -7513,7 +7506,7 @@
       <c r="O13" s="273"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="253"/>
       <c r="B14" s="254"/>
       <c r="C14" s="282"/>
@@ -7533,7 +7526,7 @@
       <c r="O14" s="264"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="281"/>
       <c r="D15" s="281"/>
       <c r="I15" s="22"/>
@@ -7543,7 +7536,7 @@
       <c r="O15" s="273"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="285" t="s">
         <v>51</v>
       </c>
@@ -7575,7 +7568,7 @@
       <c r="O16" s="264"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="265"/>
       <c r="B17" s="266">
         <f>200*E17</f>
@@ -7598,7 +7591,7 @@
       <c r="O17" s="273"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="247"/>
       <c r="B18" s="248">
         <f>420*E18</f>
@@ -7621,7 +7614,7 @@
       <c r="O18" s="264"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="250"/>
       <c r="B19" s="251">
         <f>900*E19</f>
@@ -7644,7 +7637,7 @@
       <c r="O19" s="273"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="247"/>
       <c r="B20" s="248">
         <f>E20*1300</f>
@@ -7667,7 +7660,7 @@
       <c r="O20" s="264"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="250"/>
       <c r="B21" s="251">
         <f>420*E21</f>
@@ -7690,7 +7683,7 @@
       <c r="O21" s="273"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="247"/>
       <c r="B22" s="248">
         <f>900*E22</f>
@@ -7713,7 +7706,7 @@
       <c r="O22" s="264"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="250"/>
       <c r="B23" s="251">
         <f>1300*E23</f>
@@ -7736,7 +7729,7 @@
       <c r="O23" s="273"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="247"/>
       <c r="B24" s="248">
         <f>420*E24</f>
@@ -7759,7 +7752,7 @@
       <c r="O24" s="264"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="250"/>
       <c r="B25" s="251">
         <f>900*E25</f>
@@ -7782,7 +7775,7 @@
       <c r="O25" s="273"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="247"/>
       <c r="B26" s="248">
         <f>1300*E26</f>
@@ -7805,7 +7798,7 @@
       <c r="O26" s="264"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="250"/>
       <c r="B27" s="251">
         <f>2000*E27</f>
@@ -7828,7 +7821,7 @@
       <c r="O27" s="273"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="247"/>
       <c r="B28" s="248">
         <f>5000*E28</f>
@@ -7851,7 +7844,7 @@
       <c r="O28" s="264"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="250"/>
       <c r="B29" s="251">
         <f>1400*E29</f>
@@ -7874,7 +7867,7 @@
       <c r="O29" s="273"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="253"/>
       <c r="B30" s="254"/>
       <c r="C30" s="282"/>
@@ -7887,12 +7880,12 @@
       <c r="J30" s="297"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="281"/>
       <c r="D31" s="281"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="285" t="s">
         <v>154</v>
       </c>
@@ -7921,7 +7914,7 @@
       <c r="K32" s="288"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="289"/>
       <c r="B33" s="290"/>
       <c r="C33" s="290"/>
@@ -7936,7 +7929,7 @@
       </c>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="247"/>
       <c r="B34" s="248"/>
       <c r="C34" s="248"/>
@@ -7950,7 +7943,7 @@
       </c>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="250"/>
       <c r="B35" s="251"/>
       <c r="C35" s="251"/>
@@ -7964,7 +7957,7 @@
       </c>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="247"/>
       <c r="B36" s="248"/>
       <c r="C36" s="248"/>
@@ -7978,7 +7971,7 @@
       </c>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="250"/>
       <c r="B37" s="251"/>
       <c r="C37" s="251"/>
@@ -7992,7 +7985,7 @@
       </c>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="247"/>
       <c r="B38" s="248"/>
       <c r="C38" s="248"/>
@@ -8006,7 +7999,7 @@
       </c>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="250"/>
       <c r="B39" s="251"/>
       <c r="C39" s="251"/>
@@ -8020,7 +8013,7 @@
       </c>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="247"/>
       <c r="B40" s="248"/>
       <c r="C40" s="248"/>
@@ -8034,7 +8027,7 @@
       </c>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="250"/>
       <c r="B41" s="251"/>
       <c r="C41" s="251"/>
@@ -8048,7 +8041,7 @@
       </c>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="247"/>
       <c r="B42" s="248"/>
       <c r="C42" s="248"/>
@@ -8062,7 +8055,7 @@
       </c>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="250"/>
       <c r="B43" s="251"/>
       <c r="C43" s="251"/>
@@ -8076,7 +8069,7 @@
       </c>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="247"/>
       <c r="B44" s="248"/>
       <c r="C44" s="248"/>
@@ -8090,7 +8083,7 @@
       </c>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="250"/>
       <c r="B45" s="251"/>
       <c r="C45" s="251"/>
@@ -8103,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="247"/>
       <c r="B46" s="248"/>
       <c r="C46" s="248"/>
@@ -8116,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="250"/>
       <c r="B47" s="251"/>
       <c r="C47" s="251"/>
@@ -8129,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="247"/>
       <c r="B48" s="248"/>
       <c r="C48" s="248"/>
@@ -8142,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="250"/>
       <c r="B49" s="251"/>
       <c r="C49" s="251"/>
@@ -8155,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="247"/>
       <c r="B50" s="248"/>
       <c r="C50" s="248"/>
@@ -8168,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="250"/>
       <c r="B51" s="251"/>
       <c r="C51" s="251"/>
@@ -8181,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="247"/>
       <c r="B52" s="248"/>
       <c r="C52" s="248"/>
@@ -8194,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="250"/>
       <c r="B53" s="251"/>
       <c r="C53" s="251"/>
@@ -8207,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="247"/>
       <c r="B54" s="248"/>
       <c r="C54" s="248"/>
@@ -8220,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="250"/>
       <c r="B55" s="251"/>
       <c r="C55" s="251"/>
@@ -8233,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="247"/>
       <c r="B56" s="248"/>
       <c r="C56" s="248"/>
@@ -8246,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="250"/>
       <c r="B57" s="251"/>
       <c r="C57" s="251"/>
@@ -8259,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="247"/>
       <c r="B58" s="248"/>
       <c r="C58" s="248"/>
@@ -8272,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="250"/>
       <c r="B59" s="251"/>
       <c r="C59" s="251"/>
@@ -8285,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="247"/>
       <c r="B60" s="248"/>
       <c r="C60" s="248"/>
@@ -8298,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="250"/>
       <c r="B61" s="251"/>
       <c r="C61" s="251"/>
@@ -8329,34 +8322,34 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.40625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="18" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="5" customWidth="1"/>
     <col min="6" max="6" width="16" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="5" customWidth="1"/>
     <col min="11" max="11" width="3" style="5" customWidth="1"/>
-    <col min="12" max="12" width="25.1328125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.40625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.86328125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="23.54296875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13.86328125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="35.1328125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="5.26953125" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="11.26953125" style="5"/>
+    <col min="12" max="12" width="25.109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="23.5546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="35.109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.21875" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="11.21875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>188</v>
       </c>
@@ -8373,10 +8366,10 @@
       <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="462" t="s">
+      <c r="G1" s="455" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="463"/>
+      <c r="H1" s="456"/>
       <c r="I1" s="48" t="s">
         <v>189</v>
       </c>
@@ -8388,16 +8381,16 @@
         <v>6</v>
       </c>
       <c r="M1" s="7"/>
-      <c r="N1" s="464" t="s">
+      <c r="N1" s="457" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="466"/>
+      <c r="O1" s="459"/>
       <c r="P1" s="51" t="s">
         <v>239</v>
       </c>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="316" t="s">
         <v>194</v>
       </c>
@@ -8446,7 +8439,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="317" t="s">
         <v>195</v>
       </c>
@@ -8495,7 +8488,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="318" t="s">
         <v>14</v>
       </c>
@@ -8542,7 +8535,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="317" t="s">
         <v>196</v>
       </c>
@@ -8590,7 +8583,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="318" t="s">
         <v>60</v>
       </c>
@@ -8639,7 +8632,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="317" t="s">
         <v>94</v>
       </c>
@@ -8688,7 +8681,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="318" t="s">
         <v>220</v>
       </c>
@@ -8736,7 +8729,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="317" t="s">
         <v>62</v>
       </c>
@@ -8778,7 +8771,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="318" t="s">
         <v>197</v>
       </c>
@@ -8823,7 +8816,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="319" t="s">
         <v>198</v>
       </c>
@@ -8862,7 +8855,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="67"/>
       <c r="B12" s="62"/>
       <c r="C12" s="7"/>
@@ -8900,7 +8893,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="308" t="s">
         <v>33</v>
       </c>
@@ -8940,7 +8933,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="67"/>
       <c r="B14" s="62"/>
       <c r="C14" s="32"/>
@@ -8974,17 +8967,17 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="309" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="374">
+      <c r="B15" s="369">
         <f xml:space="preserve"> (B5 + B2*2) *5</f>
         <v>150</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="197" t="s">
         <v>208</v>
       </c>
@@ -9013,11 +9006,11 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="310" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="375">
+      <c r="B16" s="370">
         <f>B5/2</f>
         <v>5</v>
       </c>
@@ -9054,11 +9047,11 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="376">
+      <c r="B17" s="371">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>30</v>
       </c>
@@ -9095,11 +9088,11 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="311" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="377">
+      <c r="B18" s="311">
         <f>ROUNDUP(Charakter!$B$15*0.7,0)</f>
         <v>105</v>
       </c>
@@ -9136,11 +9129,11 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="311" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="377">
+      <c r="B19" s="311">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>30</v>
       </c>
@@ -9159,12 +9152,12 @@
         <v>10</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="464" t="s">
+      <c r="L19" s="457" t="s">
         <v>254</v>
       </c>
-      <c r="M19" s="465"/>
-      <c r="N19" s="465"/>
-      <c r="O19" s="466"/>
+      <c r="M19" s="458"/>
+      <c r="N19" s="458"/>
+      <c r="O19" s="459"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -9177,11 +9170,11 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="311" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="377">
+      <c r="B20" s="311">
         <f>ROUNDUP(Charakter!$B$15*0.2,0)</f>
         <v>30</v>
       </c>
@@ -9224,11 +9217,11 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="311" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="377">
+      <c r="B21" s="311">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
         <v>38</v>
       </c>
@@ -9261,11 +9254,11 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="311" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="377">
+      <c r="B22" s="311">
         <f>ROUNDUP(Charakter!$B$15*0.25,0)</f>
         <v>38</v>
       </c>
@@ -9298,7 +9291,7 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -9333,7 +9326,7 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -9367,7 +9360,7 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9401,7 +9394,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -9435,7 +9428,7 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9459,7 +9452,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9484,7 +9477,7 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -9508,7 +9501,7 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -9533,7 +9526,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -9558,7 +9551,7 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -9583,7 +9576,7 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -9608,7 +9601,7 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -9633,7 +9626,7 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -9658,7 +9651,7 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -9678,91 +9671,91 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -9846,27 +9839,27 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="17" style="7" customWidth="1"/>
-    <col min="4" max="4" width="4.86328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.1328125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.40625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="7" customWidth="1"/>
     <col min="12" max="12" width="9" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="11.26953125" style="7"/>
+    <col min="13" max="16384" width="11.21875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67"/>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -9888,62 +9881,62 @@
       <c r="J1" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="479" t="s">
+      <c r="K1" s="464" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="480"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="L1" s="465"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="67"/>
-      <c r="B2" s="400" t="s">
+      <c r="B2" s="470" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="402"/>
+      <c r="C2" s="471"/>
       <c r="E2" s="243"/>
       <c r="F2" s="244"/>
       <c r="G2" s="244"/>
       <c r="H2" s="244"/>
       <c r="I2" s="244"/>
       <c r="J2" s="244"/>
-      <c r="K2" s="473"/>
-      <c r="L2" s="474"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K2" s="466"/>
+      <c r="L2" s="467"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="67"/>
-      <c r="B3" s="475" t="s">
+      <c r="B3" s="472" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="476"/>
+      <c r="C3" s="473"/>
       <c r="E3" s="247"/>
       <c r="F3" s="248"/>
       <c r="G3" s="248"/>
       <c r="H3" s="248"/>
       <c r="I3" s="248"/>
       <c r="J3" s="248"/>
-      <c r="K3" s="469"/>
-      <c r="L3" s="470"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="K3" s="460"/>
+      <c r="L3" s="461"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="478"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="475"/>
       <c r="E4" s="250"/>
       <c r="F4" s="251"/>
       <c r="G4" s="251"/>
       <c r="H4" s="251"/>
       <c r="I4" s="251"/>
       <c r="J4" s="251"/>
-      <c r="K4" s="467"/>
-      <c r="L4" s="468"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="K4" s="462"/>
+      <c r="L4" s="463"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="67"/>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="68">
-        <f>Charakter!B6 *10</f>
-        <v>100</v>
+      <c r="C5" s="115">
+        <f>Charakter!B6 * 5</f>
+        <v>50</v>
       </c>
       <c r="E5" s="247"/>
       <c r="F5" s="248"/>
@@ -9951,284 +9944,284 @@
       <c r="H5" s="248"/>
       <c r="I5" s="248"/>
       <c r="J5" s="248"/>
-      <c r="K5" s="469"/>
-      <c r="L5" s="470"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K5" s="460"/>
+      <c r="L5" s="461"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="67"/>
-      <c r="B6" s="372"/>
-      <c r="C6" s="372"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="E6" s="250"/>
       <c r="F6" s="251"/>
       <c r="G6" s="251"/>
       <c r="H6" s="251"/>
       <c r="I6" s="251"/>
       <c r="J6" s="251"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="468"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K6" s="462"/>
+      <c r="L6" s="463"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="67"/>
-      <c r="B7" s="372"/>
-      <c r="C7" s="372"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
       <c r="E7" s="247"/>
       <c r="F7" s="248"/>
       <c r="G7" s="248"/>
       <c r="H7" s="248"/>
       <c r="I7" s="248"/>
       <c r="J7" s="248"/>
-      <c r="K7" s="469"/>
-      <c r="L7" s="470"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K7" s="460"/>
+      <c r="L7" s="461"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="67"/>
-      <c r="B8" s="372"/>
-      <c r="C8" s="372"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
       <c r="E8" s="250"/>
       <c r="F8" s="251"/>
       <c r="G8" s="251"/>
       <c r="H8" s="251"/>
       <c r="I8" s="251"/>
       <c r="J8" s="251"/>
-      <c r="K8" s="467"/>
-      <c r="L8" s="468"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K8" s="462"/>
+      <c r="L8" s="463"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="67"/>
-      <c r="B9" s="372"/>
-      <c r="C9" s="372"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="E9" s="247"/>
       <c r="F9" s="248"/>
       <c r="G9" s="248"/>
       <c r="H9" s="248"/>
       <c r="I9" s="248"/>
       <c r="J9" s="248"/>
-      <c r="K9" s="469"/>
-      <c r="L9" s="470"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K9" s="460"/>
+      <c r="L9" s="461"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67"/>
-      <c r="B10" s="372"/>
-      <c r="C10" s="372"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
       <c r="E10" s="250"/>
       <c r="F10" s="251"/>
       <c r="G10" s="251"/>
       <c r="H10" s="251"/>
       <c r="I10" s="251"/>
       <c r="J10" s="251"/>
-      <c r="K10" s="467"/>
-      <c r="L10" s="468"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K10" s="462"/>
+      <c r="L10" s="463"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="67"/>
-      <c r="B11" s="372"/>
-      <c r="C11" s="372"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
       <c r="E11" s="247"/>
       <c r="F11" s="248"/>
       <c r="G11" s="248"/>
       <c r="H11" s="248"/>
       <c r="I11" s="248"/>
       <c r="J11" s="248"/>
-      <c r="K11" s="469"/>
-      <c r="L11" s="470"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K11" s="460"/>
+      <c r="L11" s="461"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="67"/>
-      <c r="B12" s="372"/>
-      <c r="C12" s="372"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="E12" s="250"/>
       <c r="F12" s="251"/>
       <c r="G12" s="251"/>
       <c r="H12" s="251"/>
       <c r="I12" s="251"/>
       <c r="J12" s="251"/>
-      <c r="K12" s="467"/>
-      <c r="L12" s="468"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K12" s="462"/>
+      <c r="L12" s="463"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="67"/>
-      <c r="B13" s="372"/>
-      <c r="C13" s="372"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
       <c r="E13" s="247"/>
       <c r="F13" s="248"/>
       <c r="G13" s="248"/>
       <c r="H13" s="248"/>
       <c r="I13" s="248"/>
       <c r="J13" s="248"/>
-      <c r="K13" s="469"/>
-      <c r="L13" s="470"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K13" s="460"/>
+      <c r="L13" s="461"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="67"/>
-      <c r="B14" s="372"/>
-      <c r="C14" s="372"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
       <c r="E14" s="250"/>
       <c r="F14" s="251"/>
       <c r="G14" s="251"/>
       <c r="H14" s="251"/>
       <c r="I14" s="251"/>
       <c r="J14" s="251"/>
-      <c r="K14" s="467"/>
-      <c r="L14" s="468"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K14" s="462"/>
+      <c r="L14" s="463"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="67"/>
-      <c r="B15" s="372"/>
-      <c r="C15" s="372"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="E15" s="247"/>
       <c r="F15" s="248"/>
       <c r="G15" s="248"/>
       <c r="H15" s="248"/>
       <c r="I15" s="248"/>
       <c r="J15" s="248"/>
-      <c r="K15" s="469"/>
-      <c r="L15" s="470"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="K15" s="460"/>
+      <c r="L15" s="461"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
-      <c r="B16" s="372"/>
-      <c r="C16" s="372"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="E16" s="250"/>
       <c r="F16" s="251"/>
       <c r="G16" s="251"/>
       <c r="H16" s="251"/>
       <c r="I16" s="251"/>
       <c r="J16" s="251"/>
-      <c r="K16" s="467"/>
-      <c r="L16" s="468"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K16" s="462"/>
+      <c r="L16" s="463"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="67"/>
-      <c r="B17" s="372"/>
-      <c r="C17" s="372"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="E17" s="247"/>
       <c r="F17" s="248"/>
       <c r="G17" s="248"/>
       <c r="H17" s="248"/>
       <c r="I17" s="248"/>
       <c r="J17" s="248"/>
-      <c r="K17" s="469"/>
-      <c r="L17" s="470"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K17" s="460"/>
+      <c r="L17" s="461"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="67"/>
-      <c r="B18" s="372"/>
-      <c r="C18" s="372"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
       <c r="E18" s="250"/>
       <c r="F18" s="251"/>
       <c r="G18" s="251"/>
       <c r="H18" s="251"/>
       <c r="I18" s="251"/>
       <c r="J18" s="251"/>
-      <c r="K18" s="467"/>
-      <c r="L18" s="468"/>
+      <c r="K18" s="462"/>
+      <c r="L18" s="463"/>
       <c r="P18" s="62"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="67"/>
-      <c r="B19" s="372"/>
-      <c r="C19" s="372"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
       <c r="E19" s="247"/>
       <c r="F19" s="248"/>
       <c r="G19" s="248"/>
       <c r="H19" s="248"/>
       <c r="I19" s="248"/>
       <c r="J19" s="248"/>
-      <c r="K19" s="469"/>
-      <c r="L19" s="470"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K19" s="460"/>
+      <c r="L19" s="461"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="67"/>
-      <c r="B20" s="372"/>
-      <c r="C20" s="372"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
       <c r="E20" s="250"/>
       <c r="F20" s="251"/>
       <c r="G20" s="251"/>
       <c r="H20" s="251"/>
       <c r="I20" s="251"/>
       <c r="J20" s="251"/>
-      <c r="K20" s="467"/>
-      <c r="L20" s="468"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K20" s="462"/>
+      <c r="L20" s="463"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="67"/>
-      <c r="B21" s="372"/>
-      <c r="C21" s="372"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
       <c r="E21" s="247"/>
       <c r="F21" s="248"/>
       <c r="G21" s="248"/>
       <c r="H21" s="248"/>
       <c r="I21" s="248"/>
       <c r="J21" s="248"/>
-      <c r="K21" s="469"/>
-      <c r="L21" s="470"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K21" s="460"/>
+      <c r="L21" s="461"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="67"/>
-      <c r="B22" s="372"/>
-      <c r="C22" s="372"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
       <c r="E22" s="250"/>
       <c r="F22" s="251"/>
       <c r="G22" s="251"/>
       <c r="H22" s="251"/>
       <c r="I22" s="251"/>
       <c r="J22" s="251"/>
-      <c r="K22" s="467"/>
-      <c r="L22" s="468"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K22" s="462"/>
+      <c r="L22" s="463"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="67"/>
-      <c r="B23" s="372"/>
-      <c r="C23" s="372"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
       <c r="E23" s="247"/>
       <c r="F23" s="248"/>
       <c r="G23" s="248"/>
       <c r="H23" s="248"/>
       <c r="I23" s="248"/>
       <c r="J23" s="248"/>
-      <c r="K23" s="469"/>
-      <c r="L23" s="470"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K23" s="460"/>
+      <c r="L23" s="461"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="67"/>
-      <c r="B24" s="372"/>
-      <c r="C24" s="372"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="E24" s="250"/>
       <c r="F24" s="251"/>
       <c r="G24" s="251"/>
       <c r="H24" s="251"/>
       <c r="I24" s="251"/>
       <c r="J24" s="251"/>
-      <c r="K24" s="467"/>
-      <c r="L24" s="468"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K24" s="462"/>
+      <c r="L24" s="463"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="67"/>
-      <c r="B25" s="372"/>
-      <c r="C25" s="372"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
       <c r="E25" s="247"/>
       <c r="F25" s="248"/>
       <c r="G25" s="248"/>
       <c r="H25" s="248"/>
       <c r="I25" s="248"/>
       <c r="J25" s="248"/>
-      <c r="K25" s="469"/>
-      <c r="L25" s="470"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K25" s="460"/>
+      <c r="L25" s="461"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="67"/>
-      <c r="B26" s="372"/>
-      <c r="C26" s="372"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
       <c r="E26" s="250"/>
       <c r="F26" s="251"/>
       <c r="G26" s="251"/>
       <c r="H26" s="251"/>
       <c r="I26" s="251"/>
       <c r="J26" s="251"/>
-      <c r="K26" s="467"/>
-      <c r="L26" s="468"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="K26" s="462"/>
+      <c r="L26" s="463"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="67"/>
       <c r="E27" s="253"/>
       <c r="F27" s="254"/>
@@ -10236,19 +10229,32 @@
       <c r="H27" s="254"/>
       <c r="I27" s="254"/>
       <c r="J27" s="254"/>
-      <c r="K27" s="471"/>
-      <c r="L27" s="472"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="K27" s="468"/>
+      <c r="L27" s="469"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="62"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K2:L2"/>
@@ -10256,23 +10262,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10287,14 +10281,14 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="127.26953125" style="6" customWidth="1"/>
-    <col min="2" max="8" width="11.26953125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.26953125" style="6" hidden="1"/>
+    <col min="1" max="1" width="127.21875" style="6" customWidth="1"/>
+    <col min="2" max="8" width="11.21875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.21875" style="6" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="28"/>
     </row>
   </sheetData>
@@ -10316,33 +10310,33 @@
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="6" max="6" width="16.86328125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="11.40625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="43" customWidth="1"/>
     <col min="8" max="8" width="12" style="43" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="43" customWidth="1"/>
     <col min="10" max="10" width="12" style="43" customWidth="1"/>
     <col min="11" max="11" width="11" style="43" customWidth="1"/>
-    <col min="12" max="12" width="11.40625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="13.40625" style="43" customWidth="1"/>
-    <col min="15" max="15" width="10.86328125" customWidth="1"/>
-    <col min="16" max="16" width="19.40625" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" customWidth="1"/>
-    <col min="18" max="18" width="20.1328125" customWidth="1"/>
-    <col min="19" max="19" width="14.7265625" customWidth="1"/>
-    <col min="20" max="20" width="10.86328125" customWidth="1"/>
-    <col min="21" max="21" width="12.40625" customWidth="1"/>
-    <col min="22" max="22" width="10.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="43" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="35" max="35" width="15.40625" customWidth="1"/>
-    <col min="37" max="37" width="13.40625" customWidth="1"/>
-    <col min="38" max="38" width="15.26953125" customWidth="1"/>
-    <col min="39" max="39" width="11.54296875" customWidth="1"/>
+    <col min="35" max="35" width="15.44140625" customWidth="1"/>
+    <col min="37" max="37" width="13.44140625" customWidth="1"/>
+    <col min="38" max="38" width="15.21875" customWidth="1"/>
+    <col min="39" max="39" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="84.75" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:40" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -10410,12 +10404,12 @@
       <c r="Z1" s="338" t="s">
         <v>321</v>
       </c>
-      <c r="AB1" s="368"/>
-      <c r="AC1" s="368"/>
-      <c r="AD1" s="369" t="s">
+      <c r="AB1" s="367"/>
+      <c r="AC1" s="367"/>
+      <c r="AD1" s="368" t="s">
         <v>322</v>
       </c>
-      <c r="AE1" s="369" t="s">
+      <c r="AE1" s="368" t="s">
         <v>281</v>
       </c>
       <c r="AG1" s="358" t="s">
@@ -10443,7 +10437,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -10508,24 +10502,24 @@
         <f>T2*0.5</f>
         <v>3</v>
       </c>
-      <c r="Y2" s="366">
+      <c r="Y2" s="344">
         <f>V2*0.7</f>
         <v>4.1999999999999993</v>
       </c>
-      <c r="Z2" s="366">
+      <c r="Z2" s="344">
         <f>W2*0.7</f>
         <v>2.9399999999999995</v>
       </c>
-      <c r="AB2" s="368" t="s">
+      <c r="AB2" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="AC2" s="368" t="s">
+      <c r="AC2" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD2" s="368">
+      <c r="AD2" s="367">
         <v>6</v>
       </c>
-      <c r="AE2" s="368">
+      <c r="AE2" s="367">
         <v>4</v>
       </c>
       <c r="AG2" s="361" t="s">
@@ -10555,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -10620,24 +10614,24 @@
         <f>T3*0.5</f>
         <v>4.5</v>
       </c>
-      <c r="Y3" s="366">
+      <c r="Y3" s="344">
         <f t="shared" ref="Y3:Y13" si="3">V3*0.7</f>
         <v>5.88</v>
       </c>
-      <c r="Z3" s="366">
+      <c r="Z3" s="344">
         <f t="shared" ref="Z3:Z13" si="4">W3*0.7</f>
         <v>4.4099999999999993</v>
       </c>
-      <c r="AB3" s="368" t="s">
+      <c r="AB3" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="AC3" s="368" t="s">
+      <c r="AC3" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD3" s="368">
+      <c r="AD3" s="367">
         <v>5</v>
       </c>
-      <c r="AE3" s="368">
+      <c r="AE3" s="367">
         <v>3</v>
       </c>
       <c r="AG3" s="361" t="s">
@@ -10667,7 +10661,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -10732,24 +10726,24 @@
         <f t="shared" ref="X4:X13" si="7">T4*0.5</f>
         <v>5</v>
       </c>
-      <c r="Y4" s="366">
+      <c r="Y4" s="344">
         <f t="shared" si="3"/>
         <v>6.72</v>
       </c>
-      <c r="Z4" s="366">
+      <c r="Z4" s="344">
         <f t="shared" si="4"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="AB4" s="368" t="s">
+      <c r="AB4" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="AC4" s="368" t="s">
+      <c r="AC4" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD4" s="368">
+      <c r="AD4" s="367">
         <v>3</v>
       </c>
-      <c r="AE4" s="368">
+      <c r="AE4" s="367">
         <v>2</v>
       </c>
       <c r="AG4" s="361" t="s">
@@ -10779,7 +10773,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -10844,24 +10838,24 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="Y5" s="366">
+      <c r="Y5" s="344">
         <f t="shared" si="3"/>
         <v>7.419999999999999</v>
       </c>
-      <c r="Z5" s="366">
+      <c r="Z5" s="344">
         <f t="shared" si="4"/>
         <v>5.3899999999999988</v>
       </c>
-      <c r="AB5" s="368" t="s">
+      <c r="AB5" s="367" t="s">
         <v>262</v>
       </c>
-      <c r="AC5" s="368" t="s">
+      <c r="AC5" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD5" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="368">
+      <c r="AD5" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="367">
         <v>0</v>
       </c>
       <c r="AG5" s="361" t="s">
@@ -10891,7 +10885,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -10956,18 +10950,18 @@
         <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="Y6" s="366">
+      <c r="Y6" s="344">
         <f t="shared" si="3"/>
         <v>7.35</v>
       </c>
-      <c r="Z6" s="366">
+      <c r="Z6" s="344">
         <f t="shared" si="4"/>
         <v>5.3899999999999988</v>
       </c>
-      <c r="AB6" s="368"/>
-      <c r="AC6" s="368"/>
-      <c r="AD6" s="368"/>
-      <c r="AE6" s="368"/>
+      <c r="AB6" s="367"/>
+      <c r="AC6" s="367"/>
+      <c r="AD6" s="367"/>
+      <c r="AE6" s="367"/>
       <c r="AG6" s="361" t="s">
         <v>282</v>
       </c>
@@ -10995,7 +10989,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -11057,18 +11051,18 @@
         <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
-      <c r="Y7" s="366">
+      <c r="Y7" s="344">
         <f t="shared" si="3"/>
         <v>10.29</v>
       </c>
-      <c r="Z7" s="366">
+      <c r="Z7" s="344">
         <f t="shared" si="4"/>
         <v>7.35</v>
       </c>
-      <c r="AB7" s="368"/>
-      <c r="AC7" s="368"/>
-      <c r="AD7" s="368"/>
-      <c r="AE7" s="368"/>
+      <c r="AB7" s="367"/>
+      <c r="AC7" s="367"/>
+      <c r="AD7" s="367"/>
+      <c r="AE7" s="367"/>
       <c r="AG7" s="361" t="s">
         <v>282</v>
       </c>
@@ -11096,7 +11090,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F8" s="38" t="s">
         <v>20</v>
       </c>
@@ -11155,18 +11149,18 @@
         <f t="shared" si="7"/>
         <v>8.5</v>
       </c>
-      <c r="Y8" s="366">
+      <c r="Y8" s="344">
         <f t="shared" si="3"/>
         <v>11.76</v>
       </c>
-      <c r="Z8" s="366">
+      <c r="Z8" s="344">
         <f t="shared" si="4"/>
         <v>8.3299999999999983</v>
       </c>
-      <c r="AB8" s="368"/>
-      <c r="AC8" s="368"/>
-      <c r="AD8" s="368"/>
-      <c r="AE8" s="368"/>
+      <c r="AB8" s="367"/>
+      <c r="AC8" s="367"/>
+      <c r="AD8" s="367"/>
+      <c r="AE8" s="367"/>
       <c r="AG8" s="361" t="s">
         <v>282</v>
       </c>
@@ -11194,7 +11188,7 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -11256,18 +11250,18 @@
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
-      <c r="Y9" s="366">
+      <c r="Y9" s="344">
         <f t="shared" si="3"/>
         <v>12.984999999999999</v>
       </c>
-      <c r="Z9" s="366">
+      <c r="Z9" s="344">
         <f t="shared" si="4"/>
         <v>9.3099999999999987</v>
       </c>
-      <c r="AB9" s="368"/>
-      <c r="AC9" s="368"/>
-      <c r="AD9" s="368"/>
-      <c r="AE9" s="368"/>
+      <c r="AB9" s="367"/>
+      <c r="AC9" s="367"/>
+      <c r="AD9" s="367"/>
+      <c r="AE9" s="367"/>
       <c r="AG9" s="361" t="s">
         <v>282</v>
       </c>
@@ -11295,7 +11289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F10" s="38" t="s">
         <v>39</v>
       </c>
@@ -11354,24 +11348,24 @@
         <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
-      <c r="Y10" s="366">
+      <c r="Y10" s="344">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="Z10" s="366">
+      <c r="Z10" s="344">
         <f t="shared" si="4"/>
         <v>7.35</v>
       </c>
-      <c r="AB10" s="368" t="s">
+      <c r="AB10" s="367" t="s">
         <v>263</v>
       </c>
-      <c r="AC10" s="368" t="s">
+      <c r="AC10" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD10" s="368">
+      <c r="AD10" s="367">
         <v>9</v>
       </c>
-      <c r="AE10" s="368">
+      <c r="AE10" s="367">
         <v>6</v>
       </c>
       <c r="AG10" s="361" t="s">
@@ -11401,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F11" s="39" t="s">
         <v>40</v>
       </c>
@@ -11460,24 +11454,24 @@
         <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
-      <c r="Y11" s="366">
+      <c r="Y11" s="344">
         <f t="shared" si="3"/>
         <v>14.7</v>
       </c>
-      <c r="Z11" s="366">
+      <c r="Z11" s="344">
         <f t="shared" si="4"/>
         <v>10.29</v>
       </c>
-      <c r="AB11" s="368" t="s">
+      <c r="AB11" s="367" t="s">
         <v>263</v>
       </c>
-      <c r="AC11" s="368" t="s">
+      <c r="AC11" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD11" s="368">
+      <c r="AD11" s="367">
         <v>7</v>
       </c>
-      <c r="AE11" s="368">
+      <c r="AE11" s="367">
         <v>5</v>
       </c>
       <c r="AG11" s="361" t="s">
@@ -11507,7 +11501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F12" s="38" t="s">
         <v>167</v>
       </c>
@@ -11566,24 +11560,24 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="Y12" s="366">
+      <c r="Y12" s="344">
         <f t="shared" si="3"/>
         <v>16.799999999999997</v>
       </c>
-      <c r="Z12" s="366">
+      <c r="Z12" s="344">
         <f t="shared" si="4"/>
         <v>11.759999999999998</v>
       </c>
-      <c r="AB12" s="368" t="s">
+      <c r="AB12" s="367" t="s">
         <v>263</v>
       </c>
-      <c r="AC12" s="368" t="s">
+      <c r="AC12" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD12" s="368">
+      <c r="AD12" s="367">
         <v>5</v>
       </c>
-      <c r="AE12" s="368">
+      <c r="AE12" s="367">
         <v>3</v>
       </c>
       <c r="AG12" s="361" t="s">
@@ -11613,7 +11607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F13" s="39" t="s">
         <v>168</v>
       </c>
@@ -11670,24 +11664,24 @@
         <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
-      <c r="Y13" s="366">
+      <c r="Y13" s="344">
         <f t="shared" si="3"/>
         <v>18.549999999999997</v>
       </c>
-      <c r="Z13" s="366">
+      <c r="Z13" s="344">
         <f t="shared" si="4"/>
         <v>13.229999999999999</v>
       </c>
-      <c r="AB13" s="368" t="s">
+      <c r="AB13" s="367" t="s">
         <v>263</v>
       </c>
-      <c r="AC13" s="368" t="s">
+      <c r="AC13" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD13" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="368">
+      <c r="AD13" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="367">
         <v>0</v>
       </c>
       <c r="AG13" s="361" t="s">
@@ -11717,7 +11711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F14" s="38" t="s">
         <v>175</v>
       </c>
@@ -11752,12 +11746,12 @@
       <c r="V14" s="344"/>
       <c r="W14" s="344"/>
       <c r="X14" s="345"/>
-      <c r="Y14" s="366"/>
-      <c r="Z14" s="366"/>
-      <c r="AB14" s="368"/>
-      <c r="AC14" s="368"/>
-      <c r="AD14" s="368"/>
-      <c r="AE14" s="368"/>
+      <c r="Y14" s="344"/>
+      <c r="Z14" s="344"/>
+      <c r="AB14" s="367"/>
+      <c r="AC14" s="367"/>
+      <c r="AD14" s="367"/>
+      <c r="AE14" s="367"/>
       <c r="AG14" s="361" t="s">
         <v>289</v>
       </c>
@@ -11785,7 +11779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F15" s="39" t="s">
         <v>176</v>
       </c>
@@ -11828,12 +11822,12 @@
       <c r="V15" s="344"/>
       <c r="W15" s="344"/>
       <c r="X15" s="345"/>
-      <c r="Y15" s="366"/>
-      <c r="Z15" s="366"/>
-      <c r="AB15" s="368"/>
-      <c r="AC15" s="368"/>
-      <c r="AD15" s="368"/>
-      <c r="AE15" s="368"/>
+      <c r="Y15" s="344"/>
+      <c r="Z15" s="344"/>
+      <c r="AB15" s="367"/>
+      <c r="AC15" s="367"/>
+      <c r="AD15" s="367"/>
+      <c r="AE15" s="367"/>
       <c r="AG15" s="361" t="s">
         <v>289</v>
       </c>
@@ -11861,7 +11855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F16" s="38" t="s">
         <v>5</v>
       </c>
@@ -11904,12 +11898,12 @@
       <c r="V16" s="344"/>
       <c r="W16" s="344"/>
       <c r="X16" s="345"/>
-      <c r="Y16" s="366"/>
-      <c r="Z16" s="366"/>
-      <c r="AB16" s="368"/>
-      <c r="AC16" s="368"/>
-      <c r="AD16" s="368"/>
-      <c r="AE16" s="368"/>
+      <c r="Y16" s="344"/>
+      <c r="Z16" s="344"/>
+      <c r="AB16" s="367"/>
+      <c r="AC16" s="367"/>
+      <c r="AD16" s="367"/>
+      <c r="AE16" s="367"/>
       <c r="AG16" s="361" t="s">
         <v>289</v>
       </c>
@@ -11937,7 +11931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="17" spans="6:40" x14ac:dyDescent="0.3">
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
@@ -11964,12 +11958,12 @@
       <c r="V17" s="344"/>
       <c r="W17" s="344"/>
       <c r="X17" s="345"/>
-      <c r="Y17" s="366"/>
-      <c r="Z17" s="366"/>
-      <c r="AB17" s="368"/>
-      <c r="AC17" s="368"/>
-      <c r="AD17" s="368"/>
-      <c r="AE17" s="368"/>
+      <c r="Y17" s="344"/>
+      <c r="Z17" s="344"/>
+      <c r="AB17" s="367"/>
+      <c r="AC17" s="367"/>
+      <c r="AD17" s="367"/>
+      <c r="AE17" s="367"/>
       <c r="AG17" s="361" t="s">
         <v>289</v>
       </c>
@@ -11997,7 +11991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="18" spans="6:40" x14ac:dyDescent="0.3">
       <c r="O18" s="351"/>
       <c r="P18" s="343">
         <v>3</v>
@@ -12016,12 +12010,12 @@
       <c r="V18" s="344"/>
       <c r="W18" s="344"/>
       <c r="X18" s="345"/>
-      <c r="Y18" s="366"/>
-      <c r="Z18" s="366"/>
-      <c r="AB18" s="368"/>
-      <c r="AC18" s="368"/>
-      <c r="AD18" s="368"/>
-      <c r="AE18" s="368"/>
+      <c r="Y18" s="344"/>
+      <c r="Z18" s="344"/>
+      <c r="AB18" s="367"/>
+      <c r="AC18" s="367"/>
+      <c r="AD18" s="367"/>
+      <c r="AE18" s="367"/>
       <c r="AG18" s="361" t="s">
         <v>289</v>
       </c>
@@ -12049,7 +12043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="6:40" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="6:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O19" s="330"/>
       <c r="P19" s="331">
         <v>4</v>
@@ -12068,12 +12062,12 @@
       <c r="V19" s="332"/>
       <c r="W19" s="332"/>
       <c r="X19" s="333"/>
-      <c r="Y19" s="367"/>
-      <c r="Z19" s="367"/>
-      <c r="AB19" s="368"/>
-      <c r="AC19" s="368"/>
-      <c r="AD19" s="368"/>
-      <c r="AE19" s="368"/>
+      <c r="Y19" s="366"/>
+      <c r="Z19" s="366"/>
+      <c r="AB19" s="367"/>
+      <c r="AC19" s="367"/>
+      <c r="AD19" s="367"/>
+      <c r="AE19" s="367"/>
       <c r="AG19" s="361" t="s">
         <v>289</v>
       </c>
@@ -12101,11 +12095,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="6:40" x14ac:dyDescent="0.75">
-      <c r="AB20" s="368"/>
-      <c r="AC20" s="368"/>
-      <c r="AD20" s="368"/>
-      <c r="AE20" s="368"/>
+    <row r="20" spans="6:40" x14ac:dyDescent="0.3">
+      <c r="AB20" s="367"/>
+      <c r="AC20" s="367"/>
+      <c r="AD20" s="367"/>
+      <c r="AE20" s="367"/>
       <c r="AG20" s="361" t="s">
         <v>289</v>
       </c>
@@ -12133,15 +12127,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="21" spans="6:40" x14ac:dyDescent="0.3">
       <c r="P21" t="s">
         <v>258</v>
       </c>
       <c r="R21" s="111"/>
-      <c r="AB21" s="368"/>
-      <c r="AC21" s="368"/>
-      <c r="AD21" s="368"/>
-      <c r="AE21" s="368"/>
+      <c r="AB21" s="367"/>
+      <c r="AC21" s="367"/>
+      <c r="AD21" s="367"/>
+      <c r="AE21" s="367"/>
       <c r="AG21" s="361" t="s">
         <v>292</v>
       </c>
@@ -12169,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:40" ht="21" x14ac:dyDescent="0.75">
+    <row r="22" spans="6:40" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="F22" s="37" t="s">
         <v>47</v>
       </c>
@@ -12218,16 +12212,16 @@
       <c r="U22" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AB22" s="368" t="s">
+      <c r="AB22" s="367" t="s">
         <v>264</v>
       </c>
-      <c r="AC22" s="368" t="s">
+      <c r="AC22" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD22" s="368">
-        <v>10</v>
-      </c>
-      <c r="AE22" s="368">
+      <c r="AD22" s="367">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="367">
         <v>8</v>
       </c>
       <c r="AG22" s="361" t="s">
@@ -12257,7 +12251,7 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="23" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="23" spans="6:40" x14ac:dyDescent="0.3">
       <c r="F23" s="37" t="s">
         <v>160</v>
       </c>
@@ -12304,16 +12298,16 @@
       <c r="U23" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB23" s="368" t="s">
+      <c r="AB23" s="367" t="s">
         <v>264</v>
       </c>
-      <c r="AC23" s="368" t="s">
+      <c r="AC23" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD23" s="368">
+      <c r="AD23" s="367">
         <v>7</v>
       </c>
-      <c r="AE23" s="368">
+      <c r="AE23" s="367">
         <v>7</v>
       </c>
       <c r="AG23" s="361" t="s">
@@ -12343,7 +12337,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="24" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="24" spans="6:40" x14ac:dyDescent="0.3">
       <c r="F24" s="37" t="s">
         <v>161</v>
       </c>
@@ -12392,16 +12386,16 @@
       <c r="U24" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB24" s="368" t="s">
+      <c r="AB24" s="367" t="s">
         <v>264</v>
       </c>
-      <c r="AC24" s="368" t="s">
+      <c r="AC24" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD24" s="368">
+      <c r="AD24" s="367">
         <v>5</v>
       </c>
-      <c r="AE24" s="368">
+      <c r="AE24" s="367">
         <v>4</v>
       </c>
       <c r="AG24" s="361" t="s">
@@ -12431,7 +12425,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="25" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="25" spans="6:40" x14ac:dyDescent="0.3">
       <c r="F25" s="37" t="s">
         <v>162</v>
       </c>
@@ -12480,16 +12474,16 @@
       <c r="U25" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB25" s="368" t="s">
+      <c r="AB25" s="367" t="s">
         <v>264</v>
       </c>
-      <c r="AC25" s="368" t="s">
+      <c r="AC25" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD25" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="368">
+      <c r="AD25" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="367">
         <v>0</v>
       </c>
       <c r="AG25" s="361" t="s">
@@ -12519,7 +12513,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="26" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="26" spans="6:40" x14ac:dyDescent="0.3">
       <c r="F26" s="37" t="s">
         <v>163</v>
       </c>
@@ -12568,10 +12562,10 @@
       <c r="U26" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB26" s="368"/>
-      <c r="AC26" s="368"/>
-      <c r="AD26" s="368"/>
-      <c r="AE26" s="368"/>
+      <c r="AB26" s="367"/>
+      <c r="AC26" s="367"/>
+      <c r="AD26" s="367"/>
+      <c r="AE26" s="367"/>
       <c r="AG26" s="361" t="s">
         <v>292</v>
       </c>
@@ -12599,7 +12593,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="27" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="27" spans="6:40" x14ac:dyDescent="0.3">
       <c r="F27" s="37" t="s">
         <v>164</v>
       </c>
@@ -12648,10 +12642,10 @@
       <c r="U27" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB27" s="368"/>
-      <c r="AC27" s="368"/>
-      <c r="AD27" s="368"/>
-      <c r="AE27" s="368"/>
+      <c r="AB27" s="367"/>
+      <c r="AC27" s="367"/>
+      <c r="AD27" s="367"/>
+      <c r="AE27" s="367"/>
       <c r="AG27" s="361" t="s">
         <v>292</v>
       </c>
@@ -12679,7 +12673,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="28" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="28" spans="6:40" x14ac:dyDescent="0.3">
       <c r="F28" s="37" t="s">
         <v>165</v>
       </c>
@@ -12728,10 +12722,10 @@
       <c r="U28" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB28" s="368"/>
-      <c r="AC28" s="368"/>
-      <c r="AD28" s="368"/>
-      <c r="AE28" s="368"/>
+      <c r="AB28" s="367"/>
+      <c r="AC28" s="367"/>
+      <c r="AD28" s="367"/>
+      <c r="AE28" s="367"/>
       <c r="AG28" s="361" t="s">
         <v>292</v>
       </c>
@@ -12759,7 +12753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="29" spans="6:40" x14ac:dyDescent="0.3">
       <c r="F29" s="37" t="s">
         <v>166</v>
       </c>
@@ -12808,10 +12802,10 @@
       <c r="U29" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB29" s="368"/>
-      <c r="AC29" s="368"/>
-      <c r="AD29" s="368"/>
-      <c r="AE29" s="368"/>
+      <c r="AB29" s="367"/>
+      <c r="AC29" s="367"/>
+      <c r="AD29" s="367"/>
+      <c r="AE29" s="367"/>
       <c r="AG29" s="361" t="s">
         <v>292</v>
       </c>
@@ -12839,14 +12833,14 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="30" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="30" spans="6:40" x14ac:dyDescent="0.3">
       <c r="P30" s="63"/>
       <c r="Q30" s="64"/>
       <c r="R30" s="1"/>
-      <c r="AB30" s="368"/>
-      <c r="AC30" s="368"/>
-      <c r="AD30" s="368"/>
-      <c r="AE30" s="368"/>
+      <c r="AB30" s="367"/>
+      <c r="AC30" s="367"/>
+      <c r="AD30" s="367"/>
+      <c r="AE30" s="367"/>
       <c r="AG30" s="361" t="s">
         <v>292</v>
       </c>
@@ -12874,14 +12868,14 @@
         <v>64.285714285714292</v>
       </c>
     </row>
-    <row r="31" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="31" spans="6:40" x14ac:dyDescent="0.3">
       <c r="P31" s="63"/>
       <c r="Q31" s="64"/>
       <c r="R31" s="1"/>
-      <c r="AB31" s="368"/>
-      <c r="AC31" s="368"/>
-      <c r="AD31" s="368"/>
-      <c r="AE31" s="368"/>
+      <c r="AB31" s="367"/>
+      <c r="AC31" s="367"/>
+      <c r="AD31" s="367"/>
+      <c r="AE31" s="367"/>
       <c r="AG31" s="361" t="s">
         <v>292</v>
       </c>
@@ -12909,14 +12903,14 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="32" spans="6:40" x14ac:dyDescent="0.75">
+    <row r="32" spans="6:40" x14ac:dyDescent="0.3">
       <c r="P32" s="63"/>
       <c r="Q32" s="64"/>
       <c r="R32" s="1"/>
-      <c r="AB32" s="368"/>
-      <c r="AC32" s="368"/>
-      <c r="AD32" s="368"/>
-      <c r="AE32" s="368"/>
+      <c r="AB32" s="367"/>
+      <c r="AC32" s="367"/>
+      <c r="AD32" s="367"/>
+      <c r="AE32" s="367"/>
       <c r="AG32" s="361" t="s">
         <v>292</v>
       </c>
@@ -12944,14 +12938,14 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="33" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="33" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P33" s="63"/>
       <c r="Q33" s="64"/>
       <c r="R33" s="1"/>
-      <c r="AB33" s="368"/>
-      <c r="AC33" s="368"/>
-      <c r="AD33" s="368"/>
-      <c r="AE33" s="368"/>
+      <c r="AB33" s="367"/>
+      <c r="AC33" s="367"/>
+      <c r="AD33" s="367"/>
+      <c r="AE33" s="367"/>
       <c r="AG33" s="361" t="s">
         <v>292</v>
       </c>
@@ -12979,14 +12973,14 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="34" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="34" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P34" s="63"/>
       <c r="Q34" s="64"/>
       <c r="R34" s="1"/>
-      <c r="AB34" s="368"/>
-      <c r="AC34" s="368"/>
-      <c r="AD34" s="368"/>
-      <c r="AE34" s="368"/>
+      <c r="AB34" s="367"/>
+      <c r="AC34" s="367"/>
+      <c r="AD34" s="367"/>
+      <c r="AE34" s="367"/>
       <c r="AG34" s="361" t="s">
         <v>292</v>
       </c>
@@ -13014,14 +13008,14 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="35" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="35" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P35" s="63"/>
       <c r="Q35" s="64"/>
       <c r="R35" s="1"/>
-      <c r="AB35" s="368"/>
-      <c r="AC35" s="368"/>
-      <c r="AD35" s="368"/>
-      <c r="AE35" s="368"/>
+      <c r="AB35" s="367"/>
+      <c r="AC35" s="367"/>
+      <c r="AD35" s="367"/>
+      <c r="AE35" s="367"/>
       <c r="AG35" s="361" t="s">
         <v>292</v>
       </c>
@@ -13049,20 +13043,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="36" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P36" s="63"/>
       <c r="Q36" s="64"/>
       <c r="R36" s="1"/>
-      <c r="AB36" s="368" t="s">
+      <c r="AB36" s="367" t="s">
         <v>265</v>
       </c>
-      <c r="AC36" s="368" t="s">
+      <c r="AC36" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD36" s="368">
+      <c r="AD36" s="367">
         <v>11</v>
       </c>
-      <c r="AE36" s="368">
+      <c r="AE36" s="367">
         <v>11</v>
       </c>
       <c r="AG36" s="361" t="s">
@@ -13092,17 +13086,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB37" s="368" t="s">
+    <row r="37" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB37" s="367" t="s">
         <v>265</v>
       </c>
-      <c r="AC37" s="368" t="s">
+      <c r="AC37" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD37" s="368">
+      <c r="AD37" s="367">
         <v>8</v>
       </c>
-      <c r="AE37" s="368">
+      <c r="AE37" s="367">
         <v>10</v>
       </c>
       <c r="AG37" s="361" t="s">
@@ -13132,17 +13126,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB38" s="368" t="s">
+    <row r="38" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB38" s="367" t="s">
         <v>265</v>
       </c>
-      <c r="AC38" s="368" t="s">
+      <c r="AC38" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD38" s="368">
+      <c r="AD38" s="367">
         <v>6</v>
       </c>
-      <c r="AE38" s="368">
+      <c r="AE38" s="367">
         <v>6</v>
       </c>
       <c r="AG38" s="361" t="s">
@@ -13172,17 +13166,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB39" s="368" t="s">
+    <row r="39" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB39" s="367" t="s">
         <v>265</v>
       </c>
-      <c r="AC39" s="368" t="s">
+      <c r="AC39" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD39" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="368">
+      <c r="AD39" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="367">
         <v>0</v>
       </c>
       <c r="AG39" s="361" t="s">
@@ -13212,11 +13206,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB40" s="368"/>
-      <c r="AC40" s="368"/>
-      <c r="AD40" s="368"/>
-      <c r="AE40" s="368"/>
+    <row r="40" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB40" s="367"/>
+      <c r="AC40" s="367"/>
+      <c r="AD40" s="367"/>
+      <c r="AE40" s="367"/>
       <c r="AG40" s="361" t="s">
         <v>295</v>
       </c>
@@ -13244,14 +13238,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="41" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P41" s="63"/>
       <c r="Q41" s="64"/>
       <c r="R41" s="1"/>
-      <c r="AB41" s="368"/>
-      <c r="AC41" s="368"/>
-      <c r="AD41" s="368"/>
-      <c r="AE41" s="368"/>
+      <c r="AB41" s="367"/>
+      <c r="AC41" s="367"/>
+      <c r="AD41" s="367"/>
+      <c r="AE41" s="367"/>
       <c r="AG41" s="361" t="s">
         <v>295</v>
       </c>
@@ -13279,14 +13273,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="42" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P42" s="63"/>
       <c r="Q42" s="64"/>
       <c r="R42" s="1"/>
-      <c r="AB42" s="368"/>
-      <c r="AC42" s="368"/>
-      <c r="AD42" s="368"/>
-      <c r="AE42" s="368"/>
+      <c r="AB42" s="367"/>
+      <c r="AC42" s="367"/>
+      <c r="AD42" s="367"/>
+      <c r="AE42" s="367"/>
       <c r="AG42" s="361" t="s">
         <v>295</v>
       </c>
@@ -13314,14 +13308,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="43" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P43" s="63"/>
       <c r="Q43" s="64"/>
       <c r="R43" s="1"/>
-      <c r="AB43" s="368"/>
-      <c r="AC43" s="368"/>
-      <c r="AD43" s="368"/>
-      <c r="AE43" s="368"/>
+      <c r="AB43" s="367"/>
+      <c r="AC43" s="367"/>
+      <c r="AD43" s="367"/>
+      <c r="AE43" s="367"/>
       <c r="AG43" s="361" t="s">
         <v>295</v>
       </c>
@@ -13349,14 +13343,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="44" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P44" s="63"/>
       <c r="Q44" s="64"/>
       <c r="R44" s="1"/>
-      <c r="AB44" s="368"/>
-      <c r="AC44" s="368"/>
-      <c r="AD44" s="368"/>
-      <c r="AE44" s="368"/>
+      <c r="AB44" s="367"/>
+      <c r="AC44" s="367"/>
+      <c r="AD44" s="367"/>
+      <c r="AE44" s="367"/>
       <c r="AG44" s="361" t="s">
         <v>295</v>
       </c>
@@ -13384,14 +13378,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="45" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P45" s="63"/>
       <c r="Q45" s="64"/>
       <c r="R45" s="1"/>
-      <c r="AB45" s="368"/>
-      <c r="AC45" s="368"/>
-      <c r="AD45" s="368"/>
-      <c r="AE45" s="368"/>
+      <c r="AB45" s="367"/>
+      <c r="AC45" s="367"/>
+      <c r="AD45" s="367"/>
+      <c r="AE45" s="367"/>
       <c r="AG45" s="361" t="s">
         <v>295</v>
       </c>
@@ -13419,14 +13413,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="46" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P46" s="63"/>
       <c r="Q46" s="64"/>
       <c r="R46" s="1"/>
-      <c r="AB46" s="368"/>
-      <c r="AC46" s="368"/>
-      <c r="AD46" s="368"/>
-      <c r="AE46" s="368"/>
+      <c r="AB46" s="367"/>
+      <c r="AC46" s="367"/>
+      <c r="AD46" s="367"/>
+      <c r="AE46" s="367"/>
       <c r="AG46" s="361" t="s">
         <v>295</v>
       </c>
@@ -13454,14 +13448,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="47" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P47" s="63"/>
       <c r="Q47" s="64"/>
       <c r="R47" s="1"/>
-      <c r="AB47" s="368"/>
-      <c r="AC47" s="368"/>
-      <c r="AD47" s="368"/>
-      <c r="AE47" s="368"/>
+      <c r="AB47" s="367"/>
+      <c r="AC47" s="367"/>
+      <c r="AD47" s="367"/>
+      <c r="AE47" s="367"/>
       <c r="AG47" s="361" t="s">
         <v>295</v>
       </c>
@@ -13489,14 +13483,14 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="48" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P48" s="63"/>
       <c r="Q48" s="64"/>
       <c r="R48" s="1"/>
-      <c r="AB48" s="368"/>
-      <c r="AC48" s="368"/>
-      <c r="AD48" s="368"/>
-      <c r="AE48" s="368"/>
+      <c r="AB48" s="367"/>
+      <c r="AC48" s="367"/>
+      <c r="AD48" s="367"/>
+      <c r="AE48" s="367"/>
       <c r="AG48" s="361" t="s">
         <v>295</v>
       </c>
@@ -13524,14 +13518,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="49" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P49" s="63"/>
       <c r="Q49" s="64"/>
       <c r="R49" s="1"/>
-      <c r="AB49" s="368"/>
-      <c r="AC49" s="368"/>
-      <c r="AD49" s="368"/>
-      <c r="AE49" s="368"/>
+      <c r="AB49" s="367"/>
+      <c r="AC49" s="367"/>
+      <c r="AD49" s="367"/>
+      <c r="AE49" s="367"/>
       <c r="AG49" s="361" t="s">
         <v>295</v>
       </c>
@@ -13559,14 +13553,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="50" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P50" s="63"/>
       <c r="Q50" s="64"/>
       <c r="R50" s="1"/>
-      <c r="AB50" s="368"/>
-      <c r="AC50" s="368"/>
-      <c r="AD50" s="368"/>
-      <c r="AE50" s="368"/>
+      <c r="AB50" s="367"/>
+      <c r="AC50" s="367"/>
+      <c r="AD50" s="367"/>
+      <c r="AE50" s="367"/>
       <c r="AG50" s="361" t="s">
         <v>295</v>
       </c>
@@ -13594,14 +13588,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="51" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P51" s="63"/>
       <c r="Q51" s="64"/>
       <c r="R51" s="1"/>
-      <c r="AB51" s="368"/>
-      <c r="AC51" s="368"/>
-      <c r="AD51" s="368"/>
-      <c r="AE51" s="368"/>
+      <c r="AB51" s="367"/>
+      <c r="AC51" s="367"/>
+      <c r="AD51" s="367"/>
+      <c r="AE51" s="367"/>
       <c r="AG51" s="361" t="s">
         <v>295</v>
       </c>
@@ -13629,14 +13623,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="52" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P52" s="63"/>
       <c r="Q52" s="64"/>
       <c r="R52" s="1"/>
-      <c r="AB52" s="368"/>
-      <c r="AC52" s="368"/>
-      <c r="AD52" s="368"/>
-      <c r="AE52" s="368"/>
+      <c r="AB52" s="367"/>
+      <c r="AC52" s="367"/>
+      <c r="AD52" s="367"/>
+      <c r="AE52" s="367"/>
       <c r="AG52" s="361" t="s">
         <v>295</v>
       </c>
@@ -13664,14 +13658,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="53" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P53" s="63"/>
       <c r="Q53" s="64"/>
       <c r="R53" s="1"/>
-      <c r="AB53" s="368"/>
-      <c r="AC53" s="368"/>
-      <c r="AD53" s="368"/>
-      <c r="AE53" s="368"/>
+      <c r="AB53" s="367"/>
+      <c r="AC53" s="367"/>
+      <c r="AD53" s="367"/>
+      <c r="AE53" s="367"/>
       <c r="AG53" s="361" t="s">
         <v>295</v>
       </c>
@@ -13699,14 +13693,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="54" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P54" s="63"/>
       <c r="Q54" s="64"/>
       <c r="R54" s="1"/>
-      <c r="AB54" s="368"/>
-      <c r="AC54" s="368"/>
-      <c r="AD54" s="368"/>
-      <c r="AE54" s="368"/>
+      <c r="AB54" s="367"/>
+      <c r="AC54" s="367"/>
+      <c r="AD54" s="367"/>
+      <c r="AE54" s="367"/>
       <c r="AG54" s="361" t="s">
         <v>295</v>
       </c>
@@ -13734,14 +13728,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="55" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P55" s="63"/>
       <c r="Q55" s="64"/>
       <c r="R55" s="1"/>
-      <c r="AB55" s="368"/>
-      <c r="AC55" s="368"/>
-      <c r="AD55" s="368"/>
-      <c r="AE55" s="368"/>
+      <c r="AB55" s="367"/>
+      <c r="AC55" s="367"/>
+      <c r="AD55" s="367"/>
+      <c r="AE55" s="367"/>
       <c r="AG55" s="361" t="s">
         <v>295</v>
       </c>
@@ -13769,14 +13763,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="16:40" x14ac:dyDescent="0.75">
+    <row r="56" spans="16:40" x14ac:dyDescent="0.3">
       <c r="P56" s="63"/>
       <c r="Q56" s="64"/>
       <c r="R56" s="1"/>
-      <c r="AB56" s="368"/>
-      <c r="AC56" s="368"/>
-      <c r="AD56" s="368"/>
-      <c r="AE56" s="368"/>
+      <c r="AB56" s="367"/>
+      <c r="AC56" s="367"/>
+      <c r="AD56" s="367"/>
+      <c r="AE56" s="367"/>
       <c r="AG56" s="361" t="s">
         <v>295</v>
       </c>
@@ -13804,17 +13798,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB57" s="368" t="s">
+    <row r="57" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB57" s="367" t="s">
         <v>266</v>
       </c>
-      <c r="AC57" s="368" t="s">
+      <c r="AC57" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD57" s="368">
+      <c r="AD57" s="367">
         <v>11</v>
       </c>
-      <c r="AE57" s="368">
+      <c r="AE57" s="367">
         <v>4</v>
       </c>
       <c r="AG57" s="361" t="s">
@@ -13844,17 +13838,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB58" s="368" t="s">
+    <row r="58" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB58" s="367" t="s">
         <v>266</v>
       </c>
-      <c r="AC58" s="368" t="s">
+      <c r="AC58" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD58" s="368">
+      <c r="AD58" s="367">
         <v>8</v>
       </c>
-      <c r="AE58" s="368">
+      <c r="AE58" s="367">
         <v>3</v>
       </c>
       <c r="AG58" s="361" t="s">
@@ -13884,17 +13878,17 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="59" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB59" s="368" t="s">
+    <row r="59" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB59" s="367" t="s">
         <v>266</v>
       </c>
-      <c r="AC59" s="368" t="s">
+      <c r="AC59" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD59" s="368">
+      <c r="AD59" s="367">
         <v>6</v>
       </c>
-      <c r="AE59" s="368">
+      <c r="AE59" s="367">
         <v>2</v>
       </c>
       <c r="AG59" s="361" t="s">
@@ -13924,17 +13918,17 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="60" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB60" s="368" t="s">
+    <row r="60" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB60" s="367" t="s">
         <v>266</v>
       </c>
-      <c r="AC60" s="368" t="s">
+      <c r="AC60" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD60" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="368">
+      <c r="AD60" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="367">
         <v>0</v>
       </c>
       <c r="AG60" s="361" t="s">
@@ -13964,11 +13958,11 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="61" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB61" s="368"/>
-      <c r="AC61" s="368"/>
-      <c r="AD61" s="368"/>
-      <c r="AE61" s="368"/>
+    <row r="61" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB61" s="367"/>
+      <c r="AC61" s="367"/>
+      <c r="AD61" s="367"/>
+      <c r="AE61" s="367"/>
       <c r="AG61" s="361" t="s">
         <v>287</v>
       </c>
@@ -13996,11 +13990,11 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="62" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB62" s="368"/>
-      <c r="AC62" s="368"/>
-      <c r="AD62" s="368"/>
-      <c r="AE62" s="368"/>
+    <row r="62" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB62" s="367"/>
+      <c r="AC62" s="367"/>
+      <c r="AD62" s="367"/>
+      <c r="AE62" s="367"/>
       <c r="AG62" s="361" t="s">
         <v>287</v>
       </c>
@@ -14028,11 +14022,11 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="63" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB63" s="368"/>
-      <c r="AC63" s="368"/>
-      <c r="AD63" s="368"/>
-      <c r="AE63" s="368"/>
+    <row r="63" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB63" s="367"/>
+      <c r="AC63" s="367"/>
+      <c r="AD63" s="367"/>
+      <c r="AE63" s="367"/>
       <c r="AG63" s="361" t="s">
         <v>287</v>
       </c>
@@ -14060,11 +14054,11 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="64" spans="16:40" x14ac:dyDescent="0.75">
-      <c r="AB64" s="368"/>
-      <c r="AC64" s="368"/>
-      <c r="AD64" s="368"/>
-      <c r="AE64" s="368"/>
+    <row r="64" spans="16:40" x14ac:dyDescent="0.3">
+      <c r="AB64" s="367"/>
+      <c r="AC64" s="367"/>
+      <c r="AD64" s="367"/>
+      <c r="AE64" s="367"/>
       <c r="AG64" s="361" t="s">
         <v>287</v>
       </c>
@@ -14092,17 +14086,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB65" s="368" t="s">
+    <row r="65" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB65" s="367" t="s">
         <v>267</v>
       </c>
-      <c r="AC65" s="368" t="s">
+      <c r="AC65" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD65" s="368">
+      <c r="AD65" s="367">
         <v>15</v>
       </c>
-      <c r="AE65" s="368">
+      <c r="AE65" s="367">
         <v>6</v>
       </c>
       <c r="AG65" s="361" t="s">
@@ -14132,17 +14126,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB66" s="368" t="s">
+    <row r="66" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB66" s="367" t="s">
         <v>267</v>
       </c>
-      <c r="AC66" s="368" t="s">
+      <c r="AC66" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD66" s="368">
+      <c r="AD66" s="367">
         <v>11</v>
       </c>
-      <c r="AE66" s="368">
+      <c r="AE66" s="367">
         <v>5</v>
       </c>
       <c r="AG66" s="361" t="s">
@@ -14172,17 +14166,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB67" s="368" t="s">
+    <row r="67" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB67" s="367" t="s">
         <v>267</v>
       </c>
-      <c r="AC67" s="368" t="s">
+      <c r="AC67" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD67" s="368">
+      <c r="AD67" s="367">
         <v>8</v>
       </c>
-      <c r="AE67" s="368">
+      <c r="AE67" s="367">
         <v>3</v>
       </c>
       <c r="AG67" s="361" t="s">
@@ -14212,17 +14206,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB68" s="368" t="s">
+    <row r="68" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB68" s="367" t="s">
         <v>267</v>
       </c>
-      <c r="AC68" s="368" t="s">
+      <c r="AC68" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD68" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="368">
+      <c r="AD68" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="367">
         <v>0</v>
       </c>
       <c r="AG68" s="361" t="s">
@@ -14252,11 +14246,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB69" s="368"/>
-      <c r="AC69" s="368"/>
-      <c r="AD69" s="368"/>
-      <c r="AE69" s="368"/>
+    <row r="69" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB69" s="367"/>
+      <c r="AC69" s="367"/>
+      <c r="AD69" s="367"/>
+      <c r="AE69" s="367"/>
       <c r="AG69" s="361" t="s">
         <v>290</v>
       </c>
@@ -14284,11 +14278,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB70" s="368"/>
-      <c r="AC70" s="368"/>
-      <c r="AD70" s="368"/>
-      <c r="AE70" s="368"/>
+    <row r="70" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB70" s="367"/>
+      <c r="AC70" s="367"/>
+      <c r="AD70" s="367"/>
+      <c r="AE70" s="367"/>
       <c r="AG70" s="361" t="s">
         <v>290</v>
       </c>
@@ -14316,11 +14310,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB71" s="368"/>
-      <c r="AC71" s="368"/>
-      <c r="AD71" s="368"/>
-      <c r="AE71" s="368"/>
+    <row r="71" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB71" s="367"/>
+      <c r="AC71" s="367"/>
+      <c r="AD71" s="367"/>
+      <c r="AE71" s="367"/>
       <c r="AG71" s="361" t="s">
         <v>290</v>
       </c>
@@ -14348,11 +14342,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB72" s="368"/>
-      <c r="AC72" s="368"/>
-      <c r="AD72" s="368"/>
-      <c r="AE72" s="368"/>
+    <row r="72" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB72" s="367"/>
+      <c r="AC72" s="367"/>
+      <c r="AD72" s="367"/>
+      <c r="AE72" s="367"/>
       <c r="AG72" s="361" t="s">
         <v>290</v>
       </c>
@@ -14380,11 +14374,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB73" s="368"/>
-      <c r="AC73" s="368"/>
-      <c r="AD73" s="368"/>
-      <c r="AE73" s="368"/>
+    <row r="73" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB73" s="367"/>
+      <c r="AC73" s="367"/>
+      <c r="AD73" s="367"/>
+      <c r="AE73" s="367"/>
       <c r="AG73" s="361" t="s">
         <v>290</v>
       </c>
@@ -14412,11 +14406,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB74" s="368"/>
-      <c r="AC74" s="368"/>
-      <c r="AD74" s="368"/>
-      <c r="AE74" s="368"/>
+    <row r="74" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB74" s="367"/>
+      <c r="AC74" s="367"/>
+      <c r="AD74" s="367"/>
+      <c r="AE74" s="367"/>
       <c r="AG74" s="361" t="s">
         <v>290</v>
       </c>
@@ -14444,11 +14438,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB75" s="368"/>
-      <c r="AC75" s="368"/>
-      <c r="AD75" s="368"/>
-      <c r="AE75" s="368"/>
+    <row r="75" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB75" s="367"/>
+      <c r="AC75" s="367"/>
+      <c r="AD75" s="367"/>
+      <c r="AE75" s="367"/>
       <c r="AG75" s="361" t="s">
         <v>290</v>
       </c>
@@ -14476,17 +14470,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB76" s="368" t="s">
+    <row r="76" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB76" s="367" t="s">
         <v>268</v>
       </c>
-      <c r="AC76" s="368" t="s">
+      <c r="AC76" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD76" s="368">
+      <c r="AD76" s="367">
         <v>17</v>
       </c>
-      <c r="AE76" s="368">
+      <c r="AE76" s="367">
         <v>8</v>
       </c>
       <c r="AG76" s="361" t="s">
@@ -14516,17 +14510,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB77" s="368" t="s">
+    <row r="77" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB77" s="367" t="s">
         <v>268</v>
       </c>
-      <c r="AC77" s="368" t="s">
+      <c r="AC77" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD77" s="368">
+      <c r="AD77" s="367">
         <v>12</v>
       </c>
-      <c r="AE77" s="368">
+      <c r="AE77" s="367">
         <v>7</v>
       </c>
       <c r="AG77" s="361" t="s">
@@ -14556,17 +14550,17 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="78" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB78" s="368" t="s">
+    <row r="78" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB78" s="367" t="s">
         <v>268</v>
       </c>
-      <c r="AC78" s="368" t="s">
+      <c r="AC78" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD78" s="368">
+      <c r="AD78" s="367">
         <v>9</v>
       </c>
-      <c r="AE78" s="368">
+      <c r="AE78" s="367">
         <v>4</v>
       </c>
       <c r="AG78" s="361" t="s">
@@ -14596,17 +14590,17 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="79" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB79" s="368" t="s">
+    <row r="79" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB79" s="367" t="s">
         <v>268</v>
       </c>
-      <c r="AC79" s="368" t="s">
+      <c r="AC79" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD79" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="368">
+      <c r="AD79" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="367">
         <v>0</v>
       </c>
       <c r="AG79" s="361" t="s">
@@ -14636,11 +14630,11 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="80" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB80" s="368"/>
-      <c r="AC80" s="368"/>
-      <c r="AD80" s="368"/>
-      <c r="AE80" s="368"/>
+    <row r="80" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB80" s="367"/>
+      <c r="AC80" s="367"/>
+      <c r="AD80" s="367"/>
+      <c r="AE80" s="367"/>
       <c r="AG80" s="361" t="s">
         <v>293</v>
       </c>
@@ -14668,11 +14662,11 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="81" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB81" s="368"/>
-      <c r="AC81" s="368"/>
-      <c r="AD81" s="368"/>
-      <c r="AE81" s="368"/>
+    <row r="81" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB81" s="367"/>
+      <c r="AC81" s="367"/>
+      <c r="AD81" s="367"/>
+      <c r="AE81" s="367"/>
       <c r="AG81" s="361" t="s">
         <v>293</v>
       </c>
@@ -14700,11 +14694,11 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="82" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB82" s="368"/>
-      <c r="AC82" s="368"/>
-      <c r="AD82" s="368"/>
-      <c r="AE82" s="368"/>
+    <row r="82" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB82" s="367"/>
+      <c r="AC82" s="367"/>
+      <c r="AD82" s="367"/>
+      <c r="AE82" s="367"/>
       <c r="AG82" s="361" t="s">
         <v>293</v>
       </c>
@@ -14732,11 +14726,11 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="83" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB83" s="368"/>
-      <c r="AC83" s="368"/>
-      <c r="AD83" s="368"/>
-      <c r="AE83" s="368"/>
+    <row r="83" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB83" s="367"/>
+      <c r="AC83" s="367"/>
+      <c r="AD83" s="367"/>
+      <c r="AE83" s="367"/>
       <c r="AG83" s="361" t="s">
         <v>293</v>
       </c>
@@ -14764,11 +14758,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB84" s="368"/>
-      <c r="AC84" s="368"/>
-      <c r="AD84" s="368"/>
-      <c r="AE84" s="368"/>
+    <row r="84" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB84" s="367"/>
+      <c r="AC84" s="367"/>
+      <c r="AD84" s="367"/>
+      <c r="AE84" s="367"/>
       <c r="AG84" s="361" t="s">
         <v>293</v>
       </c>
@@ -14796,11 +14790,11 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="85" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB85" s="368"/>
-      <c r="AC85" s="368"/>
-      <c r="AD85" s="368"/>
-      <c r="AE85" s="368"/>
+    <row r="85" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB85" s="367"/>
+      <c r="AC85" s="367"/>
+      <c r="AD85" s="367"/>
+      <c r="AE85" s="367"/>
       <c r="AG85" s="361" t="s">
         <v>293</v>
       </c>
@@ -14828,11 +14822,11 @@
         <v>64.285714285714292</v>
       </c>
     </row>
-    <row r="86" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB86" s="368"/>
-      <c r="AC86" s="368"/>
-      <c r="AD86" s="368"/>
-      <c r="AE86" s="368"/>
+    <row r="86" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB86" s="367"/>
+      <c r="AC86" s="367"/>
+      <c r="AD86" s="367"/>
+      <c r="AE86" s="367"/>
       <c r="AG86" s="361" t="s">
         <v>293</v>
       </c>
@@ -14860,11 +14854,11 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="87" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB87" s="368"/>
-      <c r="AC87" s="368"/>
-      <c r="AD87" s="368"/>
-      <c r="AE87" s="368"/>
+    <row r="87" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB87" s="367"/>
+      <c r="AC87" s="367"/>
+      <c r="AD87" s="367"/>
+      <c r="AE87" s="367"/>
       <c r="AG87" s="361" t="s">
         <v>293</v>
       </c>
@@ -14892,11 +14886,11 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="88" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB88" s="368"/>
-      <c r="AC88" s="368"/>
-      <c r="AD88" s="368"/>
-      <c r="AE88" s="368"/>
+    <row r="88" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB88" s="367"/>
+      <c r="AC88" s="367"/>
+      <c r="AD88" s="367"/>
+      <c r="AE88" s="367"/>
       <c r="AG88" s="361" t="s">
         <v>293</v>
       </c>
@@ -14924,11 +14918,11 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="89" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB89" s="368"/>
-      <c r="AC89" s="368"/>
-      <c r="AD89" s="368"/>
-      <c r="AE89" s="368"/>
+    <row r="89" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB89" s="367"/>
+      <c r="AC89" s="367"/>
+      <c r="AD89" s="367"/>
+      <c r="AE89" s="367"/>
       <c r="AG89" s="361" t="s">
         <v>293</v>
       </c>
@@ -14956,11 +14950,11 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="90" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB90" s="368"/>
-      <c r="AC90" s="368"/>
-      <c r="AD90" s="368"/>
-      <c r="AE90" s="368"/>
+    <row r="90" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB90" s="367"/>
+      <c r="AC90" s="367"/>
+      <c r="AD90" s="367"/>
+      <c r="AE90" s="367"/>
       <c r="AG90" s="361" t="s">
         <v>293</v>
       </c>
@@ -14988,17 +14982,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB91" s="368" t="s">
+    <row r="91" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB91" s="367" t="s">
         <v>269</v>
       </c>
-      <c r="AC91" s="368" t="s">
+      <c r="AC91" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD91" s="368">
+      <c r="AD91" s="367">
         <v>19</v>
       </c>
-      <c r="AE91" s="368">
+      <c r="AE91" s="367">
         <v>11</v>
       </c>
       <c r="AG91" s="361" t="s">
@@ -15028,17 +15022,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB92" s="368" t="s">
+    <row r="92" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB92" s="367" t="s">
         <v>269</v>
       </c>
-      <c r="AC92" s="368" t="s">
+      <c r="AC92" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD92" s="368">
+      <c r="AD92" s="367">
         <v>14</v>
       </c>
-      <c r="AE92" s="368">
+      <c r="AE92" s="367">
         <v>10</v>
       </c>
       <c r="AG92" s="361" t="s">
@@ -15068,17 +15062,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB93" s="368" t="s">
+    <row r="93" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB93" s="367" t="s">
         <v>269</v>
       </c>
-      <c r="AC93" s="368" t="s">
+      <c r="AC93" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD93" s="368">
-        <v>10</v>
-      </c>
-      <c r="AE93" s="368">
+      <c r="AD93" s="367">
+        <v>10</v>
+      </c>
+      <c r="AE93" s="367">
         <v>6</v>
       </c>
       <c r="AG93" s="361" t="s">
@@ -15108,17 +15102,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB94" s="368" t="s">
+    <row r="94" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB94" s="367" t="s">
         <v>269</v>
       </c>
-      <c r="AC94" s="368" t="s">
+      <c r="AC94" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD94" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE94" s="368">
+      <c r="AD94" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="367">
         <v>0</v>
       </c>
       <c r="AG94" s="361" t="s">
@@ -15148,11 +15142,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB95" s="368"/>
-      <c r="AC95" s="368"/>
-      <c r="AD95" s="368"/>
-      <c r="AE95" s="368"/>
+    <row r="95" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB95" s="367"/>
+      <c r="AC95" s="367"/>
+      <c r="AD95" s="367"/>
+      <c r="AE95" s="367"/>
       <c r="AG95" s="361" t="s">
         <v>296</v>
       </c>
@@ -15180,11 +15174,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB96" s="368"/>
-      <c r="AC96" s="368"/>
-      <c r="AD96" s="368"/>
-      <c r="AE96" s="368"/>
+    <row r="96" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB96" s="367"/>
+      <c r="AC96" s="367"/>
+      <c r="AD96" s="367"/>
+      <c r="AE96" s="367"/>
       <c r="AG96" s="361" t="s">
         <v>296</v>
       </c>
@@ -15212,11 +15206,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB97" s="368"/>
-      <c r="AC97" s="368"/>
-      <c r="AD97" s="368"/>
-      <c r="AE97" s="368"/>
+    <row r="97" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB97" s="367"/>
+      <c r="AC97" s="367"/>
+      <c r="AD97" s="367"/>
+      <c r="AE97" s="367"/>
       <c r="AG97" s="361" t="s">
         <v>296</v>
       </c>
@@ -15244,11 +15238,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB98" s="368"/>
-      <c r="AC98" s="368"/>
-      <c r="AD98" s="368"/>
-      <c r="AE98" s="368"/>
+    <row r="98" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB98" s="367"/>
+      <c r="AC98" s="367"/>
+      <c r="AD98" s="367"/>
+      <c r="AE98" s="367"/>
       <c r="AG98" s="361" t="s">
         <v>296</v>
       </c>
@@ -15276,11 +15270,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB99" s="368"/>
-      <c r="AC99" s="368"/>
-      <c r="AD99" s="368"/>
-      <c r="AE99" s="368"/>
+    <row r="99" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB99" s="367"/>
+      <c r="AC99" s="367"/>
+      <c r="AD99" s="367"/>
+      <c r="AE99" s="367"/>
       <c r="AG99" s="361" t="s">
         <v>296</v>
       </c>
@@ -15308,11 +15302,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB100" s="368"/>
-      <c r="AC100" s="368"/>
-      <c r="AD100" s="368"/>
-      <c r="AE100" s="368"/>
+    <row r="100" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB100" s="367"/>
+      <c r="AC100" s="367"/>
+      <c r="AD100" s="367"/>
+      <c r="AE100" s="367"/>
       <c r="AG100" s="361" t="s">
         <v>296</v>
       </c>
@@ -15340,11 +15334,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB101" s="368"/>
-      <c r="AC101" s="368"/>
-      <c r="AD101" s="368"/>
-      <c r="AE101" s="368"/>
+    <row r="101" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB101" s="367"/>
+      <c r="AC101" s="367"/>
+      <c r="AD101" s="367"/>
+      <c r="AE101" s="367"/>
       <c r="AG101" s="361" t="s">
         <v>296</v>
       </c>
@@ -15372,11 +15366,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB102" s="368"/>
-      <c r="AC102" s="368"/>
-      <c r="AD102" s="368"/>
-      <c r="AE102" s="368"/>
+    <row r="102" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB102" s="367"/>
+      <c r="AC102" s="367"/>
+      <c r="AD102" s="367"/>
+      <c r="AE102" s="367"/>
       <c r="AG102" s="361" t="s">
         <v>296</v>
       </c>
@@ -15404,11 +15398,11 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="103" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB103" s="368"/>
-      <c r="AC103" s="368"/>
-      <c r="AD103" s="368"/>
-      <c r="AE103" s="368"/>
+    <row r="103" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB103" s="367"/>
+      <c r="AC103" s="367"/>
+      <c r="AD103" s="367"/>
+      <c r="AE103" s="367"/>
       <c r="AG103" s="361" t="s">
         <v>296</v>
       </c>
@@ -15436,11 +15430,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB104" s="368"/>
-      <c r="AC104" s="368"/>
-      <c r="AD104" s="368"/>
-      <c r="AE104" s="368"/>
+    <row r="104" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB104" s="367"/>
+      <c r="AC104" s="367"/>
+      <c r="AD104" s="367"/>
+      <c r="AE104" s="367"/>
       <c r="AG104" s="361" t="s">
         <v>296</v>
       </c>
@@ -15468,11 +15462,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB105" s="368"/>
-      <c r="AC105" s="368"/>
-      <c r="AD105" s="368"/>
-      <c r="AE105" s="368"/>
+    <row r="105" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB105" s="367"/>
+      <c r="AC105" s="367"/>
+      <c r="AD105" s="367"/>
+      <c r="AE105" s="367"/>
       <c r="AG105" s="361" t="s">
         <v>296</v>
       </c>
@@ -15500,11 +15494,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB106" s="368"/>
-      <c r="AC106" s="368"/>
-      <c r="AD106" s="368"/>
-      <c r="AE106" s="368"/>
+    <row r="106" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB106" s="367"/>
+      <c r="AC106" s="367"/>
+      <c r="AD106" s="367"/>
+      <c r="AE106" s="367"/>
       <c r="AG106" s="361" t="s">
         <v>296</v>
       </c>
@@ -15532,11 +15526,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB107" s="368"/>
-      <c r="AC107" s="368"/>
-      <c r="AD107" s="368"/>
-      <c r="AE107" s="368"/>
+    <row r="107" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB107" s="367"/>
+      <c r="AC107" s="367"/>
+      <c r="AD107" s="367"/>
+      <c r="AE107" s="367"/>
       <c r="AG107" s="361" t="s">
         <v>296</v>
       </c>
@@ -15564,11 +15558,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB108" s="368"/>
-      <c r="AC108" s="368"/>
-      <c r="AD108" s="368"/>
-      <c r="AE108" s="368"/>
+    <row r="108" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB108" s="367"/>
+      <c r="AC108" s="367"/>
+      <c r="AD108" s="367"/>
+      <c r="AE108" s="367"/>
       <c r="AG108" s="361" t="s">
         <v>296</v>
       </c>
@@ -15596,11 +15590,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB109" s="368"/>
-      <c r="AC109" s="368"/>
-      <c r="AD109" s="368"/>
-      <c r="AE109" s="368"/>
+    <row r="109" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB109" s="367"/>
+      <c r="AC109" s="367"/>
+      <c r="AD109" s="367"/>
+      <c r="AE109" s="367"/>
       <c r="AG109" s="361" t="s">
         <v>296</v>
       </c>
@@ -15628,11 +15622,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB110" s="368"/>
-      <c r="AC110" s="368"/>
-      <c r="AD110" s="368"/>
-      <c r="AE110" s="368"/>
+    <row r="110" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB110" s="367"/>
+      <c r="AC110" s="367"/>
+      <c r="AD110" s="367"/>
+      <c r="AE110" s="367"/>
       <c r="AG110" s="361" t="s">
         <v>296</v>
       </c>
@@ -15660,11 +15654,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB111" s="368"/>
-      <c r="AC111" s="368"/>
-      <c r="AD111" s="368"/>
-      <c r="AE111" s="368"/>
+    <row r="111" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB111" s="367"/>
+      <c r="AC111" s="367"/>
+      <c r="AD111" s="367"/>
+      <c r="AE111" s="367"/>
       <c r="AG111" s="361" t="s">
         <v>296</v>
       </c>
@@ -15692,17 +15686,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB112" s="368" t="s">
+    <row r="112" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB112" s="367" t="s">
         <v>270</v>
       </c>
-      <c r="AC112" s="368" t="s">
+      <c r="AC112" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD112" s="368">
+      <c r="AD112" s="367">
         <v>15</v>
       </c>
-      <c r="AE112" s="368">
+      <c r="AE112" s="367">
         <v>4</v>
       </c>
       <c r="AG112" s="361" t="s">
@@ -15732,17 +15726,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB113" s="368" t="s">
+    <row r="113" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB113" s="367" t="s">
         <v>270</v>
       </c>
-      <c r="AC113" s="368" t="s">
+      <c r="AC113" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD113" s="368">
+      <c r="AD113" s="367">
         <v>11</v>
       </c>
-      <c r="AE113" s="368">
+      <c r="AE113" s="367">
         <v>3</v>
       </c>
       <c r="AG113" s="361" t="s">
@@ -15772,17 +15766,17 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="114" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB114" s="368" t="s">
+    <row r="114" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB114" s="367" t="s">
         <v>270</v>
       </c>
-      <c r="AC114" s="368" t="s">
+      <c r="AC114" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD114" s="368">
+      <c r="AD114" s="367">
         <v>8</v>
       </c>
-      <c r="AE114" s="368">
+      <c r="AE114" s="367">
         <v>2</v>
       </c>
       <c r="AG114" s="361" t="s">
@@ -15812,17 +15806,17 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="115" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB115" s="368" t="s">
+    <row r="115" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB115" s="367" t="s">
         <v>270</v>
       </c>
-      <c r="AC115" s="368" t="s">
+      <c r="AC115" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD115" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE115" s="368">
+      <c r="AD115" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="367">
         <v>0</v>
       </c>
       <c r="AG115" s="361" t="s">
@@ -15852,11 +15846,11 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="116" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB116" s="368"/>
-      <c r="AC116" s="368"/>
-      <c r="AD116" s="368"/>
-      <c r="AE116" s="368"/>
+    <row r="116" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB116" s="367"/>
+      <c r="AC116" s="367"/>
+      <c r="AD116" s="367"/>
+      <c r="AE116" s="367"/>
       <c r="AG116" s="361" t="s">
         <v>288</v>
       </c>
@@ -15884,11 +15878,11 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="117" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB117" s="368"/>
-      <c r="AC117" s="368"/>
-      <c r="AD117" s="368"/>
-      <c r="AE117" s="368"/>
+    <row r="117" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB117" s="367"/>
+      <c r="AC117" s="367"/>
+      <c r="AD117" s="367"/>
+      <c r="AE117" s="367"/>
       <c r="AG117" s="361" t="s">
         <v>288</v>
       </c>
@@ -15916,11 +15910,11 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="118" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB118" s="368"/>
-      <c r="AC118" s="368"/>
-      <c r="AD118" s="368"/>
-      <c r="AE118" s="368"/>
+    <row r="118" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB118" s="367"/>
+      <c r="AC118" s="367"/>
+      <c r="AD118" s="367"/>
+      <c r="AE118" s="367"/>
       <c r="AG118" s="361" t="s">
         <v>288</v>
       </c>
@@ -15948,11 +15942,11 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="119" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB119" s="368"/>
-      <c r="AC119" s="368"/>
-      <c r="AD119" s="368"/>
-      <c r="AE119" s="368"/>
+    <row r="119" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB119" s="367"/>
+      <c r="AC119" s="367"/>
+      <c r="AD119" s="367"/>
+      <c r="AE119" s="367"/>
       <c r="AG119" s="361" t="s">
         <v>288</v>
       </c>
@@ -15980,17 +15974,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB120" s="368" t="s">
+    <row r="120" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB120" s="367" t="s">
         <v>271</v>
       </c>
-      <c r="AC120" s="368" t="s">
+      <c r="AC120" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD120" s="368">
+      <c r="AD120" s="367">
         <v>21</v>
       </c>
-      <c r="AE120" s="368">
+      <c r="AE120" s="367">
         <v>6</v>
       </c>
       <c r="AG120" s="361" t="s">
@@ -16020,17 +16014,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB121" s="368" t="s">
+    <row r="121" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB121" s="367" t="s">
         <v>271</v>
       </c>
-      <c r="AC121" s="368" t="s">
+      <c r="AC121" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD121" s="368">
+      <c r="AD121" s="367">
         <v>15</v>
       </c>
-      <c r="AE121" s="368">
+      <c r="AE121" s="367">
         <v>5</v>
       </c>
       <c r="AG121" s="361" t="s">
@@ -16060,17 +16054,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB122" s="368" t="s">
+    <row r="122" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB122" s="367" t="s">
         <v>271</v>
       </c>
-      <c r="AC122" s="368" t="s">
+      <c r="AC122" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD122" s="368">
+      <c r="AD122" s="367">
         <v>11</v>
       </c>
-      <c r="AE122" s="368">
+      <c r="AE122" s="367">
         <v>3</v>
       </c>
       <c r="AG122" s="361" t="s">
@@ -16100,17 +16094,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB123" s="368" t="s">
+    <row r="123" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB123" s="367" t="s">
         <v>271</v>
       </c>
-      <c r="AC123" s="368" t="s">
+      <c r="AC123" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD123" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE123" s="368">
+      <c r="AD123" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="367">
         <v>0</v>
       </c>
       <c r="AG123" s="361" t="s">
@@ -16140,11 +16134,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB124" s="368"/>
-      <c r="AC124" s="368"/>
-      <c r="AD124" s="368"/>
-      <c r="AE124" s="368"/>
+    <row r="124" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB124" s="367"/>
+      <c r="AC124" s="367"/>
+      <c r="AD124" s="367"/>
+      <c r="AE124" s="367"/>
       <c r="AG124" s="361" t="s">
         <v>291</v>
       </c>
@@ -16172,11 +16166,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB125" s="368"/>
-      <c r="AC125" s="368"/>
-      <c r="AD125" s="368"/>
-      <c r="AE125" s="368"/>
+    <row r="125" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB125" s="367"/>
+      <c r="AC125" s="367"/>
+      <c r="AD125" s="367"/>
+      <c r="AE125" s="367"/>
       <c r="AG125" s="361" t="s">
         <v>291</v>
       </c>
@@ -16204,11 +16198,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB126" s="368"/>
-      <c r="AC126" s="368"/>
-      <c r="AD126" s="368"/>
-      <c r="AE126" s="368"/>
+    <row r="126" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB126" s="367"/>
+      <c r="AC126" s="367"/>
+      <c r="AD126" s="367"/>
+      <c r="AE126" s="367"/>
       <c r="AG126" s="361" t="s">
         <v>291</v>
       </c>
@@ -16236,11 +16230,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB127" s="368"/>
-      <c r="AC127" s="368"/>
-      <c r="AD127" s="368"/>
-      <c r="AE127" s="368"/>
+    <row r="127" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB127" s="367"/>
+      <c r="AC127" s="367"/>
+      <c r="AD127" s="367"/>
+      <c r="AE127" s="367"/>
       <c r="AG127" s="361" t="s">
         <v>291</v>
       </c>
@@ -16268,11 +16262,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB128" s="368"/>
-      <c r="AC128" s="368"/>
-      <c r="AD128" s="368"/>
-      <c r="AE128" s="368"/>
+    <row r="128" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB128" s="367"/>
+      <c r="AC128" s="367"/>
+      <c r="AD128" s="367"/>
+      <c r="AE128" s="367"/>
       <c r="AG128" s="361" t="s">
         <v>291</v>
       </c>
@@ -16300,11 +16294,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB129" s="368"/>
-      <c r="AC129" s="368"/>
-      <c r="AD129" s="368"/>
-      <c r="AE129" s="368"/>
+    <row r="129" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB129" s="367"/>
+      <c r="AC129" s="367"/>
+      <c r="AD129" s="367"/>
+      <c r="AE129" s="367"/>
       <c r="AG129" s="361" t="s">
         <v>291</v>
       </c>
@@ -16332,11 +16326,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB130" s="368"/>
-      <c r="AC130" s="368"/>
-      <c r="AD130" s="368"/>
-      <c r="AE130" s="368"/>
+    <row r="130" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB130" s="367"/>
+      <c r="AC130" s="367"/>
+      <c r="AD130" s="367"/>
+      <c r="AE130" s="367"/>
       <c r="AG130" s="361" t="s">
         <v>291</v>
       </c>
@@ -16364,17 +16358,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB131" s="368" t="s">
+    <row r="131" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB131" s="367" t="s">
         <v>272</v>
       </c>
-      <c r="AC131" s="368" t="s">
+      <c r="AC131" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD131" s="368">
+      <c r="AD131" s="367">
         <v>24</v>
       </c>
-      <c r="AE131" s="368">
+      <c r="AE131" s="367">
         <v>8</v>
       </c>
       <c r="AG131" s="361" t="s">
@@ -16404,17 +16398,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB132" s="368" t="s">
+    <row r="132" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB132" s="367" t="s">
         <v>272</v>
       </c>
-      <c r="AC132" s="368" t="s">
+      <c r="AC132" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD132" s="368">
+      <c r="AD132" s="367">
         <v>17</v>
       </c>
-      <c r="AE132" s="368">
+      <c r="AE132" s="367">
         <v>7</v>
       </c>
       <c r="AG132" s="361" t="s">
@@ -16444,17 +16438,17 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="133" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB133" s="368" t="s">
+    <row r="133" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB133" s="367" t="s">
         <v>272</v>
       </c>
-      <c r="AC133" s="368" t="s">
+      <c r="AC133" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD133" s="368">
+      <c r="AD133" s="367">
         <v>12</v>
       </c>
-      <c r="AE133" s="368">
+      <c r="AE133" s="367">
         <v>4</v>
       </c>
       <c r="AG133" s="361" t="s">
@@ -16484,17 +16478,17 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="134" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB134" s="368" t="s">
+    <row r="134" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB134" s="367" t="s">
         <v>272</v>
       </c>
-      <c r="AC134" s="368" t="s">
+      <c r="AC134" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD134" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE134" s="368">
+      <c r="AD134" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="367">
         <v>0</v>
       </c>
       <c r="AG134" s="361" t="s">
@@ -16524,11 +16518,11 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="135" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB135" s="368"/>
-      <c r="AC135" s="368"/>
-      <c r="AD135" s="368"/>
-      <c r="AE135" s="368"/>
+    <row r="135" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB135" s="367"/>
+      <c r="AC135" s="367"/>
+      <c r="AD135" s="367"/>
+      <c r="AE135" s="367"/>
       <c r="AG135" s="361" t="s">
         <v>294</v>
       </c>
@@ -16556,11 +16550,11 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="136" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB136" s="368"/>
-      <c r="AC136" s="368"/>
-      <c r="AD136" s="368"/>
-      <c r="AE136" s="368"/>
+    <row r="136" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB136" s="367"/>
+      <c r="AC136" s="367"/>
+      <c r="AD136" s="367"/>
+      <c r="AE136" s="367"/>
       <c r="AG136" s="361" t="s">
         <v>294</v>
       </c>
@@ -16588,11 +16582,11 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="137" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB137" s="368"/>
-      <c r="AC137" s="368"/>
-      <c r="AD137" s="368"/>
-      <c r="AE137" s="368"/>
+    <row r="137" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB137" s="367"/>
+      <c r="AC137" s="367"/>
+      <c r="AD137" s="367"/>
+      <c r="AE137" s="367"/>
       <c r="AG137" s="361" t="s">
         <v>294</v>
       </c>
@@ -16620,11 +16614,11 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="138" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB138" s="368"/>
-      <c r="AC138" s="368"/>
-      <c r="AD138" s="368"/>
-      <c r="AE138" s="368"/>
+    <row r="138" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB138" s="367"/>
+      <c r="AC138" s="367"/>
+      <c r="AD138" s="367"/>
+      <c r="AE138" s="367"/>
       <c r="AG138" s="361" t="s">
         <v>294</v>
       </c>
@@ -16652,11 +16646,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB139" s="368"/>
-      <c r="AC139" s="368"/>
-      <c r="AD139" s="368"/>
-      <c r="AE139" s="368"/>
+    <row r="139" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB139" s="367"/>
+      <c r="AC139" s="367"/>
+      <c r="AD139" s="367"/>
+      <c r="AE139" s="367"/>
       <c r="AG139" s="361" t="s">
         <v>294</v>
       </c>
@@ -16684,11 +16678,11 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="140" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB140" s="368"/>
-      <c r="AC140" s="368"/>
-      <c r="AD140" s="368"/>
-      <c r="AE140" s="368"/>
+    <row r="140" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB140" s="367"/>
+      <c r="AC140" s="367"/>
+      <c r="AD140" s="367"/>
+      <c r="AE140" s="367"/>
       <c r="AG140" s="361" t="s">
         <v>294</v>
       </c>
@@ -16716,11 +16710,11 @@
         <v>64.285714285714292</v>
       </c>
     </row>
-    <row r="141" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB141" s="368"/>
-      <c r="AC141" s="368"/>
-      <c r="AD141" s="368"/>
-      <c r="AE141" s="368"/>
+    <row r="141" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB141" s="367"/>
+      <c r="AC141" s="367"/>
+      <c r="AD141" s="367"/>
+      <c r="AE141" s="367"/>
       <c r="AG141" s="361" t="s">
         <v>294</v>
       </c>
@@ -16748,11 +16742,11 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="142" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB142" s="368"/>
-      <c r="AC142" s="368"/>
-      <c r="AD142" s="368"/>
-      <c r="AE142" s="368"/>
+    <row r="142" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB142" s="367"/>
+      <c r="AC142" s="367"/>
+      <c r="AD142" s="367"/>
+      <c r="AE142" s="367"/>
       <c r="AG142" s="361" t="s">
         <v>294</v>
       </c>
@@ -16780,11 +16774,11 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="143" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB143" s="368"/>
-      <c r="AC143" s="368"/>
-      <c r="AD143" s="368"/>
-      <c r="AE143" s="368"/>
+    <row r="143" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB143" s="367"/>
+      <c r="AC143" s="367"/>
+      <c r="AD143" s="367"/>
+      <c r="AE143" s="367"/>
       <c r="AG143" s="361" t="s">
         <v>294</v>
       </c>
@@ -16812,11 +16806,11 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="144" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB144" s="368"/>
-      <c r="AC144" s="368"/>
-      <c r="AD144" s="368"/>
-      <c r="AE144" s="368"/>
+    <row r="144" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB144" s="367"/>
+      <c r="AC144" s="367"/>
+      <c r="AD144" s="367"/>
+      <c r="AE144" s="367"/>
       <c r="AG144" s="361" t="s">
         <v>294</v>
       </c>
@@ -16844,11 +16838,11 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="145" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB145" s="368"/>
-      <c r="AC145" s="368"/>
-      <c r="AD145" s="368"/>
-      <c r="AE145" s="368"/>
+    <row r="145" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB145" s="367"/>
+      <c r="AC145" s="367"/>
+      <c r="AD145" s="367"/>
+      <c r="AE145" s="367"/>
       <c r="AG145" s="361" t="s">
         <v>294</v>
       </c>
@@ -16876,17 +16870,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB146" s="368" t="s">
+    <row r="146" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB146" s="367" t="s">
         <v>273</v>
       </c>
-      <c r="AC146" s="368" t="s">
+      <c r="AC146" s="367" t="s">
         <v>280</v>
       </c>
-      <c r="AD146" s="368">
+      <c r="AD146" s="367">
         <v>27</v>
       </c>
-      <c r="AE146" s="368">
+      <c r="AE146" s="367">
         <v>11</v>
       </c>
       <c r="AG146" s="361" t="s">
@@ -16916,17 +16910,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB147" s="368" t="s">
+    <row r="147" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB147" s="367" t="s">
         <v>273</v>
       </c>
-      <c r="AC147" s="368" t="s">
+      <c r="AC147" s="367" t="s">
         <v>278</v>
       </c>
-      <c r="AD147" s="368">
+      <c r="AD147" s="367">
         <v>19</v>
       </c>
-      <c r="AE147" s="368">
+      <c r="AE147" s="367">
         <v>10</v>
       </c>
       <c r="AG147" s="361" t="s">
@@ -16956,17 +16950,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB148" s="368" t="s">
+    <row r="148" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB148" s="367" t="s">
         <v>273</v>
       </c>
-      <c r="AC148" s="368" t="s">
+      <c r="AC148" s="367" t="s">
         <v>279</v>
       </c>
-      <c r="AD148" s="368">
+      <c r="AD148" s="367">
         <v>14</v>
       </c>
-      <c r="AE148" s="368">
+      <c r="AE148" s="367">
         <v>6</v>
       </c>
       <c r="AG148" s="361" t="s">
@@ -16996,17 +16990,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="28:40" x14ac:dyDescent="0.75">
-      <c r="AB149" s="368" t="s">
+    <row r="149" spans="28:40" x14ac:dyDescent="0.3">
+      <c r="AB149" s="367" t="s">
         <v>273</v>
       </c>
-      <c r="AC149" s="368" t="s">
+      <c r="AC149" s="367" t="s">
         <v>277</v>
       </c>
-      <c r="AD149" s="368">
-        <v>0</v>
-      </c>
-      <c r="AE149" s="368">
+      <c r="AD149" s="367">
+        <v>0</v>
+      </c>
+      <c r="AE149" s="367">
         <v>0</v>
       </c>
       <c r="AG149" s="361" t="s">
@@ -17036,7 +17030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="150" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG150" s="361" t="s">
         <v>297</v>
       </c>
@@ -17064,7 +17058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="151" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG151" s="361" t="s">
         <v>297</v>
       </c>
@@ -17092,7 +17086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="152" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG152" s="361" t="s">
         <v>297</v>
       </c>
@@ -17120,7 +17114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="153" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG153" s="361" t="s">
         <v>297</v>
       </c>
@@ -17148,7 +17142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="154" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG154" s="361" t="s">
         <v>297</v>
       </c>
@@ -17176,7 +17170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="155" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG155" s="361" t="s">
         <v>297</v>
       </c>
@@ -17204,7 +17198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="156" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG156" s="361" t="s">
         <v>297</v>
       </c>
@@ -17232,7 +17226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="157" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG157" s="361" t="s">
         <v>297</v>
       </c>
@@ -17260,7 +17254,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="158" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="158" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG158" s="361" t="s">
         <v>297</v>
       </c>
@@ -17288,7 +17282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="159" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG159" s="361" t="s">
         <v>297</v>
       </c>
@@ -17316,7 +17310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="28:40" x14ac:dyDescent="0.75">
+    <row r="160" spans="28:40" x14ac:dyDescent="0.3">
       <c r="AG160" s="361" t="s">
         <v>297</v>
       </c>
@@ -17344,7 +17338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="161" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="161" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG161" s="361" t="s">
         <v>297</v>
       </c>
@@ -17372,7 +17366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="162" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG162" s="361" t="s">
         <v>297</v>
       </c>
@@ -17400,7 +17394,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="163" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG163" s="361" t="s">
         <v>297</v>
       </c>
@@ -17428,7 +17422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="164" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG164" s="361" t="s">
         <v>297</v>
       </c>
@@ -17456,7 +17450,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="165" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG165" s="361" t="s">
         <v>297</v>
       </c>
@@ -17484,7 +17478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="166" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG166" s="361" t="s">
         <v>297</v>
       </c>
@@ -17512,7 +17506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="167" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG167" s="361" t="s">
         <v>304</v>
       </c>
@@ -17538,7 +17532,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="168" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG168" s="361" t="s">
         <v>310</v>
       </c>
@@ -17565,7 +17559,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="169" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG169" s="361" t="s">
         <v>310</v>
       </c>
@@ -17592,7 +17586,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="170" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG170" s="361" t="s">
         <v>310</v>
       </c>
@@ -17619,7 +17613,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="171" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG171" s="361" t="s">
         <v>310</v>
       </c>
@@ -17646,7 +17640,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="172" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG172" s="361" t="s">
         <v>310</v>
       </c>
@@ -17673,7 +17667,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="173" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG173" s="361" t="s">
         <v>310</v>
       </c>
@@ -17700,7 +17694,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="174" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG174" s="361" t="s">
         <v>310</v>
       </c>
@@ -17727,7 +17721,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="175" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG175" s="361" t="s">
         <v>310</v>
       </c>
@@ -17754,7 +17748,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="176" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG176" s="361" t="s">
         <v>311</v>
       </c>
@@ -17781,7 +17775,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="177" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG177" s="361" t="s">
         <v>311</v>
       </c>
@@ -17808,7 +17802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="178" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG178" s="361" t="s">
         <v>311</v>
       </c>
@@ -17835,7 +17829,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="179" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG179" s="361" t="s">
         <v>311</v>
       </c>
@@ -17862,7 +17856,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="180" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG180" s="361" t="s">
         <v>311</v>
       </c>
@@ -17889,7 +17883,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="181" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG181" s="361" t="s">
         <v>311</v>
       </c>
@@ -17916,7 +17910,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="182" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG182" s="361" t="s">
         <v>311</v>
       </c>
@@ -17943,7 +17937,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="183" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG183" s="361" t="s">
         <v>311</v>
       </c>
@@ -17970,7 +17964,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="184" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG184" s="361" t="s">
         <v>311</v>
       </c>
@@ -17997,7 +17991,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="185" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG185" s="361" t="s">
         <v>311</v>
       </c>
@@ -18024,7 +18018,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="186" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG186" s="361" t="s">
         <v>311</v>
       </c>
@@ -18051,7 +18045,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="187" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG187" s="361" t="s">
         <v>312</v>
       </c>
@@ -18078,7 +18072,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="188" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="188" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG188" s="361" t="s">
         <v>312</v>
       </c>
@@ -18105,7 +18099,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="189" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG189" s="361" t="s">
         <v>312</v>
       </c>
@@ -18132,7 +18126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="190" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG190" s="361" t="s">
         <v>312</v>
       </c>
@@ -18159,7 +18153,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="191" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG191" s="361" t="s">
         <v>312</v>
       </c>
@@ -18186,7 +18180,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="192" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG192" s="361" t="s">
         <v>312</v>
       </c>
@@ -18213,7 +18207,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="193" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG193" s="361" t="s">
         <v>312</v>
       </c>
@@ -18240,7 +18234,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="194" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG194" s="361" t="s">
         <v>312</v>
       </c>
@@ -18267,7 +18261,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="195" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG195" s="361" t="s">
         <v>312</v>
       </c>
@@ -18294,7 +18288,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="196" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="196" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG196" s="361" t="s">
         <v>312</v>
       </c>
@@ -18321,7 +18315,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="197" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG197" s="361" t="s">
         <v>312</v>
       </c>
@@ -18348,7 +18342,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="198" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG198" s="361" t="s">
         <v>312</v>
       </c>
@@ -18375,7 +18369,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="199" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG199" s="361" t="s">
         <v>312</v>
       </c>
@@ -18402,7 +18396,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="200" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG200" s="361" t="s">
         <v>312</v>
       </c>
@@ -18429,7 +18423,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="201" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG201" s="361" t="s">
         <v>312</v>
       </c>
@@ -18456,7 +18450,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="202" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG202" s="361" t="s">
         <v>313</v>
       </c>
@@ -18483,7 +18477,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="203" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG203" s="361" t="s">
         <v>313</v>
       </c>
@@ -18510,7 +18504,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="204" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG204" s="361" t="s">
         <v>313</v>
       </c>
@@ -18537,7 +18531,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="205" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="205" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG205" s="361" t="s">
         <v>313</v>
       </c>
@@ -18564,7 +18558,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="206" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="206" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG206" s="361" t="s">
         <v>313</v>
       </c>
@@ -18591,7 +18585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="207" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="207" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG207" s="361" t="s">
         <v>313</v>
       </c>
@@ -18618,7 +18612,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="208" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="208" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG208" s="361" t="s">
         <v>313</v>
       </c>
@@ -18645,7 +18639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="209" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="209" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG209" s="361" t="s">
         <v>313</v>
       </c>
@@ -18672,7 +18666,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="210" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="210" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG210" s="361" t="s">
         <v>313</v>
       </c>
@@ -18699,7 +18693,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="211" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG211" s="361" t="s">
         <v>313</v>
       </c>
@@ -18726,7 +18720,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="212" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="212" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG212" s="361" t="s">
         <v>313</v>
       </c>
@@ -18753,7 +18747,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="213" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG213" s="361" t="s">
         <v>313</v>
       </c>
@@ -18780,7 +18774,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="214" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="214" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG214" s="361" t="s">
         <v>313</v>
       </c>
@@ -18807,7 +18801,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="215" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="215" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG215" s="361" t="s">
         <v>313</v>
       </c>
@@ -18834,7 +18828,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="216" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="216" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG216" s="361" t="s">
         <v>313</v>
       </c>
@@ -18861,7 +18855,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="217" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="217" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG217" s="361" t="s">
         <v>313</v>
       </c>
@@ -18888,7 +18882,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="218" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG218" s="361" t="s">
         <v>313</v>
       </c>
@@ -18915,7 +18909,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="219" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="219" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG219" s="361" t="s">
         <v>313</v>
       </c>
@@ -18942,7 +18936,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="220" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="220" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG220" s="361" t="s">
         <v>313</v>
       </c>
@@ -18969,7 +18963,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="221" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="221" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG221" s="361" t="s">
         <v>313</v>
       </c>
@@ -18996,7 +18990,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="222" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="222" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG222" s="361" t="s">
         <v>313</v>
       </c>
@@ -19023,7 +19017,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="223" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="223" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG223" s="361" t="s">
         <v>307</v>
       </c>
@@ -19049,7 +19043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="224" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="224" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG224" s="361" t="s">
         <v>314</v>
       </c>
@@ -19076,7 +19070,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="225" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG225" s="361" t="s">
         <v>314</v>
       </c>
@@ -19103,7 +19097,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="226" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="226" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG226" s="361" t="s">
         <v>314</v>
       </c>
@@ -19130,7 +19124,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="227" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="227" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG227" s="361" t="s">
         <v>314</v>
       </c>
@@ -19157,7 +19151,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="228" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="228" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG228" s="361" t="s">
         <v>314</v>
       </c>
@@ -19184,7 +19178,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="229" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="229" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG229" s="361" t="s">
         <v>314</v>
       </c>
@@ -19211,7 +19205,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="230" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="230" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG230" s="361" t="s">
         <v>314</v>
       </c>
@@ -19238,7 +19232,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="231" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="231" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG231" s="361" t="s">
         <v>314</v>
       </c>
@@ -19265,7 +19259,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="232" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="232" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG232" s="361" t="s">
         <v>315</v>
       </c>
@@ -19292,7 +19286,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="233" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="233" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG233" s="361" t="s">
         <v>315</v>
       </c>
@@ -19319,7 +19313,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="234" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="234" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG234" s="361" t="s">
         <v>315</v>
       </c>
@@ -19346,7 +19340,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="235" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="235" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG235" s="361" t="s">
         <v>315</v>
       </c>
@@ -19373,7 +19367,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="236" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="236" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG236" s="361" t="s">
         <v>315</v>
       </c>
@@ -19400,7 +19394,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="237" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="237" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG237" s="361" t="s">
         <v>315</v>
       </c>
@@ -19427,7 +19421,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="238" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="238" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG238" s="361" t="s">
         <v>315</v>
       </c>
@@ -19454,7 +19448,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="239" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="239" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG239" s="361" t="s">
         <v>315</v>
       </c>
@@ -19481,7 +19475,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="240" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="240" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG240" s="361" t="s">
         <v>315</v>
       </c>
@@ -19508,7 +19502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="241" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG241" s="361" t="s">
         <v>315</v>
       </c>
@@ -19535,7 +19529,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="242" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG242" s="361" t="s">
         <v>315</v>
       </c>
@@ -19562,7 +19556,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="243" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="243" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG243" s="361" t="s">
         <v>316</v>
       </c>
@@ -19589,7 +19583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="244" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="244" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG244" s="361" t="s">
         <v>316</v>
       </c>
@@ -19616,7 +19610,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="245" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="245" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG245" s="361" t="s">
         <v>316</v>
       </c>
@@ -19643,7 +19637,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="246" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="246" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG246" s="361" t="s">
         <v>316</v>
       </c>
@@ -19670,7 +19664,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="247" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="247" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG247" s="361" t="s">
         <v>316</v>
       </c>
@@ -19697,7 +19691,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="248" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="248" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG248" s="361" t="s">
         <v>316</v>
       </c>
@@ -19724,7 +19718,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="249" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="249" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG249" s="361" t="s">
         <v>316</v>
       </c>
@@ -19751,7 +19745,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="250" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="250" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG250" s="361" t="s">
         <v>316</v>
       </c>
@@ -19778,7 +19772,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="251" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="251" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG251" s="361" t="s">
         <v>316</v>
       </c>
@@ -19805,7 +19799,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="252" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG252" s="361" t="s">
         <v>316</v>
       </c>
@@ -19832,7 +19826,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="253" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG253" s="361" t="s">
         <v>316</v>
       </c>
@@ -19859,7 +19853,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="254" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG254" s="361" t="s">
         <v>316</v>
       </c>
@@ -19886,7 +19880,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="255" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="255" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG255" s="361" t="s">
         <v>316</v>
       </c>
@@ -19913,7 +19907,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="256" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="256" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG256" s="361" t="s">
         <v>316</v>
       </c>
@@ -19940,7 +19934,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="257" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="257" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG257" s="361" t="s">
         <v>316</v>
       </c>
@@ -19967,7 +19961,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="258" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="258" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG258" s="361" t="s">
         <v>317</v>
       </c>
@@ -19994,7 +19988,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="259" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="259" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG259" s="361" t="s">
         <v>317</v>
       </c>
@@ -20021,7 +20015,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="260" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="260" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG260" s="361" t="s">
         <v>317</v>
       </c>
@@ -20048,7 +20042,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="261" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG261" s="361" t="s">
         <v>317</v>
       </c>
@@ -20075,7 +20069,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="262" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="262" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG262" s="361" t="s">
         <v>317</v>
       </c>
@@ -20102,7 +20096,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="263" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="263" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG263" s="361" t="s">
         <v>317</v>
       </c>
@@ -20129,7 +20123,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="264" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="264" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG264" s="361" t="s">
         <v>317</v>
       </c>
@@ -20156,7 +20150,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="265" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="265" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG265" s="361" t="s">
         <v>317</v>
       </c>
@@ -20183,7 +20177,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="266" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="266" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG266" s="361" t="s">
         <v>317</v>
       </c>
@@ -20210,7 +20204,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="267" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="267" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG267" s="361" t="s">
         <v>317</v>
       </c>
@@ -20237,7 +20231,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="268" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="268" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG268" s="361" t="s">
         <v>317</v>
       </c>
@@ -20264,7 +20258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="269" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="269" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG269" s="361" t="s">
         <v>317</v>
       </c>
@@ -20291,7 +20285,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="270" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="270" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG270" s="361" t="s">
         <v>317</v>
       </c>
@@ -20318,7 +20312,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="271" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="271" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG271" s="361" t="s">
         <v>317</v>
       </c>
@@ -20345,7 +20339,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="272" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="272" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG272" s="361" t="s">
         <v>317</v>
       </c>
@@ -20372,7 +20366,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="273" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG273" s="361" t="s">
         <v>317</v>
       </c>
@@ -20399,7 +20393,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="274" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="274" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG274" s="361" t="s">
         <v>317</v>
       </c>
@@ -20426,7 +20420,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="275" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="275" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG275" s="361" t="s">
         <v>317</v>
       </c>
@@ -20453,7 +20447,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="276" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="276" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG276" s="361" t="s">
         <v>317</v>
       </c>
@@ -20480,7 +20474,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="277" spans="33:40" x14ac:dyDescent="0.75">
+    <row r="277" spans="33:40" x14ac:dyDescent="0.3">
       <c r="AG277" s="361" t="s">
         <v>317</v>
       </c>
@@ -20507,7 +20501,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="278" spans="33:40" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="278" spans="33:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AG278" s="363" t="s">
         <v>317</v>
       </c>
@@ -20553,18 +20547,18 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="5.86328125" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -20593,7 +20587,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -20628,7 +20622,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -20663,7 +20657,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -20698,7 +20692,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -20733,7 +20727,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -20768,7 +20762,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -20803,7 +20797,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Charakter!A8</f>
         <v>Glück</v>
@@ -20835,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Charakter!A9</f>
         <v>Glaube</v>
@@ -20867,7 +20861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -20899,7 +20893,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -20930,7 +20924,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -20960,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -20991,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -21022,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -21053,7 +21047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -21084,7 +21078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -21115,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -21146,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -21177,7 +21171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -21208,7 +21202,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -21239,7 +21233,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -21271,7 +21265,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -21303,7 +21297,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -21335,7 +21329,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -21360,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -21385,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -21401,7 +21395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -21410,7 +21404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>132</v>
       </c>

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE175B-E148-4829-ABDA-9A3A8032CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E9664-1BFF-4B78-9B01-40533E45BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -3363,6 +3363,92 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3375,6 +3461,57 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3387,10 +3524,64 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3399,220 +3590,29 @@
     <xf numFmtId="0" fontId="7" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3662,6 +3662,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3670,36 +3678,36 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3710,20 +3718,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4686,43 +4686,43 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.2265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="3.21875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="0.77734375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="2.5546875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="2.88671875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.21875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="0.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.2265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.2265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.2265625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.76953125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="3.2265625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="0.76953125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.08984375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="2.54296875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="3.08984375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="2.86328125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.2265625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="0.76953125" style="6" customWidth="1"/>
     <col min="16" max="16" width="3" style="6" customWidth="1"/>
-    <col min="17" max="17" width="3.88671875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" style="27" customWidth="1"/>
-    <col min="20" max="20" width="6.109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="15.77734375" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.21875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="3.86328125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="5.08984375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="6.08984375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="3.86328125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="15.76953125" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.2265625" style="6" customWidth="1"/>
     <col min="25" max="25" width="6" style="6" customWidth="1"/>
-    <col min="26" max="26" width="3.21875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="14.21875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" style="6" customWidth="1"/>
-    <col min="29" max="29" width="16.77734375" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="11.21875" style="6"/>
+    <col min="26" max="26" width="3.2265625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="14.2265625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.54296875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="16.76953125" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="11.2265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="96" t="s">
         <v>246</v>
       </c>
@@ -4744,13 +4744,13 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="404" t="s">
+      <c r="J1" s="413" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="405"/>
-      <c r="L1" s="405"/>
-      <c r="M1" s="405"/>
-      <c r="N1" s="406"/>
+      <c r="K1" s="414"/>
+      <c r="L1" s="414"/>
+      <c r="M1" s="414"/>
+      <c r="N1" s="415"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -4765,22 +4765,22 @@
       <c r="V1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="379" t="s">
+      <c r="W1" s="374" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="380"/>
+      <c r="X1" s="376"/>
       <c r="Y1" s="3" t="s">
         <v>180</v>
       </c>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="379" t="s">
+      <c r="AA1" s="374" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="380"/>
+      <c r="AB1" s="376"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A2" s="97" t="s">
         <v>217</v>
       </c>
@@ -4792,13 +4792,13 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="428">
+      <c r="J2" s="384">
         <v>100</v>
       </c>
-      <c r="K2" s="429"/>
-      <c r="L2" s="429"/>
-      <c r="M2" s="429"/>
-      <c r="N2" s="430"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="386"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="5"/>
@@ -4813,23 +4813,23 @@
         <v>0</v>
       </c>
       <c r="U2" s="117"/>
-      <c r="V2" s="421" t="s">
+      <c r="V2" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="422"/>
-      <c r="X2" s="422"/>
-      <c r="Y2" s="423"/>
+      <c r="W2" s="378"/>
+      <c r="X2" s="378"/>
+      <c r="Y2" s="379"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="387" t="str">
+      <c r="AA2" s="433" t="str">
         <f>IF(Charakter!L2 = 0, "", Charakter!L2)</f>
         <v/>
       </c>
-      <c r="AB2" s="388"/>
+      <c r="AB2" s="434"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A3" s="99" t="s">
         <v>218</v>
       </c>
@@ -4874,16 +4874,16 @@
         <v>10</v>
       </c>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="391" t="str">
+      <c r="AA3" s="439" t="str">
         <f>IF(Charakter!L3 = 0, "", Charakter!L3)</f>
         <v/>
       </c>
-      <c r="AB3" s="392"/>
+      <c r="AB3" s="440"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A4" s="100" t="s">
         <v>219</v>
       </c>
@@ -4925,16 +4925,16 @@
         <v>10</v>
       </c>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="385" t="str">
+      <c r="AA4" s="431" t="str">
         <f>IF(Charakter!L4 = 0, "", Charakter!L4)</f>
         <v/>
       </c>
-      <c r="AB4" s="386"/>
+      <c r="AB4" s="432"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A5" s="103" t="s">
         <v>13</v>
       </c>
@@ -4977,16 +4977,16 @@
         <v>10</v>
       </c>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="391" t="str">
+      <c r="AA5" s="439" t="str">
         <f>IF(Charakter!L5 = 0, "", Charakter!L5)</f>
         <v/>
       </c>
-      <c r="AB5" s="392"/>
+      <c r="AB5" s="440"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="61" t="s">
         <v>15</v>
       </c>
@@ -5031,26 +5031,26 @@
         <v>10</v>
       </c>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="385" t="str">
+      <c r="AA6" s="431" t="str">
         <f>IF(Charakter!L6 = 0, "", Charakter!L6)</f>
         <v/>
       </c>
-      <c r="AB6" s="386"/>
+      <c r="AB6" s="432"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A7" s="96"/>
-      <c r="B7" s="407" t="s">
+      <c r="B7" s="419" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="410"/>
-      <c r="D7" s="407" t="s">
+      <c r="C7" s="422"/>
+      <c r="D7" s="419" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="408"/>
-      <c r="F7" s="409"/>
+      <c r="E7" s="420"/>
+      <c r="F7" s="421"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5087,25 +5087,25 @@
         <v>10</v>
       </c>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="391" t="str">
+      <c r="AA7" s="439" t="str">
         <f>IF(Charakter!L7 = 0, "", Charakter!L7)</f>
         <v/>
       </c>
-      <c r="AB7" s="392"/>
+      <c r="AB7" s="440"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A8" s="236" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="411"/>
-      <c r="C8" s="412"/>
-      <c r="D8" s="411"/>
-      <c r="E8" s="415"/>
-      <c r="F8" s="416"/>
+      <c r="B8" s="423"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="423"/>
+      <c r="E8" s="427"/>
+      <c r="F8" s="428"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5142,25 +5142,25 @@
         <v>10</v>
       </c>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="385" t="str">
+      <c r="AA8" s="431" t="str">
         <f>IF(Charakter!L8 = 0, "", Charakter!L8)</f>
         <v/>
       </c>
-      <c r="AB8" s="386"/>
+      <c r="AB8" s="432"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A9" s="237" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="413"/>
-      <c r="C9" s="414"/>
-      <c r="D9" s="413"/>
-      <c r="E9" s="417"/>
-      <c r="F9" s="418"/>
+      <c r="B9" s="425"/>
+      <c r="C9" s="426"/>
+      <c r="D9" s="425"/>
+      <c r="E9" s="429"/>
+      <c r="F9" s="430"/>
       <c r="G9" s="7"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
@@ -5197,17 +5197,17 @@
         <v>10</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="393" t="str">
+      <c r="AA9" s="441" t="str">
         <f>IF(Charakter!L9 = 0, "", Charakter!L9)</f>
         <v/>
       </c>
-      <c r="AB9" s="394"/>
+      <c r="AB9" s="442"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A10" s="108"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5249,7 +5249,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A11" s="112" t="s">
         <v>19</v>
       </c>
@@ -5288,23 +5288,23 @@
         <v>0</v>
       </c>
       <c r="U11" s="117"/>
-      <c r="V11" s="424" t="s">
+      <c r="V11" s="380" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="425"/>
-      <c r="X11" s="425"/>
-      <c r="Y11" s="426"/>
+      <c r="W11" s="381"/>
+      <c r="X11" s="381"/>
+      <c r="Y11" s="382"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="379" t="s">
+      <c r="AA11" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="380"/>
+      <c r="AB11" s="376"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A12" s="58" t="s">
         <v>22</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>69</v>
       </c>
       <c r="S12" s="162">
-        <f>ROUNDUP((S7+S5)/2,0)</f>
+        <f>ROUNDUP((S7+S3)/2,0)</f>
         <v>10</v>
       </c>
       <c r="T12" s="72">
@@ -5358,17 +5358,17 @@
         <v>10</v>
       </c>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="387" t="str">
+      <c r="AA12" s="433" t="str">
         <f>IF(Charakter!L13 = 0, "", Charakter!L13)</f>
         <v/>
       </c>
-      <c r="AB12" s="388"/>
+      <c r="AB12" s="434"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="59" t="s">
         <v>24</v>
       </c>
@@ -5413,17 +5413,17 @@
         <v>10</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="381" t="str">
+      <c r="AA13" s="435" t="str">
         <f>IF(Charakter!L14 = 0, "", Charakter!L14)</f>
         <v/>
       </c>
-      <c r="AB13" s="382"/>
+      <c r="AB13" s="436"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A14" s="60" t="s">
         <v>27</v>
       </c>
@@ -5452,11 +5452,11 @@
       <c r="O14" s="7"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="395" t="s">
+      <c r="R14" s="387" t="s">
         <v>253</v>
       </c>
-      <c r="S14" s="396"/>
-      <c r="T14" s="431"/>
+      <c r="S14" s="388"/>
+      <c r="T14" s="389"/>
       <c r="U14" s="26"/>
       <c r="V14" s="61" t="s">
         <v>159</v>
@@ -5472,17 +5472,17 @@
         <v>10</v>
       </c>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="389" t="str">
+      <c r="AA14" s="437" t="str">
         <f>IF(Charakter!L15 = 0, "", Charakter!L15)</f>
         <v/>
       </c>
-      <c r="AB14" s="390"/>
+      <c r="AB14" s="438"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A15" s="59" t="s">
         <v>192</v>
       </c>
@@ -5511,28 +5511,28 @@
       <c r="O15" s="7"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="397"/>
-      <c r="S15" s="398"/>
-      <c r="T15" s="432"/>
+      <c r="R15" s="390"/>
+      <c r="S15" s="391"/>
+      <c r="T15" s="392"/>
       <c r="U15" s="26"/>
-      <c r="V15" s="379" t="s">
+      <c r="V15" s="374" t="s">
         <v>248</v>
       </c>
-      <c r="W15" s="420"/>
-      <c r="X15" s="420"/>
-      <c r="Y15" s="380"/>
+      <c r="W15" s="375"/>
+      <c r="X15" s="375"/>
+      <c r="Y15" s="376"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="381" t="str">
+      <c r="AA15" s="435" t="str">
         <f>IF(Charakter!L16 = 0, "", Charakter!L16)</f>
         <v/>
       </c>
-      <c r="AB15" s="382"/>
+      <c r="AB15" s="436"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A16" s="61" t="s">
         <v>31</v>
       </c>
@@ -5561,11 +5561,11 @@
       <c r="O16" s="7"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="436">
-        <v>0</v>
-      </c>
-      <c r="S16" s="437"/>
-      <c r="T16" s="438"/>
+      <c r="R16" s="396">
+        <v>0</v>
+      </c>
+      <c r="S16" s="397"/>
+      <c r="T16" s="398"/>
       <c r="U16" s="26"/>
       <c r="V16" s="58" t="s">
         <v>206</v>
@@ -5581,17 +5581,17 @@
         <v>10</v>
       </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="383" t="str">
+      <c r="AA16" s="443" t="str">
         <f>IF(Charakter!L17 = 0, "", Charakter!L17)</f>
         <v/>
       </c>
-      <c r="AB16" s="384"/>
+      <c r="AB16" s="444"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A17" s="128" t="s">
         <v>26</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="AE17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A18" s="22"/>
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
@@ -5653,11 +5653,11 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="433" t="s">
+      <c r="R18" s="393" t="s">
         <v>252</v>
       </c>
-      <c r="S18" s="434"/>
-      <c r="T18" s="435"/>
+      <c r="S18" s="394"/>
+      <c r="T18" s="395"/>
       <c r="U18" s="26"/>
       <c r="V18" s="60" t="s">
         <v>208</v>
@@ -5671,27 +5671,27 @@
         <v>10</v>
       </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="379" t="s">
+      <c r="AA18" s="374" t="s">
         <v>21</v>
       </c>
-      <c r="AB18" s="380"/>
+      <c r="AB18" s="376"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="395" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A19" s="387" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="396"/>
-      <c r="C19" s="399" t="s">
+      <c r="B19" s="388"/>
+      <c r="C19" s="408" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="401" t="s">
+      <c r="D19" s="410" t="s">
         <v>324</v>
       </c>
-      <c r="E19" s="403"/>
+      <c r="E19" s="412"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5704,9 +5704,9 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="376"/>
-      <c r="S19" s="377"/>
-      <c r="T19" s="378"/>
+      <c r="R19" s="416"/>
+      <c r="S19" s="417"/>
+      <c r="T19" s="418"/>
       <c r="U19" s="26"/>
       <c r="V19" s="59" t="s">
         <v>35</v>
@@ -5734,12 +5734,12 @@
       <c r="AE19" s="7"/>
       <c r="AF19" s="8"/>
     </row>
-    <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="397"/>
-      <c r="B20" s="398"/>
-      <c r="C20" s="400"/>
-      <c r="D20" s="402"/>
-      <c r="E20" s="403"/>
+    <row r="20" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A20" s="390"/>
+      <c r="B20" s="391"/>
+      <c r="C20" s="409"/>
+      <c r="D20" s="411"/>
+      <c r="E20" s="412"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -5752,9 +5752,9 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="373"/>
-      <c r="S20" s="374"/>
-      <c r="T20" s="375"/>
+      <c r="R20" s="399"/>
+      <c r="S20" s="400"/>
+      <c r="T20" s="401"/>
       <c r="U20" s="26"/>
       <c r="V20" s="60" t="s">
         <v>209</v>
@@ -5782,7 +5782,7 @@
       <c r="AE20" s="7"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A21" s="163" t="s">
         <v>199</v>
       </c>
@@ -5810,9 +5810,9 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="442"/>
-      <c r="S21" s="443"/>
-      <c r="T21" s="444"/>
+      <c r="R21" s="405"/>
+      <c r="S21" s="406"/>
+      <c r="T21" s="407"/>
       <c r="U21" s="26"/>
       <c r="V21" s="133" t="s">
         <v>210</v>
@@ -5840,7 +5840,7 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A22" s="222" t="s">
         <v>40</v>
       </c>
@@ -5871,16 +5871,16 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="373"/>
-      <c r="S22" s="374"/>
-      <c r="T22" s="375"/>
+      <c r="R22" s="399"/>
+      <c r="S22" s="400"/>
+      <c r="T22" s="401"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="379" t="s">
+      <c r="V22" s="374" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="420"/>
-      <c r="X22" s="420"/>
-      <c r="Y22" s="380"/>
+      <c r="W22" s="375"/>
+      <c r="X22" s="375"/>
+      <c r="Y22" s="376"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="144" t="s">
         <v>30</v>
@@ -5894,7 +5894,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="8"/>
     </row>
-    <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A23" s="165" t="s">
         <v>42</v>
       </c>
@@ -5925,9 +5925,9 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="376"/>
-      <c r="S23" s="377"/>
-      <c r="T23" s="378"/>
+      <c r="R23" s="416"/>
+      <c r="S23" s="417"/>
+      <c r="T23" s="418"/>
       <c r="U23" s="26"/>
       <c r="V23" s="58" t="s">
         <v>211</v>
@@ -5953,7 +5953,7 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
     </row>
-    <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A24" s="167" t="s">
         <v>43</v>
       </c>
@@ -5984,9 +5984,9 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="373"/>
-      <c r="S24" s="374"/>
-      <c r="T24" s="375"/>
+      <c r="R24" s="399"/>
+      <c r="S24" s="400"/>
+      <c r="T24" s="401"/>
       <c r="U24" s="26"/>
       <c r="V24" s="133" t="s">
         <v>212</v>
@@ -6007,7 +6007,7 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A25" s="167" t="s">
         <v>90</v>
       </c>
@@ -6041,12 +6041,12 @@
       <c r="R25" s="50"/>
       <c r="T25" s="23"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="379" t="s">
+      <c r="V25" s="374" t="s">
         <v>60</v>
       </c>
-      <c r="W25" s="420"/>
-      <c r="X25" s="420"/>
-      <c r="Y25" s="380"/>
+      <c r="W25" s="375"/>
+      <c r="X25" s="375"/>
+      <c r="Y25" s="376"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
@@ -6055,7 +6055,7 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="8"/>
     </row>
-    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A26" s="167" t="s">
         <v>91</v>
       </c>
@@ -6086,11 +6086,11 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="433" t="s">
+      <c r="R26" s="393" t="s">
         <v>122</v>
       </c>
-      <c r="S26" s="434"/>
-      <c r="T26" s="435"/>
+      <c r="S26" s="394"/>
+      <c r="T26" s="395"/>
       <c r="U26" s="26"/>
       <c r="V26" s="58" t="s">
         <v>44</v>
@@ -6109,7 +6109,7 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="8"/>
     </row>
-    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A27" s="167" t="s">
         <v>92</v>
       </c>
@@ -6140,9 +6140,9 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="439"/>
-      <c r="S27" s="440"/>
-      <c r="T27" s="441"/>
+      <c r="R27" s="402"/>
+      <c r="S27" s="403"/>
+      <c r="T27" s="404"/>
       <c r="U27" s="26"/>
       <c r="V27" s="59" t="s">
         <v>45</v>
@@ -6161,7 +6161,7 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A28" s="169" t="s">
         <v>93</v>
       </c>
@@ -6184,11 +6184,11 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="427"/>
-      <c r="K28" s="427"/>
-      <c r="L28" s="427"/>
-      <c r="M28" s="427"/>
-      <c r="N28" s="427"/>
+      <c r="J28" s="383"/>
+      <c r="K28" s="383"/>
+      <c r="L28" s="383"/>
+      <c r="M28" s="383"/>
+      <c r="N28" s="383"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -6215,7 +6215,7 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="8"/>
     </row>
-    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -6225,11 +6225,11 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="419"/>
-      <c r="K29" s="419"/>
-      <c r="L29" s="419"/>
-      <c r="M29" s="419"/>
-      <c r="N29" s="419"/>
+      <c r="J29" s="373"/>
+      <c r="K29" s="373"/>
+      <c r="L29" s="373"/>
+      <c r="M29" s="373"/>
+      <c r="N29" s="373"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -6237,19 +6237,19 @@
       <c r="S29" s="7"/>
       <c r="T29" s="23"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="379" t="s">
+      <c r="V29" s="374" t="s">
         <v>261</v>
       </c>
-      <c r="W29" s="420"/>
-      <c r="X29" s="420"/>
-      <c r="Y29" s="380"/>
+      <c r="W29" s="375"/>
+      <c r="X29" s="375"/>
+      <c r="Y29" s="376"/>
       <c r="Z29" s="5"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -6288,7 +6288,7 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="8"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A31" s="26"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -6325,7 +6325,7 @@
       <c r="AE31" s="7"/>
       <c r="AF31" s="8"/>
     </row>
-    <row r="32" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A32" s="26"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -6364,7 +6364,7 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="8"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.75">
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -6394,7 +6394,7 @@
       <c r="AE33" s="7"/>
       <c r="AF33" s="8"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.75">
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
@@ -6424,7 +6424,7 @@
       <c r="AE34" s="7"/>
       <c r="AF34" s="8"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.75">
       <c r="E35" s="7"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -6454,7 +6454,7 @@
       <c r="AE35" s="7"/>
       <c r="AF35" s="8"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.75">
       <c r="E36" s="7"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -6480,7 +6480,7 @@
       <c r="AE36" s="7"/>
       <c r="AF36" s="8"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -6494,7 +6494,7 @@
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
@@ -6502,7 +6502,7 @@
       <c r="AE38" s="8"/>
       <c r="AF38" s="8"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
@@ -6510,7 +6510,7 @@
       <c r="AE39" s="8"/>
       <c r="AF39" s="8"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
@@ -6518,7 +6518,7 @@
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
@@ -6526,7 +6526,7 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
@@ -6534,7 +6534,7 @@
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
@@ -6542,7 +6542,7 @@
       <c r="AE43" s="8"/>
       <c r="AF43" s="8"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -6550,7 +6550,7 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="8"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
@@ -6558,7 +6558,7 @@
       <c r="AE45" s="8"/>
       <c r="AF45" s="8"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
@@ -6566,7 +6566,7 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
@@ -6574,7 +6574,7 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.75">
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
@@ -6582,7 +6582,7 @@
       <c r="AE48" s="8"/>
       <c r="AF48" s="8"/>
     </row>
-    <row r="49" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
@@ -6590,7 +6590,7 @@
       <c r="AE49" s="8"/>
       <c r="AF49" s="8"/>
     </row>
-    <row r="50" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
@@ -6598,7 +6598,7 @@
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
     </row>
-    <row r="51" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
@@ -6606,7 +6606,7 @@
       <c r="AE51" s="8"/>
       <c r="AF51" s="8"/>
     </row>
-    <row r="52" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -6614,7 +6614,7 @@
       <c r="AE52" s="8"/>
       <c r="AF52" s="8"/>
     </row>
-    <row r="53" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
@@ -6622,7 +6622,7 @@
       <c r="AE53" s="8"/>
       <c r="AF53" s="8"/>
     </row>
-    <row r="54" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
@@ -6630,7 +6630,7 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
     </row>
-    <row r="55" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
@@ -6638,7 +6638,7 @@
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
     </row>
-    <row r="56" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
@@ -6646,7 +6646,7 @@
       <c r="AE56" s="8"/>
       <c r="AF56" s="8"/>
     </row>
-    <row r="57" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
@@ -6654,7 +6654,7 @@
       <c r="AE57" s="8"/>
       <c r="AF57" s="8"/>
     </row>
-    <row r="58" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
@@ -6662,7 +6662,7 @@
       <c r="AE58" s="8"/>
       <c r="AF58" s="8"/>
     </row>
-    <row r="59" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
@@ -6670,7 +6670,7 @@
       <c r="AE59" s="8"/>
       <c r="AF59" s="8"/>
     </row>
-    <row r="60" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -6678,7 +6678,7 @@
       <c r="AE60" s="8"/>
       <c r="AF60" s="8"/>
     </row>
-    <row r="61" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
@@ -6686,7 +6686,7 @@
       <c r="AE61" s="8"/>
       <c r="AF61" s="8"/>
     </row>
-    <row r="62" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
@@ -6694,7 +6694,7 @@
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
     </row>
-    <row r="63" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
@@ -6702,7 +6702,7 @@
       <c r="AE63" s="8"/>
       <c r="AF63" s="8"/>
     </row>
-    <row r="64" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
@@ -6710,7 +6710,7 @@
       <c r="AE64" s="8"/>
       <c r="AF64" s="8"/>
     </row>
-    <row r="65" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
@@ -6718,7 +6718,7 @@
       <c r="AE65" s="8"/>
       <c r="AF65" s="8"/>
     </row>
-    <row r="66" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
@@ -6726,7 +6726,7 @@
       <c r="AE66" s="8"/>
       <c r="AF66" s="8"/>
     </row>
-    <row r="67" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
@@ -6734,7 +6734,7 @@
       <c r="AE67" s="8"/>
       <c r="AF67" s="8"/>
     </row>
-    <row r="68" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -6742,7 +6742,7 @@
       <c r="AE68" s="8"/>
       <c r="AF68" s="8"/>
     </row>
-    <row r="69" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA69" s="8"/>
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
@@ -6750,7 +6750,7 @@
       <c r="AE69" s="8"/>
       <c r="AF69" s="8"/>
     </row>
-    <row r="70" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA70" s="8"/>
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
@@ -6758,7 +6758,7 @@
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
     </row>
-    <row r="71" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA71" s="8"/>
       <c r="AB71" s="8"/>
       <c r="AC71" s="8"/>
@@ -6766,7 +6766,7 @@
       <c r="AE71" s="8"/>
       <c r="AF71" s="8"/>
     </row>
-    <row r="72" spans="27:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="27:32" x14ac:dyDescent="0.75">
       <c r="AA72" s="8"/>
       <c r="AB72" s="8"/>
       <c r="AC72" s="8"/>
@@ -6777,6 +6777,38 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="48">
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="J29:N29"/>
     <mergeCell ref="V25:Y25"/>
     <mergeCell ref="V29:Y29"/>
@@ -6793,38 +6825,6 @@
     <mergeCell ref="R24:T24"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="R21:T21"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="R20:T20"/>
   </mergeCells>
   <conditionalFormatting sqref="A21">
     <cfRule type="expression" priority="10">
@@ -7153,26 +7153,26 @@
       <selection activeCell="H10" activeCellId="2" sqref="H4:H5 H7:H8 H10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.2265625" defaultRowHeight="14.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="7"/>
-    <col min="3" max="3" width="22.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="7"/>
-    <col min="5" max="5" width="8.21875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="7"/>
-    <col min="14" max="14" width="21.109375" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="11.21875" style="7"/>
+    <col min="1" max="1" width="23.54296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.2265625" style="7"/>
+    <col min="3" max="3" width="22.76953125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.2265625" style="7"/>
+    <col min="5" max="5" width="8.2265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.76953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.76953125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.2265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.76953125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.2265625" style="7"/>
+    <col min="14" max="14" width="21.08984375" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="11.2265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="24.25" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="238" t="s">
         <v>46</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="O1" s="451"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A2" s="243"/>
       <c r="B2" s="244"/>
       <c r="C2" s="245"/>
@@ -7231,7 +7231,7 @@
       <c r="O2" s="454"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="247"/>
       <c r="B3" s="248"/>
       <c r="C3" s="249"/>
@@ -7253,7 +7253,7 @@
       <c r="O3" s="448"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A4" s="250"/>
       <c r="B4" s="251"/>
       <c r="C4" s="252"/>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A5" s="253"/>
       <c r="B5" s="254"/>
       <c r="C5" s="254"/>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="238" t="s">
         <v>48</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="O6" s="264"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A7" s="265"/>
       <c r="B7" s="266"/>
       <c r="C7" s="267"/>
@@ -7368,7 +7368,7 @@
       <c r="O7" s="273"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A8" s="247"/>
       <c r="B8" s="248"/>
       <c r="C8" s="249"/>
@@ -7391,7 +7391,7 @@
       <c r="O8" s="264"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A9" s="250"/>
       <c r="B9" s="251"/>
       <c r="C9" s="252"/>
@@ -7410,7 +7410,7 @@
       <c r="O9" s="273"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A10" s="247"/>
       <c r="B10" s="248"/>
       <c r="C10" s="249"/>
@@ -7432,7 +7432,7 @@
       <c r="O10" s="264"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A11" s="276"/>
       <c r="B11" s="277"/>
       <c r="C11" s="278"/>
@@ -7455,7 +7455,7 @@
       <c r="O11" s="273"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A12" s="238" t="s">
         <v>181</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="O12" s="264"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A13" s="265"/>
       <c r="B13" s="266"/>
       <c r="C13" s="267"/>
@@ -7506,7 +7506,7 @@
       <c r="O13" s="273"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A14" s="253"/>
       <c r="B14" s="254"/>
       <c r="C14" s="282"/>
@@ -7526,7 +7526,7 @@
       <c r="O14" s="264"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="C15" s="281"/>
       <c r="D15" s="281"/>
       <c r="I15" s="22"/>
@@ -7536,7 +7536,7 @@
       <c r="O15" s="273"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A16" s="285" t="s">
         <v>51</v>
       </c>
@@ -7568,7 +7568,7 @@
       <c r="O16" s="264"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A17" s="265"/>
       <c r="B17" s="266">
         <f>200*E17</f>
@@ -7591,7 +7591,7 @@
       <c r="O17" s="273"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A18" s="247"/>
       <c r="B18" s="248">
         <f>420*E18</f>
@@ -7614,7 +7614,7 @@
       <c r="O18" s="264"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A19" s="250"/>
       <c r="B19" s="251">
         <f>900*E19</f>
@@ -7637,7 +7637,7 @@
       <c r="O19" s="273"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A20" s="247"/>
       <c r="B20" s="248">
         <f>E20*1300</f>
@@ -7660,7 +7660,7 @@
       <c r="O20" s="264"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A21" s="250"/>
       <c r="B21" s="251">
         <f>420*E21</f>
@@ -7683,7 +7683,7 @@
       <c r="O21" s="273"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A22" s="247"/>
       <c r="B22" s="248">
         <f>900*E22</f>
@@ -7706,7 +7706,7 @@
       <c r="O22" s="264"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A23" s="250"/>
       <c r="B23" s="251">
         <f>1300*E23</f>
@@ -7729,7 +7729,7 @@
       <c r="O23" s="273"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A24" s="247"/>
       <c r="B24" s="248">
         <f>420*E24</f>
@@ -7752,7 +7752,7 @@
       <c r="O24" s="264"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A25" s="250"/>
       <c r="B25" s="251">
         <f>900*E25</f>
@@ -7775,7 +7775,7 @@
       <c r="O25" s="273"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A26" s="247"/>
       <c r="B26" s="248">
         <f>1300*E26</f>
@@ -7798,7 +7798,7 @@
       <c r="O26" s="264"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A27" s="250"/>
       <c r="B27" s="251">
         <f>2000*E27</f>
@@ -7821,7 +7821,7 @@
       <c r="O27" s="273"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A28" s="247"/>
       <c r="B28" s="248">
         <f>5000*E28</f>
@@ -7844,7 +7844,7 @@
       <c r="O28" s="264"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A29" s="250"/>
       <c r="B29" s="251">
         <f>1400*E29</f>
@@ -7867,7 +7867,7 @@
       <c r="O29" s="273"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="253"/>
       <c r="B30" s="254"/>
       <c r="C30" s="282"/>
@@ -7880,12 +7880,12 @@
       <c r="J30" s="297"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="C31" s="281"/>
       <c r="D31" s="281"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A32" s="285" t="s">
         <v>154</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="K32" s="288"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" s="289"/>
       <c r="B33" s="290"/>
       <c r="C33" s="290"/>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A34" s="247"/>
       <c r="B34" s="248"/>
       <c r="C34" s="248"/>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A35" s="250"/>
       <c r="B35" s="251"/>
       <c r="C35" s="251"/>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" s="247"/>
       <c r="B36" s="248"/>
       <c r="C36" s="248"/>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A37" s="250"/>
       <c r="B37" s="251"/>
       <c r="C37" s="251"/>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A38" s="247"/>
       <c r="B38" s="248"/>
       <c r="C38" s="248"/>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A39" s="250"/>
       <c r="B39" s="251"/>
       <c r="C39" s="251"/>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A40" s="247"/>
       <c r="B40" s="248"/>
       <c r="C40" s="248"/>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A41" s="250"/>
       <c r="B41" s="251"/>
       <c r="C41" s="251"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" s="247"/>
       <c r="B42" s="248"/>
       <c r="C42" s="248"/>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" s="250"/>
       <c r="B43" s="251"/>
       <c r="C43" s="251"/>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" s="247"/>
       <c r="B44" s="248"/>
       <c r="C44" s="248"/>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A45" s="250"/>
       <c r="B45" s="251"/>
       <c r="C45" s="251"/>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A46" s="247"/>
       <c r="B46" s="248"/>
       <c r="C46" s="248"/>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A47" s="250"/>
       <c r="B47" s="251"/>
       <c r="C47" s="251"/>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A48" s="247"/>
       <c r="B48" s="248"/>
       <c r="C48" s="248"/>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A49" s="250"/>
       <c r="B49" s="251"/>
       <c r="C49" s="251"/>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A50" s="247"/>
       <c r="B50" s="248"/>
       <c r="C50" s="248"/>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A51" s="250"/>
       <c r="B51" s="251"/>
       <c r="C51" s="251"/>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A52" s="247"/>
       <c r="B52" s="248"/>
       <c r="C52" s="248"/>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A53" s="250"/>
       <c r="B53" s="251"/>
       <c r="C53" s="251"/>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A54" s="247"/>
       <c r="B54" s="248"/>
       <c r="C54" s="248"/>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A55" s="250"/>
       <c r="B55" s="251"/>
       <c r="C55" s="251"/>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A56" s="247"/>
       <c r="B56" s="248"/>
       <c r="C56" s="248"/>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A57" s="250"/>
       <c r="B57" s="251"/>
       <c r="C57" s="251"/>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A58" s="247"/>
       <c r="B58" s="248"/>
       <c r="C58" s="248"/>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A59" s="250"/>
       <c r="B59" s="251"/>
       <c r="C59" s="251"/>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A60" s="247"/>
       <c r="B60" s="248"/>
       <c r="C60" s="248"/>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A61" s="250"/>
       <c r="B61" s="251"/>
       <c r="C61" s="251"/>
@@ -8326,30 +8326,30 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.2265625" defaultRowHeight="14.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.2265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="5" customWidth="1"/>
     <col min="3" max="3" width="18" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.76953125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="3.76953125" style="5" customWidth="1"/>
     <col min="6" max="6" width="16" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.2265625" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.2265625" style="5" customWidth="1"/>
     <col min="11" max="11" width="3" style="5" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="23.5546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="35.109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="5.21875" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="11.21875" style="5"/>
+    <col min="12" max="12" width="25.08984375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.86328125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="23.54296875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.86328125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="35.08984375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.2265625" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="11.2265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A1" s="44" t="s">
         <v>188</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A2" s="316" t="s">
         <v>194</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A3" s="317" t="s">
         <v>195</v>
       </c>
@@ -8488,7 +8488,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A4" s="318" t="s">
         <v>14</v>
       </c>
@@ -8535,7 +8535,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A5" s="317" t="s">
         <v>196</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A6" s="318" t="s">
         <v>60</v>
       </c>
@@ -8632,7 +8632,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A7" s="317" t="s">
         <v>94</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A8" s="318" t="s">
         <v>220</v>
       </c>
@@ -8729,7 +8729,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A9" s="317" t="s">
         <v>62</v>
       </c>
@@ -8771,7 +8771,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A10" s="318" t="s">
         <v>197</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A11" s="319" t="s">
         <v>198</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A12" s="67"/>
       <c r="B12" s="62"/>
       <c r="C12" s="7"/>
@@ -8893,7 +8893,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A13" s="308" t="s">
         <v>33</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A14" s="67"/>
       <c r="B14" s="62"/>
       <c r="C14" s="32"/>
@@ -8967,7 +8967,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A15" s="309" t="s">
         <v>199</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A16" s="310" t="s">
         <v>40</v>
       </c>
@@ -9047,7 +9047,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A17" s="311" t="s">
         <v>42</v>
       </c>
@@ -9088,7 +9088,7 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A18" s="311" t="s">
         <v>43</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A19" s="311" t="s">
         <v>90</v>
       </c>
@@ -9170,7 +9170,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A20" s="311" t="s">
         <v>91</v>
       </c>
@@ -9217,7 +9217,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A21" s="311" t="s">
         <v>92</v>
       </c>
@@ -9254,7 +9254,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A22" s="311" t="s">
         <v>93</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -9326,7 +9326,7 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -9360,7 +9360,7 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9394,7 +9394,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -9428,7 +9428,7 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9452,7 +9452,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9477,7 +9477,7 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -9501,7 +9501,7 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -9526,7 +9526,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -9551,7 +9551,7 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -9576,7 +9576,7 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -9601,7 +9601,7 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -9626,7 +9626,7 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -9651,7 +9651,7 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -9671,91 +9671,91 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.7">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -9842,24 +9842,24 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.2265625" defaultRowHeight="14.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="7" customWidth="1"/>
     <col min="3" max="3" width="17" style="7" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4.86328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.76953125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.76953125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.2265625" style="7" customWidth="1"/>
     <col min="12" max="12" width="9" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="11.21875" style="7"/>
+    <col min="13" max="16384" width="11.2265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A1" s="67"/>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -9881,17 +9881,17 @@
       <c r="J1" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="464" t="s">
+      <c r="K1" s="474" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="465"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="475"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="67"/>
-      <c r="B2" s="470" t="s">
+      <c r="B2" s="472" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="471"/>
+      <c r="C2" s="473"/>
       <c r="E2" s="243"/>
       <c r="F2" s="244"/>
       <c r="G2" s="244"/>
@@ -9901,35 +9901,35 @@
       <c r="K2" s="466"/>
       <c r="L2" s="467"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A3" s="67"/>
-      <c r="B3" s="472" t="s">
+      <c r="B3" s="468" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="473"/>
+      <c r="C3" s="469"/>
       <c r="E3" s="247"/>
       <c r="F3" s="248"/>
       <c r="G3" s="248"/>
       <c r="H3" s="248"/>
       <c r="I3" s="248"/>
       <c r="J3" s="248"/>
-      <c r="K3" s="460"/>
-      <c r="L3" s="461"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="462"/>
+      <c r="L3" s="463"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A4" s="67"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="475"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="471"/>
       <c r="E4" s="250"/>
       <c r="F4" s="251"/>
       <c r="G4" s="251"/>
       <c r="H4" s="251"/>
       <c r="I4" s="251"/>
       <c r="J4" s="251"/>
-      <c r="K4" s="462"/>
-      <c r="L4" s="463"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="460"/>
+      <c r="L4" s="461"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A5" s="67"/>
       <c r="B5" s="115" t="s">
         <v>53</v>
@@ -9944,10 +9944,10 @@
       <c r="H5" s="248"/>
       <c r="I5" s="248"/>
       <c r="J5" s="248"/>
-      <c r="K5" s="460"/>
-      <c r="L5" s="461"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="462"/>
+      <c r="L5" s="463"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A6" s="67"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -9957,10 +9957,10 @@
       <c r="H6" s="251"/>
       <c r="I6" s="251"/>
       <c r="J6" s="251"/>
-      <c r="K6" s="462"/>
-      <c r="L6" s="463"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="460"/>
+      <c r="L6" s="461"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A7" s="67"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -9970,10 +9970,10 @@
       <c r="H7" s="248"/>
       <c r="I7" s="248"/>
       <c r="J7" s="248"/>
-      <c r="K7" s="460"/>
-      <c r="L7" s="461"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="462"/>
+      <c r="L7" s="463"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A8" s="67"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
@@ -9983,10 +9983,10 @@
       <c r="H8" s="251"/>
       <c r="I8" s="251"/>
       <c r="J8" s="251"/>
-      <c r="K8" s="462"/>
-      <c r="L8" s="463"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="460"/>
+      <c r="L8" s="461"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A9" s="67"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -9996,10 +9996,10 @@
       <c r="H9" s="248"/>
       <c r="I9" s="248"/>
       <c r="J9" s="248"/>
-      <c r="K9" s="460"/>
-      <c r="L9" s="461"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="462"/>
+      <c r="L9" s="463"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -10009,10 +10009,10 @@
       <c r="H10" s="251"/>
       <c r="I10" s="251"/>
       <c r="J10" s="251"/>
-      <c r="K10" s="462"/>
-      <c r="L10" s="463"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="460"/>
+      <c r="L10" s="461"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A11" s="67"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -10022,10 +10022,10 @@
       <c r="H11" s="248"/>
       <c r="I11" s="248"/>
       <c r="J11" s="248"/>
-      <c r="K11" s="460"/>
-      <c r="L11" s="461"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="462"/>
+      <c r="L11" s="463"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A12" s="67"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -10035,10 +10035,10 @@
       <c r="H12" s="251"/>
       <c r="I12" s="251"/>
       <c r="J12" s="251"/>
-      <c r="K12" s="462"/>
-      <c r="L12" s="463"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="460"/>
+      <c r="L12" s="461"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A13" s="67"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -10048,10 +10048,10 @@
       <c r="H13" s="248"/>
       <c r="I13" s="248"/>
       <c r="J13" s="248"/>
-      <c r="K13" s="460"/>
-      <c r="L13" s="461"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="462"/>
+      <c r="L13" s="463"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A14" s="67"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -10061,10 +10061,10 @@
       <c r="H14" s="251"/>
       <c r="I14" s="251"/>
       <c r="J14" s="251"/>
-      <c r="K14" s="462"/>
-      <c r="L14" s="463"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="460"/>
+      <c r="L14" s="461"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A15" s="67"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -10074,10 +10074,10 @@
       <c r="H15" s="248"/>
       <c r="I15" s="248"/>
       <c r="J15" s="248"/>
-      <c r="K15" s="460"/>
-      <c r="L15" s="461"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="462"/>
+      <c r="L15" s="463"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A16" s="67"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -10087,10 +10087,10 @@
       <c r="H16" s="251"/>
       <c r="I16" s="251"/>
       <c r="J16" s="251"/>
-      <c r="K16" s="462"/>
-      <c r="L16" s="463"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K16" s="460"/>
+      <c r="L16" s="461"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A17" s="67"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -10100,10 +10100,10 @@
       <c r="H17" s="248"/>
       <c r="I17" s="248"/>
       <c r="J17" s="248"/>
-      <c r="K17" s="460"/>
-      <c r="L17" s="461"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K17" s="462"/>
+      <c r="L17" s="463"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A18" s="67"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -10113,11 +10113,11 @@
       <c r="H18" s="251"/>
       <c r="I18" s="251"/>
       <c r="J18" s="251"/>
-      <c r="K18" s="462"/>
-      <c r="L18" s="463"/>
+      <c r="K18" s="460"/>
+      <c r="L18" s="461"/>
       <c r="P18" s="62"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -10127,10 +10127,10 @@
       <c r="H19" s="248"/>
       <c r="I19" s="248"/>
       <c r="J19" s="248"/>
-      <c r="K19" s="460"/>
-      <c r="L19" s="461"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K19" s="462"/>
+      <c r="L19" s="463"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A20" s="67"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -10140,10 +10140,10 @@
       <c r="H20" s="251"/>
       <c r="I20" s="251"/>
       <c r="J20" s="251"/>
-      <c r="K20" s="462"/>
-      <c r="L20" s="463"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K20" s="460"/>
+      <c r="L20" s="461"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A21" s="67"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -10153,10 +10153,10 @@
       <c r="H21" s="248"/>
       <c r="I21" s="248"/>
       <c r="J21" s="248"/>
-      <c r="K21" s="460"/>
-      <c r="L21" s="461"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K21" s="462"/>
+      <c r="L21" s="463"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A22" s="67"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -10166,10 +10166,10 @@
       <c r="H22" s="251"/>
       <c r="I22" s="251"/>
       <c r="J22" s="251"/>
-      <c r="K22" s="462"/>
-      <c r="L22" s="463"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K22" s="460"/>
+      <c r="L22" s="461"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A23" s="67"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
@@ -10179,10 +10179,10 @@
       <c r="H23" s="248"/>
       <c r="I23" s="248"/>
       <c r="J23" s="248"/>
-      <c r="K23" s="460"/>
-      <c r="L23" s="461"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K23" s="462"/>
+      <c r="L23" s="463"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A24" s="67"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -10192,10 +10192,10 @@
       <c r="H24" s="251"/>
       <c r="I24" s="251"/>
       <c r="J24" s="251"/>
-      <c r="K24" s="462"/>
-      <c r="L24" s="463"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K24" s="460"/>
+      <c r="L24" s="461"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A25" s="67"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
@@ -10205,10 +10205,10 @@
       <c r="H25" s="248"/>
       <c r="I25" s="248"/>
       <c r="J25" s="248"/>
-      <c r="K25" s="460"/>
-      <c r="L25" s="461"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K25" s="462"/>
+      <c r="L25" s="463"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A26" s="67"/>
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
@@ -10218,10 +10218,10 @@
       <c r="H26" s="251"/>
       <c r="I26" s="251"/>
       <c r="J26" s="251"/>
-      <c r="K26" s="462"/>
-      <c r="L26" s="463"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="460"/>
+      <c r="L26" s="461"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.25" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A27" s="67"/>
       <c r="E27" s="253"/>
       <c r="F27" s="254"/>
@@ -10229,15 +10229,37 @@
       <c r="H27" s="254"/>
       <c r="I27" s="254"/>
       <c r="J27" s="254"/>
-      <c r="K27" s="468"/>
-      <c r="L27" s="469"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K27" s="464"/>
+      <c r="L27" s="465"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A28" s="62"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K27:L27"/>
@@ -10245,28 +10267,6 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10281,14 +10281,14 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="127.21875" style="6" customWidth="1"/>
-    <col min="2" max="8" width="11.21875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.21875" style="6" hidden="1"/>
+    <col min="1" max="1" width="127.2265625" style="6" customWidth="1"/>
+    <col min="2" max="8" width="11.2265625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.2265625" style="6" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" s="28"/>
     </row>
   </sheetData>
@@ -10310,33 +10310,33 @@
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="43" customWidth="1"/>
     <col min="8" max="8" width="12" style="43" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="43" customWidth="1"/>
     <col min="10" max="10" width="12" style="43" customWidth="1"/>
     <col min="11" max="11" width="11" style="43" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="43" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="10.86328125" customWidth="1"/>
+    <col min="16" max="16" width="19.453125" customWidth="1"/>
+    <col min="17" max="17" width="18.2265625" customWidth="1"/>
+    <col min="18" max="18" width="20.08984375" customWidth="1"/>
+    <col min="19" max="19" width="14.76953125" customWidth="1"/>
+    <col min="20" max="20" width="10.86328125" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.76953125" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="35" max="35" width="15.44140625" customWidth="1"/>
-    <col min="37" max="37" width="13.44140625" customWidth="1"/>
-    <col min="38" max="38" width="15.21875" customWidth="1"/>
-    <col min="39" max="39" width="11.5546875" customWidth="1"/>
+    <col min="35" max="35" width="15.453125" customWidth="1"/>
+    <col min="37" max="37" width="13.453125" customWidth="1"/>
+    <col min="38" max="38" width="15.2265625" customWidth="1"/>
+    <col min="39" max="39" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="84.75" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.75">
       <c r="B7">
         <v>0</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.75">
       <c r="F8" s="38" t="s">
         <v>20</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.75">
       <c r="F10" s="38" t="s">
         <v>39</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.75">
       <c r="F11" s="39" t="s">
         <v>40</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.75">
       <c r="F12" s="38" t="s">
         <v>167</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.75">
       <c r="F13" s="39" t="s">
         <v>168</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.75">
       <c r="F14" s="38" t="s">
         <v>175</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.75">
       <c r="F15" s="39" t="s">
         <v>176</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.75">
       <c r="F16" s="38" t="s">
         <v>5</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:40" x14ac:dyDescent="0.75">
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
@@ -11991,7 +11991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:40" x14ac:dyDescent="0.75">
       <c r="O18" s="351"/>
       <c r="P18" s="343">
         <v>3</v>
@@ -12043,7 +12043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="6:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:40" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="O19" s="330"/>
       <c r="P19" s="331">
         <v>4</v>
@@ -12095,7 +12095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:40" x14ac:dyDescent="0.75">
       <c r="AB20" s="367"/>
       <c r="AC20" s="367"/>
       <c r="AD20" s="367"/>
@@ -12127,7 +12127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:40" x14ac:dyDescent="0.75">
       <c r="P21" t="s">
         <v>258</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:40" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:40" ht="21" x14ac:dyDescent="0.75">
       <c r="F22" s="37" t="s">
         <v>47</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="23" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:40" x14ac:dyDescent="0.75">
       <c r="F23" s="37" t="s">
         <v>160</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="24" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:40" x14ac:dyDescent="0.75">
       <c r="F24" s="37" t="s">
         <v>161</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="25" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:40" x14ac:dyDescent="0.75">
       <c r="F25" s="37" t="s">
         <v>162</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="26" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:40" x14ac:dyDescent="0.75">
       <c r="F26" s="37" t="s">
         <v>163</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="27" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:40" x14ac:dyDescent="0.75">
       <c r="F27" s="37" t="s">
         <v>164</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="28" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:40" x14ac:dyDescent="0.75">
       <c r="F28" s="37" t="s">
         <v>165</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:40" x14ac:dyDescent="0.75">
       <c r="F29" s="37" t="s">
         <v>166</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="30" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:40" x14ac:dyDescent="0.75">
       <c r="P30" s="63"/>
       <c r="Q30" s="64"/>
       <c r="R30" s="1"/>
@@ -12868,7 +12868,7 @@
         <v>64.285714285714292</v>
       </c>
     </row>
-    <row r="31" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:40" x14ac:dyDescent="0.75">
       <c r="P31" s="63"/>
       <c r="Q31" s="64"/>
       <c r="R31" s="1"/>
@@ -12903,7 +12903,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="32" spans="6:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:40" x14ac:dyDescent="0.75">
       <c r="P32" s="63"/>
       <c r="Q32" s="64"/>
       <c r="R32" s="1"/>
@@ -12938,7 +12938,7 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="33" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P33" s="63"/>
       <c r="Q33" s="64"/>
       <c r="R33" s="1"/>
@@ -12973,7 +12973,7 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="34" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P34" s="63"/>
       <c r="Q34" s="64"/>
       <c r="R34" s="1"/>
@@ -13008,7 +13008,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="35" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P35" s="63"/>
       <c r="Q35" s="64"/>
       <c r="R35" s="1"/>
@@ -13043,7 +13043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P36" s="63"/>
       <c r="Q36" s="64"/>
       <c r="R36" s="1"/>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB37" s="367" t="s">
         <v>265</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB38" s="367" t="s">
         <v>265</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB39" s="367" t="s">
         <v>265</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB40" s="367"/>
       <c r="AC40" s="367"/>
       <c r="AD40" s="367"/>
@@ -13238,7 +13238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P41" s="63"/>
       <c r="Q41" s="64"/>
       <c r="R41" s="1"/>
@@ -13273,7 +13273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P42" s="63"/>
       <c r="Q42" s="64"/>
       <c r="R42" s="1"/>
@@ -13308,7 +13308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P43" s="63"/>
       <c r="Q43" s="64"/>
       <c r="R43" s="1"/>
@@ -13343,7 +13343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P44" s="63"/>
       <c r="Q44" s="64"/>
       <c r="R44" s="1"/>
@@ -13378,7 +13378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P45" s="63"/>
       <c r="Q45" s="64"/>
       <c r="R45" s="1"/>
@@ -13413,7 +13413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P46" s="63"/>
       <c r="Q46" s="64"/>
       <c r="R46" s="1"/>
@@ -13448,7 +13448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P47" s="63"/>
       <c r="Q47" s="64"/>
       <c r="R47" s="1"/>
@@ -13483,7 +13483,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P48" s="63"/>
       <c r="Q48" s="64"/>
       <c r="R48" s="1"/>
@@ -13518,7 +13518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P49" s="63"/>
       <c r="Q49" s="64"/>
       <c r="R49" s="1"/>
@@ -13553,7 +13553,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P50" s="63"/>
       <c r="Q50" s="64"/>
       <c r="R50" s="1"/>
@@ -13588,7 +13588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P51" s="63"/>
       <c r="Q51" s="64"/>
       <c r="R51" s="1"/>
@@ -13623,7 +13623,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P52" s="63"/>
       <c r="Q52" s="64"/>
       <c r="R52" s="1"/>
@@ -13658,7 +13658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="53" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P53" s="63"/>
       <c r="Q53" s="64"/>
       <c r="R53" s="1"/>
@@ -13693,7 +13693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="54" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P54" s="63"/>
       <c r="Q54" s="64"/>
       <c r="R54" s="1"/>
@@ -13728,7 +13728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="55" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P55" s="63"/>
       <c r="Q55" s="64"/>
       <c r="R55" s="1"/>
@@ -13763,7 +13763,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="56" spans="16:40" x14ac:dyDescent="0.75">
       <c r="P56" s="63"/>
       <c r="Q56" s="64"/>
       <c r="R56" s="1"/>
@@ -13798,7 +13798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="57" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB57" s="367" t="s">
         <v>266</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="58" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB58" s="367" t="s">
         <v>266</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="59" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="59" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB59" s="367" t="s">
         <v>266</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="60" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="60" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB60" s="367" t="s">
         <v>266</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="61" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="61" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB61" s="367"/>
       <c r="AC61" s="367"/>
       <c r="AD61" s="367"/>
@@ -13990,7 +13990,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="62" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="62" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB62" s="367"/>
       <c r="AC62" s="367"/>
       <c r="AD62" s="367"/>
@@ -14022,7 +14022,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="63" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="63" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB63" s="367"/>
       <c r="AC63" s="367"/>
       <c r="AD63" s="367"/>
@@ -14054,7 +14054,7 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="64" spans="16:40" x14ac:dyDescent="0.3">
+    <row r="64" spans="16:40" x14ac:dyDescent="0.75">
       <c r="AB64" s="367"/>
       <c r="AC64" s="367"/>
       <c r="AD64" s="367"/>
@@ -14086,7 +14086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB65" s="367" t="s">
         <v>267</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB66" s="367" t="s">
         <v>267</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="67" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB67" s="367" t="s">
         <v>267</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="68" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB68" s="367" t="s">
         <v>267</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="69" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB69" s="367"/>
       <c r="AC69" s="367"/>
       <c r="AD69" s="367"/>
@@ -14278,7 +14278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="70" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB70" s="367"/>
       <c r="AC70" s="367"/>
       <c r="AD70" s="367"/>
@@ -14310,7 +14310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="71" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB71" s="367"/>
       <c r="AC71" s="367"/>
       <c r="AD71" s="367"/>
@@ -14342,7 +14342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="72" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB72" s="367"/>
       <c r="AC72" s="367"/>
       <c r="AD72" s="367"/>
@@ -14374,7 +14374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="73" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB73" s="367"/>
       <c r="AC73" s="367"/>
       <c r="AD73" s="367"/>
@@ -14406,7 +14406,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="74" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB74" s="367"/>
       <c r="AC74" s="367"/>
       <c r="AD74" s="367"/>
@@ -14438,7 +14438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="75" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB75" s="367"/>
       <c r="AC75" s="367"/>
       <c r="AD75" s="367"/>
@@ -14470,7 +14470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="76" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB76" s="367" t="s">
         <v>268</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="77" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB77" s="367" t="s">
         <v>268</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="78" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="78" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB78" s="367" t="s">
         <v>268</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="79" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="79" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB79" s="367" t="s">
         <v>268</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="80" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="80" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB80" s="367"/>
       <c r="AC80" s="367"/>
       <c r="AD80" s="367"/>
@@ -14662,7 +14662,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="81" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="81" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB81" s="367"/>
       <c r="AC81" s="367"/>
       <c r="AD81" s="367"/>
@@ -14694,7 +14694,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="82" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="82" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB82" s="367"/>
       <c r="AC82" s="367"/>
       <c r="AD82" s="367"/>
@@ -14726,7 +14726,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="83" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="83" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB83" s="367"/>
       <c r="AC83" s="367"/>
       <c r="AD83" s="367"/>
@@ -14758,7 +14758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="84" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB84" s="367"/>
       <c r="AC84" s="367"/>
       <c r="AD84" s="367"/>
@@ -14790,7 +14790,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="85" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="85" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB85" s="367"/>
       <c r="AC85" s="367"/>
       <c r="AD85" s="367"/>
@@ -14822,7 +14822,7 @@
         <v>64.285714285714292</v>
       </c>
     </row>
-    <row r="86" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="86" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB86" s="367"/>
       <c r="AC86" s="367"/>
       <c r="AD86" s="367"/>
@@ -14854,7 +14854,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="87" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="87" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB87" s="367"/>
       <c r="AC87" s="367"/>
       <c r="AD87" s="367"/>
@@ -14886,7 +14886,7 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="88" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="88" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB88" s="367"/>
       <c r="AC88" s="367"/>
       <c r="AD88" s="367"/>
@@ -14918,7 +14918,7 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="89" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="89" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB89" s="367"/>
       <c r="AC89" s="367"/>
       <c r="AD89" s="367"/>
@@ -14950,7 +14950,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="90" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="90" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB90" s="367"/>
       <c r="AC90" s="367"/>
       <c r="AD90" s="367"/>
@@ -14982,7 +14982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="91" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB91" s="367" t="s">
         <v>269</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="92" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB92" s="367" t="s">
         <v>269</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="93" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB93" s="367" t="s">
         <v>269</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="94" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB94" s="367" t="s">
         <v>269</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="95" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB95" s="367"/>
       <c r="AC95" s="367"/>
       <c r="AD95" s="367"/>
@@ -15174,7 +15174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="96" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB96" s="367"/>
       <c r="AC96" s="367"/>
       <c r="AD96" s="367"/>
@@ -15206,7 +15206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="97" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB97" s="367"/>
       <c r="AC97" s="367"/>
       <c r="AD97" s="367"/>
@@ -15238,7 +15238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="98" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB98" s="367"/>
       <c r="AC98" s="367"/>
       <c r="AD98" s="367"/>
@@ -15270,7 +15270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="99" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB99" s="367"/>
       <c r="AC99" s="367"/>
       <c r="AD99" s="367"/>
@@ -15302,7 +15302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="100" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB100" s="367"/>
       <c r="AC100" s="367"/>
       <c r="AD100" s="367"/>
@@ -15334,7 +15334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="101" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB101" s="367"/>
       <c r="AC101" s="367"/>
       <c r="AD101" s="367"/>
@@ -15366,7 +15366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="102" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB102" s="367"/>
       <c r="AC102" s="367"/>
       <c r="AD102" s="367"/>
@@ -15398,7 +15398,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="103" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="103" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB103" s="367"/>
       <c r="AC103" s="367"/>
       <c r="AD103" s="367"/>
@@ -15430,7 +15430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="104" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB104" s="367"/>
       <c r="AC104" s="367"/>
       <c r="AD104" s="367"/>
@@ -15462,7 +15462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="105" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB105" s="367"/>
       <c r="AC105" s="367"/>
       <c r="AD105" s="367"/>
@@ -15494,7 +15494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="106" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB106" s="367"/>
       <c r="AC106" s="367"/>
       <c r="AD106" s="367"/>
@@ -15526,7 +15526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="107" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB107" s="367"/>
       <c r="AC107" s="367"/>
       <c r="AD107" s="367"/>
@@ -15558,7 +15558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="108" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB108" s="367"/>
       <c r="AC108" s="367"/>
       <c r="AD108" s="367"/>
@@ -15590,7 +15590,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="109" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB109" s="367"/>
       <c r="AC109" s="367"/>
       <c r="AD109" s="367"/>
@@ -15622,7 +15622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="110" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB110" s="367"/>
       <c r="AC110" s="367"/>
       <c r="AD110" s="367"/>
@@ -15654,7 +15654,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="111" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB111" s="367"/>
       <c r="AC111" s="367"/>
       <c r="AD111" s="367"/>
@@ -15686,7 +15686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="112" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB112" s="367" t="s">
         <v>270</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="113" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB113" s="367" t="s">
         <v>270</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="114" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="114" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB114" s="367" t="s">
         <v>270</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="115" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="115" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB115" s="367" t="s">
         <v>270</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="116" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="116" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB116" s="367"/>
       <c r="AC116" s="367"/>
       <c r="AD116" s="367"/>
@@ -15878,7 +15878,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="117" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="117" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB117" s="367"/>
       <c r="AC117" s="367"/>
       <c r="AD117" s="367"/>
@@ -15910,7 +15910,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="118" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="118" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB118" s="367"/>
       <c r="AC118" s="367"/>
       <c r="AD118" s="367"/>
@@ -15942,7 +15942,7 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="119" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="119" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB119" s="367"/>
       <c r="AC119" s="367"/>
       <c r="AD119" s="367"/>
@@ -15974,7 +15974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="120" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB120" s="367" t="s">
         <v>271</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="121" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB121" s="367" t="s">
         <v>271</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="122" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB122" s="367" t="s">
         <v>271</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="123" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB123" s="367" t="s">
         <v>271</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="124" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB124" s="367"/>
       <c r="AC124" s="367"/>
       <c r="AD124" s="367"/>
@@ -16166,7 +16166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="125" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB125" s="367"/>
       <c r="AC125" s="367"/>
       <c r="AD125" s="367"/>
@@ -16198,7 +16198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="126" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB126" s="367"/>
       <c r="AC126" s="367"/>
       <c r="AD126" s="367"/>
@@ -16230,7 +16230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="127" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB127" s="367"/>
       <c r="AC127" s="367"/>
       <c r="AD127" s="367"/>
@@ -16262,7 +16262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="128" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB128" s="367"/>
       <c r="AC128" s="367"/>
       <c r="AD128" s="367"/>
@@ -16294,7 +16294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="129" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB129" s="367"/>
       <c r="AC129" s="367"/>
       <c r="AD129" s="367"/>
@@ -16326,7 +16326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="130" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB130" s="367"/>
       <c r="AC130" s="367"/>
       <c r="AD130" s="367"/>
@@ -16358,7 +16358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="131" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB131" s="367" t="s">
         <v>272</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="132" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB132" s="367" t="s">
         <v>272</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="133" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="133" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB133" s="367" t="s">
         <v>272</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="134" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="134" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB134" s="367" t="s">
         <v>272</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="135" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="135" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB135" s="367"/>
       <c r="AC135" s="367"/>
       <c r="AD135" s="367"/>
@@ -16550,7 +16550,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="136" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="136" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB136" s="367"/>
       <c r="AC136" s="367"/>
       <c r="AD136" s="367"/>
@@ -16582,7 +16582,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="137" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="137" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB137" s="367"/>
       <c r="AC137" s="367"/>
       <c r="AD137" s="367"/>
@@ -16614,7 +16614,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="138" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="138" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB138" s="367"/>
       <c r="AC138" s="367"/>
       <c r="AD138" s="367"/>
@@ -16646,7 +16646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="139" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB139" s="367"/>
       <c r="AC139" s="367"/>
       <c r="AD139" s="367"/>
@@ -16678,7 +16678,7 @@
         <v>57.142857142857139</v>
       </c>
     </row>
-    <row r="140" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="140" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB140" s="367"/>
       <c r="AC140" s="367"/>
       <c r="AD140" s="367"/>
@@ -16710,7 +16710,7 @@
         <v>64.285714285714292</v>
       </c>
     </row>
-    <row r="141" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="141" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB141" s="367"/>
       <c r="AC141" s="367"/>
       <c r="AD141" s="367"/>
@@ -16742,7 +16742,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="142" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="142" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB142" s="367"/>
       <c r="AC142" s="367"/>
       <c r="AD142" s="367"/>
@@ -16774,7 +16774,7 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="143" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="143" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB143" s="367"/>
       <c r="AC143" s="367"/>
       <c r="AD143" s="367"/>
@@ -16806,7 +16806,7 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="144" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="144" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB144" s="367"/>
       <c r="AC144" s="367"/>
       <c r="AD144" s="367"/>
@@ -16838,7 +16838,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="145" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="145" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB145" s="367"/>
       <c r="AC145" s="367"/>
       <c r="AD145" s="367"/>
@@ -16870,7 +16870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="146" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB146" s="367" t="s">
         <v>273</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="147" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB147" s="367" t="s">
         <v>273</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="148" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB148" s="367" t="s">
         <v>273</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="149" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AB149" s="367" t="s">
         <v>273</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="150" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG150" s="361" t="s">
         <v>297</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="151" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG151" s="361" t="s">
         <v>297</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="152" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG152" s="361" t="s">
         <v>297</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="153" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG153" s="361" t="s">
         <v>297</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="154" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG154" s="361" t="s">
         <v>297</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="155" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG155" s="361" t="s">
         <v>297</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="156" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG156" s="361" t="s">
         <v>297</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="157" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG157" s="361" t="s">
         <v>297</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="158" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="158" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG158" s="361" t="s">
         <v>297</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="159" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG159" s="361" t="s">
         <v>297</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="28:40" x14ac:dyDescent="0.3">
+    <row r="160" spans="28:40" x14ac:dyDescent="0.75">
       <c r="AG160" s="361" t="s">
         <v>297</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="161" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="161" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG161" s="361" t="s">
         <v>297</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="162" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG162" s="361" t="s">
         <v>297</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="163" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG163" s="361" t="s">
         <v>297</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="164" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG164" s="361" t="s">
         <v>297</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="165" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG165" s="361" t="s">
         <v>297</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="166" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG166" s="361" t="s">
         <v>297</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="167" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG167" s="361" t="s">
         <v>304</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="168" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG168" s="361" t="s">
         <v>310</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="169" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG169" s="361" t="s">
         <v>310</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="170" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG170" s="361" t="s">
         <v>310</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="171" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG171" s="361" t="s">
         <v>310</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="172" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG172" s="361" t="s">
         <v>310</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="173" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG173" s="361" t="s">
         <v>310</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="174" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG174" s="361" t="s">
         <v>310</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="175" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG175" s="361" t="s">
         <v>310</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="176" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG176" s="361" t="s">
         <v>311</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="177" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG177" s="361" t="s">
         <v>311</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="178" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG178" s="361" t="s">
         <v>311</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="179" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG179" s="361" t="s">
         <v>311</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="180" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG180" s="361" t="s">
         <v>311</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="181" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG181" s="361" t="s">
         <v>311</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="182" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG182" s="361" t="s">
         <v>311</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="183" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG183" s="361" t="s">
         <v>311</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="184" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG184" s="361" t="s">
         <v>311</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="185" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG185" s="361" t="s">
         <v>311</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="186" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG186" s="361" t="s">
         <v>311</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="187" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG187" s="361" t="s">
         <v>312</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="188" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="188" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG188" s="361" t="s">
         <v>312</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="189" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG189" s="361" t="s">
         <v>312</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="190" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG190" s="361" t="s">
         <v>312</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="191" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG191" s="361" t="s">
         <v>312</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="192" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG192" s="361" t="s">
         <v>312</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="193" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG193" s="361" t="s">
         <v>312</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="194" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG194" s="361" t="s">
         <v>312</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="195" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG195" s="361" t="s">
         <v>312</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="196" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="196" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG196" s="361" t="s">
         <v>312</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="197" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG197" s="361" t="s">
         <v>312</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="198" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG198" s="361" t="s">
         <v>312</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="199" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG199" s="361" t="s">
         <v>312</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="200" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG200" s="361" t="s">
         <v>312</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="201" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG201" s="361" t="s">
         <v>312</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="202" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG202" s="361" t="s">
         <v>313</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="203" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG203" s="361" t="s">
         <v>313</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="204" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG204" s="361" t="s">
         <v>313</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="205" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="205" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG205" s="361" t="s">
         <v>313</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="206" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="206" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG206" s="361" t="s">
         <v>313</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="207" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="207" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG207" s="361" t="s">
         <v>313</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="208" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="208" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG208" s="361" t="s">
         <v>313</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="209" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="209" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG209" s="361" t="s">
         <v>313</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="210" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="210" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG210" s="361" t="s">
         <v>313</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="211" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG211" s="361" t="s">
         <v>313</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="212" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="212" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG212" s="361" t="s">
         <v>313</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="213" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG213" s="361" t="s">
         <v>313</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="214" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="214" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG214" s="361" t="s">
         <v>313</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="215" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="215" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG215" s="361" t="s">
         <v>313</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="216" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="216" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG216" s="361" t="s">
         <v>313</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="217" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="217" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG217" s="361" t="s">
         <v>313</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="218" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG218" s="361" t="s">
         <v>313</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="219" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="219" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG219" s="361" t="s">
         <v>313</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="220" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="220" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG220" s="361" t="s">
         <v>313</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="221" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="221" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG221" s="361" t="s">
         <v>313</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="222" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="222" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG222" s="361" t="s">
         <v>313</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="223" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="223" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG223" s="361" t="s">
         <v>307</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="224" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="224" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG224" s="361" t="s">
         <v>314</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="225" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG225" s="361" t="s">
         <v>314</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="226" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="226" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG226" s="361" t="s">
         <v>314</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="227" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="227" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG227" s="361" t="s">
         <v>314</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="228" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="228" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG228" s="361" t="s">
         <v>314</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="229" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="229" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG229" s="361" t="s">
         <v>314</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="230" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="230" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG230" s="361" t="s">
         <v>314</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="231" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="231" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG231" s="361" t="s">
         <v>314</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="232" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="232" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG232" s="361" t="s">
         <v>315</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="233" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="233" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG233" s="361" t="s">
         <v>315</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="234" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="234" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG234" s="361" t="s">
         <v>315</v>
       </c>
@@ -19340,7 +19340,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="235" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="235" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG235" s="361" t="s">
         <v>315</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="236" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="236" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG236" s="361" t="s">
         <v>315</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="237" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="237" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG237" s="361" t="s">
         <v>315</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="238" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="238" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG238" s="361" t="s">
         <v>315</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="239" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="239" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG239" s="361" t="s">
         <v>315</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="240" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="240" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG240" s="361" t="s">
         <v>315</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="241" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG241" s="361" t="s">
         <v>315</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="242" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG242" s="361" t="s">
         <v>315</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="243" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="243" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG243" s="361" t="s">
         <v>316</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="244" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="244" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG244" s="361" t="s">
         <v>316</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="245" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="245" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG245" s="361" t="s">
         <v>316</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="246" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="246" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG246" s="361" t="s">
         <v>316</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="247" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="247" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG247" s="361" t="s">
         <v>316</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="248" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="248" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG248" s="361" t="s">
         <v>316</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="249" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="249" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG249" s="361" t="s">
         <v>316</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="250" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="250" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG250" s="361" t="s">
         <v>316</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="251" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="251" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG251" s="361" t="s">
         <v>316</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="252" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG252" s="361" t="s">
         <v>316</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="253" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG253" s="361" t="s">
         <v>316</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="254" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG254" s="361" t="s">
         <v>316</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="255" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="255" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG255" s="361" t="s">
         <v>316</v>
       </c>
@@ -19907,7 +19907,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="256" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="256" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG256" s="361" t="s">
         <v>316</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="257" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="257" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG257" s="361" t="s">
         <v>316</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="258" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="258" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG258" s="361" t="s">
         <v>317</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="259" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="259" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG259" s="361" t="s">
         <v>317</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="260" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="260" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG260" s="361" t="s">
         <v>317</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="261" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG261" s="361" t="s">
         <v>317</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="262" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="262" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG262" s="361" t="s">
         <v>317</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="263" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="263" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG263" s="361" t="s">
         <v>317</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="264" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="264" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG264" s="361" t="s">
         <v>317</v>
       </c>
@@ -20150,7 +20150,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="265" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="265" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG265" s="361" t="s">
         <v>317</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="266" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="266" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG266" s="361" t="s">
         <v>317</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="267" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="267" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG267" s="361" t="s">
         <v>317</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="268" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="268" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG268" s="361" t="s">
         <v>317</v>
       </c>
@@ -20258,7 +20258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="269" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="269" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG269" s="361" t="s">
         <v>317</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="270" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="270" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG270" s="361" t="s">
         <v>317</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="271" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="271" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG271" s="361" t="s">
         <v>317</v>
       </c>
@@ -20339,7 +20339,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="272" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="272" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG272" s="361" t="s">
         <v>317</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="273" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG273" s="361" t="s">
         <v>317</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="274" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="274" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG274" s="361" t="s">
         <v>317</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="275" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="275" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG275" s="361" t="s">
         <v>317</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="276" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="276" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG276" s="361" t="s">
         <v>317</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="277" spans="33:40" x14ac:dyDescent="0.3">
+    <row r="277" spans="33:40" x14ac:dyDescent="0.75">
       <c r="AG277" s="361" t="s">
         <v>317</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="278" spans="33:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="33:40" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="AG278" s="363" t="s">
         <v>317</v>
       </c>
@@ -20547,18 +20547,18 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="8.2265625" customWidth="1"/>
+    <col min="4" max="4" width="5.86328125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="8.2265625" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -20622,7 +20622,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -20727,7 +20727,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -20797,7 +20797,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A8" t="str">
         <f>Charakter!A8</f>
         <v>Glück</v>
@@ -20829,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9" t="str">
         <f>Charakter!A9</f>
         <v>Glaube</v>
@@ -20861,7 +20861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -20924,7 +20924,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -21202,7 +21202,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>Keine</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -21404,7 +21404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="2" t="s">
         <v>132</v>
       </c>

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E9664-1BFF-4B78-9B01-40533E45BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5220AB79-5EE8-40AD-9748-5619CEDB750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -4686,7 +4686,7 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.2265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="O4" s="78">
         <f>VLOOKUP($B$1,DatenExelintern!F22:U29,14, FALSE)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P4" s="53"/>
       <c r="Q4" s="7"/>
@@ -10307,7 +10307,7 @@
   <dimension ref="A1:AN278"/>
   <sheetViews>
     <sheetView topLeftCell="E8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="R23" s="39"/>
       <c r="S23" s="38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T23" s="39">
         <v>150</v>
@@ -12378,7 +12378,7 @@
         <v>169</v>
       </c>
       <c r="S24" s="38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T24" s="39">
         <v>150</v>
@@ -12466,7 +12466,7 @@
         <v>170</v>
       </c>
       <c r="S25" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T25" s="39">
         <v>150</v>
@@ -12554,7 +12554,7 @@
         <v>171</v>
       </c>
       <c r="S26" s="38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T26" s="39">
         <v>150</v>
@@ -12634,7 +12634,7 @@
         <v>172</v>
       </c>
       <c r="S27" s="38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T27" s="39">
         <v>150</v>
@@ -12693,7 +12693,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M28" s="38">
         <v>4</v>
@@ -12714,7 +12714,7 @@
         <v>173</v>
       </c>
       <c r="S28" s="38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T28" s="39">
         <v>150</v>
@@ -12794,7 +12794,7 @@
         <v>174</v>
       </c>
       <c r="S29" s="38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T29" s="39">
         <v>150</v>

--- a/docs/DownloadContainer/CCSheetBlank.xlsx
+++ b/docs/DownloadContainer/CCSheetBlank.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90853F5F-52DB-4956-9B2D-824EB7F9A4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D1A084-C154-4142-9AE2-A6076873E131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" sheetId="7" r:id="rId1"/>
+    <sheet name="Charakter" sheetId="7" r:id="rId1"/>
     <sheet name="Inventar" sheetId="4" r:id="rId2"/>
     <sheet name="Log" sheetId="2" r:id="rId3"/>
     <sheet name="Geschichte" sheetId="11" r:id="rId4"/>
@@ -3032,6 +3032,317 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3056,6 +3367,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3068,302 +3385,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3394,6 +3415,22 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3423,43 +3460,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3473,7 +3473,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -3487,32 +3487,8 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3556,117 +3532,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3749,13 +3614,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3815,6 +3673,148 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -3841,7 +3841,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3855,14 +3855,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3876,7 +3876,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4367,7 +4367,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -4426,17 +4426,17 @@
         <v>128</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="402" t="s">
+      <c r="H1" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
-      <c r="N1" s="403"/>
-      <c r="O1" s="403"/>
-      <c r="P1" s="404"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
+      <c r="N1" s="352"/>
+      <c r="O1" s="352"/>
+      <c r="P1" s="353"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="87" t="s">
         <v>3</v>
@@ -4451,18 +4451,18 @@
       <c r="V1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="312" t="s">
+      <c r="W1" s="294" t="s">
         <v>179</v>
       </c>
-      <c r="X1" s="313"/>
+      <c r="X1" s="295"/>
       <c r="Y1" s="3" t="s">
         <v>177</v>
       </c>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="312" t="s">
+      <c r="AA1" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="313"/>
+      <c r="AB1" s="295"/>
       <c r="AD1" s="41" t="s">
         <v>139</v>
       </c>
@@ -4477,17 +4477,17 @@
       <c r="E2" s="57"/>
       <c r="F2" s="69"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="405" t="s">
+      <c r="H2" s="348" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="406"/>
-      <c r="J2" s="406"/>
-      <c r="K2" s="406"/>
-      <c r="L2" s="406"/>
-      <c r="M2" s="406"/>
-      <c r="N2" s="406"/>
-      <c r="O2" s="406"/>
-      <c r="P2" s="407"/>
+      <c r="I2" s="349"/>
+      <c r="J2" s="349"/>
+      <c r="K2" s="349"/>
+      <c r="L2" s="349"/>
+      <c r="M2" s="349"/>
+      <c r="N2" s="349"/>
+      <c r="O2" s="349"/>
+      <c r="P2" s="350"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="44" t="s">
         <v>182</v>
@@ -4500,15 +4500,15 @@
         <v>0</v>
       </c>
       <c r="U2" s="88"/>
-      <c r="V2" s="345" t="s">
+      <c r="V2" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="347"/>
+      <c r="W2" s="306"/>
+      <c r="X2" s="306"/>
+      <c r="Y2" s="307"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="314"/>
-      <c r="AB2" s="315"/>
+      <c r="AA2" s="359"/>
+      <c r="AB2" s="360"/>
       <c r="AD2" s="145"/>
       <c r="AF2" s="8"/>
     </row>
@@ -4551,8 +4551,8 @@
         <v>10</v>
       </c>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="318"/>
-      <c r="AB3" s="319"/>
+      <c r="AA3" s="365"/>
+      <c r="AB3" s="366"/>
       <c r="AD3" s="143"/>
       <c r="AF3" s="8"/>
     </row>
@@ -4595,8 +4595,8 @@
         <v>10</v>
       </c>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="310"/>
-      <c r="AB4" s="311"/>
+      <c r="AA4" s="357"/>
+      <c r="AB4" s="358"/>
       <c r="AD4" s="142"/>
       <c r="AF4" s="8"/>
     </row>
@@ -4639,8 +4639,8 @@
         <v>10</v>
       </c>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="318"/>
-      <c r="AB5" s="319"/>
+      <c r="AA5" s="365"/>
+      <c r="AB5" s="366"/>
       <c r="AD5" s="143"/>
       <c r="AF5" s="8"/>
     </row>
@@ -4688,22 +4688,22 @@
         <v>10</v>
       </c>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="310"/>
-      <c r="AB6" s="311"/>
+      <c r="AA6" s="357"/>
+      <c r="AB6" s="358"/>
       <c r="AD6" s="142"/>
       <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="67"/>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="337" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="335"/>
-      <c r="D7" s="332" t="s">
+      <c r="C7" s="339"/>
+      <c r="D7" s="337" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="333"/>
-      <c r="F7" s="334"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="300"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -4739,8 +4739,8 @@
         <v>10</v>
       </c>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="318"/>
-      <c r="AB7" s="319"/>
+      <c r="AA7" s="365"/>
+      <c r="AB7" s="366"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="148"/>
       <c r="AF7" s="8"/>
@@ -4749,11 +4749,11 @@
       <c r="A8" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="336"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="340"/>
-      <c r="F8" s="341"/>
+      <c r="B8" s="340"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="344"/>
+      <c r="F8" s="345"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -4789,8 +4789,8 @@
         <v>10</v>
       </c>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="310"/>
-      <c r="AB8" s="311"/>
+      <c r="AA8" s="357"/>
+      <c r="AB8" s="358"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="7"/>
@@ -4800,11 +4800,11 @@
       <c r="A9" s="150" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="338"/>
-      <c r="C9" s="339"/>
-      <c r="D9" s="338"/>
-      <c r="E9" s="342"/>
-      <c r="F9" s="343"/>
+      <c r="B9" s="342"/>
+      <c r="C9" s="343"/>
+      <c r="D9" s="342"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="347"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -4840,8 +4840,8 @@
         <v>10</v>
       </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="320"/>
-      <c r="AB9" s="321"/>
+      <c r="AA9" s="367"/>
+      <c r="AB9" s="368"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="7"/>
@@ -4927,17 +4927,17 @@
         <v>0</v>
       </c>
       <c r="U11" s="88"/>
-      <c r="V11" s="348" t="s">
+      <c r="V11" s="308" t="s">
         <v>234</v>
       </c>
-      <c r="W11" s="349"/>
-      <c r="X11" s="349"/>
-      <c r="Y11" s="350"/>
+      <c r="W11" s="309"/>
+      <c r="X11" s="309"/>
+      <c r="Y11" s="310"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="312" t="s">
+      <c r="AA11" s="294" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="313"/>
+      <c r="AB11" s="295"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="41" t="s">
         <v>229</v>
@@ -4998,11 +4998,11 @@
         <v>10</v>
       </c>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="314" t="str">
+      <c r="AA12" s="359" t="str">
         <f>VLOOKUP($S$1,DatenExelintern!F22:U29,16, FALSE)</f>
         <v>Herkunft 2</v>
       </c>
-      <c r="AB12" s="315"/>
+      <c r="AB12" s="360"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="271"/>
       <c r="AE12" s="7"/>
@@ -5056,8 +5056,8 @@
         <v>10</v>
       </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="303"/>
-      <c r="AB13" s="304"/>
+      <c r="AA13" s="361"/>
+      <c r="AB13" s="362"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="143"/>
       <c r="AE13" s="7"/>
@@ -5114,8 +5114,8 @@
         <v>10</v>
       </c>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="316"/>
-      <c r="AB14" s="317"/>
+      <c r="AA14" s="363"/>
+      <c r="AB14" s="364"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="142"/>
       <c r="AE14" s="7"/>
@@ -5159,15 +5159,15 @@
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="26"/>
-      <c r="V15" s="312" t="s">
+      <c r="V15" s="294" t="s">
         <v>233</v>
       </c>
-      <c r="W15" s="331"/>
-      <c r="X15" s="331"/>
-      <c r="Y15" s="313"/>
+      <c r="W15" s="304"/>
+      <c r="X15" s="304"/>
+      <c r="Y15" s="295"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="303"/>
-      <c r="AB15" s="304"/>
+      <c r="AA15" s="361"/>
+      <c r="AB15" s="362"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="143"/>
       <c r="AE15" s="7"/>
@@ -5219,8 +5219,8 @@
         <v>10</v>
       </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="305"/>
-      <c r="AB16" s="306"/>
+      <c r="AA16" s="381"/>
+      <c r="AB16" s="382"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="144"/>
       <c r="AE16" s="7"/>
@@ -5287,13 +5287,13 @@
       <c r="O18" s="7"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="322" t="s">
+      <c r="R18" s="328" t="s">
         <v>238</v>
       </c>
-      <c r="S18" s="364" t="s">
+      <c r="S18" s="324" t="s">
         <v>225</v>
       </c>
-      <c r="T18" s="365"/>
+      <c r="T18" s="325"/>
       <c r="U18" s="26"/>
       <c r="V18" s="46" t="s">
         <v>196</v>
@@ -5306,25 +5306,25 @@
         <v>10</v>
       </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="312" t="s">
+      <c r="AA18" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="AB18" s="313"/>
+      <c r="AB18" s="295"/>
       <c r="AC18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="322" t="s">
+      <c r="A19" s="328" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="323"/>
-      <c r="C19" s="326" t="s">
+      <c r="B19" s="329"/>
+      <c r="C19" s="332" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="328" t="s">
+      <c r="D19" s="334" t="s">
         <v>308</v>
       </c>
-      <c r="E19" s="330"/>
+      <c r="E19" s="336"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5337,9 +5337,9 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="324"/>
-      <c r="S19" s="366"/>
-      <c r="T19" s="367"/>
+      <c r="R19" s="330"/>
+      <c r="S19" s="326"/>
+      <c r="T19" s="327"/>
       <c r="U19" s="26"/>
       <c r="V19" s="45" t="s">
         <v>35</v>
@@ -5365,11 +5365,11 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:33" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="324"/>
-      <c r="B20" s="325"/>
-      <c r="C20" s="327"/>
-      <c r="D20" s="329"/>
-      <c r="E20" s="330"/>
+      <c r="A20" s="330"/>
+      <c r="B20" s="331"/>
+      <c r="C20" s="333"/>
+      <c r="D20" s="335"/>
+      <c r="E20" s="336"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -5385,10 +5385,10 @@
       <c r="R20" s="270">
         <v>0</v>
       </c>
-      <c r="S20" s="378">
+      <c r="S20" s="301">
         <v>100</v>
       </c>
-      <c r="T20" s="379"/>
+      <c r="T20" s="302"/>
       <c r="U20" s="26"/>
       <c r="V20" s="46" t="s">
         <v>197</v>
@@ -5411,10 +5411,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="7"/>
-      <c r="AD20" s="377" t="s">
+      <c r="AD20" s="299" t="s">
         <v>313</v>
       </c>
-      <c r="AE20" s="334"/>
+      <c r="AE20" s="300"/>
       <c r="AF20" s="8"/>
     </row>
     <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5509,18 +5509,18 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="352" t="s">
+      <c r="R22" s="312" t="s">
         <v>237</v>
       </c>
-      <c r="S22" s="353"/>
-      <c r="T22" s="354"/>
+      <c r="S22" s="313"/>
+      <c r="T22" s="314"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="312" t="s">
+      <c r="V22" s="294" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="331"/>
-      <c r="X22" s="331"/>
-      <c r="Y22" s="313"/>
+      <c r="W22" s="304"/>
+      <c r="X22" s="304"/>
+      <c r="Y22" s="295"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="115" t="s">
         <v>30</v>
@@ -5570,9 +5570,9 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="361"/>
-      <c r="S23" s="362"/>
-      <c r="T23" s="363"/>
+      <c r="R23" s="321"/>
+      <c r="S23" s="322"/>
+      <c r="T23" s="323"/>
       <c r="U23" s="26"/>
       <c r="V23" s="44" t="s">
         <v>199</v>
@@ -5633,9 +5633,9 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="307"/>
-      <c r="S24" s="308"/>
-      <c r="T24" s="309"/>
+      <c r="R24" s="354"/>
+      <c r="S24" s="355"/>
+      <c r="T24" s="356"/>
       <c r="U24" s="26"/>
       <c r="V24" s="104" t="s">
         <v>200</v>
@@ -5686,24 +5686,24 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="358"/>
-      <c r="S25" s="359"/>
-      <c r="T25" s="360"/>
+      <c r="R25" s="318"/>
+      <c r="S25" s="319"/>
+      <c r="T25" s="320"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="312" t="s">
+      <c r="V25" s="294" t="s">
         <v>60</v>
       </c>
-      <c r="W25" s="331"/>
-      <c r="X25" s="331"/>
-      <c r="Y25" s="313"/>
+      <c r="W25" s="304"/>
+      <c r="X25" s="304"/>
+      <c r="Y25" s="295"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="374" t="s">
+      <c r="AA25" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="AB25" s="375"/>
-      <c r="AC25" s="375"/>
-      <c r="AD25" s="375"/>
-      <c r="AE25" s="376"/>
+      <c r="AB25" s="297"/>
+      <c r="AC25" s="297"/>
+      <c r="AD25" s="297"/>
+      <c r="AE25" s="298"/>
       <c r="AF25" s="8"/>
     </row>
     <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5737,9 +5737,9 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="355"/>
-      <c r="S26" s="356"/>
-      <c r="T26" s="357"/>
+      <c r="R26" s="315"/>
+      <c r="S26" s="316"/>
+      <c r="T26" s="317"/>
       <c r="U26" s="26"/>
       <c r="V26" s="44" t="s">
         <v>44</v>
@@ -5755,12 +5755,12 @@
       <c r="AA26" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="AB26" s="297" t="s">
+      <c r="AB26" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="AC26" s="298"/>
-      <c r="AD26" s="298"/>
-      <c r="AE26" s="299"/>
+      <c r="AC26" s="370"/>
+      <c r="AD26" s="370"/>
+      <c r="AE26" s="371"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="8"/>
     </row>
@@ -5795,9 +5795,9 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="371"/>
-      <c r="S27" s="372"/>
-      <c r="T27" s="373"/>
+      <c r="R27" s="291"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="293"/>
       <c r="U27" s="26"/>
       <c r="V27" s="45" t="s">
         <v>45</v>
@@ -5811,10 +5811,10 @@
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="146"/>
-      <c r="AB27" s="300"/>
-      <c r="AC27" s="301"/>
-      <c r="AD27" s="301"/>
-      <c r="AE27" s="302"/>
+      <c r="AB27" s="372"/>
+      <c r="AC27" s="373"/>
+      <c r="AD27" s="373"/>
+      <c r="AE27" s="374"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="8"/>
     </row>
@@ -5849,9 +5849,9 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="355"/>
-      <c r="S28" s="356"/>
-      <c r="T28" s="357"/>
+      <c r="R28" s="315"/>
+      <c r="S28" s="316"/>
+      <c r="T28" s="317"/>
       <c r="U28" s="26"/>
       <c r="V28" s="47" t="s">
         <v>201</v>
@@ -5867,10 +5867,10 @@
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="60"/>
-      <c r="AB28" s="288"/>
-      <c r="AC28" s="289"/>
-      <c r="AD28" s="289"/>
-      <c r="AE28" s="290"/>
+      <c r="AB28" s="375"/>
+      <c r="AC28" s="376"/>
+      <c r="AD28" s="376"/>
+      <c r="AE28" s="377"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="8"/>
     </row>
@@ -5884,29 +5884,29 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="351"/>
-      <c r="K29" s="351"/>
-      <c r="L29" s="351"/>
-      <c r="M29" s="351"/>
-      <c r="N29" s="351"/>
+      <c r="J29" s="311"/>
+      <c r="K29" s="311"/>
+      <c r="L29" s="311"/>
+      <c r="M29" s="311"/>
+      <c r="N29" s="311"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="40"/>
       <c r="T29" s="23"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="312" t="s">
+      <c r="V29" s="294" t="s">
         <v>245</v>
       </c>
-      <c r="W29" s="331"/>
-      <c r="X29" s="331"/>
-      <c r="Y29" s="313"/>
+      <c r="W29" s="304"/>
+      <c r="X29" s="304"/>
+      <c r="Y29" s="295"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="291"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="292"/>
-      <c r="AE29" s="293"/>
+      <c r="AB29" s="378"/>
+      <c r="AC29" s="379"/>
+      <c r="AD29" s="379"/>
+      <c r="AE29" s="380"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="8"/>
     </row>
@@ -5920,19 +5920,19 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="344"/>
-      <c r="K30" s="344"/>
-      <c r="L30" s="344"/>
-      <c r="M30" s="344"/>
-      <c r="N30" s="344"/>
+      <c r="J30" s="303"/>
+      <c r="K30" s="303"/>
+      <c r="L30" s="303"/>
+      <c r="M30" s="303"/>
+      <c r="N30" s="303"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="352" t="s">
+      <c r="R30" s="312" t="s">
         <v>122</v>
       </c>
-      <c r="S30" s="353"/>
-      <c r="T30" s="354"/>
+      <c r="S30" s="313"/>
+      <c r="T30" s="314"/>
       <c r="U30" s="26"/>
       <c r="V30" s="44" t="s">
         <v>204</v>
@@ -5946,10 +5946,10 @@
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="60"/>
-      <c r="AB30" s="288"/>
-      <c r="AC30" s="289"/>
-      <c r="AD30" s="289"/>
-      <c r="AE30" s="290"/>
+      <c r="AB30" s="375"/>
+      <c r="AC30" s="376"/>
+      <c r="AD30" s="376"/>
+      <c r="AE30" s="377"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="8"/>
     </row>
@@ -5971,9 +5971,9 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="368"/>
-      <c r="S31" s="369"/>
-      <c r="T31" s="370"/>
+      <c r="R31" s="288"/>
+      <c r="S31" s="289"/>
+      <c r="T31" s="290"/>
       <c r="U31" s="26"/>
       <c r="V31" s="45" t="s">
         <v>202</v>
@@ -5987,10 +5987,10 @@
       </c>
       <c r="Z31" s="5"/>
       <c r="AA31" s="58"/>
-      <c r="AB31" s="291"/>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="292"/>
-      <c r="AE31" s="293"/>
+      <c r="AB31" s="378"/>
+      <c r="AC31" s="379"/>
+      <c r="AD31" s="379"/>
+      <c r="AE31" s="380"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="8"/>
     </row>
@@ -6028,10 +6028,10 @@
       </c>
       <c r="Z32" s="5"/>
       <c r="AA32" s="60"/>
-      <c r="AB32" s="288"/>
-      <c r="AC32" s="289"/>
-      <c r="AD32" s="289"/>
-      <c r="AE32" s="290"/>
+      <c r="AB32" s="375"/>
+      <c r="AC32" s="376"/>
+      <c r="AD32" s="376"/>
+      <c r="AE32" s="377"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="8"/>
     </row>
@@ -6059,10 +6059,10 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="58"/>
-      <c r="AB33" s="291"/>
-      <c r="AC33" s="292"/>
-      <c r="AD33" s="292"/>
-      <c r="AE33" s="293"/>
+      <c r="AB33" s="378"/>
+      <c r="AC33" s="379"/>
+      <c r="AD33" s="379"/>
+      <c r="AE33" s="380"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="8"/>
     </row>
@@ -6089,10 +6089,10 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="62"/>
-      <c r="AB34" s="294"/>
-      <c r="AC34" s="295"/>
-      <c r="AD34" s="295"/>
-      <c r="AE34" s="296"/>
+      <c r="AB34" s="383"/>
+      <c r="AC34" s="384"/>
+      <c r="AD34" s="384"/>
+      <c r="AE34" s="385"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="8"/>
     </row>
@@ -6468,12 +6468,40 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H1:P1"/>
     <mergeCell ref="J30:N30"/>
     <mergeCell ref="V25:Y25"/>
     <mergeCell ref="V29:Y29"/>
@@ -6489,45 +6517,17 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="R26:T26"/>
     <mergeCell ref="S18:T19"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H1:P1"/>
     <mergeCell ref="R24:T24"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="S20:T20"/>
     <mergeCell ref="AB26:AE26"/>
     <mergeCell ref="AB27:AE27"/>
     <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="AB34:AE34"/>
   </mergeCells>
   <conditionalFormatting sqref="A21">
     <cfRule type="expression" priority="19">
@@ -6620,14 +6620,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G25 F19:F26 E23:E30">
-    <cfRule type="containsText" dxfId="55" priority="35" operator="containsText" text="Verstümmelt">
-      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
+    <cfRule type="containsText" dxfId="55" priority="37" operator="containsText" text="Debuff">
+      <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="36" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="Debuff">
-      <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
+    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="Verstümmelt">
+      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H2">
@@ -6651,14 +6651,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:S16">
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="Verstümmelt">
-      <formula>NOT(ISERROR(SEARCH("Verstümmelt",R16)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Debuff">
+      <formula>NOT(ISERROR(SEARCH("Debuff",R16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="8" operator="containsText" text="Debuff">
-      <formula>NOT(ISERROR(SEARCH("Debuff",R16)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="6" operator="containsText" text="Verstümmelt">
+      <formula>NOT(ISERROR(SEARCH("Verstümmelt",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
@@ -6700,23 +6700,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1 W30:X32 W33 V35:W1048576">
-    <cfRule type="containsText" dxfId="45" priority="146" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="45" priority="147" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",V1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="146" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",V1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="147" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",V1)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="151" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",V1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="148" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="42" priority="148" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",V1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="149" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="41" priority="149" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",V1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="150" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="40" priority="150" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",V1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="151" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
@@ -6745,23 +6745,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:X10">
-    <cfRule type="containsText" dxfId="32" priority="42" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",W3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="46" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",W3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",W3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",W3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="43" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="28" priority="43" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",W3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="44" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="27" priority="44" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",W3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",W3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="46" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",W3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",W3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:X14">
@@ -6791,17 +6791,17 @@
     <cfRule type="containsText" dxfId="19" priority="61" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",W16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="62" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",W16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="63" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="18" priority="63" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",W16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="64" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="17" priority="64" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",W16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="65" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="16" priority="65" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",W16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="62" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",W16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23:X24">
@@ -6825,35 +6825,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26:X28">
-    <cfRule type="containsText" dxfId="8" priority="48" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="8" priority="51" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",W26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="52" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",W26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="53" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",W26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="48" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",W26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="49" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="4" priority="49" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",W26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="50" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="3" priority="50" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",W26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="51" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",W26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="52" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",W26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="53" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",W26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23">
-    <cfRule type="containsText" dxfId="2" priority="38" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",AB23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="39" operator="containsText" text="Leicht">
-      <formula>NOT(ISERROR(SEARCH("Leicht",AB23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="40" operator="containsText" text="Schwer">
-      <formula>NOT(ISERROR(SEARCH("Schwer",AB23)))</formula>
-    </cfRule>
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -6863,6 +6854,15 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="40" operator="containsText" text="Schwer">
+      <formula>NOT(ISERROR(SEARCH("Schwer",AB23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="39" operator="containsText" text="Leicht">
+      <formula>NOT(ISERROR(SEARCH("Leicht",AB23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="38" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",AB23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6953,12 +6953,12 @@
         <v>145</v>
       </c>
       <c r="K1" s="22"/>
-      <c r="L1" s="384" t="s">
+      <c r="L1" s="390" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="385"/>
-      <c r="N1" s="385"/>
-      <c r="O1" s="386"/>
+      <c r="M1" s="391"/>
+      <c r="N1" s="391"/>
+      <c r="O1" s="392"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6976,12 +6976,12 @@
       <c r="L2" s="212" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="387">
+      <c r="M2" s="393">
         <f>O4-M4</f>
         <v>30000</v>
       </c>
-      <c r="N2" s="388"/>
-      <c r="O2" s="389"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6996,14 +6996,14 @@
         <f>B3*0.4</f>
         <v>0</v>
       </c>
-      <c r="L3" s="380" t="s">
+      <c r="L3" s="386" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="381"/>
-      <c r="N3" s="382" t="s">
+      <c r="M3" s="387"/>
+      <c r="N3" s="388" t="s">
         <v>148</v>
       </c>
-      <c r="O3" s="383"/>
+      <c r="O3" s="389"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7061,7 +7061,7 @@
         <v>165</v>
       </c>
       <c r="O5" s="172">
-        <f>VLOOKUP(Status!$S$1,DatenExelintern!F22:U29,12, FALSE)</f>
+        <f>VLOOKUP(Charakter!$S$1,DatenExelintern!F22:U29,12, FALSE)</f>
         <v>30000</v>
       </c>
       <c r="P5" s="8"/>
@@ -8118,17 +8118,17 @@
       <c r="J1" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="396" t="s">
+      <c r="K1" s="406" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="397"/>
+      <c r="L1" s="407"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51"/>
-      <c r="B2" s="394" t="s">
+      <c r="B2" s="404" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="395"/>
+      <c r="C2" s="405"/>
       <c r="E2" s="156"/>
       <c r="F2" s="157"/>
       <c r="G2" s="157"/>
@@ -8140,31 +8140,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
-      <c r="B3" s="390" t="s">
+      <c r="B3" s="400" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="391"/>
+      <c r="C3" s="401"/>
       <c r="E3" s="160"/>
       <c r="F3" s="161"/>
       <c r="G3" s="161"/>
       <c r="H3" s="161"/>
       <c r="I3" s="161"/>
       <c r="J3" s="161"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="293"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="380"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="392"/>
-      <c r="C4" s="393"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="403"/>
       <c r="E4" s="163"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
       <c r="H4" s="164"/>
       <c r="I4" s="164"/>
       <c r="J4" s="164"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="290"/>
+      <c r="K4" s="375"/>
+      <c r="L4" s="377"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
@@ -8172,7 +8172,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="86">
-        <f>Status!S6 * 5</f>
+        <f>Charakter!S6 * 5</f>
         <v>50</v>
       </c>
       <c r="E5" s="160"/>
@@ -8181,8 +8181,8 @@
       <c r="H5" s="161"/>
       <c r="I5" s="161"/>
       <c r="J5" s="161"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="293"/>
+      <c r="K5" s="378"/>
+      <c r="L5" s="380"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
@@ -8194,8 +8194,8 @@
       <c r="H6" s="164"/>
       <c r="I6" s="164"/>
       <c r="J6" s="164"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="290"/>
+      <c r="K6" s="375"/>
+      <c r="L6" s="377"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
@@ -8207,8 +8207,8 @@
       <c r="H7" s="161"/>
       <c r="I7" s="161"/>
       <c r="J7" s="161"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="293"/>
+      <c r="K7" s="378"/>
+      <c r="L7" s="380"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
@@ -8220,8 +8220,8 @@
       <c r="H8" s="164"/>
       <c r="I8" s="164"/>
       <c r="J8" s="164"/>
-      <c r="K8" s="288"/>
-      <c r="L8" s="290"/>
+      <c r="K8" s="375"/>
+      <c r="L8" s="377"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
@@ -8233,8 +8233,8 @@
       <c r="H9" s="161"/>
       <c r="I9" s="161"/>
       <c r="J9" s="161"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="293"/>
+      <c r="K9" s="378"/>
+      <c r="L9" s="380"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
@@ -8246,8 +8246,8 @@
       <c r="H10" s="164"/>
       <c r="I10" s="164"/>
       <c r="J10" s="164"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="290"/>
+      <c r="K10" s="375"/>
+      <c r="L10" s="377"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="51"/>
@@ -8259,8 +8259,8 @@
       <c r="H11" s="161"/>
       <c r="I11" s="161"/>
       <c r="J11" s="161"/>
-      <c r="K11" s="291"/>
-      <c r="L11" s="293"/>
+      <c r="K11" s="378"/>
+      <c r="L11" s="380"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
@@ -8272,8 +8272,8 @@
       <c r="H12" s="164"/>
       <c r="I12" s="164"/>
       <c r="J12" s="164"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="290"/>
+      <c r="K12" s="375"/>
+      <c r="L12" s="377"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
@@ -8285,8 +8285,8 @@
       <c r="H13" s="161"/>
       <c r="I13" s="161"/>
       <c r="J13" s="161"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="293"/>
+      <c r="K13" s="378"/>
+      <c r="L13" s="380"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
@@ -8298,8 +8298,8 @@
       <c r="H14" s="164"/>
       <c r="I14" s="164"/>
       <c r="J14" s="164"/>
-      <c r="K14" s="288"/>
-      <c r="L14" s="290"/>
+      <c r="K14" s="375"/>
+      <c r="L14" s="377"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
@@ -8311,8 +8311,8 @@
       <c r="H15" s="161"/>
       <c r="I15" s="161"/>
       <c r="J15" s="161"/>
-      <c r="K15" s="291"/>
-      <c r="L15" s="293"/>
+      <c r="K15" s="378"/>
+      <c r="L15" s="380"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
@@ -8324,8 +8324,8 @@
       <c r="H16" s="164"/>
       <c r="I16" s="164"/>
       <c r="J16" s="164"/>
-      <c r="K16" s="288"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="375"/>
+      <c r="L16" s="377"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
@@ -8337,8 +8337,8 @@
       <c r="H17" s="161"/>
       <c r="I17" s="161"/>
       <c r="J17" s="161"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="293"/>
+      <c r="K17" s="378"/>
+      <c r="L17" s="380"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
@@ -8350,8 +8350,8 @@
       <c r="H18" s="164"/>
       <c r="I18" s="164"/>
       <c r="J18" s="164"/>
-      <c r="K18" s="288"/>
-      <c r="L18" s="290"/>
+      <c r="K18" s="375"/>
+      <c r="L18" s="377"/>
       <c r="P18" s="48"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -8364,8 +8364,8 @@
       <c r="H19" s="161"/>
       <c r="I19" s="161"/>
       <c r="J19" s="161"/>
-      <c r="K19" s="291"/>
-      <c r="L19" s="293"/>
+      <c r="K19" s="378"/>
+      <c r="L19" s="380"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
@@ -8377,8 +8377,8 @@
       <c r="H20" s="164"/>
       <c r="I20" s="164"/>
       <c r="J20" s="164"/>
-      <c r="K20" s="288"/>
-      <c r="L20" s="290"/>
+      <c r="K20" s="375"/>
+      <c r="L20" s="377"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>
@@ -8390,8 +8390,8 @@
       <c r="H21" s="161"/>
       <c r="I21" s="161"/>
       <c r="J21" s="161"/>
-      <c r="K21" s="291"/>
-      <c r="L21" s="293"/>
+      <c r="K21" s="378"/>
+      <c r="L21" s="380"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
@@ -8403,8 +8403,8 @@
       <c r="H22" s="164"/>
       <c r="I22" s="164"/>
       <c r="J22" s="164"/>
-      <c r="K22" s="288"/>
-      <c r="L22" s="290"/>
+      <c r="K22" s="375"/>
+      <c r="L22" s="377"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
@@ -8416,8 +8416,8 @@
       <c r="H23" s="161"/>
       <c r="I23" s="161"/>
       <c r="J23" s="161"/>
-      <c r="K23" s="291"/>
-      <c r="L23" s="293"/>
+      <c r="K23" s="378"/>
+      <c r="L23" s="380"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
@@ -8429,8 +8429,8 @@
       <c r="H24" s="164"/>
       <c r="I24" s="164"/>
       <c r="J24" s="164"/>
-      <c r="K24" s="288"/>
-      <c r="L24" s="290"/>
+      <c r="K24" s="375"/>
+      <c r="L24" s="377"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
@@ -8442,8 +8442,8 @@
       <c r="H25" s="161"/>
       <c r="I25" s="161"/>
       <c r="J25" s="161"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="293"/>
+      <c r="K25" s="378"/>
+      <c r="L25" s="380"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
@@ -8455,8 +8455,8 @@
       <c r="H26" s="164"/>
       <c r="I26" s="164"/>
       <c r="J26" s="164"/>
-      <c r="K26" s="288"/>
-      <c r="L26" s="290"/>
+      <c r="K26" s="375"/>
+      <c r="L26" s="377"/>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="51"/>
@@ -8466,8 +8466,8 @@
       <c r="H27" s="167"/>
       <c r="I27" s="167"/>
       <c r="J27" s="167"/>
-      <c r="K27" s="400"/>
-      <c r="L27" s="401"/>
+      <c r="K27" s="396"/>
+      <c r="L27" s="397"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
@@ -8475,6 +8475,28 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K27:L27"/>
@@ -8482,28 +8504,6 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18829,33 +18829,33 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <f>Status!S2 + Status!T2</f>
+        <f>Charakter!S2 + Charakter!T2</f>
         <v>10</v>
       </c>
       <c r="C2" t="str">
-        <f>Status!V3</f>
+        <f>Charakter!V3</f>
         <v>Reiten</v>
       </c>
       <c r="D2">
-        <f>Status!Y3</f>
+        <f>Charakter!Y3</f>
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F2">
-        <f>Status!B21</f>
+        <f>Charakter!B21</f>
         <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H2">
-        <f>Status!D2</f>
+        <f>Charakter!D2</f>
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f xml:space="preserve"> IF(Status!AD2 = 0, "", Status!AD2)</f>
+        <f xml:space="preserve"> IF(Charakter!AD2 = 0, "", Charakter!AD2)</f>
         <v/>
       </c>
     </row>
@@ -18864,33 +18864,33 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <f>Status!S3 + Status!T3</f>
+        <f>Charakter!S3 + Charakter!T3</f>
         <v>10</v>
       </c>
       <c r="C3" t="str">
-        <f>Status!V4</f>
+        <f>Charakter!V4</f>
         <v>Nahkampfwaffen</v>
       </c>
       <c r="D3">
-        <f>Status!Y4</f>
+        <f>Charakter!Y4</f>
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F3">
-        <f>Status!B22</f>
+        <f>Charakter!B22</f>
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H3">
-        <f>Status!D3</f>
+        <f>Charakter!D3</f>
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f xml:space="preserve"> IF(Status!AD3 = 0, "", Status!AD3)</f>
+        <f xml:space="preserve"> IF(Charakter!AD3 = 0, "", Charakter!AD3)</f>
         <v/>
       </c>
     </row>
@@ -18899,33 +18899,33 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <f>Status!S4 + Status!T4</f>
+        <f>Charakter!S4 + Charakter!T4</f>
         <v>10</v>
       </c>
       <c r="C4" t="str">
-        <f>Status!V5</f>
+        <f>Charakter!V5</f>
         <v>Unbewaffnet</v>
       </c>
       <c r="D4">
-        <f>Status!Y5</f>
+        <f>Charakter!Y5</f>
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F4">
-        <f>Status!B23</f>
+        <f>Charakter!B23</f>
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H4">
-        <f>Status!D4</f>
+        <f>Charakter!D4</f>
         <v>0</v>
       </c>
       <c r="I4" t="str">
-        <f xml:space="preserve"> IF(Status!AD4 = 0, "", Status!AD4)</f>
+        <f xml:space="preserve"> IF(Charakter!AD4 = 0, "", Charakter!AD4)</f>
         <v/>
       </c>
     </row>
@@ -18934,33 +18934,33 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f>Status!S5 + Status!T5</f>
+        <f>Charakter!S5 + Charakter!T5</f>
         <v>10</v>
       </c>
       <c r="C5" t="str">
-        <f>Status!V6</f>
+        <f>Charakter!V6</f>
         <v>Blocken</v>
       </c>
       <c r="D5">
-        <f>Status!Y6</f>
+        <f>Charakter!Y6</f>
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F5">
-        <f>Status!B24</f>
+        <f>Charakter!B24</f>
         <v>105</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H5">
-        <f>Status!D5</f>
+        <f>Charakter!D5</f>
         <v>0</v>
       </c>
       <c r="I5" t="str">
-        <f xml:space="preserve"> IF(Status!AD5 = 0, "", Status!AD5)</f>
+        <f xml:space="preserve"> IF(Charakter!AD5 = 0, "", Charakter!AD5)</f>
         <v/>
       </c>
     </row>
@@ -18969,33 +18969,33 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <f>Status!S6 + Status!T6</f>
+        <f>Charakter!S6 + Charakter!T6</f>
         <v>10</v>
       </c>
       <c r="C6" t="str">
-        <f>Status!V7</f>
+        <f>Charakter!V7</f>
         <v>Artillerie</v>
       </c>
       <c r="D6">
-        <f>Status!Y7</f>
+        <f>Charakter!Y7</f>
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F6">
-        <f>Status!B25</f>
+        <f>Charakter!B25</f>
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H6">
-        <f>Status!E2</f>
+        <f>Charakter!E2</f>
         <v>0</v>
       </c>
       <c r="I6" t="str">
-        <f xml:space="preserve"> IF(Status!AD6 = 0, "", Status!AD6)</f>
+        <f xml:space="preserve"> IF(Charakter!AD6 = 0, "", Charakter!AD6)</f>
         <v/>
       </c>
     </row>
@@ -19004,33 +19004,33 @@
         <v>80</v>
       </c>
       <c r="B7">
-        <f>Status!S7 + Status!T7</f>
+        <f>Charakter!S7 + Charakter!T7</f>
         <v>10</v>
       </c>
       <c r="C7" t="str">
-        <f>Status!V8</f>
+        <f>Charakter!V8</f>
         <v>Fernwaffen</v>
       </c>
       <c r="D7">
-        <f>Status!Y8</f>
+        <f>Charakter!Y8</f>
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F7">
-        <f>Status!B26</f>
+        <f>Charakter!B26</f>
         <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H7">
-        <f>Status!E3</f>
+        <f>Charakter!E3</f>
         <v>0</v>
       </c>
       <c r="I7" t="str">
-        <f xml:space="preserve"> IF(Status!AD7 = 0, "", Status!AD7)</f>
+        <f xml:space="preserve"> IF(Charakter!AD7 = 0, "", Charakter!AD7)</f>
         <v/>
       </c>
     </row>
@@ -19039,29 +19039,29 @@
         <v>208</v>
       </c>
       <c r="B8">
-        <f>Status!S8 + Status!T8</f>
+        <f>Charakter!S8 + Charakter!T8</f>
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>Status!V9</f>
+        <f>Charakter!V9</f>
         <v>Werfen</v>
       </c>
       <c r="D8">
-        <f>Status!Y9</f>
+        <f>Charakter!Y9</f>
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F8">
-        <f>Status!B27</f>
+        <f>Charakter!B27</f>
         <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H8">
-        <f>Status!E4</f>
+        <f>Charakter!E4</f>
         <v>0</v>
       </c>
     </row>
@@ -19070,29 +19070,29 @@
         <v>62</v>
       </c>
       <c r="B9">
-        <f>Status!S9 + Status!T9</f>
+        <f>Charakter!S9 + Charakter!T9</f>
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>Status!V10</f>
+        <f>Charakter!V10</f>
         <v>Ausweichen</v>
       </c>
       <c r="D9">
-        <f>Status!Y10</f>
+        <f>Charakter!Y10</f>
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F9">
-        <f>Status!B28</f>
+        <f>Charakter!B28</f>
         <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H9">
-        <f>Status!E5</f>
+        <f>Charakter!E5</f>
         <v>0</v>
       </c>
     </row>
@@ -19101,29 +19101,29 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <f>Status!S10 + Status!T10</f>
+        <f>Charakter!S10 + Charakter!T10</f>
         <v>14</v>
       </c>
       <c r="C10" t="str">
-        <f>Status!V12</f>
+        <f>Charakter!V12</f>
         <v>Akrobatik</v>
       </c>
       <c r="D10">
-        <f>Status!Y12</f>
+        <f>Charakter!Y12</f>
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F10" t="str">
-        <f>Status!S1</f>
+        <f>Charakter!S1</f>
         <v>Mensch</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H10">
-        <f>Status!D12</f>
+        <f>Charakter!D12</f>
         <v>0</v>
       </c>
       <c r="J10" s="2"/>
@@ -19133,15 +19133,15 @@
         <v>72</v>
       </c>
       <c r="B11">
-        <f>Status!S11 + Status!T11</f>
+        <f>Charakter!S11 + Charakter!T11</f>
         <v>10</v>
       </c>
       <c r="C11" t="str">
-        <f>Status!V13</f>
+        <f>Charakter!V13</f>
         <v>Schleichen</v>
       </c>
       <c r="D11">
-        <f>Status!Y13</f>
+        <f>Charakter!Y13</f>
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -19154,7 +19154,7 @@
         <v>107</v>
       </c>
       <c r="H11">
-        <f>Status!D13</f>
+        <f>Charakter!D13</f>
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
@@ -19168,11 +19168,11 @@
         <v>0</v>
       </c>
       <c r="C12" t="str">
-        <f>Status!V14</f>
+        <f>Charakter!V14</f>
         <v>Fingerfertigkeit</v>
       </c>
       <c r="D12">
-        <f>Status!Y14</f>
+        <f>Charakter!Y14</f>
         <v>10</v>
       </c>
       <c r="E12" t="s">
@@ -19185,7 +19185,7 @@
         <v>108</v>
       </c>
       <c r="H12">
-        <f>Status!D14</f>
+        <f>Charakter!D14</f>
         <v>0</v>
       </c>
     </row>
@@ -19198,25 +19198,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="str">
-        <f>Status!V16</f>
+        <f>Charakter!V16</f>
         <v>Lügen</v>
       </c>
       <c r="D13">
-        <f>Status!Y16</f>
+        <f>Charakter!Y16</f>
         <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <f>Status!B2</f>
+        <f>Charakter!B2</f>
         <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>109</v>
       </c>
       <c r="H13">
-        <f>Status!D15</f>
+        <f>Charakter!D15</f>
         <v>0</v>
       </c>
     </row>
@@ -19225,29 +19225,29 @@
         <v>129</v>
       </c>
       <c r="B14">
-        <f>Status!AB21</f>
+        <f>Charakter!AB21</f>
         <v>40</v>
       </c>
       <c r="C14" t="str">
-        <f>Status!V17</f>
+        <f>Charakter!V17</f>
         <v>Überzeugen</v>
       </c>
       <c r="D14">
-        <f>Status!Y17</f>
+        <f>Charakter!Y17</f>
         <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>
       </c>
       <c r="F14">
-        <f>Status!B3</f>
+        <f>Charakter!B3</f>
         <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>110</v>
       </c>
       <c r="H14">
-        <f>Status!D16</f>
+        <f>Charakter!D16</f>
         <v>0</v>
       </c>
     </row>
@@ -19256,29 +19256,29 @@
         <v>63</v>
       </c>
       <c r="B15" t="str">
-        <f>Status!AB23</f>
+        <f>Charakter!AB23</f>
         <v>Leicht</v>
       </c>
       <c r="C15" t="str">
-        <f>Status!V18</f>
+        <f>Charakter!V18</f>
         <v>Bühnenkunst</v>
       </c>
       <c r="D15">
-        <f>Status!Y18</f>
+        <f>Charakter!Y18</f>
         <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
       </c>
       <c r="F15">
-        <f>Status!B4</f>
+        <f>Charakter!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
         <v>111</v>
       </c>
       <c r="H15">
-        <f>Status!E12</f>
+        <f>Charakter!E12</f>
         <v>0</v>
       </c>
     </row>
@@ -19287,29 +19287,29 @@
         <v>69</v>
       </c>
       <c r="B16">
-        <f>Status!S12  + Status!T12</f>
+        <f>Charakter!S12  + Charakter!T12</f>
         <v>10</v>
       </c>
       <c r="C16" t="str">
-        <f>Status!V19</f>
+        <f>Charakter!V19</f>
         <v>Feilschen</v>
       </c>
       <c r="D16">
-        <f>Status!Y19</f>
+        <f>Charakter!Y19</f>
         <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16">
-        <f>Status!B5</f>
+        <f>Charakter!B5</f>
         <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>113</v>
       </c>
       <c r="H16">
-        <f>Status!E13</f>
+        <f>Charakter!E13</f>
         <v>0</v>
       </c>
     </row>
@@ -19322,25 +19322,25 @@
         <v>10</v>
       </c>
       <c r="C17" t="str">
-        <f>Status!V20</f>
+        <f>Charakter!V20</f>
         <v>Einsicht</v>
       </c>
       <c r="D17">
-        <f>Status!Y20</f>
+        <f>Charakter!Y20</f>
         <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>123</v>
       </c>
       <c r="F17">
-        <f>Status!C2</f>
+        <f>Charakter!C2</f>
         <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>116</v>
       </c>
       <c r="H17">
-        <f>Status!E14</f>
+        <f>Charakter!E14</f>
         <v>0</v>
       </c>
     </row>
@@ -19353,25 +19353,25 @@
         <v>10</v>
       </c>
       <c r="C18" t="str">
-        <f>Status!V21</f>
+        <f>Charakter!V21</f>
         <v>Einschüchtern</v>
       </c>
       <c r="D18">
-        <f>Status!Y21</f>
+        <f>Charakter!Y21</f>
         <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>124</v>
       </c>
       <c r="F18">
-        <f>Status!C3</f>
+        <f>Charakter!C3</f>
         <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
       </c>
       <c r="H18">
-        <f>Status!E15</f>
+        <f>Charakter!E15</f>
         <v>0</v>
       </c>
     </row>
@@ -19384,25 +19384,25 @@
         <v>8</v>
       </c>
       <c r="C19" t="str">
-        <f>Status!V23</f>
+        <f>Charakter!V23</f>
         <v>Schwimmen</v>
       </c>
       <c r="D19">
-        <f>Status!Y23</f>
+        <f>Charakter!Y23</f>
         <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>125</v>
       </c>
       <c r="F19">
-        <f>Status!C4</f>
+        <f>Charakter!C4</f>
         <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>120</v>
       </c>
       <c r="H19">
-        <f>Status!E16</f>
+        <f>Charakter!E16</f>
         <v>0</v>
       </c>
     </row>
@@ -19411,29 +19411,29 @@
         <v>33</v>
       </c>
       <c r="B20" t="str">
-        <f>Status!H2</f>
+        <f>Charakter!H2</f>
         <v>Platzhalter</v>
       </c>
       <c r="C20" t="str">
-        <f>Status!V24</f>
+        <f>Charakter!V24</f>
         <v>Rennen</v>
       </c>
       <c r="D20">
-        <f>Status!Y24</f>
+        <f>Charakter!Y24</f>
         <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>126</v>
       </c>
       <c r="F20">
-        <f>Status!D4</f>
+        <f>Charakter!D4</f>
         <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>112</v>
       </c>
       <c r="H20" t="str">
-        <f>Status!B12</f>
+        <f>Charakter!B12</f>
         <v>Keine</v>
       </c>
     </row>
@@ -19442,29 +19442,29 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <f>Status!D21</f>
+        <f>Charakter!D21</f>
         <v>150</v>
       </c>
       <c r="C21" t="str">
-        <f>Status!V26</f>
+        <f>Charakter!V26</f>
         <v>Handwerk</v>
       </c>
       <c r="D21">
-        <f>Status!Y26</f>
+        <f>Charakter!Y26</f>
         <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>236</v>
       </c>
       <c r="F21" s="1">
-        <f>Status!C17</f>
+        <f>Charakter!C17</f>
         <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>114</v>
       </c>
       <c r="H21" t="str">
-        <f>Status!B13</f>
+        <f>Charakter!B13</f>
         <v>Keine</v>
       </c>
     </row>
@@ -19473,30 +19473,30 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <f>Status!D22</f>
+        <f>Charakter!D22</f>
         <v>5</v>
       </c>
       <c r="C22" t="str">
-        <f>Status!V27</f>
+        <f>Charakter!V27</f>
         <v>Alchemie</v>
       </c>
       <c r="D22">
-        <f>Status!Y27</f>
+        <f>Charakter!Y27</f>
         <v>10</v>
       </c>
       <c r="E22" t="str">
-        <f>Status!A12</f>
+        <f>Charakter!A12</f>
         <v>Helm</v>
       </c>
       <c r="F22" s="1">
-        <f>Status!C12</f>
+        <f>Charakter!C12</f>
         <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>115</v>
       </c>
       <c r="H22" t="str">
-        <f>Status!B14</f>
+        <f>Charakter!B14</f>
         <v>Keine</v>
       </c>
     </row>
@@ -19505,30 +19505,30 @@
         <v>84</v>
       </c>
       <c r="B23">
-        <f>Status!D23</f>
+        <f>Charakter!D23</f>
         <v>30</v>
       </c>
       <c r="C23" t="str">
-        <f>Status!V28</f>
+        <f>Charakter!V28</f>
         <v>Vehikel</v>
       </c>
       <c r="D23">
-        <f>Status!Y28</f>
+        <f>Charakter!Y28</f>
         <v>10</v>
       </c>
       <c r="E23" t="str">
-        <f>Status!A13</f>
+        <f>Charakter!A13</f>
         <v>Brust</v>
       </c>
       <c r="F23" s="1">
-        <f>Status!C13</f>
+        <f>Charakter!C13</f>
         <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>118</v>
       </c>
       <c r="H23" t="str">
-        <f>Status!B15</f>
+        <f>Charakter!B15</f>
         <v>Keine</v>
       </c>
     </row>
@@ -19537,30 +19537,30 @@
         <v>85</v>
       </c>
       <c r="B24">
-        <f>Status!D24</f>
+        <f>Charakter!D24</f>
         <v>105</v>
       </c>
       <c r="C24" t="str">
-        <f>Status!V30</f>
+        <f>Charakter!V30</f>
         <v>Tierhandhabung</v>
       </c>
       <c r="D24">
-        <f>Status!Y30</f>
+        <f>Charakter!Y30</f>
         <v>10</v>
       </c>
       <c r="E24" t="str">
-        <f>Status!A14</f>
+        <f>Charakter!A14</f>
         <v>Arme</v>
       </c>
       <c r="F24" s="1">
-        <f>Status!C14</f>
+        <f>Charakter!C14</f>
         <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>119</v>
       </c>
       <c r="H24" t="str">
-        <f>Status!B16</f>
+        <f>Charakter!B16</f>
         <v>Keine</v>
       </c>
     </row>
@@ -19569,23 +19569,23 @@
         <v>88</v>
       </c>
       <c r="B25">
-        <f>Status!D25</f>
+        <f>Charakter!D25</f>
         <v>30</v>
       </c>
       <c r="C25" t="str">
-        <f>Status!V31</f>
+        <f>Charakter!V31</f>
         <v>Überlebenskunst</v>
       </c>
       <c r="D25">
-        <f>Status!Y31</f>
+        <f>Charakter!Y31</f>
         <v>10</v>
       </c>
       <c r="E25" t="str">
-        <f>Status!A15</f>
+        <f>Charakter!A15</f>
         <v>Waffenrock</v>
       </c>
       <c r="F25" s="1">
-        <f>Status!C15</f>
+        <f>Charakter!C15</f>
         <v>0</v>
       </c>
     </row>
@@ -19594,23 +19594,23 @@
         <v>89</v>
       </c>
       <c r="B26">
-        <f>Status!D26</f>
+        <f>Charakter!D26</f>
         <v>30</v>
       </c>
       <c r="C26" t="str">
-        <f>Status!V32</f>
+        <f>Charakter!V32</f>
         <v>Wahrnehmung</v>
       </c>
       <c r="D26">
-        <f>Status!Y32</f>
+        <f>Charakter!Y32</f>
         <v>10</v>
       </c>
       <c r="E26" t="str">
-        <f>Status!A16</f>
+        <f>Charakter!A16</f>
         <v>Beine</v>
       </c>
       <c r="F26" s="1">
-        <f>Status!C16</f>
+        <f>Charakter!C16</f>
         <v>0</v>
       </c>
     </row>
@@ -19619,14 +19619,14 @@
         <v>86</v>
       </c>
       <c r="B27">
-        <f>Status!D27</f>
+        <f>Charakter!D27</f>
         <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>122</v>
       </c>
       <c r="F27">
-        <f>Status!R31</f>
+        <f>Charakter!R31</f>
         <v>0</v>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
         <v>87</v>
       </c>
       <c r="B28">
-        <f>Status!D28</f>
+        <f>Charakter!D28</f>
         <v>38</v>
       </c>
     </row>
@@ -19644,7 +19644,7 @@
         <v>132</v>
       </c>
       <c r="B29">
-        <f>Status!R20</f>
+        <f>Charakter!R20</f>
         <v>0</v>
       </c>
     </row>
